--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47945300</v>
+        <v>48364500</v>
       </c>
       <c r="E8" s="3">
-        <v>51135000</v>
+        <v>51582000</v>
       </c>
       <c r="F8" s="3">
-        <v>52298800</v>
+        <v>52756100</v>
       </c>
       <c r="G8" s="3">
-        <v>54691400</v>
+        <v>55169600</v>
       </c>
       <c r="H8" s="3">
-        <v>53126700</v>
+        <v>53591200</v>
       </c>
       <c r="I8" s="3">
-        <v>42103900</v>
+        <v>42472000</v>
       </c>
       <c r="J8" s="3">
-        <v>41769000</v>
+        <v>42134200</v>
       </c>
       <c r="K8" s="3">
         <v>43556800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33115700</v>
+        <v>33405200</v>
       </c>
       <c r="E9" s="3">
-        <v>35982600</v>
+        <v>36297200</v>
       </c>
       <c r="F9" s="3">
-        <v>37964400</v>
+        <v>38296400</v>
       </c>
       <c r="G9" s="3">
-        <v>40310900</v>
+        <v>40663300</v>
       </c>
       <c r="H9" s="3">
-        <v>38510200</v>
+        <v>38846900</v>
       </c>
       <c r="I9" s="3">
-        <v>30680300</v>
+        <v>30948600</v>
       </c>
       <c r="J9" s="3">
-        <v>29170600</v>
+        <v>29425600</v>
       </c>
       <c r="K9" s="3">
         <v>30519200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14829600</v>
+        <v>14959200</v>
       </c>
       <c r="E10" s="3">
-        <v>15152400</v>
+        <v>15284900</v>
       </c>
       <c r="F10" s="3">
-        <v>14334400</v>
+        <v>14459700</v>
       </c>
       <c r="G10" s="3">
-        <v>14380500</v>
+        <v>14506200</v>
       </c>
       <c r="H10" s="3">
-        <v>14616600</v>
+        <v>14744400</v>
       </c>
       <c r="I10" s="3">
-        <v>11423600</v>
+        <v>11523500</v>
       </c>
       <c r="J10" s="3">
-        <v>12598500</v>
+        <v>12708600</v>
       </c>
       <c r="K10" s="3">
         <v>13037500</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3870500</v>
+        <v>3904300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-1400000</v>
+        <v>-1412200</v>
       </c>
       <c r="G14" s="3">
-        <v>624800</v>
+        <v>630200</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>7246800</v>
+        <v>7310200</v>
       </c>
       <c r="J14" s="3">
-        <v>8454600</v>
+        <v>8528500</v>
       </c>
       <c r="K14" s="3">
         <v>4544100</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48989500</v>
+        <v>49417800</v>
       </c>
       <c r="E17" s="3">
-        <v>46414700</v>
+        <v>46820500</v>
       </c>
       <c r="F17" s="3">
-        <v>48208800</v>
+        <v>48630300</v>
       </c>
       <c r="G17" s="3">
-        <v>53242000</v>
+        <v>53707500</v>
       </c>
       <c r="H17" s="3">
-        <v>50850600</v>
+        <v>51295200</v>
       </c>
       <c r="I17" s="3">
-        <v>46400400</v>
+        <v>46806100</v>
       </c>
       <c r="J17" s="3">
-        <v>44186800</v>
+        <v>44573100</v>
       </c>
       <c r="K17" s="3">
         <v>37253400</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1044200</v>
+        <v>-1053300</v>
       </c>
       <c r="E18" s="3">
-        <v>4720300</v>
+        <v>4761600</v>
       </c>
       <c r="F18" s="3">
-        <v>4090100</v>
+        <v>4125800</v>
       </c>
       <c r="G18" s="3">
-        <v>1449400</v>
+        <v>1462000</v>
       </c>
       <c r="H18" s="3">
-        <v>2276200</v>
+        <v>2296100</v>
       </c>
       <c r="I18" s="3">
-        <v>-4296500</v>
+        <v>-4334000</v>
       </c>
       <c r="J18" s="3">
-        <v>-2417800</v>
+        <v>-2438900</v>
       </c>
       <c r="K18" s="3">
         <v>6303300</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-51600</v>
+        <v>-52100</v>
       </c>
       <c r="E20" s="3">
-        <v>740100</v>
+        <v>746500</v>
       </c>
       <c r="F20" s="3">
-        <v>283300</v>
+        <v>285800</v>
       </c>
       <c r="G20" s="3">
-        <v>-608300</v>
+        <v>-613600</v>
       </c>
       <c r="H20" s="3">
-        <v>1286900</v>
+        <v>1298100</v>
       </c>
       <c r="I20" s="3">
-        <v>-253600</v>
+        <v>-255900</v>
       </c>
       <c r="J20" s="3">
-        <v>2119100</v>
+        <v>2137700</v>
       </c>
       <c r="K20" s="3">
         <v>2065600</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9675800</v>
+        <v>9672100</v>
       </c>
       <c r="E21" s="3">
-        <v>16907100</v>
+        <v>16961100</v>
       </c>
       <c r="F21" s="3">
-        <v>16564600</v>
+        <v>16609500</v>
       </c>
       <c r="G21" s="3">
-        <v>13704300</v>
+        <v>13718600</v>
       </c>
       <c r="H21" s="3">
-        <v>15778500</v>
+        <v>15816300</v>
       </c>
       <c r="I21" s="3">
-        <v>3763600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>7026400</v>
+        <v>3728400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>15928000</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1773300</v>
+        <v>1788800</v>
       </c>
       <c r="E22" s="3">
-        <v>1202300</v>
+        <v>1212800</v>
       </c>
       <c r="F22" s="3">
-        <v>1307700</v>
+        <v>1319200</v>
       </c>
       <c r="G22" s="3">
-        <v>1049700</v>
+        <v>1058900</v>
       </c>
       <c r="H22" s="3">
-        <v>1659100</v>
+        <v>1673600</v>
       </c>
       <c r="I22" s="3">
-        <v>1236300</v>
+        <v>1247200</v>
       </c>
       <c r="J22" s="3">
-        <v>3525700</v>
+        <v>3556500</v>
       </c>
       <c r="K22" s="3">
         <v>3719400</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2869100</v>
+        <v>-2894200</v>
       </c>
       <c r="E23" s="3">
-        <v>4258000</v>
+        <v>4295300</v>
       </c>
       <c r="F23" s="3">
-        <v>3065600</v>
+        <v>3092400</v>
       </c>
       <c r="G23" s="3">
-        <v>-208600</v>
+        <v>-210400</v>
       </c>
       <c r="H23" s="3">
-        <v>1903900</v>
+        <v>1920600</v>
       </c>
       <c r="I23" s="3">
-        <v>-5786500</v>
+        <v>-5837100</v>
       </c>
       <c r="J23" s="3">
-        <v>-3824300</v>
+        <v>-3857800</v>
       </c>
       <c r="K23" s="3">
         <v>4649500</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1642600</v>
+        <v>1657000</v>
       </c>
       <c r="E24" s="3">
-        <v>-965100</v>
+        <v>-973600</v>
       </c>
       <c r="F24" s="3">
-        <v>5230900</v>
+        <v>5276600</v>
       </c>
       <c r="G24" s="3">
-        <v>5420800</v>
+        <v>5468200</v>
       </c>
       <c r="H24" s="3">
-        <v>-6666000</v>
+        <v>-6724200</v>
       </c>
       <c r="I24" s="3">
-        <v>-18207000</v>
+        <v>-18366200</v>
       </c>
       <c r="J24" s="3">
-        <v>522600</v>
+        <v>527200</v>
       </c>
       <c r="K24" s="3">
         <v>791000</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4511700</v>
+        <v>-4551100</v>
       </c>
       <c r="E26" s="3">
-        <v>5223200</v>
+        <v>5268900</v>
       </c>
       <c r="F26" s="3">
-        <v>-2165300</v>
+        <v>-2184200</v>
       </c>
       <c r="G26" s="3">
-        <v>-5629400</v>
+        <v>-5678700</v>
       </c>
       <c r="H26" s="3">
-        <v>8569900</v>
+        <v>8644800</v>
       </c>
       <c r="I26" s="3">
-        <v>12420600</v>
+        <v>12529200</v>
       </c>
       <c r="J26" s="3">
-        <v>-4347000</v>
+        <v>-4385000</v>
       </c>
       <c r="K26" s="3">
         <v>3858500</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4924500</v>
+        <v>-4967600</v>
       </c>
       <c r="E27" s="3">
-        <v>4840000</v>
+        <v>4882300</v>
       </c>
       <c r="F27" s="3">
-        <v>-2404600</v>
+        <v>-2425600</v>
       </c>
       <c r="G27" s="3">
-        <v>-5940200</v>
+        <v>-5992100</v>
       </c>
       <c r="H27" s="3">
-        <v>8352500</v>
+        <v>8425500</v>
       </c>
       <c r="I27" s="3">
-        <v>12238300</v>
+        <v>12345300</v>
       </c>
       <c r="J27" s="3">
-        <v>-4614900</v>
+        <v>-4655200</v>
       </c>
       <c r="K27" s="3">
         <v>3806900</v>
@@ -1293,25 +1293,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3881400</v>
+        <v>-3915400</v>
       </c>
       <c r="E29" s="3">
-        <v>-2162000</v>
+        <v>-2180900</v>
       </c>
       <c r="F29" s="3">
-        <v>-4509500</v>
+        <v>-4548900</v>
       </c>
       <c r="G29" s="3">
         <v>5500</v>
       </c>
       <c r="H29" s="3">
-        <v>-297600</v>
+        <v>-300200</v>
       </c>
       <c r="I29" s="3">
-        <v>52822600</v>
+        <v>53284400</v>
       </c>
       <c r="J29" s="3">
-        <v>5068400</v>
+        <v>5112700</v>
       </c>
       <c r="K29" s="3">
         <v>3988700</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>51600</v>
+        <v>52100</v>
       </c>
       <c r="E32" s="3">
-        <v>-740100</v>
+        <v>-746500</v>
       </c>
       <c r="F32" s="3">
-        <v>-283300</v>
+        <v>-285800</v>
       </c>
       <c r="G32" s="3">
-        <v>608300</v>
+        <v>613600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1286900</v>
+        <v>-1298100</v>
       </c>
       <c r="I32" s="3">
-        <v>253600</v>
+        <v>255900</v>
       </c>
       <c r="J32" s="3">
-        <v>-2119100</v>
+        <v>-2137700</v>
       </c>
       <c r="K32" s="3">
         <v>-2065600</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8806000</v>
+        <v>-8883000</v>
       </c>
       <c r="E33" s="3">
-        <v>2678000</v>
+        <v>2701400</v>
       </c>
       <c r="F33" s="3">
-        <v>-6914100</v>
+        <v>-6974600</v>
       </c>
       <c r="G33" s="3">
-        <v>-5934700</v>
+        <v>-5986600</v>
       </c>
       <c r="H33" s="3">
-        <v>8054900</v>
+        <v>8125400</v>
       </c>
       <c r="I33" s="3">
-        <v>65060900</v>
+        <v>65629700</v>
       </c>
       <c r="J33" s="3">
-        <v>453500</v>
+        <v>457400</v>
       </c>
       <c r="K33" s="3">
         <v>7795600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8806000</v>
+        <v>-8883000</v>
       </c>
       <c r="E35" s="3">
-        <v>2678000</v>
+        <v>2701400</v>
       </c>
       <c r="F35" s="3">
-        <v>-6914100</v>
+        <v>-6974600</v>
       </c>
       <c r="G35" s="3">
-        <v>-5934700</v>
+        <v>-5986600</v>
       </c>
       <c r="H35" s="3">
-        <v>8054900</v>
+        <v>8125400</v>
       </c>
       <c r="I35" s="3">
-        <v>65060900</v>
+        <v>65629700</v>
       </c>
       <c r="J35" s="3">
-        <v>453500</v>
+        <v>457400</v>
       </c>
       <c r="K35" s="3">
         <v>7795600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12562200</v>
+        <v>12697200</v>
       </c>
       <c r="E41" s="3">
-        <v>5132100</v>
+        <v>5187200</v>
       </c>
       <c r="F41" s="3">
-        <v>9700800</v>
+        <v>9805100</v>
       </c>
       <c r="G41" s="3">
-        <v>24627000</v>
+        <v>24891700</v>
       </c>
       <c r="H41" s="3">
-        <v>15703600</v>
+        <v>15872400</v>
       </c>
       <c r="I41" s="3">
-        <v>16777400</v>
+        <v>16957700</v>
       </c>
       <c r="J41" s="3">
-        <v>8269000</v>
+        <v>8357900</v>
       </c>
       <c r="K41" s="3">
         <v>8008800</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16698400</v>
+        <v>16877800</v>
       </c>
       <c r="E42" s="3">
-        <v>9656900</v>
+        <v>9760700</v>
       </c>
       <c r="F42" s="3">
-        <v>6719800</v>
+        <v>6792000</v>
       </c>
       <c r="G42" s="3">
-        <v>9609700</v>
+        <v>9713000</v>
       </c>
       <c r="H42" s="3">
-        <v>8162500</v>
+        <v>8250300</v>
       </c>
       <c r="I42" s="3">
-        <v>10328900</v>
+        <v>10439900</v>
       </c>
       <c r="J42" s="3">
-        <v>8875100</v>
+        <v>8970500</v>
       </c>
       <c r="K42" s="3">
         <v>1484400</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12113100</v>
+        <v>12243300</v>
       </c>
       <c r="E43" s="3">
-        <v>9606400</v>
+        <v>9709600</v>
       </c>
       <c r="F43" s="3">
-        <v>9008000</v>
+        <v>9104800</v>
       </c>
       <c r="G43" s="3">
-        <v>18376100</v>
+        <v>18573600</v>
       </c>
       <c r="H43" s="3">
-        <v>18603400</v>
+        <v>18803300</v>
       </c>
       <c r="I43" s="3">
-        <v>10209200</v>
+        <v>10318900</v>
       </c>
       <c r="J43" s="3">
-        <v>5339600</v>
+        <v>5397000</v>
       </c>
       <c r="K43" s="3">
         <v>8098500</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>784000</v>
+        <v>792400</v>
       </c>
       <c r="E44" s="3">
-        <v>637900</v>
+        <v>644800</v>
       </c>
       <c r="F44" s="3">
-        <v>632400</v>
+        <v>639200</v>
       </c>
       <c r="G44" s="3">
-        <v>1572300</v>
+        <v>1589200</v>
       </c>
       <c r="H44" s="3">
-        <v>1261600</v>
+        <v>1275200</v>
       </c>
       <c r="I44" s="3">
-        <v>968400</v>
+        <v>978800</v>
       </c>
       <c r="J44" s="3">
-        <v>881700</v>
+        <v>891200</v>
       </c>
       <c r="K44" s="3">
         <v>545300</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1561400</v>
+        <v>1578100</v>
       </c>
       <c r="E45" s="3">
-        <v>1462500</v>
+        <v>1478300</v>
       </c>
       <c r="F45" s="3">
-        <v>1984100</v>
+        <v>2005400</v>
       </c>
       <c r="G45" s="3">
-        <v>6589100</v>
+        <v>6659900</v>
       </c>
       <c r="H45" s="3">
-        <v>3344500</v>
+        <v>3380500</v>
       </c>
       <c r="I45" s="3">
-        <v>472100</v>
+        <v>477200</v>
       </c>
       <c r="J45" s="3">
-        <v>3900100</v>
+        <v>3942000</v>
       </c>
       <c r="K45" s="3">
         <v>4330900</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43719100</v>
+        <v>44188900</v>
       </c>
       <c r="E46" s="3">
-        <v>26495800</v>
+        <v>26780600</v>
       </c>
       <c r="F46" s="3">
-        <v>28045100</v>
+        <v>28346500</v>
       </c>
       <c r="G46" s="3">
-        <v>35067900</v>
+        <v>35444800</v>
       </c>
       <c r="H46" s="3">
-        <v>30147800</v>
+        <v>30471800</v>
       </c>
       <c r="I46" s="3">
-        <v>27144800</v>
+        <v>27436500</v>
       </c>
       <c r="J46" s="3">
-        <v>23770600</v>
+        <v>24026100</v>
       </c>
       <c r="K46" s="3">
         <v>22467800</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10971200</v>
+        <v>11089100</v>
       </c>
       <c r="E47" s="3">
-        <v>10725300</v>
+        <v>10840500</v>
       </c>
       <c r="F47" s="3">
-        <v>12260300</v>
+        <v>12392000</v>
       </c>
       <c r="G47" s="3">
-        <v>11971500</v>
+        <v>12100100</v>
       </c>
       <c r="H47" s="3">
-        <v>13810600</v>
+        <v>13959100</v>
       </c>
       <c r="I47" s="3">
-        <v>7616800</v>
+        <v>7698700</v>
       </c>
       <c r="J47" s="3">
-        <v>61876700</v>
+        <v>62541700</v>
       </c>
       <c r="K47" s="3">
         <v>44185100</v>
@@ -1776,22 +1776,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30120300</v>
+        <v>30444000</v>
       </c>
       <c r="E48" s="3">
-        <v>31100900</v>
+        <v>31435100</v>
       </c>
       <c r="F48" s="3">
-        <v>33164000</v>
+        <v>33520400</v>
       </c>
       <c r="G48" s="3">
-        <v>77990900</v>
+        <v>78829100</v>
       </c>
       <c r="H48" s="3">
-        <v>69623100</v>
+        <v>70371300</v>
       </c>
       <c r="I48" s="3">
-        <v>50180800</v>
+        <v>50720100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45023500</v>
+        <v>45507300</v>
       </c>
       <c r="E49" s="3">
-        <v>47496200</v>
+        <v>48006600</v>
       </c>
       <c r="F49" s="3">
-        <v>50749600</v>
+        <v>51295000</v>
       </c>
       <c r="G49" s="3">
-        <v>128607000</v>
+        <v>129989000</v>
       </c>
       <c r="H49" s="3">
-        <v>113097000</v>
+        <v>114313000</v>
       </c>
       <c r="I49" s="3">
-        <v>102527000</v>
+        <v>103629000</v>
       </c>
       <c r="J49" s="3">
-        <v>105997000</v>
+        <v>107136000</v>
       </c>
       <c r="K49" s="3">
         <v>66774100</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27028400</v>
+        <v>27318800</v>
       </c>
       <c r="E52" s="3">
-        <v>44062700</v>
+        <v>44536300</v>
       </c>
       <c r="F52" s="3">
-        <v>45624100</v>
+        <v>46114400</v>
       </c>
       <c r="G52" s="3">
-        <v>35341300</v>
+        <v>35721100</v>
       </c>
       <c r="H52" s="3">
-        <v>36481100</v>
+        <v>36873100</v>
       </c>
       <c r="I52" s="3">
-        <v>22664900</v>
+        <v>22908500</v>
       </c>
       <c r="J52" s="3">
-        <v>3184200</v>
+        <v>3218400</v>
       </c>
       <c r="K52" s="3">
         <v>2245100</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>156863000</v>
+        <v>158548000</v>
       </c>
       <c r="E54" s="3">
-        <v>159881000</v>
+        <v>161599000</v>
       </c>
       <c r="F54" s="3">
-        <v>169843000</v>
+        <v>171668000</v>
       </c>
       <c r="G54" s="3">
-        <v>185680000</v>
+        <v>187675000</v>
       </c>
       <c r="H54" s="3">
-        <v>186198000</v>
+        <v>188199000</v>
       </c>
       <c r="I54" s="3">
-        <v>133780000</v>
+        <v>135218000</v>
       </c>
       <c r="J54" s="3">
-        <v>151880000</v>
+        <v>153512000</v>
       </c>
       <c r="K54" s="3">
         <v>156603000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7210600</v>
+        <v>7288100</v>
       </c>
       <c r="E57" s="3">
-        <v>6820800</v>
+        <v>6894100</v>
       </c>
       <c r="F57" s="3">
-        <v>6836100</v>
+        <v>6909600</v>
       </c>
       <c r="G57" s="3">
-        <v>8220700</v>
+        <v>8309100</v>
       </c>
       <c r="H57" s="3">
-        <v>28246100</v>
+        <v>28549600</v>
       </c>
       <c r="I57" s="3">
-        <v>5227600</v>
+        <v>5283800</v>
       </c>
       <c r="J57" s="3">
-        <v>8963000</v>
+        <v>9059300</v>
       </c>
       <c r="K57" s="3">
         <v>5098300</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4688500</v>
+        <v>4738800</v>
       </c>
       <c r="E58" s="3">
-        <v>11365400</v>
+        <v>11487500</v>
       </c>
       <c r="F58" s="3">
-        <v>13232000</v>
+        <v>13374200</v>
       </c>
       <c r="G58" s="3">
-        <v>30047900</v>
+        <v>30370800</v>
       </c>
       <c r="H58" s="3">
-        <v>28792900</v>
+        <v>29102300</v>
       </c>
       <c r="I58" s="3">
-        <v>4670900</v>
+        <v>4721100</v>
       </c>
       <c r="J58" s="3">
-        <v>13951200</v>
+        <v>14101100</v>
       </c>
       <c r="K58" s="3">
         <v>5886000</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16125200</v>
+        <v>16298500</v>
       </c>
       <c r="E59" s="3">
-        <v>24662200</v>
+        <v>24927200</v>
       </c>
       <c r="F59" s="3">
-        <v>26475000</v>
+        <v>26759500</v>
       </c>
       <c r="G59" s="3">
-        <v>20660000</v>
+        <v>20882000</v>
       </c>
       <c r="H59" s="3">
-        <v>17087100</v>
+        <v>17270700</v>
       </c>
       <c r="I59" s="3">
-        <v>21713000</v>
+        <v>21946300</v>
       </c>
       <c r="J59" s="3">
-        <v>17438400</v>
+        <v>17625800</v>
       </c>
       <c r="K59" s="3">
         <v>15971500</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28024300</v>
+        <v>28325400</v>
       </c>
       <c r="E60" s="3">
-        <v>42848400</v>
+        <v>43308800</v>
       </c>
       <c r="F60" s="3">
-        <v>46543100</v>
+        <v>47043300</v>
       </c>
       <c r="G60" s="3">
-        <v>46374000</v>
+        <v>46872400</v>
       </c>
       <c r="H60" s="3">
-        <v>43896900</v>
+        <v>44368700</v>
       </c>
       <c r="I60" s="3">
-        <v>27492800</v>
+        <v>27788300</v>
       </c>
       <c r="J60" s="3">
-        <v>31149200</v>
+        <v>31483900</v>
       </c>
       <c r="K60" s="3">
         <v>26955800</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53456100</v>
+        <v>54030600</v>
       </c>
       <c r="E61" s="3">
-        <v>35827700</v>
+        <v>36212800</v>
       </c>
       <c r="F61" s="3">
-        <v>37571400</v>
+        <v>37975100</v>
       </c>
       <c r="G61" s="3">
-        <v>40397600</v>
+        <v>40831800</v>
       </c>
       <c r="H61" s="3">
-        <v>34080800</v>
+        <v>34447100</v>
       </c>
       <c r="I61" s="3">
-        <v>23435700</v>
+        <v>23687600</v>
       </c>
       <c r="J61" s="3">
-        <v>29811800</v>
+        <v>30132200</v>
       </c>
       <c r="K61" s="3">
         <v>31821900</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5719500</v>
+        <v>5780900</v>
       </c>
       <c r="E62" s="3">
-        <v>5874300</v>
+        <v>5937400</v>
       </c>
       <c r="F62" s="3">
-        <v>4785100</v>
+        <v>4836500</v>
       </c>
       <c r="G62" s="3">
-        <v>7513600</v>
+        <v>7594400</v>
       </c>
       <c r="H62" s="3">
-        <v>6862500</v>
+        <v>6936200</v>
       </c>
       <c r="I62" s="3">
-        <v>5513100</v>
+        <v>5572300</v>
       </c>
       <c r="J62" s="3">
-        <v>12967400</v>
+        <v>13106700</v>
       </c>
       <c r="K62" s="3">
         <v>10083300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88547100</v>
+        <v>89498700</v>
       </c>
       <c r="E66" s="3">
-        <v>85612200</v>
+        <v>86532200</v>
       </c>
       <c r="F66" s="3">
-        <v>90567400</v>
+        <v>91540700</v>
       </c>
       <c r="G66" s="3">
-        <v>94188600</v>
+        <v>95200900</v>
       </c>
       <c r="H66" s="3">
-        <v>85719800</v>
+        <v>86641000</v>
       </c>
       <c r="I66" s="3">
-        <v>56039700</v>
+        <v>56642000</v>
       </c>
       <c r="J66" s="3">
-        <v>73398000</v>
+        <v>74186800</v>
       </c>
       <c r="K66" s="3">
         <v>70282600</v>
@@ -2460,10 +2460,10 @@
         <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>-94298400</v>
+        <v>-95311800</v>
       </c>
       <c r="I72" s="3">
-        <v>-56467900</v>
+        <v>-57074800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68315400</v>
+        <v>69049500</v>
       </c>
       <c r="E76" s="3">
-        <v>74268700</v>
+        <v>75066900</v>
       </c>
       <c r="F76" s="3">
-        <v>79275600</v>
+        <v>80127600</v>
       </c>
       <c r="G76" s="3">
-        <v>91490900</v>
+        <v>92474100</v>
       </c>
       <c r="H76" s="3">
-        <v>100478000</v>
+        <v>101558000</v>
       </c>
       <c r="I76" s="3">
-        <v>77740600</v>
+        <v>78576100</v>
       </c>
       <c r="J76" s="3">
-        <v>78481700</v>
+        <v>79325200</v>
       </c>
       <c r="K76" s="3">
         <v>86320300</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8806000</v>
+        <v>-8883000</v>
       </c>
       <c r="E81" s="3">
-        <v>2678000</v>
+        <v>2701400</v>
       </c>
       <c r="F81" s="3">
-        <v>-6914100</v>
+        <v>-6974600</v>
       </c>
       <c r="G81" s="3">
-        <v>-5934700</v>
+        <v>-5986600</v>
       </c>
       <c r="H81" s="3">
-        <v>8054900</v>
+        <v>8125400</v>
       </c>
       <c r="I81" s="3">
-        <v>65060900</v>
+        <v>65629700</v>
       </c>
       <c r="J81" s="3">
-        <v>453500</v>
+        <v>457400</v>
       </c>
       <c r="K81" s="3">
         <v>7795600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10754900</v>
+        <v>10848900</v>
       </c>
       <c r="E83" s="3">
-        <v>11429100</v>
+        <v>11529000</v>
       </c>
       <c r="F83" s="3">
-        <v>12172400</v>
+        <v>12278900</v>
       </c>
       <c r="G83" s="3">
-        <v>12843300</v>
+        <v>12955600</v>
       </c>
       <c r="H83" s="3">
-        <v>12196600</v>
+        <v>12303200</v>
       </c>
       <c r="I83" s="3">
-        <v>8300900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7313800</v>
+        <v>8373500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>7540900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14252000</v>
+        <v>14376600</v>
       </c>
       <c r="E89" s="3">
-        <v>14932800</v>
+        <v>15063400</v>
       </c>
       <c r="F89" s="3">
-        <v>15616900</v>
+        <v>15753400</v>
       </c>
       <c r="G89" s="3">
-        <v>15740900</v>
+        <v>15878600</v>
       </c>
       <c r="H89" s="3">
-        <v>13909500</v>
+        <v>14031100</v>
       </c>
       <c r="I89" s="3">
-        <v>6837200</v>
+        <v>6897000</v>
       </c>
       <c r="J89" s="3">
-        <v>9688800</v>
+        <v>9773500</v>
       </c>
       <c r="K89" s="3">
         <v>11553100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5548200</v>
+        <v>-5596700</v>
       </c>
       <c r="E91" s="3">
-        <v>-5398900</v>
+        <v>-5446100</v>
       </c>
       <c r="F91" s="3">
-        <v>-6900900</v>
+        <v>-6961300</v>
       </c>
       <c r="G91" s="3">
-        <v>-9075000</v>
+        <v>-9154300</v>
       </c>
       <c r="H91" s="3">
-        <v>-8041800</v>
+        <v>-8112100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4826800</v>
+        <v>-4869000</v>
       </c>
       <c r="J91" s="3">
-        <v>-4345900</v>
+        <v>-4383900</v>
       </c>
       <c r="K91" s="3">
         <v>-4567600</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10120300</v>
+        <v>-10208700</v>
       </c>
       <c r="E94" s="3">
-        <v>-10805400</v>
+        <v>-10899900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9248500</v>
+        <v>-9329300</v>
       </c>
       <c r="G94" s="3">
-        <v>-15230400</v>
+        <v>-15363500</v>
       </c>
       <c r="H94" s="3">
-        <v>-14530900</v>
+        <v>-14658000</v>
       </c>
       <c r="I94" s="3">
-        <v>33755800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-6309100</v>
+        <v>34050900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>7383800</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4462300</v>
+        <v>-4501300</v>
       </c>
       <c r="E96" s="3">
-        <v>-4304200</v>
+        <v>-4341800</v>
       </c>
       <c r="F96" s="3">
-        <v>-4078000</v>
+        <v>-4113600</v>
       </c>
       <c r="G96" s="3">
-        <v>-4598400</v>
+        <v>-4638600</v>
       </c>
       <c r="H96" s="3">
-        <v>-4126300</v>
+        <v>-4162400</v>
       </c>
       <c r="I96" s="3">
-        <v>-5573400</v>
+        <v>-5622200</v>
       </c>
       <c r="J96" s="3">
-        <v>-5277000</v>
+        <v>-5323100</v>
       </c>
       <c r="K96" s="3">
         <v>-7453400</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4871800</v>
+        <v>4914400</v>
       </c>
       <c r="E100" s="3">
-        <v>-7942900</v>
+        <v>-8012400</v>
       </c>
       <c r="F100" s="3">
-        <v>-9987400</v>
+        <v>-10074700</v>
       </c>
       <c r="G100" s="3">
-        <v>4482000</v>
+        <v>4521200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3471900</v>
+        <v>-3502200</v>
       </c>
       <c r="I100" s="3">
-        <v>-37605400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-3011800</v>
+        <v>-37934200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-17580500</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E101" s="3">
-        <v>-475400</v>
+        <v>-479600</v>
       </c>
       <c r="F101" s="3">
-        <v>-343700</v>
+        <v>-346700</v>
       </c>
       <c r="G101" s="3">
-        <v>-1238500</v>
+        <v>-1249400</v>
       </c>
       <c r="H101" s="3">
-        <v>1070600</v>
+        <v>1079900</v>
       </c>
       <c r="I101" s="3">
-        <v>-126300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>186700</v>
+        <v>-127400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-388200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9015700</v>
+        <v>9094500</v>
       </c>
       <c r="E102" s="3">
-        <v>-4291000</v>
+        <v>-4328500</v>
       </c>
       <c r="F102" s="3">
-        <v>-3962700</v>
+        <v>-3997300</v>
       </c>
       <c r="G102" s="3">
-        <v>3754100</v>
+        <v>3786900</v>
       </c>
       <c r="H102" s="3">
-        <v>-3022800</v>
+        <v>-3049200</v>
       </c>
       <c r="I102" s="3">
-        <v>2861400</v>
+        <v>2886400</v>
       </c>
       <c r="J102" s="3">
-        <v>554500</v>
+        <v>559300</v>
       </c>
       <c r="K102" s="3">
         <v>968300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48364500</v>
+        <v>53199700</v>
       </c>
       <c r="E8" s="3">
-        <v>51582000</v>
+        <v>51652500</v>
       </c>
       <c r="F8" s="3">
-        <v>52756100</v>
+        <v>55088800</v>
       </c>
       <c r="G8" s="3">
-        <v>55169600</v>
+        <v>56342700</v>
       </c>
       <c r="H8" s="3">
-        <v>53591200</v>
+        <v>58920200</v>
       </c>
       <c r="I8" s="3">
-        <v>42472000</v>
+        <v>57234600</v>
       </c>
       <c r="J8" s="3">
+        <v>45359500</v>
+      </c>
+      <c r="K8" s="3">
         <v>42134200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43556800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33405200</v>
+        <v>36293700</v>
       </c>
       <c r="E9" s="3">
-        <v>36297200</v>
+        <v>35676300</v>
       </c>
       <c r="F9" s="3">
-        <v>38296400</v>
+        <v>38764800</v>
       </c>
       <c r="G9" s="3">
-        <v>40663300</v>
+        <v>40900000</v>
       </c>
       <c r="H9" s="3">
-        <v>38846900</v>
+        <v>43427800</v>
       </c>
       <c r="I9" s="3">
-        <v>30948600</v>
+        <v>41487900</v>
       </c>
       <c r="J9" s="3">
+        <v>33052600</v>
+      </c>
+      <c r="K9" s="3">
         <v>29425600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30519200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14959200</v>
+        <v>16906000</v>
       </c>
       <c r="E10" s="3">
-        <v>15284900</v>
+        <v>15976200</v>
       </c>
       <c r="F10" s="3">
-        <v>14459700</v>
+        <v>16324000</v>
       </c>
       <c r="G10" s="3">
-        <v>14506200</v>
+        <v>15442800</v>
       </c>
       <c r="H10" s="3">
-        <v>14744400</v>
+        <v>15492400</v>
       </c>
       <c r="I10" s="3">
-        <v>11523500</v>
+        <v>15746800</v>
       </c>
       <c r="J10" s="3">
+        <v>12306900</v>
+      </c>
+      <c r="K10" s="3">
         <v>12708600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13037500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3904300</v>
+        <v>1993200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>4169700</v>
       </c>
       <c r="F14" s="3">
-        <v>-1412200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>630200</v>
+        <v>-1508200</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>673100</v>
       </c>
       <c r="I14" s="3">
-        <v>7310200</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>7807100</v>
+      </c>
+      <c r="K14" s="3">
         <v>8528500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4544100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49417800</v>
+        <v>48351000</v>
       </c>
       <c r="E17" s="3">
-        <v>46820500</v>
+        <v>52777400</v>
       </c>
       <c r="F17" s="3">
-        <v>48630300</v>
+        <v>50003500</v>
       </c>
       <c r="G17" s="3">
-        <v>53707500</v>
+        <v>51936400</v>
       </c>
       <c r="H17" s="3">
-        <v>51295200</v>
+        <v>57358800</v>
       </c>
       <c r="I17" s="3">
-        <v>46806100</v>
+        <v>54782500</v>
       </c>
       <c r="J17" s="3">
+        <v>49988200</v>
+      </c>
+      <c r="K17" s="3">
         <v>44573100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37253400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1053300</v>
+        <v>4848700</v>
       </c>
       <c r="E18" s="3">
-        <v>4761600</v>
+        <v>-1124900</v>
       </c>
       <c r="F18" s="3">
-        <v>4125800</v>
+        <v>5085300</v>
       </c>
       <c r="G18" s="3">
-        <v>1462000</v>
+        <v>4406300</v>
       </c>
       <c r="H18" s="3">
-        <v>2296100</v>
+        <v>1561400</v>
       </c>
       <c r="I18" s="3">
-        <v>-4334000</v>
+        <v>2452200</v>
       </c>
       <c r="J18" s="3">
+        <v>-4628700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2438900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6303300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-52100</v>
+        <v>-636400</v>
       </c>
       <c r="E20" s="3">
-        <v>746500</v>
+        <v>-55600</v>
       </c>
       <c r="F20" s="3">
-        <v>285800</v>
+        <v>797300</v>
       </c>
       <c r="G20" s="3">
-        <v>-613600</v>
+        <v>305200</v>
       </c>
       <c r="H20" s="3">
-        <v>1298100</v>
+        <v>-655300</v>
       </c>
       <c r="I20" s="3">
-        <v>-255900</v>
+        <v>1386400</v>
       </c>
       <c r="J20" s="3">
+        <v>-273200</v>
+      </c>
+      <c r="K20" s="3">
         <v>2137700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2065600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9672100</v>
+        <v>20984500</v>
       </c>
       <c r="E21" s="3">
-        <v>16961100</v>
+        <v>10410000</v>
       </c>
       <c r="F21" s="3">
-        <v>16609500</v>
+        <v>18199600</v>
       </c>
       <c r="G21" s="3">
-        <v>13718600</v>
+        <v>17829700</v>
       </c>
       <c r="H21" s="3">
-        <v>15816300</v>
+        <v>14747300</v>
       </c>
       <c r="I21" s="3">
-        <v>3728400</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>16982700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4043900</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15928000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1788800</v>
+        <v>3271900</v>
       </c>
       <c r="E22" s="3">
-        <v>1212800</v>
+        <v>1910400</v>
       </c>
       <c r="F22" s="3">
-        <v>1319200</v>
+        <v>1295300</v>
       </c>
       <c r="G22" s="3">
-        <v>1058900</v>
+        <v>1408800</v>
       </c>
       <c r="H22" s="3">
-        <v>1673600</v>
+        <v>1130900</v>
       </c>
       <c r="I22" s="3">
-        <v>1247200</v>
+        <v>1787400</v>
       </c>
       <c r="J22" s="3">
+        <v>1331900</v>
+      </c>
+      <c r="K22" s="3">
         <v>3556500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3719400</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2894200</v>
+        <v>940400</v>
       </c>
       <c r="E23" s="3">
-        <v>4295300</v>
+        <v>-3090900</v>
       </c>
       <c r="F23" s="3">
-        <v>3092400</v>
+        <v>4587300</v>
       </c>
       <c r="G23" s="3">
-        <v>-210400</v>
+        <v>3302700</v>
       </c>
       <c r="H23" s="3">
-        <v>1920600</v>
+        <v>-224800</v>
       </c>
       <c r="I23" s="3">
-        <v>-5837100</v>
+        <v>2051100</v>
       </c>
       <c r="J23" s="3">
+        <v>-6233900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3857800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4649500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1657000</v>
+        <v>1478600</v>
       </c>
       <c r="E24" s="3">
-        <v>-973600</v>
+        <v>1769600</v>
       </c>
       <c r="F24" s="3">
-        <v>5276600</v>
+        <v>-1039800</v>
       </c>
       <c r="G24" s="3">
-        <v>5468200</v>
+        <v>5635300</v>
       </c>
       <c r="H24" s="3">
-        <v>-6724200</v>
+        <v>5840000</v>
       </c>
       <c r="I24" s="3">
-        <v>-18366200</v>
+        <v>-7181400</v>
       </c>
       <c r="J24" s="3">
+        <v>-19614800</v>
+      </c>
+      <c r="K24" s="3">
         <v>527200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>791000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4551100</v>
+        <v>-538200</v>
       </c>
       <c r="E26" s="3">
-        <v>5268900</v>
+        <v>-4860500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2184200</v>
+        <v>5627100</v>
       </c>
       <c r="G26" s="3">
-        <v>-5678700</v>
+        <v>-2332700</v>
       </c>
       <c r="H26" s="3">
-        <v>8644800</v>
+        <v>-6064700</v>
       </c>
       <c r="I26" s="3">
-        <v>12529200</v>
+        <v>9232500</v>
       </c>
       <c r="J26" s="3">
+        <v>13381000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3858500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4967600</v>
+        <v>-1088300</v>
       </c>
       <c r="E27" s="3">
-        <v>4882300</v>
+        <v>-5305300</v>
       </c>
       <c r="F27" s="3">
-        <v>-2425600</v>
+        <v>5214200</v>
       </c>
       <c r="G27" s="3">
-        <v>-5992100</v>
+        <v>-2590600</v>
       </c>
       <c r="H27" s="3">
-        <v>8425500</v>
+        <v>-6399500</v>
       </c>
       <c r="I27" s="3">
-        <v>12345300</v>
+        <v>8998300</v>
       </c>
       <c r="J27" s="3">
+        <v>13184600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4655200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3806900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3915400</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-2180900</v>
+        <v>-4181600</v>
       </c>
       <c r="F29" s="3">
-        <v>-4548900</v>
+        <v>-2329100</v>
       </c>
       <c r="G29" s="3">
-        <v>5500</v>
+        <v>-4858200</v>
       </c>
       <c r="H29" s="3">
-        <v>-300200</v>
+        <v>5900</v>
       </c>
       <c r="I29" s="3">
-        <v>53284400</v>
+        <v>-320600</v>
       </c>
       <c r="J29" s="3">
+        <v>56907000</v>
+      </c>
+      <c r="K29" s="3">
         <v>5112700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>3988700</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>52100</v>
+        <v>636400</v>
       </c>
       <c r="E32" s="3">
-        <v>-746500</v>
+        <v>55600</v>
       </c>
       <c r="F32" s="3">
-        <v>-285800</v>
+        <v>-797300</v>
       </c>
       <c r="G32" s="3">
-        <v>613600</v>
+        <v>-305200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1298100</v>
+        <v>655300</v>
       </c>
       <c r="I32" s="3">
-        <v>255900</v>
+        <v>-1386400</v>
       </c>
       <c r="J32" s="3">
+        <v>273200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2137700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2065600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8883000</v>
+        <v>-1088300</v>
       </c>
       <c r="E33" s="3">
-        <v>2701400</v>
+        <v>-9486900</v>
       </c>
       <c r="F33" s="3">
-        <v>-6974600</v>
+        <v>2885100</v>
       </c>
       <c r="G33" s="3">
-        <v>-5986600</v>
+        <v>-7448700</v>
       </c>
       <c r="H33" s="3">
-        <v>8125400</v>
+        <v>-6393600</v>
       </c>
       <c r="I33" s="3">
-        <v>65629700</v>
+        <v>8677800</v>
       </c>
       <c r="J33" s="3">
+        <v>70091600</v>
+      </c>
+      <c r="K33" s="3">
         <v>457400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7795600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8883000</v>
+        <v>-1088300</v>
       </c>
       <c r="E35" s="3">
-        <v>2701400</v>
+        <v>-9486900</v>
       </c>
       <c r="F35" s="3">
-        <v>-6974600</v>
+        <v>2885100</v>
       </c>
       <c r="G35" s="3">
-        <v>-5986600</v>
+        <v>-7448700</v>
       </c>
       <c r="H35" s="3">
-        <v>8125400</v>
+        <v>-6393600</v>
       </c>
       <c r="I35" s="3">
-        <v>65629700</v>
+        <v>8677800</v>
       </c>
       <c r="J35" s="3">
+        <v>70091600</v>
+      </c>
+      <c r="K35" s="3">
         <v>457400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7795600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12697200</v>
+        <v>13108900</v>
       </c>
       <c r="E41" s="3">
-        <v>5187200</v>
+        <v>13533600</v>
       </c>
       <c r="F41" s="3">
-        <v>9805100</v>
+        <v>5528900</v>
       </c>
       <c r="G41" s="3">
-        <v>24891700</v>
+        <v>10450900</v>
       </c>
       <c r="H41" s="3">
-        <v>15872400</v>
+        <v>26531300</v>
       </c>
       <c r="I41" s="3">
-        <v>16957700</v>
+        <v>16917800</v>
       </c>
       <c r="J41" s="3">
+        <v>18074700</v>
+      </c>
+      <c r="K41" s="3">
         <v>8357900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8008800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16877800</v>
+        <v>10990300</v>
       </c>
       <c r="E42" s="3">
-        <v>9760700</v>
+        <v>17989500</v>
       </c>
       <c r="F42" s="3">
-        <v>6792000</v>
+        <v>10403600</v>
       </c>
       <c r="G42" s="3">
-        <v>9713000</v>
+        <v>7239300</v>
       </c>
       <c r="H42" s="3">
-        <v>8250300</v>
+        <v>10352700</v>
       </c>
       <c r="I42" s="3">
-        <v>10439900</v>
+        <v>8793700</v>
       </c>
       <c r="J42" s="3">
+        <v>11127500</v>
+      </c>
+      <c r="K42" s="3">
         <v>8970500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1484400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12243300</v>
+        <v>11917700</v>
       </c>
       <c r="E43" s="3">
-        <v>9709600</v>
+        <v>13049800</v>
       </c>
       <c r="F43" s="3">
-        <v>9104800</v>
+        <v>10349200</v>
       </c>
       <c r="G43" s="3">
-        <v>18573600</v>
+        <v>9704500</v>
       </c>
       <c r="H43" s="3">
-        <v>18803300</v>
+        <v>19797000</v>
       </c>
       <c r="I43" s="3">
-        <v>10318900</v>
+        <v>20041900</v>
       </c>
       <c r="J43" s="3">
+        <v>10998600</v>
+      </c>
+      <c r="K43" s="3">
         <v>5397000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8098500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>792400</v>
+        <v>692000</v>
       </c>
       <c r="E44" s="3">
-        <v>644800</v>
+        <v>844600</v>
       </c>
       <c r="F44" s="3">
-        <v>639200</v>
+        <v>687300</v>
       </c>
       <c r="G44" s="3">
-        <v>1589200</v>
+        <v>681400</v>
       </c>
       <c r="H44" s="3">
-        <v>1275200</v>
+        <v>1693900</v>
       </c>
       <c r="I44" s="3">
-        <v>978800</v>
+        <v>1359200</v>
       </c>
       <c r="J44" s="3">
+        <v>1043300</v>
+      </c>
+      <c r="K44" s="3">
         <v>891200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>545300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1578100</v>
+        <v>1905700</v>
       </c>
       <c r="E45" s="3">
-        <v>1478300</v>
+        <v>1682100</v>
       </c>
       <c r="F45" s="3">
-        <v>2005400</v>
+        <v>1575600</v>
       </c>
       <c r="G45" s="3">
-        <v>6659900</v>
+        <v>2137500</v>
       </c>
       <c r="H45" s="3">
-        <v>3380500</v>
+        <v>7098600</v>
       </c>
       <c r="I45" s="3">
-        <v>477200</v>
+        <v>3603100</v>
       </c>
       <c r="J45" s="3">
+        <v>508600</v>
+      </c>
+      <c r="K45" s="3">
         <v>3942000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4330900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44188900</v>
+        <v>38614600</v>
       </c>
       <c r="E46" s="3">
-        <v>26780600</v>
+        <v>47099500</v>
       </c>
       <c r="F46" s="3">
-        <v>28346500</v>
+        <v>28544600</v>
       </c>
       <c r="G46" s="3">
-        <v>35444800</v>
+        <v>30213600</v>
       </c>
       <c r="H46" s="3">
-        <v>30471800</v>
+        <v>37779500</v>
       </c>
       <c r="I46" s="3">
-        <v>27436500</v>
+        <v>32478900</v>
       </c>
       <c r="J46" s="3">
+        <v>29243700</v>
+      </c>
+      <c r="K46" s="3">
         <v>24026100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22467800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11089100</v>
+        <v>20110500</v>
       </c>
       <c r="E47" s="3">
-        <v>10840500</v>
+        <v>11819500</v>
       </c>
       <c r="F47" s="3">
-        <v>12392000</v>
+        <v>11554600</v>
       </c>
       <c r="G47" s="3">
-        <v>12100100</v>
+        <v>13208300</v>
       </c>
       <c r="H47" s="3">
-        <v>13959100</v>
+        <v>12897200</v>
       </c>
       <c r="I47" s="3">
-        <v>7698700</v>
+        <v>14878500</v>
       </c>
       <c r="J47" s="3">
+        <v>8205800</v>
+      </c>
+      <c r="K47" s="3">
         <v>62541700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>44185100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30444000</v>
+        <v>46366100</v>
       </c>
       <c r="E48" s="3">
-        <v>31435100</v>
+        <v>32449300</v>
       </c>
       <c r="F48" s="3">
-        <v>33520400</v>
+        <v>33505600</v>
       </c>
       <c r="G48" s="3">
-        <v>78829100</v>
+        <v>35728300</v>
       </c>
       <c r="H48" s="3">
-        <v>70371300</v>
+        <v>84021400</v>
       </c>
       <c r="I48" s="3">
-        <v>50720100</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>75006500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>54060900</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20930700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45507300</v>
+        <v>63312400</v>
       </c>
       <c r="E49" s="3">
-        <v>48006600</v>
+        <v>48504800</v>
       </c>
       <c r="F49" s="3">
-        <v>51295000</v>
+        <v>51168700</v>
       </c>
       <c r="G49" s="3">
-        <v>129989000</v>
+        <v>54673600</v>
       </c>
       <c r="H49" s="3">
-        <v>114313000</v>
+        <v>138551000</v>
       </c>
       <c r="I49" s="3">
-        <v>103629000</v>
+        <v>121842000</v>
       </c>
       <c r="J49" s="3">
+        <v>110455000</v>
+      </c>
+      <c r="K49" s="3">
         <v>107136000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66774100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27318800</v>
+        <v>30522400</v>
       </c>
       <c r="E52" s="3">
-        <v>44536300</v>
+        <v>29118300</v>
       </c>
       <c r="F52" s="3">
-        <v>46114400</v>
+        <v>47469800</v>
       </c>
       <c r="G52" s="3">
-        <v>35721100</v>
+        <v>49151900</v>
       </c>
       <c r="H52" s="3">
-        <v>36873100</v>
+        <v>38074000</v>
       </c>
       <c r="I52" s="3">
-        <v>22908500</v>
+        <v>39301900</v>
       </c>
       <c r="J52" s="3">
+        <v>24417400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3218400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2245100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>158548000</v>
+        <v>198926000</v>
       </c>
       <c r="E54" s="3">
-        <v>161599000</v>
+        <v>168992000</v>
       </c>
       <c r="F54" s="3">
-        <v>171668000</v>
+        <v>172243000</v>
       </c>
       <c r="G54" s="3">
-        <v>187675000</v>
+        <v>182976000</v>
       </c>
       <c r="H54" s="3">
-        <v>188199000</v>
+        <v>200037000</v>
       </c>
       <c r="I54" s="3">
-        <v>135218000</v>
+        <v>200595000</v>
       </c>
       <c r="J54" s="3">
+        <v>144125000</v>
+      </c>
+      <c r="K54" s="3">
         <v>153512000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>156603000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7288100</v>
+        <v>7866300</v>
       </c>
       <c r="E57" s="3">
-        <v>6894100</v>
+        <v>7768100</v>
       </c>
       <c r="F57" s="3">
-        <v>6909600</v>
+        <v>7348200</v>
       </c>
       <c r="G57" s="3">
-        <v>8309100</v>
+        <v>7364700</v>
       </c>
       <c r="H57" s="3">
-        <v>28549600</v>
+        <v>8856400</v>
       </c>
       <c r="I57" s="3">
-        <v>5283800</v>
+        <v>30430100</v>
       </c>
       <c r="J57" s="3">
+        <v>5631800</v>
+      </c>
+      <c r="K57" s="3">
         <v>9059300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5098300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4738800</v>
+        <v>13989000</v>
       </c>
       <c r="E58" s="3">
-        <v>11487500</v>
+        <v>5051000</v>
       </c>
       <c r="F58" s="3">
-        <v>13374200</v>
+        <v>12244200</v>
       </c>
       <c r="G58" s="3">
-        <v>30370800</v>
+        <v>14255100</v>
       </c>
       <c r="H58" s="3">
-        <v>29102300</v>
+        <v>32371200</v>
       </c>
       <c r="I58" s="3">
-        <v>4721100</v>
+        <v>31019200</v>
       </c>
       <c r="J58" s="3">
+        <v>5032100</v>
+      </c>
+      <c r="K58" s="3">
         <v>14101100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5886000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16298500</v>
+        <v>16536900</v>
       </c>
       <c r="E59" s="3">
-        <v>24927200</v>
+        <v>17372100</v>
       </c>
       <c r="F59" s="3">
-        <v>26759500</v>
+        <v>26569100</v>
       </c>
       <c r="G59" s="3">
-        <v>20882000</v>
+        <v>28522100</v>
       </c>
       <c r="H59" s="3">
-        <v>17270700</v>
+        <v>22257400</v>
       </c>
       <c r="I59" s="3">
-        <v>21946300</v>
+        <v>18408300</v>
       </c>
       <c r="J59" s="3">
+        <v>23391800</v>
+      </c>
+      <c r="K59" s="3">
         <v>17625800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15971500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28325400</v>
+        <v>38392200</v>
       </c>
       <c r="E60" s="3">
-        <v>43308800</v>
+        <v>30191200</v>
       </c>
       <c r="F60" s="3">
-        <v>47043300</v>
+        <v>46161500</v>
       </c>
       <c r="G60" s="3">
-        <v>46872400</v>
+        <v>50141900</v>
       </c>
       <c r="H60" s="3">
-        <v>44368700</v>
+        <v>49959800</v>
       </c>
       <c r="I60" s="3">
-        <v>27788300</v>
+        <v>47291200</v>
       </c>
       <c r="J60" s="3">
+        <v>29618600</v>
+      </c>
+      <c r="K60" s="3">
         <v>31483900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26955800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54030600</v>
+        <v>74394900</v>
       </c>
       <c r="E61" s="3">
-        <v>36212800</v>
+        <v>57589500</v>
       </c>
       <c r="F61" s="3">
-        <v>37975100</v>
+        <v>38598000</v>
       </c>
       <c r="G61" s="3">
-        <v>40831800</v>
+        <v>40476500</v>
       </c>
       <c r="H61" s="3">
-        <v>34447100</v>
+        <v>43521300</v>
       </c>
       <c r="I61" s="3">
-        <v>23687600</v>
+        <v>36716000</v>
       </c>
       <c r="J61" s="3">
+        <v>25247800</v>
+      </c>
+      <c r="K61" s="3">
         <v>30132200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31821900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5780900</v>
+        <v>10816400</v>
       </c>
       <c r="E62" s="3">
-        <v>5937400</v>
+        <v>6161700</v>
       </c>
       <c r="F62" s="3">
-        <v>4836500</v>
+        <v>6328500</v>
       </c>
       <c r="G62" s="3">
-        <v>7594400</v>
+        <v>5155100</v>
       </c>
       <c r="H62" s="3">
-        <v>6936200</v>
+        <v>8094600</v>
       </c>
       <c r="I62" s="3">
-        <v>5572300</v>
+        <v>7393100</v>
       </c>
       <c r="J62" s="3">
+        <v>5939300</v>
+      </c>
+      <c r="K62" s="3">
         <v>13106700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10083300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89498700</v>
+        <v>126284000</v>
       </c>
       <c r="E66" s="3">
-        <v>86532200</v>
+        <v>95393800</v>
       </c>
       <c r="F66" s="3">
-        <v>91540700</v>
+        <v>92231900</v>
       </c>
       <c r="G66" s="3">
-        <v>95200900</v>
+        <v>97570300</v>
       </c>
       <c r="H66" s="3">
-        <v>86641000</v>
+        <v>101472000</v>
       </c>
       <c r="I66" s="3">
-        <v>56642000</v>
+        <v>92347800</v>
       </c>
       <c r="J66" s="3">
+        <v>60372900</v>
+      </c>
+      <c r="K66" s="3">
         <v>74186800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70282600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,9 +2611,12 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2459,21 +2632,24 @@
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
-        <v>-95311800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-57074800</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-60834200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-94206800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69049500</v>
+        <v>72641900</v>
       </c>
       <c r="E76" s="3">
-        <v>75066900</v>
+        <v>73597700</v>
       </c>
       <c r="F76" s="3">
-        <v>80127600</v>
+        <v>80011400</v>
       </c>
       <c r="G76" s="3">
-        <v>92474100</v>
+        <v>85405400</v>
       </c>
       <c r="H76" s="3">
-        <v>101558000</v>
+        <v>98565100</v>
       </c>
       <c r="I76" s="3">
-        <v>78576100</v>
+        <v>108247000</v>
       </c>
       <c r="J76" s="3">
+        <v>83751700</v>
+      </c>
+      <c r="K76" s="3">
         <v>79325200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>86320300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8883000</v>
+        <v>-1088300</v>
       </c>
       <c r="E81" s="3">
-        <v>2701400</v>
+        <v>-9486900</v>
       </c>
       <c r="F81" s="3">
-        <v>-6974600</v>
+        <v>2885100</v>
       </c>
       <c r="G81" s="3">
-        <v>-5986600</v>
+        <v>-7448700</v>
       </c>
       <c r="H81" s="3">
-        <v>8125400</v>
+        <v>-6393600</v>
       </c>
       <c r="I81" s="3">
-        <v>65629700</v>
+        <v>8677800</v>
       </c>
       <c r="J81" s="3">
+        <v>70091600</v>
+      </c>
+      <c r="K81" s="3">
         <v>457400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7795600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10848900</v>
+        <v>16766400</v>
       </c>
       <c r="E83" s="3">
-        <v>11529000</v>
+        <v>11586500</v>
       </c>
       <c r="F83" s="3">
-        <v>12278900</v>
+        <v>12312800</v>
       </c>
       <c r="G83" s="3">
-        <v>12955600</v>
+        <v>13113600</v>
       </c>
       <c r="H83" s="3">
-        <v>12303200</v>
+        <v>13836400</v>
       </c>
       <c r="I83" s="3">
-        <v>8373500</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>13139700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8942700</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7540900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14376600</v>
+        <v>20557600</v>
       </c>
       <c r="E89" s="3">
-        <v>15063400</v>
+        <v>15354000</v>
       </c>
       <c r="F89" s="3">
-        <v>15753400</v>
+        <v>16087400</v>
       </c>
       <c r="G89" s="3">
-        <v>15878600</v>
+        <v>16824400</v>
       </c>
       <c r="H89" s="3">
-        <v>14031100</v>
+        <v>16958100</v>
       </c>
       <c r="I89" s="3">
-        <v>6897000</v>
+        <v>14985000</v>
       </c>
       <c r="J89" s="3">
+        <v>7365900</v>
+      </c>
+      <c r="K89" s="3">
         <v>9773500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11553100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5596700</v>
+        <v>-6129800</v>
       </c>
       <c r="E91" s="3">
-        <v>-5446100</v>
+        <v>-5977200</v>
       </c>
       <c r="F91" s="3">
-        <v>-6961300</v>
+        <v>-5816300</v>
       </c>
       <c r="G91" s="3">
-        <v>-9154300</v>
+        <v>-7434500</v>
       </c>
       <c r="H91" s="3">
-        <v>-8112100</v>
+        <v>-9776700</v>
       </c>
       <c r="I91" s="3">
-        <v>-4869000</v>
+        <v>-8663600</v>
       </c>
       <c r="J91" s="3">
+        <v>-5200000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4383900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4567600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10208700</v>
+        <v>-9567300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10899900</v>
+        <v>-10902800</v>
       </c>
       <c r="F94" s="3">
-        <v>-9329300</v>
+        <v>-11640900</v>
       </c>
       <c r="G94" s="3">
-        <v>-15363500</v>
+        <v>-9963600</v>
       </c>
       <c r="H94" s="3">
-        <v>-14658000</v>
+        <v>-16408000</v>
       </c>
       <c r="I94" s="3">
-        <v>34050900</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-15654500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>36365900</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7383800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4501300</v>
+        <v>-2715900</v>
       </c>
       <c r="E96" s="3">
-        <v>-4341800</v>
+        <v>-4807300</v>
       </c>
       <c r="F96" s="3">
-        <v>-4113600</v>
+        <v>-4637000</v>
       </c>
       <c r="G96" s="3">
-        <v>-4638600</v>
+        <v>-4393300</v>
       </c>
       <c r="H96" s="3">
-        <v>-4162400</v>
+        <v>-4954000</v>
       </c>
       <c r="I96" s="3">
-        <v>-5622200</v>
+        <v>-4445300</v>
       </c>
       <c r="J96" s="3">
+        <v>-6004400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5323100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7453400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4914400</v>
+        <v>-11062500</v>
       </c>
       <c r="E100" s="3">
-        <v>-8012400</v>
+        <v>5248500</v>
       </c>
       <c r="F100" s="3">
-        <v>-10074700</v>
+        <v>-8557100</v>
       </c>
       <c r="G100" s="3">
-        <v>4521200</v>
+        <v>-10759700</v>
       </c>
       <c r="H100" s="3">
-        <v>-3502200</v>
+        <v>4828600</v>
       </c>
       <c r="I100" s="3">
-        <v>-37934200</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-3740300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-40513100</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17580500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12200</v>
+        <v>-302800</v>
       </c>
       <c r="E101" s="3">
-        <v>-479600</v>
+        <v>13000</v>
       </c>
       <c r="F101" s="3">
-        <v>-346700</v>
+        <v>-512200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1249400</v>
+        <v>-370200</v>
       </c>
       <c r="H101" s="3">
-        <v>1079900</v>
+        <v>-1334300</v>
       </c>
       <c r="I101" s="3">
-        <v>-127400</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>1153300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-388200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9094500</v>
+        <v>-375000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4328500</v>
+        <v>9712800</v>
       </c>
       <c r="F102" s="3">
-        <v>-3997300</v>
+        <v>-4622800</v>
       </c>
       <c r="G102" s="3">
-        <v>3786900</v>
+        <v>-4269100</v>
       </c>
       <c r="H102" s="3">
-        <v>-3049200</v>
+        <v>4044300</v>
       </c>
       <c r="I102" s="3">
-        <v>2886400</v>
+        <v>-3256500</v>
       </c>
       <c r="J102" s="3">
+        <v>3082600</v>
+      </c>
+      <c r="K102" s="3">
         <v>559300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>968300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>53199700</v>
+        <v>53797900</v>
       </c>
       <c r="E8" s="3">
-        <v>51652500</v>
+        <v>52233300</v>
       </c>
       <c r="F8" s="3">
-        <v>55088800</v>
+        <v>55708200</v>
       </c>
       <c r="G8" s="3">
-        <v>56342700</v>
+        <v>56976200</v>
       </c>
       <c r="H8" s="3">
-        <v>58920200</v>
+        <v>59582700</v>
       </c>
       <c r="I8" s="3">
-        <v>57234600</v>
+        <v>57878100</v>
       </c>
       <c r="J8" s="3">
-        <v>45359500</v>
+        <v>45869500</v>
       </c>
       <c r="K8" s="3">
         <v>42134200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36293700</v>
+        <v>36701800</v>
       </c>
       <c r="E9" s="3">
-        <v>35676300</v>
+        <v>36077400</v>
       </c>
       <c r="F9" s="3">
-        <v>38764800</v>
+        <v>39200700</v>
       </c>
       <c r="G9" s="3">
-        <v>40900000</v>
+        <v>41359800</v>
       </c>
       <c r="H9" s="3">
-        <v>43427800</v>
+        <v>43916100</v>
       </c>
       <c r="I9" s="3">
-        <v>41487900</v>
+        <v>41954300</v>
       </c>
       <c r="J9" s="3">
-        <v>33052600</v>
+        <v>33424200</v>
       </c>
       <c r="K9" s="3">
         <v>29425600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16906000</v>
+        <v>17096100</v>
       </c>
       <c r="E10" s="3">
-        <v>15976200</v>
+        <v>16155900</v>
       </c>
       <c r="F10" s="3">
-        <v>16324000</v>
+        <v>16507600</v>
       </c>
       <c r="G10" s="3">
-        <v>15442800</v>
+        <v>15616400</v>
       </c>
       <c r="H10" s="3">
-        <v>15492400</v>
+        <v>15666600</v>
       </c>
       <c r="I10" s="3">
-        <v>15746800</v>
+        <v>15923800</v>
       </c>
       <c r="J10" s="3">
-        <v>12306900</v>
+        <v>12445300</v>
       </c>
       <c r="K10" s="3">
         <v>12708600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1993200</v>
+        <v>2015600</v>
       </c>
       <c r="E14" s="3">
-        <v>4169700</v>
+        <v>4216600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-1508200</v>
+        <v>-1525200</v>
       </c>
       <c r="H14" s="3">
-        <v>673100</v>
+        <v>680600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>7807100</v>
+        <v>7894900</v>
       </c>
       <c r="K14" s="3">
         <v>8528500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48351000</v>
+        <v>48894700</v>
       </c>
       <c r="E17" s="3">
-        <v>52777400</v>
+        <v>53370900</v>
       </c>
       <c r="F17" s="3">
-        <v>50003500</v>
+        <v>50565800</v>
       </c>
       <c r="G17" s="3">
-        <v>51936400</v>
+        <v>52520400</v>
       </c>
       <c r="H17" s="3">
-        <v>57358800</v>
+        <v>58003700</v>
       </c>
       <c r="I17" s="3">
-        <v>54782500</v>
+        <v>55398400</v>
       </c>
       <c r="J17" s="3">
-        <v>49988200</v>
+        <v>50550200</v>
       </c>
       <c r="K17" s="3">
         <v>44573100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4848700</v>
+        <v>4903200</v>
       </c>
       <c r="E18" s="3">
-        <v>-1124900</v>
+        <v>-1137600</v>
       </c>
       <c r="F18" s="3">
-        <v>5085300</v>
+        <v>5142500</v>
       </c>
       <c r="G18" s="3">
-        <v>4406300</v>
+        <v>4455800</v>
       </c>
       <c r="H18" s="3">
-        <v>1561400</v>
+        <v>1579000</v>
       </c>
       <c r="I18" s="3">
-        <v>2452200</v>
+        <v>2479700</v>
       </c>
       <c r="J18" s="3">
-        <v>-4628700</v>
+        <v>-4680700</v>
       </c>
       <c r="K18" s="3">
         <v>-2438900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-636400</v>
+        <v>-643600</v>
       </c>
       <c r="E20" s="3">
-        <v>-55600</v>
+        <v>-56200</v>
       </c>
       <c r="F20" s="3">
-        <v>797300</v>
+        <v>806200</v>
       </c>
       <c r="G20" s="3">
-        <v>305200</v>
+        <v>308600</v>
       </c>
       <c r="H20" s="3">
-        <v>-655300</v>
+        <v>-662700</v>
       </c>
       <c r="I20" s="3">
-        <v>1386400</v>
+        <v>1401900</v>
       </c>
       <c r="J20" s="3">
-        <v>-273200</v>
+        <v>-276300</v>
       </c>
       <c r="K20" s="3">
         <v>2137700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>20984500</v>
+        <v>21145200</v>
       </c>
       <c r="E21" s="3">
-        <v>10410000</v>
+        <v>10475000</v>
       </c>
       <c r="F21" s="3">
-        <v>18199600</v>
+        <v>18348900</v>
       </c>
       <c r="G21" s="3">
-        <v>17829700</v>
+        <v>17971200</v>
       </c>
       <c r="H21" s="3">
-        <v>14747300</v>
+        <v>14850900</v>
       </c>
       <c r="I21" s="3">
-        <v>16982700</v>
+        <v>17114600</v>
       </c>
       <c r="J21" s="3">
-        <v>4043900</v>
+        <v>4049200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3271900</v>
+        <v>3308700</v>
       </c>
       <c r="E22" s="3">
-        <v>1910400</v>
+        <v>1931900</v>
       </c>
       <c r="F22" s="3">
-        <v>1295300</v>
+        <v>1309800</v>
       </c>
       <c r="G22" s="3">
-        <v>1408800</v>
+        <v>1424700</v>
       </c>
       <c r="H22" s="3">
-        <v>1130900</v>
+        <v>1143600</v>
       </c>
       <c r="I22" s="3">
-        <v>1787400</v>
+        <v>1807500</v>
       </c>
       <c r="J22" s="3">
-        <v>1331900</v>
+        <v>1346900</v>
       </c>
       <c r="K22" s="3">
         <v>3556500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>940400</v>
+        <v>951000</v>
       </c>
       <c r="E23" s="3">
-        <v>-3090900</v>
+        <v>-3125700</v>
       </c>
       <c r="F23" s="3">
-        <v>4587300</v>
+        <v>4638900</v>
       </c>
       <c r="G23" s="3">
-        <v>3302700</v>
+        <v>3339800</v>
       </c>
       <c r="H23" s="3">
-        <v>-224800</v>
+        <v>-227300</v>
       </c>
       <c r="I23" s="3">
-        <v>2051100</v>
+        <v>2074200</v>
       </c>
       <c r="J23" s="3">
-        <v>-6233900</v>
+        <v>-6304000</v>
       </c>
       <c r="K23" s="3">
         <v>-3857800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1478600</v>
+        <v>1495300</v>
       </c>
       <c r="E24" s="3">
-        <v>1769600</v>
+        <v>1789500</v>
       </c>
       <c r="F24" s="3">
-        <v>-1039800</v>
+        <v>-1051500</v>
       </c>
       <c r="G24" s="3">
-        <v>5635300</v>
+        <v>5698700</v>
       </c>
       <c r="H24" s="3">
-        <v>5840000</v>
+        <v>5905600</v>
       </c>
       <c r="I24" s="3">
-        <v>-7181400</v>
+        <v>-7262100</v>
       </c>
       <c r="J24" s="3">
-        <v>-19614800</v>
+        <v>-19835400</v>
       </c>
       <c r="K24" s="3">
         <v>527200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-538200</v>
+        <v>-544300</v>
       </c>
       <c r="E26" s="3">
-        <v>-4860500</v>
+        <v>-4915200</v>
       </c>
       <c r="F26" s="3">
-        <v>5627100</v>
+        <v>5690300</v>
       </c>
       <c r="G26" s="3">
-        <v>-2332700</v>
+        <v>-2358900</v>
       </c>
       <c r="H26" s="3">
-        <v>-6064700</v>
+        <v>-6132900</v>
       </c>
       <c r="I26" s="3">
-        <v>9232500</v>
+        <v>9336300</v>
       </c>
       <c r="J26" s="3">
-        <v>13381000</v>
+        <v>13531400</v>
       </c>
       <c r="K26" s="3">
         <v>-4385000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1088300</v>
+        <v>-1100500</v>
       </c>
       <c r="E27" s="3">
-        <v>-5305300</v>
+        <v>-5365000</v>
       </c>
       <c r="F27" s="3">
-        <v>5214200</v>
+        <v>5272800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2590600</v>
+        <v>-2619700</v>
       </c>
       <c r="H27" s="3">
-        <v>-6399500</v>
+        <v>-6471400</v>
       </c>
       <c r="I27" s="3">
-        <v>8998300</v>
+        <v>9099500</v>
       </c>
       <c r="J27" s="3">
-        <v>13184600</v>
+        <v>13332800</v>
       </c>
       <c r="K27" s="3">
         <v>-4655200</v>
@@ -1356,22 +1356,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-4181600</v>
+        <v>-4228600</v>
       </c>
       <c r="F29" s="3">
-        <v>-2329100</v>
+        <v>-2355300</v>
       </c>
       <c r="G29" s="3">
-        <v>-4858200</v>
+        <v>-4912800</v>
       </c>
       <c r="H29" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I29" s="3">
-        <v>-320600</v>
+        <v>-324200</v>
       </c>
       <c r="J29" s="3">
-        <v>56907000</v>
+        <v>57546800</v>
       </c>
       <c r="K29" s="3">
         <v>5112700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>636400</v>
+        <v>643600</v>
       </c>
       <c r="E32" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="F32" s="3">
-        <v>-797300</v>
+        <v>-806200</v>
       </c>
       <c r="G32" s="3">
-        <v>-305200</v>
+        <v>-308600</v>
       </c>
       <c r="H32" s="3">
-        <v>655300</v>
+        <v>662700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1386400</v>
+        <v>-1401900</v>
       </c>
       <c r="J32" s="3">
-        <v>273200</v>
+        <v>276300</v>
       </c>
       <c r="K32" s="3">
         <v>-2137700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1088300</v>
+        <v>-1100500</v>
       </c>
       <c r="E33" s="3">
-        <v>-9486900</v>
+        <v>-9593500</v>
       </c>
       <c r="F33" s="3">
-        <v>2885100</v>
+        <v>2917500</v>
       </c>
       <c r="G33" s="3">
-        <v>-7448700</v>
+        <v>-7532500</v>
       </c>
       <c r="H33" s="3">
-        <v>-6393600</v>
+        <v>-6465500</v>
       </c>
       <c r="I33" s="3">
-        <v>8677800</v>
+        <v>8775300</v>
       </c>
       <c r="J33" s="3">
-        <v>70091600</v>
+        <v>70879600</v>
       </c>
       <c r="K33" s="3">
         <v>457400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1088300</v>
+        <v>-1100500</v>
       </c>
       <c r="E35" s="3">
-        <v>-9486900</v>
+        <v>-9593500</v>
       </c>
       <c r="F35" s="3">
-        <v>2885100</v>
+        <v>2917500</v>
       </c>
       <c r="G35" s="3">
-        <v>-7448700</v>
+        <v>-7532500</v>
       </c>
       <c r="H35" s="3">
-        <v>-6393600</v>
+        <v>-6465500</v>
       </c>
       <c r="I35" s="3">
-        <v>8677800</v>
+        <v>8775300</v>
       </c>
       <c r="J35" s="3">
-        <v>70091600</v>
+        <v>70879600</v>
       </c>
       <c r="K35" s="3">
         <v>457400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13108900</v>
+        <v>13256300</v>
       </c>
       <c r="E41" s="3">
-        <v>13533600</v>
+        <v>13685700</v>
       </c>
       <c r="F41" s="3">
-        <v>5528900</v>
+        <v>5591000</v>
       </c>
       <c r="G41" s="3">
-        <v>10450900</v>
+        <v>10568400</v>
       </c>
       <c r="H41" s="3">
-        <v>26531300</v>
+        <v>26829600</v>
       </c>
       <c r="I41" s="3">
-        <v>16917800</v>
+        <v>17108100</v>
       </c>
       <c r="J41" s="3">
-        <v>18074700</v>
+        <v>18277900</v>
       </c>
       <c r="K41" s="3">
         <v>8357900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10990300</v>
+        <v>11113900</v>
       </c>
       <c r="E42" s="3">
-        <v>17989500</v>
+        <v>18191800</v>
       </c>
       <c r="F42" s="3">
-        <v>10403600</v>
+        <v>10520600</v>
       </c>
       <c r="G42" s="3">
-        <v>7239300</v>
+        <v>7320700</v>
       </c>
       <c r="H42" s="3">
-        <v>10352700</v>
+        <v>10469100</v>
       </c>
       <c r="I42" s="3">
-        <v>8793700</v>
+        <v>8892600</v>
       </c>
       <c r="J42" s="3">
-        <v>11127500</v>
+        <v>11252700</v>
       </c>
       <c r="K42" s="3">
         <v>8970500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11917700</v>
+        <v>12051700</v>
       </c>
       <c r="E43" s="3">
-        <v>13049800</v>
+        <v>13196500</v>
       </c>
       <c r="F43" s="3">
-        <v>10349200</v>
+        <v>10465600</v>
       </c>
       <c r="G43" s="3">
-        <v>9704500</v>
+        <v>9813600</v>
       </c>
       <c r="H43" s="3">
-        <v>19797000</v>
+        <v>20019600</v>
       </c>
       <c r="I43" s="3">
-        <v>20041900</v>
+        <v>20267200</v>
       </c>
       <c r="J43" s="3">
-        <v>10998600</v>
+        <v>11122300</v>
       </c>
       <c r="K43" s="3">
         <v>5397000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>692000</v>
+        <v>699800</v>
       </c>
       <c r="E44" s="3">
-        <v>844600</v>
+        <v>854100</v>
       </c>
       <c r="F44" s="3">
-        <v>687300</v>
+        <v>695000</v>
       </c>
       <c r="G44" s="3">
-        <v>681400</v>
+        <v>689000</v>
       </c>
       <c r="H44" s="3">
-        <v>1693900</v>
+        <v>1713000</v>
       </c>
       <c r="I44" s="3">
-        <v>1359200</v>
+        <v>1374400</v>
       </c>
       <c r="J44" s="3">
-        <v>1043300</v>
+        <v>1055000</v>
       </c>
       <c r="K44" s="3">
         <v>891200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1905700</v>
+        <v>1927100</v>
       </c>
       <c r="E45" s="3">
-        <v>1682100</v>
+        <v>1701000</v>
       </c>
       <c r="F45" s="3">
-        <v>1575600</v>
+        <v>1593300</v>
       </c>
       <c r="G45" s="3">
-        <v>2137500</v>
+        <v>2161500</v>
       </c>
       <c r="H45" s="3">
-        <v>7098600</v>
+        <v>7178400</v>
       </c>
       <c r="I45" s="3">
-        <v>3603100</v>
+        <v>3643600</v>
       </c>
       <c r="J45" s="3">
-        <v>508600</v>
+        <v>514400</v>
       </c>
       <c r="K45" s="3">
         <v>3942000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38614600</v>
+        <v>39048800</v>
       </c>
       <c r="E46" s="3">
-        <v>47099500</v>
+        <v>47629100</v>
       </c>
       <c r="F46" s="3">
-        <v>28544600</v>
+        <v>28865500</v>
       </c>
       <c r="G46" s="3">
-        <v>30213600</v>
+        <v>30553300</v>
       </c>
       <c r="H46" s="3">
-        <v>37779500</v>
+        <v>38204200</v>
       </c>
       <c r="I46" s="3">
-        <v>32478900</v>
+        <v>32844100</v>
       </c>
       <c r="J46" s="3">
-        <v>29243700</v>
+        <v>29572500</v>
       </c>
       <c r="K46" s="3">
         <v>24026100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20110500</v>
+        <v>20336600</v>
       </c>
       <c r="E47" s="3">
-        <v>11819500</v>
+        <v>11952400</v>
       </c>
       <c r="F47" s="3">
-        <v>11554600</v>
+        <v>11684500</v>
       </c>
       <c r="G47" s="3">
-        <v>13208300</v>
+        <v>13356800</v>
       </c>
       <c r="H47" s="3">
-        <v>12897200</v>
+        <v>13042200</v>
       </c>
       <c r="I47" s="3">
-        <v>14878500</v>
+        <v>15045800</v>
       </c>
       <c r="J47" s="3">
-        <v>8205800</v>
+        <v>8298000</v>
       </c>
       <c r="K47" s="3">
         <v>62541700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46366100</v>
+        <v>46887500</v>
       </c>
       <c r="E48" s="3">
-        <v>32449300</v>
+        <v>32814200</v>
       </c>
       <c r="F48" s="3">
-        <v>33505600</v>
+        <v>33882400</v>
       </c>
       <c r="G48" s="3">
-        <v>35728300</v>
+        <v>36130000</v>
       </c>
       <c r="H48" s="3">
-        <v>84021400</v>
+        <v>84966100</v>
       </c>
       <c r="I48" s="3">
-        <v>75006500</v>
+        <v>75849800</v>
       </c>
       <c r="J48" s="3">
-        <v>54060900</v>
+        <v>54668700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>63312400</v>
+        <v>64024200</v>
       </c>
       <c r="E49" s="3">
-        <v>48504800</v>
+        <v>49050200</v>
       </c>
       <c r="F49" s="3">
-        <v>51168700</v>
+        <v>51744000</v>
       </c>
       <c r="G49" s="3">
-        <v>54673600</v>
+        <v>55288400</v>
       </c>
       <c r="H49" s="3">
-        <v>138551000</v>
+        <v>140109000</v>
       </c>
       <c r="I49" s="3">
-        <v>121842000</v>
+        <v>123212000</v>
       </c>
       <c r="J49" s="3">
-        <v>110455000</v>
+        <v>111696000</v>
       </c>
       <c r="K49" s="3">
         <v>107136000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30522400</v>
+        <v>30865500</v>
       </c>
       <c r="E52" s="3">
-        <v>29118300</v>
+        <v>29445700</v>
       </c>
       <c r="F52" s="3">
-        <v>47469800</v>
+        <v>48003500</v>
       </c>
       <c r="G52" s="3">
-        <v>49151900</v>
+        <v>49704500</v>
       </c>
       <c r="H52" s="3">
-        <v>38074000</v>
+        <v>38502100</v>
       </c>
       <c r="I52" s="3">
-        <v>39301900</v>
+        <v>39743700</v>
       </c>
       <c r="J52" s="3">
-        <v>24417400</v>
+        <v>24692000</v>
       </c>
       <c r="K52" s="3">
         <v>3218400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>198926000</v>
+        <v>201163000</v>
       </c>
       <c r="E54" s="3">
-        <v>168992000</v>
+        <v>170892000</v>
       </c>
       <c r="F54" s="3">
-        <v>172243000</v>
+        <v>174180000</v>
       </c>
       <c r="G54" s="3">
-        <v>182976000</v>
+        <v>185033000</v>
       </c>
       <c r="H54" s="3">
-        <v>200037000</v>
+        <v>202286000</v>
       </c>
       <c r="I54" s="3">
-        <v>200595000</v>
+        <v>202850000</v>
       </c>
       <c r="J54" s="3">
-        <v>144125000</v>
+        <v>145745000</v>
       </c>
       <c r="K54" s="3">
         <v>153512000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7866300</v>
+        <v>7954700</v>
       </c>
       <c r="E57" s="3">
-        <v>7768100</v>
+        <v>7855400</v>
       </c>
       <c r="F57" s="3">
-        <v>7348200</v>
+        <v>7430800</v>
       </c>
       <c r="G57" s="3">
-        <v>7364700</v>
+        <v>7447500</v>
       </c>
       <c r="H57" s="3">
-        <v>8856400</v>
+        <v>8955900</v>
       </c>
       <c r="I57" s="3">
-        <v>30430100</v>
+        <v>30772200</v>
       </c>
       <c r="J57" s="3">
-        <v>5631800</v>
+        <v>5695100</v>
       </c>
       <c r="K57" s="3">
         <v>9059300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13989000</v>
+        <v>14146300</v>
       </c>
       <c r="E58" s="3">
-        <v>5051000</v>
+        <v>5107800</v>
       </c>
       <c r="F58" s="3">
-        <v>12244200</v>
+        <v>12381900</v>
       </c>
       <c r="G58" s="3">
-        <v>14255100</v>
+        <v>14415400</v>
       </c>
       <c r="H58" s="3">
-        <v>32371200</v>
+        <v>32735200</v>
       </c>
       <c r="I58" s="3">
-        <v>31019200</v>
+        <v>31368000</v>
       </c>
       <c r="J58" s="3">
-        <v>5032100</v>
+        <v>5088600</v>
       </c>
       <c r="K58" s="3">
         <v>14101100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16536900</v>
+        <v>16722900</v>
       </c>
       <c r="E59" s="3">
-        <v>17372100</v>
+        <v>17567400</v>
       </c>
       <c r="F59" s="3">
-        <v>26569100</v>
+        <v>26867800</v>
       </c>
       <c r="G59" s="3">
-        <v>28522100</v>
+        <v>28842800</v>
       </c>
       <c r="H59" s="3">
-        <v>22257400</v>
+        <v>22507700</v>
       </c>
       <c r="I59" s="3">
-        <v>18408300</v>
+        <v>18615300</v>
       </c>
       <c r="J59" s="3">
-        <v>23391800</v>
+        <v>23654900</v>
       </c>
       <c r="K59" s="3">
         <v>17625800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38392200</v>
+        <v>38823900</v>
       </c>
       <c r="E60" s="3">
-        <v>30191200</v>
+        <v>30530600</v>
       </c>
       <c r="F60" s="3">
-        <v>46161500</v>
+        <v>46680500</v>
       </c>
       <c r="G60" s="3">
-        <v>50141900</v>
+        <v>50705700</v>
       </c>
       <c r="H60" s="3">
-        <v>49959800</v>
+        <v>50521500</v>
       </c>
       <c r="I60" s="3">
-        <v>47291200</v>
+        <v>47822900</v>
       </c>
       <c r="J60" s="3">
-        <v>29618600</v>
+        <v>29951700</v>
       </c>
       <c r="K60" s="3">
         <v>31483900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74394900</v>
+        <v>75231400</v>
       </c>
       <c r="E61" s="3">
-        <v>57589500</v>
+        <v>58237000</v>
       </c>
       <c r="F61" s="3">
-        <v>38598000</v>
+        <v>39032000</v>
       </c>
       <c r="G61" s="3">
-        <v>40476500</v>
+        <v>40931600</v>
       </c>
       <c r="H61" s="3">
-        <v>43521300</v>
+        <v>44010600</v>
       </c>
       <c r="I61" s="3">
-        <v>36716000</v>
+        <v>37128900</v>
       </c>
       <c r="J61" s="3">
-        <v>25247800</v>
+        <v>25531700</v>
       </c>
       <c r="K61" s="3">
         <v>30132200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10816400</v>
+        <v>10938100</v>
       </c>
       <c r="E62" s="3">
-        <v>6161700</v>
+        <v>6231000</v>
       </c>
       <c r="F62" s="3">
-        <v>6328500</v>
+        <v>6399700</v>
       </c>
       <c r="G62" s="3">
-        <v>5155100</v>
+        <v>5213000</v>
       </c>
       <c r="H62" s="3">
-        <v>8094600</v>
+        <v>8185600</v>
       </c>
       <c r="I62" s="3">
-        <v>7393100</v>
+        <v>7476300</v>
       </c>
       <c r="J62" s="3">
-        <v>5939300</v>
+        <v>6006100</v>
       </c>
       <c r="K62" s="3">
         <v>13106700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>126284000</v>
+        <v>127704000</v>
       </c>
       <c r="E66" s="3">
-        <v>95393800</v>
+        <v>96466400</v>
       </c>
       <c r="F66" s="3">
-        <v>92231900</v>
+        <v>93268900</v>
       </c>
       <c r="G66" s="3">
-        <v>97570300</v>
+        <v>98667400</v>
       </c>
       <c r="H66" s="3">
-        <v>101472000</v>
+        <v>102612000</v>
       </c>
       <c r="I66" s="3">
-        <v>92347800</v>
+        <v>93386100</v>
       </c>
       <c r="J66" s="3">
-        <v>60372900</v>
+        <v>61051700</v>
       </c>
       <c r="K66" s="3">
         <v>74186800</v>
@@ -2639,7 +2639,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>-60834200</v>
+        <v>-61518200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72641900</v>
+        <v>73458600</v>
       </c>
       <c r="E76" s="3">
-        <v>73597700</v>
+        <v>74425200</v>
       </c>
       <c r="F76" s="3">
-        <v>80011400</v>
+        <v>80911000</v>
       </c>
       <c r="G76" s="3">
-        <v>85405400</v>
+        <v>86365600</v>
       </c>
       <c r="H76" s="3">
-        <v>98565100</v>
+        <v>99673400</v>
       </c>
       <c r="I76" s="3">
-        <v>108247000</v>
+        <v>109464000</v>
       </c>
       <c r="J76" s="3">
-        <v>83751700</v>
+        <v>84693400</v>
       </c>
       <c r="K76" s="3">
         <v>79325200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1088300</v>
+        <v>-1100500</v>
       </c>
       <c r="E81" s="3">
-        <v>-9486900</v>
+        <v>-9593500</v>
       </c>
       <c r="F81" s="3">
-        <v>2885100</v>
+        <v>2917500</v>
       </c>
       <c r="G81" s="3">
-        <v>-7448700</v>
+        <v>-7532500</v>
       </c>
       <c r="H81" s="3">
-        <v>-6393600</v>
+        <v>-6465500</v>
       </c>
       <c r="I81" s="3">
-        <v>8677800</v>
+        <v>8775300</v>
       </c>
       <c r="J81" s="3">
-        <v>70091600</v>
+        <v>70879600</v>
       </c>
       <c r="K81" s="3">
         <v>457400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16766400</v>
+        <v>16954900</v>
       </c>
       <c r="E83" s="3">
-        <v>11586500</v>
+        <v>11716800</v>
       </c>
       <c r="F83" s="3">
-        <v>12312800</v>
+        <v>12451200</v>
       </c>
       <c r="G83" s="3">
-        <v>13113600</v>
+        <v>13261100</v>
       </c>
       <c r="H83" s="3">
-        <v>13836400</v>
+        <v>13992000</v>
       </c>
       <c r="I83" s="3">
-        <v>13139700</v>
+        <v>13287400</v>
       </c>
       <c r="J83" s="3">
-        <v>8942700</v>
+        <v>9043300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20557600</v>
+        <v>20788800</v>
       </c>
       <c r="E89" s="3">
-        <v>15354000</v>
+        <v>15526700</v>
       </c>
       <c r="F89" s="3">
-        <v>16087400</v>
+        <v>16268300</v>
       </c>
       <c r="G89" s="3">
-        <v>16824400</v>
+        <v>17013600</v>
       </c>
       <c r="H89" s="3">
-        <v>16958100</v>
+        <v>17148700</v>
       </c>
       <c r="I89" s="3">
-        <v>14985000</v>
+        <v>15153500</v>
       </c>
       <c r="J89" s="3">
-        <v>7365900</v>
+        <v>7448700</v>
       </c>
       <c r="K89" s="3">
         <v>9773500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6129800</v>
+        <v>-6198700</v>
       </c>
       <c r="E91" s="3">
-        <v>-5977200</v>
+        <v>-6044400</v>
       </c>
       <c r="F91" s="3">
-        <v>-5816300</v>
+        <v>-5881700</v>
       </c>
       <c r="G91" s="3">
-        <v>-7434500</v>
+        <v>-7518100</v>
       </c>
       <c r="H91" s="3">
-        <v>-9776700</v>
+        <v>-9886600</v>
       </c>
       <c r="I91" s="3">
-        <v>-8663600</v>
+        <v>-8761000</v>
       </c>
       <c r="J91" s="3">
-        <v>-5200000</v>
+        <v>-5258500</v>
       </c>
       <c r="K91" s="3">
         <v>-4383900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9567300</v>
+        <v>-9674900</v>
       </c>
       <c r="E94" s="3">
-        <v>-10902800</v>
+        <v>-11025400</v>
       </c>
       <c r="F94" s="3">
-        <v>-11640900</v>
+        <v>-11771800</v>
       </c>
       <c r="G94" s="3">
-        <v>-9963600</v>
+        <v>-10075600</v>
       </c>
       <c r="H94" s="3">
-        <v>-16408000</v>
+        <v>-16592500</v>
       </c>
       <c r="I94" s="3">
-        <v>-15654500</v>
+        <v>-15830500</v>
       </c>
       <c r="J94" s="3">
-        <v>36365900</v>
+        <v>36774800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2715900</v>
+        <v>-2746500</v>
       </c>
       <c r="E96" s="3">
-        <v>-4807300</v>
+        <v>-4861400</v>
       </c>
       <c r="F96" s="3">
-        <v>-4637000</v>
+        <v>-4689100</v>
       </c>
       <c r="G96" s="3">
-        <v>-4393300</v>
+        <v>-4442700</v>
       </c>
       <c r="H96" s="3">
-        <v>-4954000</v>
+        <v>-5009700</v>
       </c>
       <c r="I96" s="3">
-        <v>-4445300</v>
+        <v>-4495300</v>
       </c>
       <c r="J96" s="3">
-        <v>-6004400</v>
+        <v>-6071900</v>
       </c>
       <c r="K96" s="3">
         <v>-5323100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11062500</v>
+        <v>-11186900</v>
       </c>
       <c r="E100" s="3">
-        <v>5248500</v>
+        <v>5307500</v>
       </c>
       <c r="F100" s="3">
-        <v>-8557100</v>
+        <v>-8653300</v>
       </c>
       <c r="G100" s="3">
-        <v>-10759700</v>
+        <v>-10880600</v>
       </c>
       <c r="H100" s="3">
-        <v>4828600</v>
+        <v>4882900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3740300</v>
+        <v>-3782400</v>
       </c>
       <c r="J100" s="3">
-        <v>-40513100</v>
+        <v>-40968700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-302800</v>
+        <v>-306200</v>
       </c>
       <c r="E101" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="F101" s="3">
-        <v>-512200</v>
+        <v>-518000</v>
       </c>
       <c r="G101" s="3">
-        <v>-370200</v>
+        <v>-374400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1334300</v>
+        <v>-1349300</v>
       </c>
       <c r="I101" s="3">
-        <v>1153300</v>
+        <v>1166300</v>
       </c>
       <c r="J101" s="3">
-        <v>-136000</v>
+        <v>-137600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-375000</v>
+        <v>-379200</v>
       </c>
       <c r="E102" s="3">
-        <v>9712800</v>
+        <v>9822000</v>
       </c>
       <c r="F102" s="3">
-        <v>-4622800</v>
+        <v>-4674700</v>
       </c>
       <c r="G102" s="3">
-        <v>-4269100</v>
+        <v>-4317100</v>
       </c>
       <c r="H102" s="3">
-        <v>4044300</v>
+        <v>4089800</v>
       </c>
       <c r="I102" s="3">
-        <v>-3256500</v>
+        <v>-3293100</v>
       </c>
       <c r="J102" s="3">
-        <v>3082600</v>
+        <v>3117300</v>
       </c>
       <c r="K102" s="3">
         <v>559300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>53797900</v>
+        <v>52907400</v>
       </c>
       <c r="E8" s="3">
-        <v>52233300</v>
+        <v>51368700</v>
       </c>
       <c r="F8" s="3">
-        <v>55708200</v>
+        <v>54786100</v>
       </c>
       <c r="G8" s="3">
-        <v>56976200</v>
+        <v>56033100</v>
       </c>
       <c r="H8" s="3">
-        <v>59582700</v>
+        <v>58596500</v>
       </c>
       <c r="I8" s="3">
-        <v>57878100</v>
+        <v>56920100</v>
       </c>
       <c r="J8" s="3">
-        <v>45869500</v>
+        <v>45110200</v>
       </c>
       <c r="K8" s="3">
         <v>42134200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36701800</v>
+        <v>36094300</v>
       </c>
       <c r="E9" s="3">
-        <v>36077400</v>
+        <v>35480200</v>
       </c>
       <c r="F9" s="3">
-        <v>39200700</v>
+        <v>38551800</v>
       </c>
       <c r="G9" s="3">
-        <v>41359800</v>
+        <v>40675200</v>
       </c>
       <c r="H9" s="3">
-        <v>43916100</v>
+        <v>43189200</v>
       </c>
       <c r="I9" s="3">
-        <v>41954300</v>
+        <v>41259900</v>
       </c>
       <c r="J9" s="3">
-        <v>33424200</v>
+        <v>32871000</v>
       </c>
       <c r="K9" s="3">
         <v>29425600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17096100</v>
+        <v>16813100</v>
       </c>
       <c r="E10" s="3">
-        <v>16155900</v>
+        <v>15888500</v>
       </c>
       <c r="F10" s="3">
-        <v>16507600</v>
+        <v>16234300</v>
       </c>
       <c r="G10" s="3">
-        <v>15616400</v>
+        <v>15357900</v>
       </c>
       <c r="H10" s="3">
-        <v>15666600</v>
+        <v>15407300</v>
       </c>
       <c r="I10" s="3">
-        <v>15923800</v>
+        <v>15660200</v>
       </c>
       <c r="J10" s="3">
-        <v>12445300</v>
+        <v>12239300</v>
       </c>
       <c r="K10" s="3">
         <v>12708600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2015600</v>
+        <v>1982200</v>
       </c>
       <c r="E14" s="3">
-        <v>4216600</v>
+        <v>4146800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-1525200</v>
+        <v>-1499900</v>
       </c>
       <c r="H14" s="3">
-        <v>680600</v>
+        <v>669400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>7894900</v>
+        <v>7764200</v>
       </c>
       <c r="K14" s="3">
         <v>8528500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48894700</v>
+        <v>48085400</v>
       </c>
       <c r="E17" s="3">
-        <v>53370900</v>
+        <v>52487400</v>
       </c>
       <c r="F17" s="3">
-        <v>50565800</v>
+        <v>49728800</v>
       </c>
       <c r="G17" s="3">
-        <v>52520400</v>
+        <v>51651000</v>
       </c>
       <c r="H17" s="3">
-        <v>58003700</v>
+        <v>57043600</v>
       </c>
       <c r="I17" s="3">
-        <v>55398400</v>
+        <v>54481400</v>
       </c>
       <c r="J17" s="3">
-        <v>50550200</v>
+        <v>49713500</v>
       </c>
       <c r="K17" s="3">
         <v>44573100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4903200</v>
+        <v>4822100</v>
       </c>
       <c r="E18" s="3">
-        <v>-1137600</v>
+        <v>-1118800</v>
       </c>
       <c r="F18" s="3">
-        <v>5142500</v>
+        <v>5057300</v>
       </c>
       <c r="G18" s="3">
-        <v>4455800</v>
+        <v>4382100</v>
       </c>
       <c r="H18" s="3">
-        <v>1579000</v>
+        <v>1552800</v>
       </c>
       <c r="I18" s="3">
-        <v>2479700</v>
+        <v>2438700</v>
       </c>
       <c r="J18" s="3">
-        <v>-4680700</v>
+        <v>-4603300</v>
       </c>
       <c r="K18" s="3">
         <v>-2438900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-643600</v>
+        <v>-632900</v>
       </c>
       <c r="E20" s="3">
-        <v>-56200</v>
+        <v>-55300</v>
       </c>
       <c r="F20" s="3">
-        <v>806200</v>
+        <v>792900</v>
       </c>
       <c r="G20" s="3">
-        <v>308600</v>
+        <v>303500</v>
       </c>
       <c r="H20" s="3">
-        <v>-662700</v>
+        <v>-651700</v>
       </c>
       <c r="I20" s="3">
-        <v>1401900</v>
+        <v>1378700</v>
       </c>
       <c r="J20" s="3">
-        <v>-276300</v>
+        <v>-271700</v>
       </c>
       <c r="K20" s="3">
         <v>2137700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21145200</v>
+        <v>20931500</v>
       </c>
       <c r="E21" s="3">
-        <v>10475000</v>
+        <v>10395800</v>
       </c>
       <c r="F21" s="3">
-        <v>18348900</v>
+        <v>18145300</v>
       </c>
       <c r="G21" s="3">
-        <v>17971200</v>
+        <v>17780400</v>
       </c>
       <c r="H21" s="3">
-        <v>14850900</v>
+        <v>14717600</v>
       </c>
       <c r="I21" s="3">
-        <v>17114600</v>
+        <v>16938200</v>
       </c>
       <c r="J21" s="3">
-        <v>4049200</v>
+        <v>4054900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3308700</v>
+        <v>3253900</v>
       </c>
       <c r="E22" s="3">
-        <v>1931900</v>
+        <v>1899900</v>
       </c>
       <c r="F22" s="3">
-        <v>1309800</v>
+        <v>1288200</v>
       </c>
       <c r="G22" s="3">
-        <v>1424700</v>
+        <v>1401100</v>
       </c>
       <c r="H22" s="3">
-        <v>1143600</v>
+        <v>1124600</v>
       </c>
       <c r="I22" s="3">
-        <v>1807500</v>
+        <v>1777500</v>
       </c>
       <c r="J22" s="3">
-        <v>1346900</v>
+        <v>1324600</v>
       </c>
       <c r="K22" s="3">
         <v>3556500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>951000</v>
+        <v>935200</v>
       </c>
       <c r="E23" s="3">
-        <v>-3125700</v>
+        <v>-3073900</v>
       </c>
       <c r="F23" s="3">
-        <v>4638900</v>
+        <v>4562100</v>
       </c>
       <c r="G23" s="3">
-        <v>3339800</v>
+        <v>3284500</v>
       </c>
       <c r="H23" s="3">
-        <v>-227300</v>
+        <v>-223500</v>
       </c>
       <c r="I23" s="3">
-        <v>2074200</v>
+        <v>2039900</v>
       </c>
       <c r="J23" s="3">
-        <v>-6304000</v>
+        <v>-6199600</v>
       </c>
       <c r="K23" s="3">
         <v>-3857800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1495300</v>
+        <v>1470500</v>
       </c>
       <c r="E24" s="3">
-        <v>1789500</v>
+        <v>1759900</v>
       </c>
       <c r="F24" s="3">
-        <v>-1051500</v>
+        <v>-1034100</v>
       </c>
       <c r="G24" s="3">
-        <v>5698700</v>
+        <v>5604400</v>
       </c>
       <c r="H24" s="3">
-        <v>5905600</v>
+        <v>5807900</v>
       </c>
       <c r="I24" s="3">
-        <v>-7262100</v>
+        <v>-7141900</v>
       </c>
       <c r="J24" s="3">
-        <v>-19835400</v>
+        <v>-19507100</v>
       </c>
       <c r="K24" s="3">
         <v>527200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-544300</v>
+        <v>-535300</v>
       </c>
       <c r="E26" s="3">
-        <v>-4915200</v>
+        <v>-4833800</v>
       </c>
       <c r="F26" s="3">
-        <v>5690300</v>
+        <v>5596100</v>
       </c>
       <c r="G26" s="3">
-        <v>-2358900</v>
+        <v>-2319900</v>
       </c>
       <c r="H26" s="3">
-        <v>-6132900</v>
+        <v>-6031400</v>
       </c>
       <c r="I26" s="3">
-        <v>9336300</v>
+        <v>9181800</v>
       </c>
       <c r="J26" s="3">
-        <v>13531400</v>
+        <v>13307400</v>
       </c>
       <c r="K26" s="3">
         <v>-4385000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100500</v>
+        <v>-1082300</v>
       </c>
       <c r="E27" s="3">
-        <v>-5365000</v>
+        <v>-5276200</v>
       </c>
       <c r="F27" s="3">
-        <v>5272800</v>
+        <v>5185600</v>
       </c>
       <c r="G27" s="3">
-        <v>-2619700</v>
+        <v>-2576300</v>
       </c>
       <c r="H27" s="3">
-        <v>-6471400</v>
+        <v>-6364300</v>
       </c>
       <c r="I27" s="3">
-        <v>9099500</v>
+        <v>8948900</v>
       </c>
       <c r="J27" s="3">
-        <v>13332800</v>
+        <v>13112200</v>
       </c>
       <c r="K27" s="3">
         <v>-4655200</v>
@@ -1356,22 +1356,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-4228600</v>
+        <v>-4158600</v>
       </c>
       <c r="F29" s="3">
-        <v>-2355300</v>
+        <v>-2316300</v>
       </c>
       <c r="G29" s="3">
-        <v>-4912800</v>
+        <v>-4831500</v>
       </c>
       <c r="H29" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I29" s="3">
-        <v>-324200</v>
+        <v>-318800</v>
       </c>
       <c r="J29" s="3">
-        <v>57546800</v>
+        <v>56594300</v>
       </c>
       <c r="K29" s="3">
         <v>5112700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>643600</v>
+        <v>632900</v>
       </c>
       <c r="E32" s="3">
-        <v>56200</v>
+        <v>55300</v>
       </c>
       <c r="F32" s="3">
-        <v>-806200</v>
+        <v>-792900</v>
       </c>
       <c r="G32" s="3">
-        <v>-308600</v>
+        <v>-303500</v>
       </c>
       <c r="H32" s="3">
-        <v>662700</v>
+        <v>651700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1401900</v>
+        <v>-1378700</v>
       </c>
       <c r="J32" s="3">
-        <v>276300</v>
+        <v>271700</v>
       </c>
       <c r="K32" s="3">
         <v>-2137700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100500</v>
+        <v>-1082300</v>
       </c>
       <c r="E33" s="3">
-        <v>-9593500</v>
+        <v>-9434700</v>
       </c>
       <c r="F33" s="3">
-        <v>2917500</v>
+        <v>2869200</v>
       </c>
       <c r="G33" s="3">
-        <v>-7532500</v>
+        <v>-7407800</v>
       </c>
       <c r="H33" s="3">
-        <v>-6465500</v>
+        <v>-6358400</v>
       </c>
       <c r="I33" s="3">
-        <v>8775300</v>
+        <v>8630100</v>
       </c>
       <c r="J33" s="3">
-        <v>70879600</v>
+        <v>69706400</v>
       </c>
       <c r="K33" s="3">
         <v>457400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100500</v>
+        <v>-1082300</v>
       </c>
       <c r="E35" s="3">
-        <v>-9593500</v>
+        <v>-9434700</v>
       </c>
       <c r="F35" s="3">
-        <v>2917500</v>
+        <v>2869200</v>
       </c>
       <c r="G35" s="3">
-        <v>-7532500</v>
+        <v>-7407800</v>
       </c>
       <c r="H35" s="3">
-        <v>-6465500</v>
+        <v>-6358400</v>
       </c>
       <c r="I35" s="3">
-        <v>8775300</v>
+        <v>8630100</v>
       </c>
       <c r="J35" s="3">
-        <v>70879600</v>
+        <v>69706400</v>
       </c>
       <c r="K35" s="3">
         <v>457400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13256300</v>
+        <v>13036900</v>
       </c>
       <c r="E41" s="3">
-        <v>13685700</v>
+        <v>13459200</v>
       </c>
       <c r="F41" s="3">
-        <v>5591000</v>
+        <v>5498500</v>
       </c>
       <c r="G41" s="3">
-        <v>10568400</v>
+        <v>10393500</v>
       </c>
       <c r="H41" s="3">
-        <v>26829600</v>
+        <v>26385500</v>
       </c>
       <c r="I41" s="3">
-        <v>17108100</v>
+        <v>16824900</v>
       </c>
       <c r="J41" s="3">
-        <v>18277900</v>
+        <v>17975400</v>
       </c>
       <c r="K41" s="3">
         <v>8357900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11113900</v>
+        <v>10929900</v>
       </c>
       <c r="E42" s="3">
-        <v>18191800</v>
+        <v>17890700</v>
       </c>
       <c r="F42" s="3">
-        <v>10520600</v>
+        <v>10346400</v>
       </c>
       <c r="G42" s="3">
-        <v>7320700</v>
+        <v>7199600</v>
       </c>
       <c r="H42" s="3">
-        <v>10469100</v>
+        <v>10295900</v>
       </c>
       <c r="I42" s="3">
-        <v>8892600</v>
+        <v>8745400</v>
       </c>
       <c r="J42" s="3">
-        <v>11252700</v>
+        <v>11066400</v>
       </c>
       <c r="K42" s="3">
         <v>8970500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12051700</v>
+        <v>11852200</v>
       </c>
       <c r="E43" s="3">
-        <v>13196500</v>
+        <v>12978000</v>
       </c>
       <c r="F43" s="3">
-        <v>10465600</v>
+        <v>10292300</v>
       </c>
       <c r="G43" s="3">
-        <v>9813600</v>
+        <v>9651200</v>
       </c>
       <c r="H43" s="3">
-        <v>20019600</v>
+        <v>19688200</v>
       </c>
       <c r="I43" s="3">
-        <v>20267200</v>
+        <v>19931700</v>
       </c>
       <c r="J43" s="3">
-        <v>11122300</v>
+        <v>10938200</v>
       </c>
       <c r="K43" s="3">
         <v>5397000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>699800</v>
+        <v>688200</v>
       </c>
       <c r="E44" s="3">
-        <v>854100</v>
+        <v>839900</v>
       </c>
       <c r="F44" s="3">
-        <v>695000</v>
+        <v>683500</v>
       </c>
       <c r="G44" s="3">
-        <v>689000</v>
+        <v>677600</v>
       </c>
       <c r="H44" s="3">
-        <v>1713000</v>
+        <v>1684600</v>
       </c>
       <c r="I44" s="3">
-        <v>1374400</v>
+        <v>1351700</v>
       </c>
       <c r="J44" s="3">
-        <v>1055000</v>
+        <v>1037600</v>
       </c>
       <c r="K44" s="3">
         <v>891200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1927100</v>
+        <v>1895200</v>
       </c>
       <c r="E45" s="3">
-        <v>1701000</v>
+        <v>1672800</v>
       </c>
       <c r="F45" s="3">
-        <v>1593300</v>
+        <v>1567000</v>
       </c>
       <c r="G45" s="3">
-        <v>2161500</v>
+        <v>2125800</v>
       </c>
       <c r="H45" s="3">
-        <v>7178400</v>
+        <v>7059600</v>
       </c>
       <c r="I45" s="3">
-        <v>3643600</v>
+        <v>3583300</v>
       </c>
       <c r="J45" s="3">
-        <v>514400</v>
+        <v>505900</v>
       </c>
       <c r="K45" s="3">
         <v>3942000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39048800</v>
+        <v>38402400</v>
       </c>
       <c r="E46" s="3">
-        <v>47629100</v>
+        <v>46840700</v>
       </c>
       <c r="F46" s="3">
-        <v>28865500</v>
+        <v>28387700</v>
       </c>
       <c r="G46" s="3">
-        <v>30553300</v>
+        <v>30047600</v>
       </c>
       <c r="H46" s="3">
-        <v>38204200</v>
+        <v>37571900</v>
       </c>
       <c r="I46" s="3">
-        <v>32844100</v>
+        <v>32300400</v>
       </c>
       <c r="J46" s="3">
-        <v>29572500</v>
+        <v>29083000</v>
       </c>
       <c r="K46" s="3">
         <v>24026100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20336600</v>
+        <v>20000000</v>
       </c>
       <c r="E47" s="3">
-        <v>11952400</v>
+        <v>11754600</v>
       </c>
       <c r="F47" s="3">
-        <v>11684500</v>
+        <v>11491100</v>
       </c>
       <c r="G47" s="3">
-        <v>13356800</v>
+        <v>13135700</v>
       </c>
       <c r="H47" s="3">
-        <v>13042200</v>
+        <v>12826300</v>
       </c>
       <c r="I47" s="3">
-        <v>15045800</v>
+        <v>14796800</v>
       </c>
       <c r="J47" s="3">
-        <v>8298000</v>
+        <v>8160700</v>
       </c>
       <c r="K47" s="3">
         <v>62541700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46887500</v>
+        <v>46111400</v>
       </c>
       <c r="E48" s="3">
-        <v>32814200</v>
+        <v>32271000</v>
       </c>
       <c r="F48" s="3">
-        <v>33882400</v>
+        <v>33321500</v>
       </c>
       <c r="G48" s="3">
-        <v>36130000</v>
+        <v>35532000</v>
       </c>
       <c r="H48" s="3">
-        <v>84966100</v>
+        <v>83559700</v>
       </c>
       <c r="I48" s="3">
-        <v>75849800</v>
+        <v>74594300</v>
       </c>
       <c r="J48" s="3">
-        <v>54668700</v>
+        <v>53763800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>64024200</v>
+        <v>62964500</v>
       </c>
       <c r="E49" s="3">
-        <v>49050200</v>
+        <v>48238300</v>
       </c>
       <c r="F49" s="3">
-        <v>51744000</v>
+        <v>50887500</v>
       </c>
       <c r="G49" s="3">
-        <v>55288400</v>
+        <v>54373200</v>
       </c>
       <c r="H49" s="3">
-        <v>140109000</v>
+        <v>137789000</v>
       </c>
       <c r="I49" s="3">
-        <v>123212000</v>
+        <v>121173000</v>
       </c>
       <c r="J49" s="3">
-        <v>111696000</v>
+        <v>109848000</v>
       </c>
       <c r="K49" s="3">
         <v>107136000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30865500</v>
+        <v>30354600</v>
       </c>
       <c r="E52" s="3">
-        <v>29445700</v>
+        <v>28958300</v>
       </c>
       <c r="F52" s="3">
-        <v>48003500</v>
+        <v>47208900</v>
       </c>
       <c r="G52" s="3">
-        <v>49704500</v>
+        <v>48881800</v>
       </c>
       <c r="H52" s="3">
-        <v>38502100</v>
+        <v>37864800</v>
       </c>
       <c r="I52" s="3">
-        <v>39743700</v>
+        <v>39085900</v>
       </c>
       <c r="J52" s="3">
-        <v>24692000</v>
+        <v>24283200</v>
       </c>
       <c r="K52" s="3">
         <v>3218400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>201163000</v>
+        <v>197833000</v>
       </c>
       <c r="E54" s="3">
-        <v>170892000</v>
+        <v>168063000</v>
       </c>
       <c r="F54" s="3">
-        <v>174180000</v>
+        <v>171297000</v>
       </c>
       <c r="G54" s="3">
-        <v>185033000</v>
+        <v>181970000</v>
       </c>
       <c r="H54" s="3">
-        <v>202286000</v>
+        <v>198938000</v>
       </c>
       <c r="I54" s="3">
-        <v>202850000</v>
+        <v>199493000</v>
       </c>
       <c r="J54" s="3">
-        <v>145745000</v>
+        <v>143333000</v>
       </c>
       <c r="K54" s="3">
         <v>153512000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7954700</v>
+        <v>7823100</v>
       </c>
       <c r="E57" s="3">
-        <v>7855400</v>
+        <v>7725400</v>
       </c>
       <c r="F57" s="3">
-        <v>7430800</v>
+        <v>7307800</v>
       </c>
       <c r="G57" s="3">
-        <v>7447500</v>
+        <v>7324300</v>
       </c>
       <c r="H57" s="3">
-        <v>8955900</v>
+        <v>8807700</v>
       </c>
       <c r="I57" s="3">
-        <v>30772200</v>
+        <v>30262900</v>
       </c>
       <c r="J57" s="3">
-        <v>5695100</v>
+        <v>5600800</v>
       </c>
       <c r="K57" s="3">
         <v>9059300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14146300</v>
+        <v>13912100</v>
       </c>
       <c r="E58" s="3">
-        <v>5107800</v>
+        <v>5023200</v>
       </c>
       <c r="F58" s="3">
-        <v>12381900</v>
+        <v>12176900</v>
       </c>
       <c r="G58" s="3">
-        <v>14415400</v>
+        <v>14176800</v>
       </c>
       <c r="H58" s="3">
-        <v>32735200</v>
+        <v>32193400</v>
       </c>
       <c r="I58" s="3">
-        <v>31368000</v>
+        <v>30848700</v>
       </c>
       <c r="J58" s="3">
-        <v>5088600</v>
+        <v>5004400</v>
       </c>
       <c r="K58" s="3">
         <v>14101100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16722900</v>
+        <v>16446100</v>
       </c>
       <c r="E59" s="3">
-        <v>17567400</v>
+        <v>17276600</v>
       </c>
       <c r="F59" s="3">
-        <v>26867800</v>
+        <v>26423100</v>
       </c>
       <c r="G59" s="3">
-        <v>28842800</v>
+        <v>28365400</v>
       </c>
       <c r="H59" s="3">
-        <v>22507700</v>
+        <v>22135100</v>
       </c>
       <c r="I59" s="3">
-        <v>18615300</v>
+        <v>18307100</v>
       </c>
       <c r="J59" s="3">
-        <v>23654900</v>
+        <v>23263300</v>
       </c>
       <c r="K59" s="3">
         <v>17625800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38823900</v>
+        <v>38181200</v>
       </c>
       <c r="E60" s="3">
-        <v>30530600</v>
+        <v>30025300</v>
       </c>
       <c r="F60" s="3">
-        <v>46680500</v>
+        <v>45907800</v>
       </c>
       <c r="G60" s="3">
-        <v>50705700</v>
+        <v>49866400</v>
       </c>
       <c r="H60" s="3">
-        <v>50521500</v>
+        <v>49685300</v>
       </c>
       <c r="I60" s="3">
-        <v>47822900</v>
+        <v>47031300</v>
       </c>
       <c r="J60" s="3">
-        <v>29951700</v>
+        <v>29455900</v>
       </c>
       <c r="K60" s="3">
         <v>31483900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75231400</v>
+        <v>73986100</v>
       </c>
       <c r="E61" s="3">
-        <v>58237000</v>
+        <v>57273000</v>
       </c>
       <c r="F61" s="3">
-        <v>39032000</v>
+        <v>38385900</v>
       </c>
       <c r="G61" s="3">
-        <v>40931600</v>
+        <v>40254100</v>
       </c>
       <c r="H61" s="3">
-        <v>44010600</v>
+        <v>43282100</v>
       </c>
       <c r="I61" s="3">
-        <v>37128900</v>
+        <v>36514300</v>
       </c>
       <c r="J61" s="3">
-        <v>25531700</v>
+        <v>25109100</v>
       </c>
       <c r="K61" s="3">
         <v>30132200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10938100</v>
+        <v>10757000</v>
       </c>
       <c r="E62" s="3">
-        <v>6231000</v>
+        <v>6127900</v>
       </c>
       <c r="F62" s="3">
-        <v>6399700</v>
+        <v>6293700</v>
       </c>
       <c r="G62" s="3">
-        <v>5213000</v>
+        <v>5126800</v>
       </c>
       <c r="H62" s="3">
-        <v>8185600</v>
+        <v>8050100</v>
       </c>
       <c r="I62" s="3">
-        <v>7476300</v>
+        <v>7352500</v>
       </c>
       <c r="J62" s="3">
-        <v>6006100</v>
+        <v>5906700</v>
       </c>
       <c r="K62" s="3">
         <v>13106700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>127704000</v>
+        <v>125590000</v>
       </c>
       <c r="E66" s="3">
-        <v>96466400</v>
+        <v>94869600</v>
       </c>
       <c r="F66" s="3">
-        <v>93268900</v>
+        <v>91725100</v>
       </c>
       <c r="G66" s="3">
-        <v>98667400</v>
+        <v>97034200</v>
       </c>
       <c r="H66" s="3">
-        <v>102612000</v>
+        <v>100914000</v>
       </c>
       <c r="I66" s="3">
-        <v>93386100</v>
+        <v>91840400</v>
       </c>
       <c r="J66" s="3">
-        <v>61051700</v>
+        <v>60041100</v>
       </c>
       <c r="K66" s="3">
         <v>74186800</v>
@@ -2639,7 +2639,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>-61518200</v>
+        <v>-60499900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73458600</v>
+        <v>72242700</v>
       </c>
       <c r="E76" s="3">
-        <v>74425200</v>
+        <v>73193300</v>
       </c>
       <c r="F76" s="3">
-        <v>80911000</v>
+        <v>79571700</v>
       </c>
       <c r="G76" s="3">
-        <v>86365600</v>
+        <v>84936100</v>
       </c>
       <c r="H76" s="3">
-        <v>99673400</v>
+        <v>98023500</v>
       </c>
       <c r="I76" s="3">
-        <v>109464000</v>
+        <v>107652000</v>
       </c>
       <c r="J76" s="3">
-        <v>84693400</v>
+        <v>83291500</v>
       </c>
       <c r="K76" s="3">
         <v>79325200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100500</v>
+        <v>-1082300</v>
       </c>
       <c r="E81" s="3">
-        <v>-9593500</v>
+        <v>-9434700</v>
       </c>
       <c r="F81" s="3">
-        <v>2917500</v>
+        <v>2869200</v>
       </c>
       <c r="G81" s="3">
-        <v>-7532500</v>
+        <v>-7407800</v>
       </c>
       <c r="H81" s="3">
-        <v>-6465500</v>
+        <v>-6358400</v>
       </c>
       <c r="I81" s="3">
-        <v>8775300</v>
+        <v>8630100</v>
       </c>
       <c r="J81" s="3">
-        <v>70879600</v>
+        <v>69706400</v>
       </c>
       <c r="K81" s="3">
         <v>457400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16954900</v>
+        <v>16674300</v>
       </c>
       <c r="E83" s="3">
-        <v>11716800</v>
+        <v>11522800</v>
       </c>
       <c r="F83" s="3">
-        <v>12451200</v>
+        <v>12245100</v>
       </c>
       <c r="G83" s="3">
-        <v>13261100</v>
+        <v>13041600</v>
       </c>
       <c r="H83" s="3">
-        <v>13992000</v>
+        <v>13760400</v>
       </c>
       <c r="I83" s="3">
-        <v>13287400</v>
+        <v>13067500</v>
       </c>
       <c r="J83" s="3">
-        <v>9043300</v>
+        <v>8893600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20788800</v>
+        <v>20444700</v>
       </c>
       <c r="E89" s="3">
-        <v>15526700</v>
+        <v>15269700</v>
       </c>
       <c r="F89" s="3">
-        <v>16268300</v>
+        <v>15999000</v>
       </c>
       <c r="G89" s="3">
-        <v>17013600</v>
+        <v>16731900</v>
       </c>
       <c r="H89" s="3">
-        <v>17148700</v>
+        <v>16864900</v>
       </c>
       <c r="I89" s="3">
-        <v>15153500</v>
+        <v>14902600</v>
       </c>
       <c r="J89" s="3">
-        <v>7448700</v>
+        <v>7325400</v>
       </c>
       <c r="K89" s="3">
         <v>9773500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6198700</v>
+        <v>-6096100</v>
       </c>
       <c r="E91" s="3">
-        <v>-6044400</v>
+        <v>-5944300</v>
       </c>
       <c r="F91" s="3">
-        <v>-5881700</v>
+        <v>-5784400</v>
       </c>
       <c r="G91" s="3">
-        <v>-7518100</v>
+        <v>-7393700</v>
       </c>
       <c r="H91" s="3">
-        <v>-9886600</v>
+        <v>-9722900</v>
       </c>
       <c r="I91" s="3">
-        <v>-8761000</v>
+        <v>-8616000</v>
       </c>
       <c r="J91" s="3">
-        <v>-5258500</v>
+        <v>-5171500</v>
       </c>
       <c r="K91" s="3">
         <v>-4383900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9674900</v>
+        <v>-9514700</v>
       </c>
       <c r="E94" s="3">
-        <v>-11025400</v>
+        <v>-10842900</v>
       </c>
       <c r="F94" s="3">
-        <v>-11771800</v>
+        <v>-11577000</v>
       </c>
       <c r="G94" s="3">
-        <v>-10075600</v>
+        <v>-9908800</v>
       </c>
       <c r="H94" s="3">
-        <v>-16592500</v>
+        <v>-16317800</v>
       </c>
       <c r="I94" s="3">
-        <v>-15830500</v>
+        <v>-15568500</v>
       </c>
       <c r="J94" s="3">
-        <v>36774800</v>
+        <v>36166100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2746500</v>
+        <v>-2701000</v>
       </c>
       <c r="E96" s="3">
-        <v>-4861400</v>
+        <v>-4780900</v>
       </c>
       <c r="F96" s="3">
-        <v>-4689100</v>
+        <v>-4611500</v>
       </c>
       <c r="G96" s="3">
-        <v>-4442700</v>
+        <v>-4369100</v>
       </c>
       <c r="H96" s="3">
-        <v>-5009700</v>
+        <v>-4926800</v>
       </c>
       <c r="I96" s="3">
-        <v>-4495300</v>
+        <v>-4420900</v>
       </c>
       <c r="J96" s="3">
-        <v>-6071900</v>
+        <v>-5971400</v>
       </c>
       <c r="K96" s="3">
         <v>-5323100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11186900</v>
+        <v>-11001700</v>
       </c>
       <c r="E100" s="3">
-        <v>5307500</v>
+        <v>5219700</v>
       </c>
       <c r="F100" s="3">
-        <v>-8653300</v>
+        <v>-8510100</v>
       </c>
       <c r="G100" s="3">
-        <v>-10880600</v>
+        <v>-10700500</v>
       </c>
       <c r="H100" s="3">
-        <v>4882900</v>
+        <v>4802100</v>
       </c>
       <c r="I100" s="3">
-        <v>-3782400</v>
+        <v>-3719800</v>
       </c>
       <c r="J100" s="3">
-        <v>-40968700</v>
+        <v>-40290500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-306200</v>
+        <v>-301200</v>
       </c>
       <c r="E101" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="F101" s="3">
-        <v>-518000</v>
+        <v>-509400</v>
       </c>
       <c r="G101" s="3">
-        <v>-374400</v>
+        <v>-368200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1349300</v>
+        <v>-1327000</v>
       </c>
       <c r="I101" s="3">
-        <v>1166300</v>
+        <v>1147000</v>
       </c>
       <c r="J101" s="3">
-        <v>-137600</v>
+        <v>-135300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-379200</v>
+        <v>-372900</v>
       </c>
       <c r="E102" s="3">
-        <v>9822000</v>
+        <v>9659400</v>
       </c>
       <c r="F102" s="3">
-        <v>-4674700</v>
+        <v>-4597400</v>
       </c>
       <c r="G102" s="3">
-        <v>-4317100</v>
+        <v>-4245600</v>
       </c>
       <c r="H102" s="3">
-        <v>4089800</v>
+        <v>4022100</v>
       </c>
       <c r="I102" s="3">
-        <v>-3293100</v>
+        <v>-3238600</v>
       </c>
       <c r="J102" s="3">
-        <v>3117300</v>
+        <v>3065700</v>
       </c>
       <c r="K102" s="3">
         <v>559300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52907400</v>
+        <v>55092700</v>
       </c>
       <c r="E8" s="3">
-        <v>51368700</v>
+        <v>53490400</v>
       </c>
       <c r="F8" s="3">
-        <v>54786100</v>
+        <v>57049000</v>
       </c>
       <c r="G8" s="3">
-        <v>56033100</v>
+        <v>58347500</v>
       </c>
       <c r="H8" s="3">
-        <v>58596500</v>
+        <v>61016800</v>
       </c>
       <c r="I8" s="3">
-        <v>56920100</v>
+        <v>59271100</v>
       </c>
       <c r="J8" s="3">
-        <v>45110200</v>
+        <v>46973500</v>
       </c>
       <c r="K8" s="3">
         <v>42134200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36094300</v>
+        <v>37585100</v>
       </c>
       <c r="E9" s="3">
-        <v>35480200</v>
+        <v>36945700</v>
       </c>
       <c r="F9" s="3">
-        <v>38551800</v>
+        <v>40144100</v>
       </c>
       <c r="G9" s="3">
-        <v>40675200</v>
+        <v>42355300</v>
       </c>
       <c r="H9" s="3">
-        <v>43189200</v>
+        <v>44973100</v>
       </c>
       <c r="I9" s="3">
-        <v>41259900</v>
+        <v>42964100</v>
       </c>
       <c r="J9" s="3">
-        <v>32871000</v>
+        <v>34228700</v>
       </c>
       <c r="K9" s="3">
         <v>29425600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16813100</v>
+        <v>17507600</v>
       </c>
       <c r="E10" s="3">
-        <v>15888500</v>
+        <v>16544700</v>
       </c>
       <c r="F10" s="3">
-        <v>16234300</v>
+        <v>16904900</v>
       </c>
       <c r="G10" s="3">
-        <v>15357900</v>
+        <v>15992200</v>
       </c>
       <c r="H10" s="3">
-        <v>15407300</v>
+        <v>16043700</v>
       </c>
       <c r="I10" s="3">
-        <v>15660200</v>
+        <v>16307100</v>
       </c>
       <c r="J10" s="3">
-        <v>12239300</v>
+        <v>12744800</v>
       </c>
       <c r="K10" s="3">
         <v>12708600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1982200</v>
+        <v>2064100</v>
       </c>
       <c r="E14" s="3">
-        <v>4146800</v>
+        <v>4318100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-1499900</v>
+        <v>-1561900</v>
       </c>
       <c r="H14" s="3">
-        <v>669400</v>
+        <v>697000</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>7764200</v>
+        <v>8084900</v>
       </c>
       <c r="K14" s="3">
         <v>8528500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48085400</v>
+        <v>50071500</v>
       </c>
       <c r="E17" s="3">
-        <v>52487400</v>
+        <v>54655400</v>
       </c>
       <c r="F17" s="3">
-        <v>49728800</v>
+        <v>51782800</v>
       </c>
       <c r="G17" s="3">
-        <v>51651000</v>
+        <v>53784400</v>
       </c>
       <c r="H17" s="3">
-        <v>57043600</v>
+        <v>59399800</v>
       </c>
       <c r="I17" s="3">
-        <v>54481400</v>
+        <v>56731700</v>
       </c>
       <c r="J17" s="3">
-        <v>49713500</v>
+        <v>51766900</v>
       </c>
       <c r="K17" s="3">
         <v>44573100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4822100</v>
+        <v>5021200</v>
       </c>
       <c r="E18" s="3">
-        <v>-1118800</v>
+        <v>-1165000</v>
       </c>
       <c r="F18" s="3">
-        <v>5057300</v>
+        <v>5266200</v>
       </c>
       <c r="G18" s="3">
-        <v>4382100</v>
+        <v>4563100</v>
       </c>
       <c r="H18" s="3">
-        <v>1552800</v>
+        <v>1617000</v>
       </c>
       <c r="I18" s="3">
-        <v>2438700</v>
+        <v>2539400</v>
       </c>
       <c r="J18" s="3">
-        <v>-4603300</v>
+        <v>-4793400</v>
       </c>
       <c r="K18" s="3">
         <v>-2438900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-632900</v>
+        <v>-659000</v>
       </c>
       <c r="E20" s="3">
-        <v>-55300</v>
+        <v>-57600</v>
       </c>
       <c r="F20" s="3">
-        <v>792900</v>
+        <v>825600</v>
       </c>
       <c r="G20" s="3">
-        <v>303500</v>
+        <v>316000</v>
       </c>
       <c r="H20" s="3">
-        <v>-651700</v>
+        <v>-678600</v>
       </c>
       <c r="I20" s="3">
-        <v>1378700</v>
+        <v>1435700</v>
       </c>
       <c r="J20" s="3">
-        <v>-271700</v>
+        <v>-283000</v>
       </c>
       <c r="K20" s="3">
         <v>2137700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>20931500</v>
+        <v>21675600</v>
       </c>
       <c r="E21" s="3">
-        <v>10395800</v>
+        <v>10742000</v>
       </c>
       <c r="F21" s="3">
-        <v>18145300</v>
+        <v>18806400</v>
       </c>
       <c r="G21" s="3">
-        <v>17780400</v>
+        <v>18420600</v>
       </c>
       <c r="H21" s="3">
-        <v>14717600</v>
+        <v>15226100</v>
       </c>
       <c r="I21" s="3">
-        <v>16938200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4054900</v>
+        <v>17543400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3253900</v>
+        <v>3388300</v>
       </c>
       <c r="E22" s="3">
-        <v>1899900</v>
+        <v>1978400</v>
       </c>
       <c r="F22" s="3">
-        <v>1288200</v>
+        <v>1341400</v>
       </c>
       <c r="G22" s="3">
-        <v>1401100</v>
+        <v>1459000</v>
       </c>
       <c r="H22" s="3">
-        <v>1124600</v>
+        <v>1171100</v>
       </c>
       <c r="I22" s="3">
-        <v>1777500</v>
+        <v>1851000</v>
       </c>
       <c r="J22" s="3">
-        <v>1324600</v>
+        <v>1379300</v>
       </c>
       <c r="K22" s="3">
         <v>3556500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>935200</v>
+        <v>973900</v>
       </c>
       <c r="E23" s="3">
-        <v>-3073900</v>
+        <v>-3200900</v>
       </c>
       <c r="F23" s="3">
-        <v>4562100</v>
+        <v>4750500</v>
       </c>
       <c r="G23" s="3">
-        <v>3284500</v>
+        <v>3420200</v>
       </c>
       <c r="H23" s="3">
-        <v>-223500</v>
+        <v>-232700</v>
       </c>
       <c r="I23" s="3">
-        <v>2039900</v>
+        <v>2124100</v>
       </c>
       <c r="J23" s="3">
-        <v>-6199600</v>
+        <v>-6455700</v>
       </c>
       <c r="K23" s="3">
         <v>-3857800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1470500</v>
+        <v>1531200</v>
       </c>
       <c r="E24" s="3">
-        <v>1759900</v>
+        <v>1832600</v>
       </c>
       <c r="F24" s="3">
-        <v>-1034100</v>
+        <v>-1076800</v>
       </c>
       <c r="G24" s="3">
-        <v>5604400</v>
+        <v>5835900</v>
       </c>
       <c r="H24" s="3">
-        <v>5807900</v>
+        <v>6047800</v>
       </c>
       <c r="I24" s="3">
-        <v>-7141900</v>
+        <v>-7436900</v>
       </c>
       <c r="J24" s="3">
-        <v>-19507100</v>
+        <v>-20312800</v>
       </c>
       <c r="K24" s="3">
         <v>527200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-535300</v>
+        <v>-557400</v>
       </c>
       <c r="E26" s="3">
-        <v>-4833800</v>
+        <v>-5033500</v>
       </c>
       <c r="F26" s="3">
-        <v>5596100</v>
+        <v>5827300</v>
       </c>
       <c r="G26" s="3">
-        <v>-2319900</v>
+        <v>-2415700</v>
       </c>
       <c r="H26" s="3">
-        <v>-6031400</v>
+        <v>-6280500</v>
       </c>
       <c r="I26" s="3">
-        <v>9181800</v>
+        <v>9561000</v>
       </c>
       <c r="J26" s="3">
-        <v>13307400</v>
+        <v>13857100</v>
       </c>
       <c r="K26" s="3">
         <v>-4385000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1082300</v>
+        <v>-1127000</v>
       </c>
       <c r="E27" s="3">
-        <v>-5276200</v>
+        <v>-5494100</v>
       </c>
       <c r="F27" s="3">
-        <v>5185600</v>
+        <v>5399800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2576300</v>
+        <v>-2682700</v>
       </c>
       <c r="H27" s="3">
-        <v>-6364300</v>
+        <v>-6627200</v>
       </c>
       <c r="I27" s="3">
-        <v>8948900</v>
+        <v>9318500</v>
       </c>
       <c r="J27" s="3">
-        <v>13112200</v>
+        <v>13653700</v>
       </c>
       <c r="K27" s="3">
         <v>-4655200</v>
@@ -1356,22 +1356,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-4158600</v>
+        <v>-4330300</v>
       </c>
       <c r="F29" s="3">
-        <v>-2316300</v>
+        <v>-2412000</v>
       </c>
       <c r="G29" s="3">
-        <v>-4831500</v>
+        <v>-5031000</v>
       </c>
       <c r="H29" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I29" s="3">
-        <v>-318800</v>
+        <v>-332000</v>
       </c>
       <c r="J29" s="3">
-        <v>56594300</v>
+        <v>58931800</v>
       </c>
       <c r="K29" s="3">
         <v>5112700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>632900</v>
+        <v>659000</v>
       </c>
       <c r="E32" s="3">
-        <v>55300</v>
+        <v>57600</v>
       </c>
       <c r="F32" s="3">
-        <v>-792900</v>
+        <v>-825600</v>
       </c>
       <c r="G32" s="3">
-        <v>-303500</v>
+        <v>-316000</v>
       </c>
       <c r="H32" s="3">
-        <v>651700</v>
+        <v>678600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1378700</v>
+        <v>-1435700</v>
       </c>
       <c r="J32" s="3">
-        <v>271700</v>
+        <v>283000</v>
       </c>
       <c r="K32" s="3">
         <v>-2137700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1082300</v>
+        <v>-1127000</v>
       </c>
       <c r="E33" s="3">
-        <v>-9434700</v>
+        <v>-9824400</v>
       </c>
       <c r="F33" s="3">
-        <v>2869200</v>
+        <v>2987800</v>
       </c>
       <c r="G33" s="3">
-        <v>-7407800</v>
+        <v>-7713800</v>
       </c>
       <c r="H33" s="3">
-        <v>-6358400</v>
+        <v>-6621100</v>
       </c>
       <c r="I33" s="3">
-        <v>8630100</v>
+        <v>8986500</v>
       </c>
       <c r="J33" s="3">
-        <v>69706400</v>
+        <v>72585600</v>
       </c>
       <c r="K33" s="3">
         <v>457400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1082300</v>
+        <v>-1127000</v>
       </c>
       <c r="E35" s="3">
-        <v>-9434700</v>
+        <v>-9824400</v>
       </c>
       <c r="F35" s="3">
-        <v>2869200</v>
+        <v>2987800</v>
       </c>
       <c r="G35" s="3">
-        <v>-7407800</v>
+        <v>-7713800</v>
       </c>
       <c r="H35" s="3">
-        <v>-6358400</v>
+        <v>-6621100</v>
       </c>
       <c r="I35" s="3">
-        <v>8630100</v>
+        <v>8986500</v>
       </c>
       <c r="J35" s="3">
-        <v>69706400</v>
+        <v>72585600</v>
       </c>
       <c r="K35" s="3">
         <v>457400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13036900</v>
+        <v>13575300</v>
       </c>
       <c r="E41" s="3">
-        <v>13459200</v>
+        <v>14015100</v>
       </c>
       <c r="F41" s="3">
-        <v>5498500</v>
+        <v>5725600</v>
       </c>
       <c r="G41" s="3">
-        <v>10393500</v>
+        <v>10822800</v>
       </c>
       <c r="H41" s="3">
-        <v>26385500</v>
+        <v>27475300</v>
       </c>
       <c r="I41" s="3">
-        <v>16824900</v>
+        <v>17519800</v>
       </c>
       <c r="J41" s="3">
-        <v>17975400</v>
+        <v>18717800</v>
       </c>
       <c r="K41" s="3">
         <v>8357900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10929900</v>
+        <v>11381400</v>
       </c>
       <c r="E42" s="3">
-        <v>17890700</v>
+        <v>18629600</v>
       </c>
       <c r="F42" s="3">
-        <v>10346400</v>
+        <v>10773800</v>
       </c>
       <c r="G42" s="3">
-        <v>7199600</v>
+        <v>7496900</v>
       </c>
       <c r="H42" s="3">
-        <v>10295900</v>
+        <v>10721100</v>
       </c>
       <c r="I42" s="3">
-        <v>8745400</v>
+        <v>9106600</v>
       </c>
       <c r="J42" s="3">
-        <v>11066400</v>
+        <v>11523500</v>
       </c>
       <c r="K42" s="3">
         <v>8970500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11852200</v>
+        <v>12341800</v>
       </c>
       <c r="E43" s="3">
-        <v>12978000</v>
+        <v>13514100</v>
       </c>
       <c r="F43" s="3">
-        <v>10292300</v>
+        <v>10717400</v>
       </c>
       <c r="G43" s="3">
-        <v>9651200</v>
+        <v>10049800</v>
       </c>
       <c r="H43" s="3">
-        <v>19688200</v>
+        <v>20501400</v>
       </c>
       <c r="I43" s="3">
-        <v>19931700</v>
+        <v>20755000</v>
       </c>
       <c r="J43" s="3">
-        <v>10938200</v>
+        <v>11390000</v>
       </c>
       <c r="K43" s="3">
         <v>5397000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>688200</v>
+        <v>716600</v>
       </c>
       <c r="E44" s="3">
-        <v>839900</v>
+        <v>874600</v>
       </c>
       <c r="F44" s="3">
-        <v>683500</v>
+        <v>711700</v>
       </c>
       <c r="G44" s="3">
-        <v>677600</v>
+        <v>705600</v>
       </c>
       <c r="H44" s="3">
-        <v>1684600</v>
+        <v>1754200</v>
       </c>
       <c r="I44" s="3">
-        <v>1351700</v>
+        <v>1407500</v>
       </c>
       <c r="J44" s="3">
-        <v>1037600</v>
+        <v>1080400</v>
       </c>
       <c r="K44" s="3">
         <v>891200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1895200</v>
+        <v>1973500</v>
       </c>
       <c r="E45" s="3">
-        <v>1672800</v>
+        <v>1741900</v>
       </c>
       <c r="F45" s="3">
-        <v>1567000</v>
+        <v>1631700</v>
       </c>
       <c r="G45" s="3">
-        <v>2125800</v>
+        <v>2213600</v>
       </c>
       <c r="H45" s="3">
-        <v>7059600</v>
+        <v>7351200</v>
       </c>
       <c r="I45" s="3">
-        <v>3583300</v>
+        <v>3731300</v>
       </c>
       <c r="J45" s="3">
-        <v>505900</v>
+        <v>526700</v>
       </c>
       <c r="K45" s="3">
         <v>3942000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38402400</v>
+        <v>39988600</v>
       </c>
       <c r="E46" s="3">
-        <v>46840700</v>
+        <v>48775400</v>
       </c>
       <c r="F46" s="3">
-        <v>28387700</v>
+        <v>29560200</v>
       </c>
       <c r="G46" s="3">
-        <v>30047600</v>
+        <v>31288700</v>
       </c>
       <c r="H46" s="3">
-        <v>37571900</v>
+        <v>39123700</v>
       </c>
       <c r="I46" s="3">
-        <v>32300400</v>
+        <v>33634600</v>
       </c>
       <c r="J46" s="3">
-        <v>29083000</v>
+        <v>30284200</v>
       </c>
       <c r="K46" s="3">
         <v>24026100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20000000</v>
+        <v>20826100</v>
       </c>
       <c r="E47" s="3">
-        <v>11754600</v>
+        <v>12240100</v>
       </c>
       <c r="F47" s="3">
-        <v>11491100</v>
+        <v>11965700</v>
       </c>
       <c r="G47" s="3">
-        <v>13135700</v>
+        <v>13678200</v>
       </c>
       <c r="H47" s="3">
-        <v>12826300</v>
+        <v>13356100</v>
       </c>
       <c r="I47" s="3">
-        <v>14796800</v>
+        <v>15407900</v>
       </c>
       <c r="J47" s="3">
-        <v>8160700</v>
+        <v>8497800</v>
       </c>
       <c r="K47" s="3">
         <v>62541700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46111400</v>
+        <v>48015900</v>
       </c>
       <c r="E48" s="3">
-        <v>32271000</v>
+        <v>33603900</v>
       </c>
       <c r="F48" s="3">
-        <v>33321500</v>
+        <v>34697800</v>
       </c>
       <c r="G48" s="3">
-        <v>35532000</v>
+        <v>36999600</v>
       </c>
       <c r="H48" s="3">
-        <v>83559700</v>
+        <v>87011000</v>
       </c>
       <c r="I48" s="3">
-        <v>74594300</v>
+        <v>77675400</v>
       </c>
       <c r="J48" s="3">
-        <v>53763800</v>
+        <v>55984500</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>62964500</v>
+        <v>65565100</v>
       </c>
       <c r="E49" s="3">
-        <v>48238300</v>
+        <v>50230700</v>
       </c>
       <c r="F49" s="3">
-        <v>50887500</v>
+        <v>52989400</v>
       </c>
       <c r="G49" s="3">
-        <v>54373200</v>
+        <v>56619000</v>
       </c>
       <c r="H49" s="3">
-        <v>137789000</v>
+        <v>143481000</v>
       </c>
       <c r="I49" s="3">
-        <v>121173000</v>
+        <v>126178000</v>
       </c>
       <c r="J49" s="3">
-        <v>109848000</v>
+        <v>114385000</v>
       </c>
       <c r="K49" s="3">
         <v>107136000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30354600</v>
+        <v>31608400</v>
       </c>
       <c r="E52" s="3">
-        <v>28958300</v>
+        <v>30154400</v>
       </c>
       <c r="F52" s="3">
-        <v>47208900</v>
+        <v>49158800</v>
       </c>
       <c r="G52" s="3">
-        <v>48881800</v>
+        <v>50900800</v>
       </c>
       <c r="H52" s="3">
-        <v>37864800</v>
+        <v>39428800</v>
       </c>
       <c r="I52" s="3">
-        <v>39085900</v>
+        <v>40700300</v>
       </c>
       <c r="J52" s="3">
-        <v>24283200</v>
+        <v>25286200</v>
       </c>
       <c r="K52" s="3">
         <v>3218400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>197833000</v>
+        <v>206004000</v>
       </c>
       <c r="E54" s="3">
-        <v>168063000</v>
+        <v>175005000</v>
       </c>
       <c r="F54" s="3">
-        <v>171297000</v>
+        <v>178372000</v>
       </c>
       <c r="G54" s="3">
-        <v>181970000</v>
+        <v>189486000</v>
       </c>
       <c r="H54" s="3">
-        <v>198938000</v>
+        <v>207154000</v>
       </c>
       <c r="I54" s="3">
-        <v>199493000</v>
+        <v>207733000</v>
       </c>
       <c r="J54" s="3">
-        <v>143333000</v>
+        <v>149253000</v>
       </c>
       <c r="K54" s="3">
         <v>153512000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7823100</v>
+        <v>8146200</v>
       </c>
       <c r="E57" s="3">
-        <v>7725400</v>
+        <v>8044500</v>
       </c>
       <c r="F57" s="3">
-        <v>7307800</v>
+        <v>7609600</v>
       </c>
       <c r="G57" s="3">
-        <v>7324300</v>
+        <v>7626800</v>
       </c>
       <c r="H57" s="3">
-        <v>8807700</v>
+        <v>9171500</v>
       </c>
       <c r="I57" s="3">
-        <v>30262900</v>
+        <v>31512900</v>
       </c>
       <c r="J57" s="3">
-        <v>5600800</v>
+        <v>5832200</v>
       </c>
       <c r="K57" s="3">
         <v>9059300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13912100</v>
+        <v>14486700</v>
       </c>
       <c r="E58" s="3">
-        <v>5023200</v>
+        <v>5230700</v>
       </c>
       <c r="F58" s="3">
-        <v>12176900</v>
+        <v>12679900</v>
       </c>
       <c r="G58" s="3">
-        <v>14176800</v>
+        <v>14762400</v>
       </c>
       <c r="H58" s="3">
-        <v>32193400</v>
+        <v>33523100</v>
       </c>
       <c r="I58" s="3">
-        <v>30848700</v>
+        <v>32122900</v>
       </c>
       <c r="J58" s="3">
-        <v>5004400</v>
+        <v>5211100</v>
       </c>
       <c r="K58" s="3">
         <v>14101100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16446100</v>
+        <v>17125400</v>
       </c>
       <c r="E59" s="3">
-        <v>17276600</v>
+        <v>17990200</v>
       </c>
       <c r="F59" s="3">
-        <v>26423100</v>
+        <v>27514500</v>
       </c>
       <c r="G59" s="3">
-        <v>28365400</v>
+        <v>29537000</v>
       </c>
       <c r="H59" s="3">
-        <v>22135100</v>
+        <v>23049400</v>
       </c>
       <c r="I59" s="3">
-        <v>18307100</v>
+        <v>19063300</v>
       </c>
       <c r="J59" s="3">
-        <v>23263300</v>
+        <v>24224200</v>
       </c>
       <c r="K59" s="3">
         <v>17625800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38181200</v>
+        <v>39758300</v>
       </c>
       <c r="E60" s="3">
-        <v>30025300</v>
+        <v>31265400</v>
       </c>
       <c r="F60" s="3">
-        <v>45907800</v>
+        <v>47804000</v>
       </c>
       <c r="G60" s="3">
-        <v>49866400</v>
+        <v>51926100</v>
       </c>
       <c r="H60" s="3">
-        <v>49685300</v>
+        <v>51737500</v>
       </c>
       <c r="I60" s="3">
-        <v>47031300</v>
+        <v>48973900</v>
       </c>
       <c r="J60" s="3">
-        <v>29455900</v>
+        <v>30672500</v>
       </c>
       <c r="K60" s="3">
         <v>31483900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73986100</v>
+        <v>77042100</v>
       </c>
       <c r="E61" s="3">
-        <v>57273000</v>
+        <v>59638600</v>
       </c>
       <c r="F61" s="3">
-        <v>38385900</v>
+        <v>39971400</v>
       </c>
       <c r="G61" s="3">
-        <v>40254100</v>
+        <v>41916700</v>
       </c>
       <c r="H61" s="3">
-        <v>43282100</v>
+        <v>45069800</v>
       </c>
       <c r="I61" s="3">
-        <v>36514300</v>
+        <v>38022500</v>
       </c>
       <c r="J61" s="3">
-        <v>25109100</v>
+        <v>26146200</v>
       </c>
       <c r="K61" s="3">
         <v>30132200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10757000</v>
+        <v>11201300</v>
       </c>
       <c r="E62" s="3">
-        <v>6127900</v>
+        <v>6381000</v>
       </c>
       <c r="F62" s="3">
-        <v>6293700</v>
+        <v>6553700</v>
       </c>
       <c r="G62" s="3">
-        <v>5126800</v>
+        <v>5338500</v>
       </c>
       <c r="H62" s="3">
-        <v>8050100</v>
+        <v>8382600</v>
       </c>
       <c r="I62" s="3">
-        <v>7352500</v>
+        <v>7656200</v>
       </c>
       <c r="J62" s="3">
-        <v>5906700</v>
+        <v>6150700</v>
       </c>
       <c r="K62" s="3">
         <v>13106700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>125590000</v>
+        <v>130778000</v>
       </c>
       <c r="E66" s="3">
-        <v>94869600</v>
+        <v>98788100</v>
       </c>
       <c r="F66" s="3">
-        <v>91725100</v>
+        <v>95513700</v>
       </c>
       <c r="G66" s="3">
-        <v>97034200</v>
+        <v>101042000</v>
       </c>
       <c r="H66" s="3">
-        <v>100914000</v>
+        <v>105082000</v>
       </c>
       <c r="I66" s="3">
-        <v>91840400</v>
+        <v>95633700</v>
       </c>
       <c r="J66" s="3">
-        <v>60041100</v>
+        <v>62521000</v>
       </c>
       <c r="K66" s="3">
         <v>74186800</v>
@@ -2639,7 +2639,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>-60499900</v>
+        <v>-62998800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72242700</v>
+        <v>75226600</v>
       </c>
       <c r="E76" s="3">
-        <v>73193300</v>
+        <v>76216400</v>
       </c>
       <c r="F76" s="3">
-        <v>79571700</v>
+        <v>82858300</v>
       </c>
       <c r="G76" s="3">
-        <v>84936100</v>
+        <v>88444300</v>
       </c>
       <c r="H76" s="3">
-        <v>98023500</v>
+        <v>102072000</v>
       </c>
       <c r="I76" s="3">
-        <v>107652000</v>
+        <v>112099000</v>
       </c>
       <c r="J76" s="3">
-        <v>83291500</v>
+        <v>86731700</v>
       </c>
       <c r="K76" s="3">
         <v>79325200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1082300</v>
+        <v>-1127000</v>
       </c>
       <c r="E81" s="3">
-        <v>-9434700</v>
+        <v>-9824400</v>
       </c>
       <c r="F81" s="3">
-        <v>2869200</v>
+        <v>2987800</v>
       </c>
       <c r="G81" s="3">
-        <v>-7407800</v>
+        <v>-7713800</v>
       </c>
       <c r="H81" s="3">
-        <v>-6358400</v>
+        <v>-6621100</v>
       </c>
       <c r="I81" s="3">
-        <v>8630100</v>
+        <v>8986500</v>
       </c>
       <c r="J81" s="3">
-        <v>69706400</v>
+        <v>72585600</v>
       </c>
       <c r="K81" s="3">
         <v>457400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16674300</v>
+        <v>17363000</v>
       </c>
       <c r="E83" s="3">
-        <v>11522800</v>
+        <v>11998800</v>
       </c>
       <c r="F83" s="3">
-        <v>12245100</v>
+        <v>12750900</v>
       </c>
       <c r="G83" s="3">
-        <v>13041600</v>
+        <v>13580200</v>
       </c>
       <c r="H83" s="3">
-        <v>13760400</v>
+        <v>14328700</v>
       </c>
       <c r="I83" s="3">
-        <v>13067500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>8893600</v>
+        <v>13607200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20444700</v>
+        <v>21289100</v>
       </c>
       <c r="E89" s="3">
-        <v>15269700</v>
+        <v>15900400</v>
       </c>
       <c r="F89" s="3">
-        <v>15999000</v>
+        <v>16659900</v>
       </c>
       <c r="G89" s="3">
-        <v>16731900</v>
+        <v>17423000</v>
       </c>
       <c r="H89" s="3">
-        <v>16864900</v>
+        <v>17561500</v>
       </c>
       <c r="I89" s="3">
-        <v>14902600</v>
+        <v>15518200</v>
       </c>
       <c r="J89" s="3">
-        <v>7325400</v>
+        <v>7628000</v>
       </c>
       <c r="K89" s="3">
         <v>9773500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6096100</v>
+        <v>-6347900</v>
       </c>
       <c r="E91" s="3">
-        <v>-5944300</v>
+        <v>-6189900</v>
       </c>
       <c r="F91" s="3">
-        <v>-5784400</v>
+        <v>-6023300</v>
       </c>
       <c r="G91" s="3">
-        <v>-7393700</v>
+        <v>-7699100</v>
       </c>
       <c r="H91" s="3">
-        <v>-9722900</v>
+        <v>-10124500</v>
       </c>
       <c r="I91" s="3">
-        <v>-8616000</v>
+        <v>-8971800</v>
       </c>
       <c r="J91" s="3">
-        <v>-5171500</v>
+        <v>-5385100</v>
       </c>
       <c r="K91" s="3">
         <v>-4383900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9514700</v>
+        <v>-9907700</v>
       </c>
       <c r="E94" s="3">
-        <v>-10842900</v>
+        <v>-11290700</v>
       </c>
       <c r="F94" s="3">
-        <v>-11577000</v>
+        <v>-12055100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9908800</v>
+        <v>-10318100</v>
       </c>
       <c r="H94" s="3">
-        <v>-16317800</v>
+        <v>-16991800</v>
       </c>
       <c r="I94" s="3">
-        <v>-15568500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>36166100</v>
+        <v>-16211500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2701000</v>
+        <v>-2812600</v>
       </c>
       <c r="E96" s="3">
-        <v>-4780900</v>
+        <v>-4978400</v>
       </c>
       <c r="F96" s="3">
-        <v>-4611500</v>
+        <v>-4802000</v>
       </c>
       <c r="G96" s="3">
-        <v>-4369100</v>
+        <v>-4549600</v>
       </c>
       <c r="H96" s="3">
-        <v>-4926800</v>
+        <v>-5130300</v>
       </c>
       <c r="I96" s="3">
-        <v>-4420900</v>
+        <v>-4603500</v>
       </c>
       <c r="J96" s="3">
-        <v>-5971400</v>
+        <v>-6218000</v>
       </c>
       <c r="K96" s="3">
         <v>-5323100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11001700</v>
+        <v>-11456100</v>
       </c>
       <c r="E100" s="3">
-        <v>5219700</v>
+        <v>5435300</v>
       </c>
       <c r="F100" s="3">
-        <v>-8510100</v>
+        <v>-8861600</v>
       </c>
       <c r="G100" s="3">
-        <v>-10700500</v>
+        <v>-11142500</v>
       </c>
       <c r="H100" s="3">
-        <v>4802100</v>
+        <v>5000400</v>
       </c>
       <c r="I100" s="3">
-        <v>-3719800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-40290500</v>
+        <v>-3873400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-301200</v>
+        <v>-313600</v>
       </c>
       <c r="E101" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="F101" s="3">
-        <v>-509400</v>
+        <v>-530400</v>
       </c>
       <c r="G101" s="3">
-        <v>-368200</v>
+        <v>-383400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1327000</v>
+        <v>-1381800</v>
       </c>
       <c r="I101" s="3">
-        <v>1147000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-135300</v>
+        <v>1194400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-372900</v>
+        <v>-388300</v>
       </c>
       <c r="E102" s="3">
-        <v>9659400</v>
+        <v>10058400</v>
       </c>
       <c r="F102" s="3">
-        <v>-4597400</v>
+        <v>-4787300</v>
       </c>
       <c r="G102" s="3">
-        <v>-4245600</v>
+        <v>-4421000</v>
       </c>
       <c r="H102" s="3">
-        <v>4022100</v>
+        <v>4188200</v>
       </c>
       <c r="I102" s="3">
-        <v>-3238600</v>
+        <v>-3372400</v>
       </c>
       <c r="J102" s="3">
-        <v>3065700</v>
+        <v>3192300</v>
       </c>
       <c r="K102" s="3">
         <v>559300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>55092700</v>
+        <v>51143100</v>
       </c>
       <c r="E8" s="3">
-        <v>53490400</v>
+        <v>52503100</v>
       </c>
       <c r="F8" s="3">
-        <v>57049000</v>
+        <v>50976100</v>
       </c>
       <c r="G8" s="3">
-        <v>58347500</v>
+        <v>54367500</v>
       </c>
       <c r="H8" s="3">
-        <v>61016800</v>
+        <v>55604900</v>
       </c>
       <c r="I8" s="3">
-        <v>59271100</v>
+        <v>58148700</v>
       </c>
       <c r="J8" s="3">
+        <v>56485100</v>
+      </c>
+      <c r="K8" s="3">
         <v>46973500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42134200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43556800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37585100</v>
+        <v>35122700</v>
       </c>
       <c r="E9" s="3">
-        <v>36945700</v>
+        <v>35818500</v>
       </c>
       <c r="F9" s="3">
-        <v>40144100</v>
+        <v>35209100</v>
       </c>
       <c r="G9" s="3">
-        <v>42355300</v>
+        <v>38257200</v>
       </c>
       <c r="H9" s="3">
-        <v>44973100</v>
+        <v>40364400</v>
       </c>
       <c r="I9" s="3">
-        <v>42964100</v>
+        <v>42859100</v>
       </c>
       <c r="J9" s="3">
+        <v>40944600</v>
+      </c>
+      <c r="K9" s="3">
         <v>34228700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29425600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30519200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17507600</v>
+        <v>16020400</v>
       </c>
       <c r="E10" s="3">
-        <v>16544700</v>
+        <v>16684600</v>
       </c>
       <c r="F10" s="3">
-        <v>16904900</v>
+        <v>15767000</v>
       </c>
       <c r="G10" s="3">
-        <v>15992200</v>
+        <v>16110300</v>
       </c>
       <c r="H10" s="3">
-        <v>16043700</v>
+        <v>15240500</v>
       </c>
       <c r="I10" s="3">
-        <v>16307100</v>
+        <v>15289600</v>
       </c>
       <c r="J10" s="3">
+        <v>15540600</v>
+      </c>
+      <c r="K10" s="3">
         <v>12744800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12708600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13037500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2064100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>4318100</v>
+        <v>1967100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>4115100</v>
       </c>
       <c r="G14" s="3">
-        <v>-1561900</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>697000</v>
+        <v>-1488400</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>664300</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>8084900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8528500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4544100</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50071500</v>
+        <v>45192800</v>
       </c>
       <c r="E17" s="3">
-        <v>54655400</v>
+        <v>47717900</v>
       </c>
       <c r="F17" s="3">
-        <v>51782800</v>
+        <v>52086300</v>
       </c>
       <c r="G17" s="3">
-        <v>53784400</v>
+        <v>49348800</v>
       </c>
       <c r="H17" s="3">
-        <v>59399800</v>
+        <v>51256300</v>
       </c>
       <c r="I17" s="3">
-        <v>56731700</v>
+        <v>56607700</v>
       </c>
       <c r="J17" s="3">
+        <v>54065100</v>
+      </c>
+      <c r="K17" s="3">
         <v>51766900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44573100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37253400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5021200</v>
+        <v>5950300</v>
       </c>
       <c r="E18" s="3">
-        <v>-1165000</v>
+        <v>4785200</v>
       </c>
       <c r="F18" s="3">
-        <v>5266200</v>
+        <v>-1110200</v>
       </c>
       <c r="G18" s="3">
-        <v>4563100</v>
+        <v>5018700</v>
       </c>
       <c r="H18" s="3">
-        <v>1617000</v>
+        <v>4348600</v>
       </c>
       <c r="I18" s="3">
-        <v>2539400</v>
+        <v>1541000</v>
       </c>
       <c r="J18" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4793400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2438900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6303300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-659000</v>
+        <v>163400</v>
       </c>
       <c r="E20" s="3">
-        <v>-57600</v>
+        <v>-628100</v>
       </c>
       <c r="F20" s="3">
-        <v>825600</v>
+        <v>-54900</v>
       </c>
       <c r="G20" s="3">
-        <v>316000</v>
+        <v>786800</v>
       </c>
       <c r="H20" s="3">
-        <v>-678600</v>
+        <v>301200</v>
       </c>
       <c r="I20" s="3">
-        <v>1435700</v>
+        <v>-646700</v>
       </c>
       <c r="J20" s="3">
+        <v>1368200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-283000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2137700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2065600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21675600</v>
+        <v>22626000</v>
       </c>
       <c r="E21" s="3">
-        <v>10742000</v>
+        <v>20754900</v>
       </c>
       <c r="F21" s="3">
-        <v>18806400</v>
+        <v>10304900</v>
       </c>
       <c r="G21" s="3">
-        <v>18420600</v>
+        <v>17994500</v>
       </c>
       <c r="H21" s="3">
-        <v>15226100</v>
+        <v>17631500</v>
       </c>
       <c r="I21" s="3">
-        <v>17543400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>14591400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>16795700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>15928000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3388300</v>
+        <v>977100</v>
       </c>
       <c r="E22" s="3">
-        <v>1978400</v>
+        <v>3229100</v>
       </c>
       <c r="F22" s="3">
-        <v>1341400</v>
+        <v>1885400</v>
       </c>
       <c r="G22" s="3">
-        <v>1459000</v>
+        <v>1278300</v>
       </c>
       <c r="H22" s="3">
-        <v>1171100</v>
+        <v>1390400</v>
       </c>
       <c r="I22" s="3">
-        <v>1851000</v>
+        <v>1116000</v>
       </c>
       <c r="J22" s="3">
+        <v>1764000</v>
+      </c>
+      <c r="K22" s="3">
         <v>1379300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3556500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3719400</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>973900</v>
+        <v>5136600</v>
       </c>
       <c r="E23" s="3">
-        <v>-3200900</v>
+        <v>928100</v>
       </c>
       <c r="F23" s="3">
-        <v>4750500</v>
+        <v>-3050400</v>
       </c>
       <c r="G23" s="3">
-        <v>3420200</v>
+        <v>4527200</v>
       </c>
       <c r="H23" s="3">
-        <v>-232700</v>
+        <v>3259400</v>
       </c>
       <c r="I23" s="3">
-        <v>2124100</v>
+        <v>-221800</v>
       </c>
       <c r="J23" s="3">
+        <v>2024300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6455700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3857800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4649500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1531200</v>
+        <v>4510900</v>
       </c>
       <c r="E24" s="3">
-        <v>1832600</v>
+        <v>1459300</v>
       </c>
       <c r="F24" s="3">
-        <v>-1076800</v>
+        <v>1746400</v>
       </c>
       <c r="G24" s="3">
-        <v>5835900</v>
+        <v>-1026200</v>
       </c>
       <c r="H24" s="3">
-        <v>6047800</v>
+        <v>5561500</v>
       </c>
       <c r="I24" s="3">
-        <v>-7436900</v>
+        <v>5763500</v>
       </c>
       <c r="J24" s="3">
+        <v>-7087300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-20312800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>527200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>791000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-557400</v>
+        <v>625700</v>
       </c>
       <c r="E26" s="3">
-        <v>-5033500</v>
+        <v>-531200</v>
       </c>
       <c r="F26" s="3">
-        <v>5827300</v>
+        <v>-4796900</v>
       </c>
       <c r="G26" s="3">
-        <v>-2415700</v>
+        <v>5553400</v>
       </c>
       <c r="H26" s="3">
-        <v>-6280500</v>
+        <v>-2302100</v>
       </c>
       <c r="I26" s="3">
-        <v>9561000</v>
+        <v>-5985300</v>
       </c>
       <c r="J26" s="3">
+        <v>9111600</v>
+      </c>
+      <c r="K26" s="3">
         <v>13857100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3858500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1127000</v>
+        <v>130700</v>
       </c>
       <c r="E27" s="3">
-        <v>-5494100</v>
+        <v>-1074000</v>
       </c>
       <c r="F27" s="3">
-        <v>5399800</v>
+        <v>-5235800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2682700</v>
+        <v>5145900</v>
       </c>
       <c r="H27" s="3">
-        <v>-6627200</v>
+        <v>-2556600</v>
       </c>
       <c r="I27" s="3">
-        <v>9318500</v>
+        <v>-6315700</v>
       </c>
       <c r="J27" s="3">
+        <v>8880500</v>
+      </c>
+      <c r="K27" s="3">
         <v>13653700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4655200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3806900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1356,32 +1416,35 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-4330300</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-2412000</v>
+        <v>-4126800</v>
       </c>
       <c r="G29" s="3">
-        <v>-5031000</v>
+        <v>-2298600</v>
       </c>
       <c r="H29" s="3">
-        <v>6100</v>
+        <v>-4794600</v>
       </c>
       <c r="I29" s="3">
-        <v>-332000</v>
+        <v>5800</v>
       </c>
       <c r="J29" s="3">
+        <v>-316400</v>
+      </c>
+      <c r="K29" s="3">
         <v>58931800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5112700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>3988700</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>659000</v>
+        <v>-163400</v>
       </c>
       <c r="E32" s="3">
-        <v>57600</v>
+        <v>628100</v>
       </c>
       <c r="F32" s="3">
-        <v>-825600</v>
+        <v>54900</v>
       </c>
       <c r="G32" s="3">
-        <v>-316000</v>
+        <v>-786800</v>
       </c>
       <c r="H32" s="3">
-        <v>678600</v>
+        <v>-301200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1435700</v>
+        <v>646700</v>
       </c>
       <c r="J32" s="3">
+        <v>-1368200</v>
+      </c>
+      <c r="K32" s="3">
         <v>283000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2137700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2065600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1127000</v>
+        <v>130700</v>
       </c>
       <c r="E33" s="3">
-        <v>-9824400</v>
+        <v>-1074000</v>
       </c>
       <c r="F33" s="3">
-        <v>2987800</v>
+        <v>-9362600</v>
       </c>
       <c r="G33" s="3">
-        <v>-7713800</v>
+        <v>2847300</v>
       </c>
       <c r="H33" s="3">
-        <v>-6621100</v>
+        <v>-7351200</v>
       </c>
       <c r="I33" s="3">
-        <v>8986500</v>
+        <v>-6309900</v>
       </c>
       <c r="J33" s="3">
+        <v>8564100</v>
+      </c>
+      <c r="K33" s="3">
         <v>72585600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>457400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7795600</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1127000</v>
+        <v>130700</v>
       </c>
       <c r="E35" s="3">
-        <v>-9824400</v>
+        <v>-1074000</v>
       </c>
       <c r="F35" s="3">
-        <v>2987800</v>
+        <v>-9362600</v>
       </c>
       <c r="G35" s="3">
-        <v>-7713800</v>
+        <v>2847300</v>
       </c>
       <c r="H35" s="3">
-        <v>-6621100</v>
+        <v>-7351200</v>
       </c>
       <c r="I35" s="3">
-        <v>8986500</v>
+        <v>-6309900</v>
       </c>
       <c r="J35" s="3">
+        <v>8564100</v>
+      </c>
+      <c r="K35" s="3">
         <v>72585600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>457400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7795600</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13575300</v>
+        <v>6795500</v>
       </c>
       <c r="E41" s="3">
-        <v>14015100</v>
+        <v>13255900</v>
       </c>
       <c r="F41" s="3">
-        <v>5725600</v>
+        <v>13356300</v>
       </c>
       <c r="G41" s="3">
-        <v>10822800</v>
+        <v>5456500</v>
       </c>
       <c r="H41" s="3">
-        <v>27475300</v>
+        <v>10314100</v>
       </c>
       <c r="I41" s="3">
-        <v>17519800</v>
+        <v>26183800</v>
       </c>
       <c r="J41" s="3">
+        <v>16696300</v>
+      </c>
+      <c r="K41" s="3">
         <v>18717800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8357900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8008800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11381400</v>
+        <v>10692300</v>
       </c>
       <c r="E42" s="3">
-        <v>18629600</v>
+        <v>10846400</v>
       </c>
       <c r="F42" s="3">
-        <v>10773800</v>
+        <v>17754000</v>
       </c>
       <c r="G42" s="3">
-        <v>7496900</v>
+        <v>10267400</v>
       </c>
       <c r="H42" s="3">
-        <v>10721100</v>
+        <v>7144500</v>
       </c>
       <c r="I42" s="3">
-        <v>9106600</v>
+        <v>10217200</v>
       </c>
       <c r="J42" s="3">
+        <v>8678500</v>
+      </c>
+      <c r="K42" s="3">
         <v>11523500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8970500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1484400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12341800</v>
+        <v>11716100</v>
       </c>
       <c r="E43" s="3">
-        <v>13514100</v>
+        <v>12020800</v>
       </c>
       <c r="F43" s="3">
-        <v>10717400</v>
+        <v>12878900</v>
       </c>
       <c r="G43" s="3">
-        <v>10049800</v>
+        <v>10213700</v>
       </c>
       <c r="H43" s="3">
-        <v>20501400</v>
+        <v>9577400</v>
       </c>
       <c r="I43" s="3">
-        <v>20755000</v>
+        <v>19537800</v>
       </c>
       <c r="J43" s="3">
+        <v>19779400</v>
+      </c>
+      <c r="K43" s="3">
         <v>11390000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5397000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8098500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>716600</v>
+        <v>789200</v>
       </c>
       <c r="E44" s="3">
-        <v>874600</v>
+        <v>698100</v>
       </c>
       <c r="F44" s="3">
-        <v>711700</v>
+        <v>833500</v>
       </c>
       <c r="G44" s="3">
-        <v>705600</v>
+        <v>678300</v>
       </c>
       <c r="H44" s="3">
-        <v>1754200</v>
+        <v>672400</v>
       </c>
       <c r="I44" s="3">
-        <v>1407500</v>
+        <v>1671700</v>
       </c>
       <c r="J44" s="3">
+        <v>1341400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1080400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>891200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>545300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1973500</v>
+        <v>1542100</v>
       </c>
       <c r="E45" s="3">
-        <v>1741900</v>
+        <v>1990400</v>
       </c>
       <c r="F45" s="3">
-        <v>1631700</v>
+        <v>1660100</v>
       </c>
       <c r="G45" s="3">
-        <v>2213600</v>
+        <v>1555000</v>
       </c>
       <c r="H45" s="3">
-        <v>7351200</v>
+        <v>2109500</v>
       </c>
       <c r="I45" s="3">
-        <v>3731300</v>
+        <v>7005600</v>
       </c>
       <c r="J45" s="3">
+        <v>3555900</v>
+      </c>
+      <c r="K45" s="3">
         <v>526700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3942000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4330900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39988600</v>
+        <v>31535200</v>
       </c>
       <c r="E46" s="3">
-        <v>48775400</v>
+        <v>38811700</v>
       </c>
       <c r="F46" s="3">
-        <v>29560200</v>
+        <v>46482800</v>
       </c>
       <c r="G46" s="3">
-        <v>31288700</v>
+        <v>28170800</v>
       </c>
       <c r="H46" s="3">
-        <v>39123700</v>
+        <v>29818000</v>
       </c>
       <c r="I46" s="3">
-        <v>33634600</v>
+        <v>37284700</v>
       </c>
       <c r="J46" s="3">
+        <v>32053600</v>
+      </c>
+      <c r="K46" s="3">
         <v>30284200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24026100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22467800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20826100</v>
+        <v>12108400</v>
       </c>
       <c r="E47" s="3">
-        <v>12240100</v>
+        <v>19864600</v>
       </c>
       <c r="F47" s="3">
-        <v>11965700</v>
+        <v>11664800</v>
       </c>
       <c r="G47" s="3">
-        <v>13678200</v>
+        <v>11403300</v>
       </c>
       <c r="H47" s="3">
-        <v>13356100</v>
+        <v>13035300</v>
       </c>
       <c r="I47" s="3">
-        <v>15407900</v>
+        <v>12728300</v>
       </c>
       <c r="J47" s="3">
+        <v>14683700</v>
+      </c>
+      <c r="K47" s="3">
         <v>8497800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>62541700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>44185100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>48015900</v>
+        <v>48147500</v>
       </c>
       <c r="E48" s="3">
-        <v>33603900</v>
+        <v>46828300</v>
       </c>
       <c r="F48" s="3">
-        <v>34697800</v>
+        <v>32024400</v>
       </c>
       <c r="G48" s="3">
-        <v>36999600</v>
+        <v>33066900</v>
       </c>
       <c r="H48" s="3">
-        <v>87011000</v>
+        <v>35260500</v>
       </c>
       <c r="I48" s="3">
-        <v>77675400</v>
+        <v>82921100</v>
       </c>
       <c r="J48" s="3">
+        <v>74024300</v>
+      </c>
+      <c r="K48" s="3">
         <v>55984500</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20930700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65565100</v>
+        <v>62513600</v>
       </c>
       <c r="E49" s="3">
-        <v>50230700</v>
+        <v>63050600</v>
       </c>
       <c r="F49" s="3">
-        <v>52989400</v>
+        <v>47869600</v>
       </c>
       <c r="G49" s="3">
-        <v>56619000</v>
+        <v>50498700</v>
       </c>
       <c r="H49" s="3">
-        <v>143481000</v>
+        <v>53957700</v>
       </c>
       <c r="I49" s="3">
-        <v>126178000</v>
+        <v>136736000</v>
       </c>
       <c r="J49" s="3">
+        <v>120247000</v>
+      </c>
+      <c r="K49" s="3">
         <v>114385000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>107136000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66774100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31608400</v>
+        <v>26717300</v>
       </c>
       <c r="E52" s="3">
-        <v>30154400</v>
+        <v>27765700</v>
       </c>
       <c r="F52" s="3">
-        <v>49158800</v>
+        <v>28737000</v>
       </c>
       <c r="G52" s="3">
-        <v>50900800</v>
+        <v>46848200</v>
       </c>
       <c r="H52" s="3">
-        <v>39428800</v>
+        <v>48508200</v>
       </c>
       <c r="I52" s="3">
-        <v>40700300</v>
+        <v>37575400</v>
       </c>
       <c r="J52" s="3">
+        <v>38787200</v>
+      </c>
+      <c r="K52" s="3">
         <v>25286200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3218400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2245100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>206004000</v>
+        <v>181022000</v>
       </c>
       <c r="E54" s="3">
-        <v>175005000</v>
+        <v>196321000</v>
       </c>
       <c r="F54" s="3">
-        <v>178372000</v>
+        <v>166779000</v>
       </c>
       <c r="G54" s="3">
-        <v>189486000</v>
+        <v>169988000</v>
       </c>
       <c r="H54" s="3">
-        <v>207154000</v>
+        <v>180580000</v>
       </c>
       <c r="I54" s="3">
-        <v>207733000</v>
+        <v>197417000</v>
       </c>
       <c r="J54" s="3">
+        <v>197968000</v>
+      </c>
+      <c r="K54" s="3">
         <v>149253000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>153512000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>156603000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8146200</v>
+        <v>7909200</v>
       </c>
       <c r="E57" s="3">
-        <v>8044500</v>
+        <v>7876500</v>
       </c>
       <c r="F57" s="3">
-        <v>7609600</v>
+        <v>7666400</v>
       </c>
       <c r="G57" s="3">
-        <v>7626800</v>
+        <v>7252000</v>
       </c>
       <c r="H57" s="3">
-        <v>9171500</v>
+        <v>7268300</v>
       </c>
       <c r="I57" s="3">
-        <v>31512900</v>
+        <v>8740400</v>
       </c>
       <c r="J57" s="3">
+        <v>30031600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5832200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9059300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5098300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14486700</v>
+        <v>9909000</v>
       </c>
       <c r="E58" s="3">
-        <v>5230700</v>
+        <v>13980900</v>
       </c>
       <c r="F58" s="3">
-        <v>12679900</v>
+        <v>4984800</v>
       </c>
       <c r="G58" s="3">
-        <v>14762400</v>
+        <v>12083900</v>
       </c>
       <c r="H58" s="3">
-        <v>33523100</v>
+        <v>14068500</v>
       </c>
       <c r="I58" s="3">
-        <v>32122900</v>
+        <v>31947300</v>
       </c>
       <c r="J58" s="3">
+        <v>30613000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5211100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14101100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5886000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17125400</v>
+        <v>15699300</v>
       </c>
       <c r="E59" s="3">
-        <v>17990200</v>
+        <v>17116600</v>
       </c>
       <c r="F59" s="3">
-        <v>27514500</v>
+        <v>17144600</v>
       </c>
       <c r="G59" s="3">
-        <v>29537000</v>
+        <v>26221200</v>
       </c>
       <c r="H59" s="3">
-        <v>23049400</v>
+        <v>28148600</v>
       </c>
       <c r="I59" s="3">
-        <v>19063300</v>
+        <v>21966000</v>
       </c>
       <c r="J59" s="3">
+        <v>18167200</v>
+      </c>
+      <c r="K59" s="3">
         <v>24224200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17625800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15971500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39758300</v>
+        <v>33517500</v>
       </c>
       <c r="E60" s="3">
-        <v>31265400</v>
+        <v>38974000</v>
       </c>
       <c r="F60" s="3">
-        <v>47804000</v>
+        <v>29795800</v>
       </c>
       <c r="G60" s="3">
-        <v>51926100</v>
+        <v>45557000</v>
       </c>
       <c r="H60" s="3">
-        <v>51737500</v>
+        <v>49485300</v>
       </c>
       <c r="I60" s="3">
-        <v>48973900</v>
+        <v>49305600</v>
       </c>
       <c r="J60" s="3">
+        <v>46671900</v>
+      </c>
+      <c r="K60" s="3">
         <v>30672500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31483900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26955800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77042100</v>
+        <v>69194700</v>
       </c>
       <c r="E61" s="3">
-        <v>59638600</v>
+        <v>73487300</v>
       </c>
       <c r="F61" s="3">
-        <v>39971400</v>
+        <v>56835400</v>
       </c>
       <c r="G61" s="3">
-        <v>41916700</v>
+        <v>38092600</v>
       </c>
       <c r="H61" s="3">
-        <v>45069800</v>
+        <v>39946400</v>
       </c>
       <c r="I61" s="3">
-        <v>38022500</v>
+        <v>42951300</v>
       </c>
       <c r="J61" s="3">
+        <v>36235200</v>
+      </c>
+      <c r="K61" s="3">
         <v>26146200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30132200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31821900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11201300</v>
+        <v>10814900</v>
       </c>
       <c r="E62" s="3">
-        <v>6381000</v>
+        <v>10750700</v>
       </c>
       <c r="F62" s="3">
-        <v>6553700</v>
+        <v>6081000</v>
       </c>
       <c r="G62" s="3">
-        <v>5338500</v>
+        <v>6245600</v>
       </c>
       <c r="H62" s="3">
-        <v>8382600</v>
+        <v>5087600</v>
       </c>
       <c r="I62" s="3">
-        <v>7656200</v>
+        <v>7988600</v>
       </c>
       <c r="J62" s="3">
+        <v>7296300</v>
+      </c>
+      <c r="K62" s="3">
         <v>6150700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13106700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10083300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>130778000</v>
+        <v>115876000</v>
       </c>
       <c r="E66" s="3">
-        <v>98788100</v>
+        <v>124630000</v>
       </c>
       <c r="F66" s="3">
-        <v>95513700</v>
+        <v>94144600</v>
       </c>
       <c r="G66" s="3">
-        <v>101042000</v>
+        <v>91024100</v>
       </c>
       <c r="H66" s="3">
-        <v>105082000</v>
+        <v>96292600</v>
       </c>
       <c r="I66" s="3">
-        <v>95633700</v>
+        <v>100143000</v>
       </c>
       <c r="J66" s="3">
+        <v>91138500</v>
+      </c>
+      <c r="K66" s="3">
         <v>62521000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74186800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70282600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,9 +2784,12 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2638,18 +2811,21 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-62998800</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-94206800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>75226600</v>
+        <v>65146100</v>
       </c>
       <c r="E76" s="3">
-        <v>76216400</v>
+        <v>71690600</v>
       </c>
       <c r="F76" s="3">
-        <v>82858300</v>
+        <v>72633900</v>
       </c>
       <c r="G76" s="3">
-        <v>88444300</v>
+        <v>78963600</v>
       </c>
       <c r="H76" s="3">
-        <v>102072000</v>
+        <v>84287000</v>
       </c>
       <c r="I76" s="3">
-        <v>112099000</v>
+        <v>97274400</v>
       </c>
       <c r="J76" s="3">
+        <v>106830000</v>
+      </c>
+      <c r="K76" s="3">
         <v>86731700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79325200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>86320300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1127000</v>
+        <v>130700</v>
       </c>
       <c r="E81" s="3">
-        <v>-9824400</v>
+        <v>-1074000</v>
       </c>
       <c r="F81" s="3">
-        <v>2987800</v>
+        <v>-9362600</v>
       </c>
       <c r="G81" s="3">
-        <v>-7713800</v>
+        <v>2847300</v>
       </c>
       <c r="H81" s="3">
-        <v>-6621100</v>
+        <v>-7351200</v>
       </c>
       <c r="I81" s="3">
-        <v>8986500</v>
+        <v>-6309900</v>
       </c>
       <c r="J81" s="3">
+        <v>8564100</v>
+      </c>
+      <c r="K81" s="3">
         <v>72585600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>457400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7795600</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17363000</v>
+        <v>16461600</v>
       </c>
       <c r="E83" s="3">
-        <v>11998800</v>
+        <v>16546900</v>
       </c>
       <c r="F83" s="3">
-        <v>12750900</v>
+        <v>11434800</v>
       </c>
       <c r="G83" s="3">
-        <v>13580200</v>
+        <v>12151600</v>
       </c>
       <c r="H83" s="3">
-        <v>14328700</v>
+        <v>12941900</v>
       </c>
       <c r="I83" s="3">
-        <v>13607200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>13655200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12967600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>7540900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21289100</v>
+        <v>20097000</v>
       </c>
       <c r="E89" s="3">
-        <v>15900400</v>
+        <v>20288400</v>
       </c>
       <c r="F89" s="3">
-        <v>16659900</v>
+        <v>15153000</v>
       </c>
       <c r="G89" s="3">
-        <v>17423000</v>
+        <v>15876800</v>
       </c>
       <c r="H89" s="3">
-        <v>17561500</v>
+        <v>16604100</v>
       </c>
       <c r="I89" s="3">
-        <v>15518200</v>
+        <v>16736000</v>
       </c>
       <c r="J89" s="3">
+        <v>14788700</v>
+      </c>
+      <c r="K89" s="3">
         <v>7628000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9773500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11553100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6347900</v>
+        <v>-6319200</v>
       </c>
       <c r="E91" s="3">
-        <v>-6189900</v>
+        <v>-6049500</v>
       </c>
       <c r="F91" s="3">
-        <v>-6023300</v>
+        <v>-5898900</v>
       </c>
       <c r="G91" s="3">
-        <v>-7699100</v>
+        <v>-5740200</v>
       </c>
       <c r="H91" s="3">
-        <v>-10124500</v>
+        <v>-7337200</v>
       </c>
       <c r="I91" s="3">
-        <v>-8971800</v>
+        <v>-9648600</v>
       </c>
       <c r="J91" s="3">
+        <v>-8550100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5385100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4383900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4567600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9907700</v>
+        <v>-10812600</v>
       </c>
       <c r="E94" s="3">
-        <v>-11290700</v>
+        <v>-9442000</v>
       </c>
       <c r="F94" s="3">
-        <v>-12055100</v>
+        <v>-10760000</v>
       </c>
       <c r="G94" s="3">
-        <v>-10318100</v>
+        <v>-11488500</v>
       </c>
       <c r="H94" s="3">
-        <v>-16991800</v>
+        <v>-9833100</v>
       </c>
       <c r="I94" s="3">
-        <v>-16211500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-16193100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-15449500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>7383800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2812600</v>
+        <v>-2833300</v>
       </c>
       <c r="E96" s="3">
-        <v>-4978400</v>
+        <v>-2680400</v>
       </c>
       <c r="F96" s="3">
-        <v>-4802000</v>
+        <v>-4744400</v>
       </c>
       <c r="G96" s="3">
-        <v>-4549600</v>
+        <v>-4576200</v>
       </c>
       <c r="H96" s="3">
-        <v>-5130300</v>
+        <v>-4335800</v>
       </c>
       <c r="I96" s="3">
-        <v>-4603500</v>
+        <v>-4889100</v>
       </c>
       <c r="J96" s="3">
+        <v>-4387100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6218000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5323100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7453400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11456100</v>
+        <v>-17740000</v>
       </c>
       <c r="E100" s="3">
-        <v>5435300</v>
+        <v>-10917600</v>
       </c>
       <c r="F100" s="3">
-        <v>-8861600</v>
+        <v>5179800</v>
       </c>
       <c r="G100" s="3">
-        <v>-11142500</v>
+        <v>-8445000</v>
       </c>
       <c r="H100" s="3">
-        <v>5000400</v>
+        <v>-10618800</v>
       </c>
       <c r="I100" s="3">
-        <v>-3873400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>4765400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3691400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-17580500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-313600</v>
+        <v>-297700</v>
       </c>
       <c r="E101" s="3">
-        <v>13500</v>
+        <v>-298900</v>
       </c>
       <c r="F101" s="3">
-        <v>-530400</v>
+        <v>12800</v>
       </c>
       <c r="G101" s="3">
-        <v>-383400</v>
+        <v>-505500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1381800</v>
+        <v>-365400</v>
       </c>
       <c r="I101" s="3">
-        <v>1194400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>-1316800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1138200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-388200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-388300</v>
+        <v>-8753200</v>
       </c>
       <c r="E102" s="3">
-        <v>10058400</v>
+        <v>-370100</v>
       </c>
       <c r="F102" s="3">
-        <v>-4787300</v>
+        <v>9585600</v>
       </c>
       <c r="G102" s="3">
-        <v>-4421000</v>
+        <v>-4562200</v>
       </c>
       <c r="H102" s="3">
-        <v>4188200</v>
+        <v>-4213200</v>
       </c>
       <c r="I102" s="3">
-        <v>-3372400</v>
+        <v>3991400</v>
       </c>
       <c r="J102" s="3">
+        <v>-3213900</v>
+      </c>
+      <c r="K102" s="3">
         <v>3192300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>559300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>968300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>51143100</v>
+        <v>49464700</v>
       </c>
       <c r="E8" s="3">
-        <v>52503100</v>
+        <v>50780100</v>
       </c>
       <c r="F8" s="3">
-        <v>50976100</v>
+        <v>49303300</v>
       </c>
       <c r="G8" s="3">
-        <v>54367500</v>
+        <v>52583300</v>
       </c>
       <c r="H8" s="3">
-        <v>55604900</v>
+        <v>53780200</v>
       </c>
       <c r="I8" s="3">
-        <v>58148700</v>
+        <v>56240500</v>
       </c>
       <c r="J8" s="3">
-        <v>56485100</v>
+        <v>54631500</v>
       </c>
       <c r="K8" s="3">
         <v>46973500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35122700</v>
+        <v>33970100</v>
       </c>
       <c r="E9" s="3">
-        <v>35818500</v>
+        <v>34643000</v>
       </c>
       <c r="F9" s="3">
-        <v>35209100</v>
+        <v>34053700</v>
       </c>
       <c r="G9" s="3">
-        <v>38257200</v>
+        <v>37001700</v>
       </c>
       <c r="H9" s="3">
-        <v>40364400</v>
+        <v>39039800</v>
       </c>
       <c r="I9" s="3">
-        <v>42859100</v>
+        <v>41452600</v>
       </c>
       <c r="J9" s="3">
-        <v>40944600</v>
+        <v>39600900</v>
       </c>
       <c r="K9" s="3">
         <v>34228700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16020400</v>
+        <v>15494600</v>
       </c>
       <c r="E10" s="3">
-        <v>16684600</v>
+        <v>16137100</v>
       </c>
       <c r="F10" s="3">
-        <v>15767000</v>
+        <v>15249600</v>
       </c>
       <c r="G10" s="3">
-        <v>16110300</v>
+        <v>15581600</v>
       </c>
       <c r="H10" s="3">
-        <v>15240500</v>
+        <v>14740400</v>
       </c>
       <c r="I10" s="3">
-        <v>15289600</v>
+        <v>14787800</v>
       </c>
       <c r="J10" s="3">
-        <v>15540600</v>
+        <v>15030600</v>
       </c>
       <c r="K10" s="3">
         <v>12744800</v>
@@ -919,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1967100</v>
+        <v>1902500</v>
       </c>
       <c r="F14" s="3">
-        <v>4115100</v>
+        <v>3980100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-1488400</v>
+        <v>-1439600</v>
       </c>
       <c r="I14" s="3">
-        <v>664300</v>
+        <v>642500</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45192800</v>
+        <v>43709700</v>
       </c>
       <c r="E17" s="3">
-        <v>47717900</v>
+        <v>46152000</v>
       </c>
       <c r="F17" s="3">
-        <v>52086300</v>
+        <v>50377100</v>
       </c>
       <c r="G17" s="3">
-        <v>49348800</v>
+        <v>47729300</v>
       </c>
       <c r="H17" s="3">
-        <v>51256300</v>
+        <v>49574300</v>
       </c>
       <c r="I17" s="3">
-        <v>56607700</v>
+        <v>54750100</v>
       </c>
       <c r="J17" s="3">
-        <v>54065100</v>
+        <v>52290900</v>
       </c>
       <c r="K17" s="3">
         <v>51766900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5950300</v>
+        <v>5755000</v>
       </c>
       <c r="E18" s="3">
-        <v>4785200</v>
+        <v>4628200</v>
       </c>
       <c r="F18" s="3">
-        <v>-1110200</v>
+        <v>-1073800</v>
       </c>
       <c r="G18" s="3">
-        <v>5018700</v>
+        <v>4854000</v>
       </c>
       <c r="H18" s="3">
-        <v>4348600</v>
+        <v>4205900</v>
       </c>
       <c r="I18" s="3">
-        <v>1541000</v>
+        <v>1490400</v>
       </c>
       <c r="J18" s="3">
-        <v>2420000</v>
+        <v>2340600</v>
       </c>
       <c r="K18" s="3">
         <v>-4793400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>163400</v>
+        <v>158100</v>
       </c>
       <c r="E20" s="3">
-        <v>-628100</v>
+        <v>-607500</v>
       </c>
       <c r="F20" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="G20" s="3">
-        <v>786800</v>
+        <v>761000</v>
       </c>
       <c r="H20" s="3">
-        <v>301200</v>
+        <v>291300</v>
       </c>
       <c r="I20" s="3">
-        <v>-646700</v>
+        <v>-625500</v>
       </c>
       <c r="J20" s="3">
-        <v>1368200</v>
+        <v>1323300</v>
       </c>
       <c r="K20" s="3">
         <v>-283000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>22626000</v>
+        <v>21871200</v>
       </c>
       <c r="E21" s="3">
-        <v>20754900</v>
+        <v>20061400</v>
       </c>
       <c r="F21" s="3">
-        <v>10304900</v>
+        <v>9958200</v>
       </c>
       <c r="G21" s="3">
-        <v>17994500</v>
+        <v>17394900</v>
       </c>
       <c r="H21" s="3">
-        <v>17631500</v>
+        <v>17043200</v>
       </c>
       <c r="I21" s="3">
-        <v>14591400</v>
+        <v>14102400</v>
       </c>
       <c r="J21" s="3">
-        <v>16795700</v>
+        <v>16234900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>977100</v>
+        <v>945100</v>
       </c>
       <c r="E22" s="3">
-        <v>3229100</v>
+        <v>3123100</v>
       </c>
       <c r="F22" s="3">
-        <v>1885400</v>
+        <v>1823500</v>
       </c>
       <c r="G22" s="3">
-        <v>1278300</v>
+        <v>1236400</v>
       </c>
       <c r="H22" s="3">
-        <v>1390400</v>
+        <v>1344800</v>
       </c>
       <c r="I22" s="3">
-        <v>1116000</v>
+        <v>1079400</v>
       </c>
       <c r="J22" s="3">
-        <v>1764000</v>
+        <v>1706100</v>
       </c>
       <c r="K22" s="3">
         <v>1379300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5136600</v>
+        <v>4968000</v>
       </c>
       <c r="E23" s="3">
-        <v>928100</v>
+        <v>897600</v>
       </c>
       <c r="F23" s="3">
-        <v>-3050400</v>
+        <v>-2950300</v>
       </c>
       <c r="G23" s="3">
-        <v>4527200</v>
+        <v>4378600</v>
       </c>
       <c r="H23" s="3">
-        <v>3259400</v>
+        <v>3152400</v>
       </c>
       <c r="I23" s="3">
-        <v>-221800</v>
+        <v>-214500</v>
       </c>
       <c r="J23" s="3">
-        <v>2024300</v>
+        <v>1957900</v>
       </c>
       <c r="K23" s="3">
         <v>-6455700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4510900</v>
+        <v>4362800</v>
       </c>
       <c r="E24" s="3">
-        <v>1459300</v>
+        <v>1411400</v>
       </c>
       <c r="F24" s="3">
-        <v>1746400</v>
+        <v>1689100</v>
       </c>
       <c r="G24" s="3">
-        <v>-1026200</v>
+        <v>-992500</v>
       </c>
       <c r="H24" s="3">
-        <v>5561500</v>
+        <v>5379000</v>
       </c>
       <c r="I24" s="3">
-        <v>5763500</v>
+        <v>5574400</v>
       </c>
       <c r="J24" s="3">
-        <v>-7087300</v>
+        <v>-6854800</v>
       </c>
       <c r="K24" s="3">
         <v>-20312800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>625700</v>
+        <v>605200</v>
       </c>
       <c r="E26" s="3">
-        <v>-531200</v>
+        <v>-513700</v>
       </c>
       <c r="F26" s="3">
-        <v>-4796900</v>
+        <v>-4639500</v>
       </c>
       <c r="G26" s="3">
-        <v>5553400</v>
+        <v>5371100</v>
       </c>
       <c r="H26" s="3">
-        <v>-2302100</v>
+        <v>-2226600</v>
       </c>
       <c r="I26" s="3">
-        <v>-5985300</v>
+        <v>-5788900</v>
       </c>
       <c r="J26" s="3">
-        <v>9111600</v>
+        <v>8812600</v>
       </c>
       <c r="K26" s="3">
         <v>13857100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>130700</v>
+        <v>126500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1074000</v>
+        <v>-1038800</v>
       </c>
       <c r="F27" s="3">
-        <v>-5235800</v>
+        <v>-5064000</v>
       </c>
       <c r="G27" s="3">
-        <v>5145900</v>
+        <v>4977100</v>
       </c>
       <c r="H27" s="3">
-        <v>-2556600</v>
+        <v>-2472700</v>
       </c>
       <c r="I27" s="3">
-        <v>-6315700</v>
+        <v>-6108400</v>
       </c>
       <c r="J27" s="3">
-        <v>8880500</v>
+        <v>8589100</v>
       </c>
       <c r="K27" s="3">
         <v>13653700</v>
@@ -1419,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-4126800</v>
+        <v>-3991400</v>
       </c>
       <c r="G29" s="3">
-        <v>-2298600</v>
+        <v>-2223200</v>
       </c>
       <c r="H29" s="3">
-        <v>-4794600</v>
+        <v>-4637200</v>
       </c>
       <c r="I29" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="J29" s="3">
-        <v>-316400</v>
+        <v>-306000</v>
       </c>
       <c r="K29" s="3">
         <v>58931800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-163400</v>
+        <v>-158100</v>
       </c>
       <c r="E32" s="3">
-        <v>628100</v>
+        <v>607500</v>
       </c>
       <c r="F32" s="3">
-        <v>54900</v>
+        <v>53100</v>
       </c>
       <c r="G32" s="3">
-        <v>-786800</v>
+        <v>-761000</v>
       </c>
       <c r="H32" s="3">
-        <v>-301200</v>
+        <v>-291300</v>
       </c>
       <c r="I32" s="3">
-        <v>646700</v>
+        <v>625500</v>
       </c>
       <c r="J32" s="3">
-        <v>-1368200</v>
+        <v>-1323300</v>
       </c>
       <c r="K32" s="3">
         <v>283000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>130700</v>
+        <v>126500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1074000</v>
+        <v>-1038800</v>
       </c>
       <c r="F33" s="3">
-        <v>-9362600</v>
+        <v>-9055400</v>
       </c>
       <c r="G33" s="3">
-        <v>2847300</v>
+        <v>2753900</v>
       </c>
       <c r="H33" s="3">
-        <v>-7351200</v>
+        <v>-7109900</v>
       </c>
       <c r="I33" s="3">
-        <v>-6309900</v>
+        <v>-6102800</v>
       </c>
       <c r="J33" s="3">
-        <v>8564100</v>
+        <v>8283100</v>
       </c>
       <c r="K33" s="3">
         <v>72585600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>130700</v>
+        <v>126500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1074000</v>
+        <v>-1038800</v>
       </c>
       <c r="F35" s="3">
-        <v>-9362600</v>
+        <v>-9055400</v>
       </c>
       <c r="G35" s="3">
-        <v>2847300</v>
+        <v>2753900</v>
       </c>
       <c r="H35" s="3">
-        <v>-7351200</v>
+        <v>-7109900</v>
       </c>
       <c r="I35" s="3">
-        <v>-6309900</v>
+        <v>-6102800</v>
       </c>
       <c r="J35" s="3">
-        <v>8564100</v>
+        <v>8283100</v>
       </c>
       <c r="K35" s="3">
         <v>72585600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6795500</v>
+        <v>6572500</v>
       </c>
       <c r="E41" s="3">
-        <v>13255900</v>
+        <v>12820900</v>
       </c>
       <c r="F41" s="3">
-        <v>13356300</v>
+        <v>12918000</v>
       </c>
       <c r="G41" s="3">
-        <v>5456500</v>
+        <v>5277400</v>
       </c>
       <c r="H41" s="3">
-        <v>10314100</v>
+        <v>9975600</v>
       </c>
       <c r="I41" s="3">
-        <v>26183800</v>
+        <v>25324600</v>
       </c>
       <c r="J41" s="3">
-        <v>16696300</v>
+        <v>16148400</v>
       </c>
       <c r="K41" s="3">
         <v>18717800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10692300</v>
+        <v>10341400</v>
       </c>
       <c r="E42" s="3">
-        <v>10846400</v>
+        <v>10490500</v>
       </c>
       <c r="F42" s="3">
-        <v>17754000</v>
+        <v>17171400</v>
       </c>
       <c r="G42" s="3">
-        <v>10267400</v>
+        <v>9930400</v>
       </c>
       <c r="H42" s="3">
-        <v>7144500</v>
+        <v>6910100</v>
       </c>
       <c r="I42" s="3">
-        <v>10217200</v>
+        <v>9881900</v>
       </c>
       <c r="J42" s="3">
-        <v>8678500</v>
+        <v>8393700</v>
       </c>
       <c r="K42" s="3">
         <v>11523500</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11716100</v>
+        <v>11331600</v>
       </c>
       <c r="E43" s="3">
-        <v>12020800</v>
+        <v>11626300</v>
       </c>
       <c r="F43" s="3">
-        <v>12878900</v>
+        <v>12456200</v>
       </c>
       <c r="G43" s="3">
-        <v>10213700</v>
+        <v>9878500</v>
       </c>
       <c r="H43" s="3">
-        <v>9577400</v>
+        <v>9263100</v>
       </c>
       <c r="I43" s="3">
-        <v>19537800</v>
+        <v>18896600</v>
       </c>
       <c r="J43" s="3">
-        <v>19779400</v>
+        <v>19130300</v>
       </c>
       <c r="K43" s="3">
         <v>11390000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>789200</v>
+        <v>763300</v>
       </c>
       <c r="E44" s="3">
-        <v>698100</v>
+        <v>675200</v>
       </c>
       <c r="F44" s="3">
-        <v>833500</v>
+        <v>806200</v>
       </c>
       <c r="G44" s="3">
-        <v>678300</v>
+        <v>656000</v>
       </c>
       <c r="H44" s="3">
-        <v>672400</v>
+        <v>650400</v>
       </c>
       <c r="I44" s="3">
-        <v>1671700</v>
+        <v>1616900</v>
       </c>
       <c r="J44" s="3">
-        <v>1341400</v>
+        <v>1297300</v>
       </c>
       <c r="K44" s="3">
         <v>1080400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1542100</v>
+        <v>1491500</v>
       </c>
       <c r="E45" s="3">
-        <v>1990400</v>
+        <v>1925100</v>
       </c>
       <c r="F45" s="3">
-        <v>1660100</v>
+        <v>1605600</v>
       </c>
       <c r="G45" s="3">
-        <v>1555000</v>
+        <v>1504000</v>
       </c>
       <c r="H45" s="3">
-        <v>2109500</v>
+        <v>2040300</v>
       </c>
       <c r="I45" s="3">
-        <v>7005600</v>
+        <v>6775700</v>
       </c>
       <c r="J45" s="3">
-        <v>3555900</v>
+        <v>3439200</v>
       </c>
       <c r="K45" s="3">
         <v>526700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31535200</v>
+        <v>30500400</v>
       </c>
       <c r="E46" s="3">
-        <v>38811700</v>
+        <v>37538100</v>
       </c>
       <c r="F46" s="3">
-        <v>46482800</v>
+        <v>44957400</v>
       </c>
       <c r="G46" s="3">
-        <v>28170800</v>
+        <v>27246300</v>
       </c>
       <c r="H46" s="3">
-        <v>29818000</v>
+        <v>28839500</v>
       </c>
       <c r="I46" s="3">
-        <v>37284700</v>
+        <v>36061200</v>
       </c>
       <c r="J46" s="3">
-        <v>32053600</v>
+        <v>31001700</v>
       </c>
       <c r="K46" s="3">
         <v>30284200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12108400</v>
+        <v>11711000</v>
       </c>
       <c r="E47" s="3">
-        <v>19864600</v>
+        <v>19212800</v>
       </c>
       <c r="F47" s="3">
-        <v>11664800</v>
+        <v>11282000</v>
       </c>
       <c r="G47" s="3">
-        <v>11403300</v>
+        <v>11029000</v>
       </c>
       <c r="H47" s="3">
-        <v>13035300</v>
+        <v>12607500</v>
       </c>
       <c r="I47" s="3">
-        <v>12728300</v>
+        <v>12310600</v>
       </c>
       <c r="J47" s="3">
-        <v>14683700</v>
+        <v>14201800</v>
       </c>
       <c r="K47" s="3">
         <v>8497800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>48147500</v>
+        <v>46567500</v>
       </c>
       <c r="E48" s="3">
-        <v>46828300</v>
+        <v>45291600</v>
       </c>
       <c r="F48" s="3">
-        <v>32024400</v>
+        <v>30973500</v>
       </c>
       <c r="G48" s="3">
-        <v>33066900</v>
+        <v>31981800</v>
       </c>
       <c r="H48" s="3">
-        <v>35260500</v>
+        <v>34103300</v>
       </c>
       <c r="I48" s="3">
-        <v>82921100</v>
+        <v>80200000</v>
       </c>
       <c r="J48" s="3">
-        <v>74024300</v>
+        <v>71595100</v>
       </c>
       <c r="K48" s="3">
         <v>55984500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>62513600</v>
+        <v>60462200</v>
       </c>
       <c r="E49" s="3">
-        <v>63050600</v>
+        <v>60981600</v>
       </c>
       <c r="F49" s="3">
-        <v>47869600</v>
+        <v>46298700</v>
       </c>
       <c r="G49" s="3">
-        <v>50498700</v>
+        <v>48841500</v>
       </c>
       <c r="H49" s="3">
-        <v>53957700</v>
+        <v>52187000</v>
       </c>
       <c r="I49" s="3">
-        <v>136736000</v>
+        <v>132249000</v>
       </c>
       <c r="J49" s="3">
-        <v>120247000</v>
+        <v>116301000</v>
       </c>
       <c r="K49" s="3">
         <v>114385000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26717300</v>
+        <v>25840600</v>
       </c>
       <c r="E52" s="3">
-        <v>27765700</v>
+        <v>26854500</v>
       </c>
       <c r="F52" s="3">
-        <v>28737000</v>
+        <v>27793900</v>
       </c>
       <c r="G52" s="3">
-        <v>46848200</v>
+        <v>45310800</v>
       </c>
       <c r="H52" s="3">
-        <v>48508200</v>
+        <v>46916400</v>
       </c>
       <c r="I52" s="3">
-        <v>37575400</v>
+        <v>36342300</v>
       </c>
       <c r="J52" s="3">
-        <v>38787200</v>
+        <v>37514300</v>
       </c>
       <c r="K52" s="3">
         <v>25286200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>181022000</v>
+        <v>175082000</v>
       </c>
       <c r="E54" s="3">
-        <v>196321000</v>
+        <v>189879000</v>
       </c>
       <c r="F54" s="3">
-        <v>166779000</v>
+        <v>161306000</v>
       </c>
       <c r="G54" s="3">
-        <v>169988000</v>
+        <v>164409000</v>
       </c>
       <c r="H54" s="3">
-        <v>180580000</v>
+        <v>174654000</v>
       </c>
       <c r="I54" s="3">
-        <v>197417000</v>
+        <v>190939000</v>
       </c>
       <c r="J54" s="3">
-        <v>197968000</v>
+        <v>191472000</v>
       </c>
       <c r="K54" s="3">
         <v>149253000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7909200</v>
+        <v>7649700</v>
       </c>
       <c r="E57" s="3">
-        <v>7876500</v>
+        <v>7618000</v>
       </c>
       <c r="F57" s="3">
-        <v>7666400</v>
+        <v>7414800</v>
       </c>
       <c r="G57" s="3">
-        <v>7252000</v>
+        <v>7014000</v>
       </c>
       <c r="H57" s="3">
-        <v>7268300</v>
+        <v>7029800</v>
       </c>
       <c r="I57" s="3">
-        <v>8740400</v>
+        <v>8453600</v>
       </c>
       <c r="J57" s="3">
-        <v>30031600</v>
+        <v>29046100</v>
       </c>
       <c r="K57" s="3">
         <v>5832200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9909000</v>
+        <v>9583800</v>
       </c>
       <c r="E58" s="3">
-        <v>13980900</v>
+        <v>13522100</v>
       </c>
       <c r="F58" s="3">
-        <v>4984800</v>
+        <v>4821300</v>
       </c>
       <c r="G58" s="3">
-        <v>12083900</v>
+        <v>11687300</v>
       </c>
       <c r="H58" s="3">
-        <v>14068500</v>
+        <v>13606800</v>
       </c>
       <c r="I58" s="3">
-        <v>31947300</v>
+        <v>30899000</v>
       </c>
       <c r="J58" s="3">
-        <v>30613000</v>
+        <v>29608400</v>
       </c>
       <c r="K58" s="3">
         <v>5211100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15699300</v>
+        <v>15184100</v>
       </c>
       <c r="E59" s="3">
-        <v>17116600</v>
+        <v>16554900</v>
       </c>
       <c r="F59" s="3">
-        <v>17144600</v>
+        <v>16582000</v>
       </c>
       <c r="G59" s="3">
-        <v>26221200</v>
+        <v>25360700</v>
       </c>
       <c r="H59" s="3">
-        <v>28148600</v>
+        <v>27224900</v>
       </c>
       <c r="I59" s="3">
-        <v>21966000</v>
+        <v>21245100</v>
       </c>
       <c r="J59" s="3">
-        <v>18167200</v>
+        <v>17571100</v>
       </c>
       <c r="K59" s="3">
         <v>24224200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33517500</v>
+        <v>32417600</v>
       </c>
       <c r="E60" s="3">
-        <v>38974000</v>
+        <v>37695000</v>
       </c>
       <c r="F60" s="3">
-        <v>29795800</v>
+        <v>28818000</v>
       </c>
       <c r="G60" s="3">
-        <v>45557000</v>
+        <v>44062000</v>
       </c>
       <c r="H60" s="3">
-        <v>49485300</v>
+        <v>47861400</v>
       </c>
       <c r="I60" s="3">
-        <v>49305600</v>
+        <v>47687500</v>
       </c>
       <c r="J60" s="3">
-        <v>46671900</v>
+        <v>45140300</v>
       </c>
       <c r="K60" s="3">
         <v>30672500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>69194700</v>
+        <v>66924000</v>
       </c>
       <c r="E61" s="3">
-        <v>73487300</v>
+        <v>71075700</v>
       </c>
       <c r="F61" s="3">
-        <v>56835400</v>
+        <v>54970200</v>
       </c>
       <c r="G61" s="3">
-        <v>38092600</v>
+        <v>36842500</v>
       </c>
       <c r="H61" s="3">
-        <v>39946400</v>
+        <v>38635500</v>
       </c>
       <c r="I61" s="3">
-        <v>42951300</v>
+        <v>41541800</v>
       </c>
       <c r="J61" s="3">
-        <v>36235200</v>
+        <v>35046100</v>
       </c>
       <c r="K61" s="3">
         <v>26146200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10814900</v>
+        <v>10460000</v>
       </c>
       <c r="E62" s="3">
-        <v>10750700</v>
+        <v>10397900</v>
       </c>
       <c r="F62" s="3">
-        <v>6081000</v>
+        <v>5881500</v>
       </c>
       <c r="G62" s="3">
-        <v>6245600</v>
+        <v>6040700</v>
       </c>
       <c r="H62" s="3">
-        <v>5087600</v>
+        <v>4920600</v>
       </c>
       <c r="I62" s="3">
-        <v>7988600</v>
+        <v>7726400</v>
       </c>
       <c r="J62" s="3">
-        <v>7296300</v>
+        <v>7056900</v>
       </c>
       <c r="K62" s="3">
         <v>6150700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>115876000</v>
+        <v>112073000</v>
       </c>
       <c r="E66" s="3">
-        <v>124630000</v>
+        <v>120541000</v>
       </c>
       <c r="F66" s="3">
-        <v>94144600</v>
+        <v>91055100</v>
       </c>
       <c r="G66" s="3">
-        <v>91024100</v>
+        <v>88037100</v>
       </c>
       <c r="H66" s="3">
-        <v>96292600</v>
+        <v>93132700</v>
       </c>
       <c r="I66" s="3">
-        <v>100143000</v>
+        <v>96856500</v>
       </c>
       <c r="J66" s="3">
-        <v>91138500</v>
+        <v>88147700</v>
       </c>
       <c r="K66" s="3">
         <v>62521000</v>
@@ -2811,8 +2811,8 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+      <c r="J72" s="3">
+        <v>-96969400</v>
       </c>
       <c r="K72" s="3">
         <v>-62998800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65146100</v>
+        <v>63008300</v>
       </c>
       <c r="E76" s="3">
-        <v>71690600</v>
+        <v>69338000</v>
       </c>
       <c r="F76" s="3">
-        <v>72633900</v>
+        <v>70250300</v>
       </c>
       <c r="G76" s="3">
-        <v>78963600</v>
+        <v>76372300</v>
       </c>
       <c r="H76" s="3">
-        <v>84287000</v>
+        <v>81521000</v>
       </c>
       <c r="I76" s="3">
-        <v>97274400</v>
+        <v>94082300</v>
       </c>
       <c r="J76" s="3">
-        <v>106830000</v>
+        <v>103324000</v>
       </c>
       <c r="K76" s="3">
         <v>86731700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>130700</v>
+        <v>126500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1074000</v>
+        <v>-1038800</v>
       </c>
       <c r="F81" s="3">
-        <v>-9362600</v>
+        <v>-9055400</v>
       </c>
       <c r="G81" s="3">
-        <v>2847300</v>
+        <v>2753900</v>
       </c>
       <c r="H81" s="3">
-        <v>-7351200</v>
+        <v>-7109900</v>
       </c>
       <c r="I81" s="3">
-        <v>-6309900</v>
+        <v>-6102800</v>
       </c>
       <c r="J81" s="3">
-        <v>8564100</v>
+        <v>8283100</v>
       </c>
       <c r="K81" s="3">
         <v>72585600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16461600</v>
+        <v>15921400</v>
       </c>
       <c r="E83" s="3">
-        <v>16546900</v>
+        <v>16003900</v>
       </c>
       <c r="F83" s="3">
-        <v>11434800</v>
+        <v>11059500</v>
       </c>
       <c r="G83" s="3">
-        <v>12151600</v>
+        <v>11752800</v>
       </c>
       <c r="H83" s="3">
-        <v>12941900</v>
+        <v>12517200</v>
       </c>
       <c r="I83" s="3">
-        <v>13655200</v>
+        <v>13207100</v>
       </c>
       <c r="J83" s="3">
-        <v>12967600</v>
+        <v>12542000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20097000</v>
+        <v>19437500</v>
       </c>
       <c r="E89" s="3">
-        <v>20288400</v>
+        <v>19622600</v>
       </c>
       <c r="F89" s="3">
-        <v>15153000</v>
+        <v>14655700</v>
       </c>
       <c r="G89" s="3">
-        <v>15876800</v>
+        <v>15355800</v>
       </c>
       <c r="H89" s="3">
-        <v>16604100</v>
+        <v>16059200</v>
       </c>
       <c r="I89" s="3">
-        <v>16736000</v>
+        <v>16186800</v>
       </c>
       <c r="J89" s="3">
-        <v>14788700</v>
+        <v>14303400</v>
       </c>
       <c r="K89" s="3">
         <v>7628000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6319200</v>
+        <v>-6111800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6049500</v>
+        <v>-5851000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5898900</v>
+        <v>-5705300</v>
       </c>
       <c r="G91" s="3">
-        <v>-5740200</v>
+        <v>-5551800</v>
       </c>
       <c r="H91" s="3">
-        <v>-7337200</v>
+        <v>-7096400</v>
       </c>
       <c r="I91" s="3">
-        <v>-9648600</v>
+        <v>-9332000</v>
       </c>
       <c r="J91" s="3">
-        <v>-8550100</v>
+        <v>-8269500</v>
       </c>
       <c r="K91" s="3">
         <v>-5385100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10812600</v>
+        <v>-10457700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9442000</v>
+        <v>-9132200</v>
       </c>
       <c r="F94" s="3">
-        <v>-10760000</v>
+        <v>-10406900</v>
       </c>
       <c r="G94" s="3">
-        <v>-11488500</v>
+        <v>-11111500</v>
       </c>
       <c r="H94" s="3">
-        <v>-9833100</v>
+        <v>-9510400</v>
       </c>
       <c r="I94" s="3">
-        <v>-16193100</v>
+        <v>-15661700</v>
       </c>
       <c r="J94" s="3">
-        <v>-15449500</v>
+        <v>-14942500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2833300</v>
+        <v>-2740300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2680400</v>
+        <v>-2592400</v>
       </c>
       <c r="F96" s="3">
-        <v>-4744400</v>
+        <v>-4588700</v>
       </c>
       <c r="G96" s="3">
-        <v>-4576200</v>
+        <v>-4426100</v>
       </c>
       <c r="H96" s="3">
-        <v>-4335800</v>
+        <v>-4193500</v>
       </c>
       <c r="I96" s="3">
-        <v>-4889100</v>
+        <v>-4728700</v>
       </c>
       <c r="J96" s="3">
-        <v>-4387100</v>
+        <v>-4243200</v>
       </c>
       <c r="K96" s="3">
         <v>-6218000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17740000</v>
+        <v>-17157800</v>
       </c>
       <c r="E100" s="3">
-        <v>-10917600</v>
+        <v>-10559300</v>
       </c>
       <c r="F100" s="3">
-        <v>5179800</v>
+        <v>5009800</v>
       </c>
       <c r="G100" s="3">
-        <v>-8445000</v>
+        <v>-8167900</v>
       </c>
       <c r="H100" s="3">
-        <v>-10618800</v>
+        <v>-10270300</v>
       </c>
       <c r="I100" s="3">
-        <v>4765400</v>
+        <v>4609000</v>
       </c>
       <c r="J100" s="3">
-        <v>-3691400</v>
+        <v>-3570200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-297700</v>
+        <v>-287900</v>
       </c>
       <c r="E101" s="3">
-        <v>-298900</v>
+        <v>-289000</v>
       </c>
       <c r="F101" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="G101" s="3">
-        <v>-505500</v>
+        <v>-488900</v>
       </c>
       <c r="H101" s="3">
-        <v>-365400</v>
+        <v>-353400</v>
       </c>
       <c r="I101" s="3">
-        <v>-1316800</v>
+        <v>-1273600</v>
       </c>
       <c r="J101" s="3">
-        <v>1138200</v>
+        <v>1100900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8753200</v>
+        <v>-8466000</v>
       </c>
       <c r="E102" s="3">
-        <v>-370100</v>
+        <v>-357900</v>
       </c>
       <c r="F102" s="3">
-        <v>9585600</v>
+        <v>9271000</v>
       </c>
       <c r="G102" s="3">
-        <v>-4562200</v>
+        <v>-4412500</v>
       </c>
       <c r="H102" s="3">
-        <v>-4213200</v>
+        <v>-4074900</v>
       </c>
       <c r="I102" s="3">
-        <v>3991400</v>
+        <v>3860400</v>
       </c>
       <c r="J102" s="3">
-        <v>-3213900</v>
+        <v>-3108400</v>
       </c>
       <c r="K102" s="3">
         <v>3192300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49464700</v>
+        <v>47791700</v>
       </c>
       <c r="E8" s="3">
-        <v>50780100</v>
+        <v>49062600</v>
       </c>
       <c r="F8" s="3">
-        <v>49303300</v>
+        <v>47635700</v>
       </c>
       <c r="G8" s="3">
-        <v>52583300</v>
+        <v>50804800</v>
       </c>
       <c r="H8" s="3">
-        <v>53780200</v>
+        <v>51961100</v>
       </c>
       <c r="I8" s="3">
-        <v>56240500</v>
+        <v>54338200</v>
       </c>
       <c r="J8" s="3">
-        <v>54631500</v>
+        <v>52783700</v>
       </c>
       <c r="K8" s="3">
         <v>46973500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33970100</v>
+        <v>32821100</v>
       </c>
       <c r="E9" s="3">
-        <v>34643000</v>
+        <v>33471300</v>
       </c>
       <c r="F9" s="3">
-        <v>34053700</v>
+        <v>32901800</v>
       </c>
       <c r="G9" s="3">
-        <v>37001700</v>
+        <v>35750200</v>
       </c>
       <c r="H9" s="3">
-        <v>39039800</v>
+        <v>37719300</v>
       </c>
       <c r="I9" s="3">
-        <v>41452600</v>
+        <v>40050600</v>
       </c>
       <c r="J9" s="3">
-        <v>39600900</v>
+        <v>38261500</v>
       </c>
       <c r="K9" s="3">
         <v>34228700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15494600</v>
+        <v>14970600</v>
       </c>
       <c r="E10" s="3">
-        <v>16137100</v>
+        <v>15591300</v>
       </c>
       <c r="F10" s="3">
-        <v>15249600</v>
+        <v>14733800</v>
       </c>
       <c r="G10" s="3">
-        <v>15581600</v>
+        <v>15054600</v>
       </c>
       <c r="H10" s="3">
-        <v>14740400</v>
+        <v>14241800</v>
       </c>
       <c r="I10" s="3">
-        <v>14787800</v>
+        <v>14287600</v>
       </c>
       <c r="J10" s="3">
-        <v>15030600</v>
+        <v>14522200</v>
       </c>
       <c r="K10" s="3">
         <v>12744800</v>
@@ -919,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1902500</v>
+        <v>1838200</v>
       </c>
       <c r="F14" s="3">
-        <v>3980100</v>
+        <v>3845500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-1439600</v>
+        <v>-1390900</v>
       </c>
       <c r="I14" s="3">
-        <v>642500</v>
+        <v>620700</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43709700</v>
+        <v>42231300</v>
       </c>
       <c r="E17" s="3">
-        <v>46152000</v>
+        <v>44590900</v>
       </c>
       <c r="F17" s="3">
-        <v>50377100</v>
+        <v>48673100</v>
       </c>
       <c r="G17" s="3">
-        <v>47729300</v>
+        <v>46114900</v>
       </c>
       <c r="H17" s="3">
-        <v>49574300</v>
+        <v>47897500</v>
       </c>
       <c r="I17" s="3">
-        <v>54750100</v>
+        <v>52898200</v>
       </c>
       <c r="J17" s="3">
-        <v>52290900</v>
+        <v>50522200</v>
       </c>
       <c r="K17" s="3">
         <v>51766900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5755000</v>
+        <v>5560400</v>
       </c>
       <c r="E18" s="3">
-        <v>4628200</v>
+        <v>4471600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1073800</v>
+        <v>-1037500</v>
       </c>
       <c r="G18" s="3">
-        <v>4854000</v>
+        <v>4689800</v>
       </c>
       <c r="H18" s="3">
-        <v>4205900</v>
+        <v>4063600</v>
       </c>
       <c r="I18" s="3">
-        <v>1490400</v>
+        <v>1440000</v>
       </c>
       <c r="J18" s="3">
-        <v>2340600</v>
+        <v>2261500</v>
       </c>
       <c r="K18" s="3">
         <v>-4793400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>158100</v>
+        <v>152700</v>
       </c>
       <c r="E20" s="3">
-        <v>-607500</v>
+        <v>-586900</v>
       </c>
       <c r="F20" s="3">
-        <v>-53100</v>
+        <v>-51300</v>
       </c>
       <c r="G20" s="3">
-        <v>761000</v>
+        <v>735300</v>
       </c>
       <c r="H20" s="3">
-        <v>291300</v>
+        <v>281500</v>
       </c>
       <c r="I20" s="3">
-        <v>-625500</v>
+        <v>-604400</v>
       </c>
       <c r="J20" s="3">
-        <v>1323300</v>
+        <v>1278500</v>
       </c>
       <c r="K20" s="3">
         <v>-283000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21871200</v>
+        <v>21330100</v>
       </c>
       <c r="E21" s="3">
-        <v>20061400</v>
+        <v>19582600</v>
       </c>
       <c r="F21" s="3">
-        <v>9958200</v>
+        <v>9759300</v>
       </c>
       <c r="G21" s="3">
-        <v>17394900</v>
+        <v>16953200</v>
       </c>
       <c r="H21" s="3">
-        <v>17043200</v>
+        <v>16623000</v>
       </c>
       <c r="I21" s="3">
-        <v>14102400</v>
+        <v>13790200</v>
       </c>
       <c r="J21" s="3">
-        <v>16234900</v>
+        <v>15842200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>945100</v>
+        <v>913100</v>
       </c>
       <c r="E22" s="3">
-        <v>3123100</v>
+        <v>3017500</v>
       </c>
       <c r="F22" s="3">
-        <v>1823500</v>
+        <v>1761800</v>
       </c>
       <c r="G22" s="3">
-        <v>1236400</v>
+        <v>1194500</v>
       </c>
       <c r="H22" s="3">
-        <v>1344800</v>
+        <v>1299300</v>
       </c>
       <c r="I22" s="3">
-        <v>1079400</v>
+        <v>1042900</v>
       </c>
       <c r="J22" s="3">
-        <v>1706100</v>
+        <v>1648400</v>
       </c>
       <c r="K22" s="3">
         <v>1379300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4968000</v>
+        <v>4800000</v>
       </c>
       <c r="E23" s="3">
-        <v>897600</v>
+        <v>867300</v>
       </c>
       <c r="F23" s="3">
-        <v>-2950300</v>
+        <v>-2850500</v>
       </c>
       <c r="G23" s="3">
-        <v>4378600</v>
+        <v>4230500</v>
       </c>
       <c r="H23" s="3">
-        <v>3152400</v>
+        <v>3045800</v>
       </c>
       <c r="I23" s="3">
-        <v>-214500</v>
+        <v>-207300</v>
       </c>
       <c r="J23" s="3">
-        <v>1957900</v>
+        <v>1891600</v>
       </c>
       <c r="K23" s="3">
         <v>-6455700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4362800</v>
+        <v>4215300</v>
       </c>
       <c r="E24" s="3">
-        <v>1411400</v>
+        <v>1363600</v>
       </c>
       <c r="F24" s="3">
-        <v>1689100</v>
+        <v>1632000</v>
       </c>
       <c r="G24" s="3">
-        <v>-992500</v>
+        <v>-958900</v>
       </c>
       <c r="H24" s="3">
-        <v>5379000</v>
+        <v>5197100</v>
       </c>
       <c r="I24" s="3">
-        <v>5574400</v>
+        <v>5385800</v>
       </c>
       <c r="J24" s="3">
-        <v>-6854800</v>
+        <v>-6622900</v>
       </c>
       <c r="K24" s="3">
         <v>-20312800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>605200</v>
+        <v>584700</v>
       </c>
       <c r="E26" s="3">
-        <v>-513700</v>
+        <v>-496400</v>
       </c>
       <c r="F26" s="3">
-        <v>-4639500</v>
+        <v>-4482500</v>
       </c>
       <c r="G26" s="3">
-        <v>5371100</v>
+        <v>5189500</v>
       </c>
       <c r="H26" s="3">
-        <v>-2226600</v>
+        <v>-2151300</v>
       </c>
       <c r="I26" s="3">
-        <v>-5788900</v>
+        <v>-5593100</v>
       </c>
       <c r="J26" s="3">
-        <v>8812600</v>
+        <v>8514600</v>
       </c>
       <c r="K26" s="3">
         <v>13857100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>126500</v>
+        <v>122200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1038800</v>
+        <v>-1003600</v>
       </c>
       <c r="F27" s="3">
-        <v>-5064000</v>
+        <v>-4892700</v>
       </c>
       <c r="G27" s="3">
-        <v>4977100</v>
+        <v>4808700</v>
       </c>
       <c r="H27" s="3">
-        <v>-2472700</v>
+        <v>-2389100</v>
       </c>
       <c r="I27" s="3">
-        <v>-6108400</v>
+        <v>-5901800</v>
       </c>
       <c r="J27" s="3">
-        <v>8589100</v>
+        <v>8298600</v>
       </c>
       <c r="K27" s="3">
         <v>13653700</v>
@@ -1419,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-3991400</v>
+        <v>-3856400</v>
       </c>
       <c r="G29" s="3">
-        <v>-2223200</v>
+        <v>-2148000</v>
       </c>
       <c r="H29" s="3">
-        <v>-4637200</v>
+        <v>-4480400</v>
       </c>
       <c r="I29" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J29" s="3">
-        <v>-306000</v>
+        <v>-295600</v>
       </c>
       <c r="K29" s="3">
         <v>58931800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-158100</v>
+        <v>-152700</v>
       </c>
       <c r="E32" s="3">
-        <v>607500</v>
+        <v>586900</v>
       </c>
       <c r="F32" s="3">
-        <v>53100</v>
+        <v>51300</v>
       </c>
       <c r="G32" s="3">
-        <v>-761000</v>
+        <v>-735300</v>
       </c>
       <c r="H32" s="3">
-        <v>-291300</v>
+        <v>-281500</v>
       </c>
       <c r="I32" s="3">
-        <v>625500</v>
+        <v>604400</v>
       </c>
       <c r="J32" s="3">
-        <v>-1323300</v>
+        <v>-1278500</v>
       </c>
       <c r="K32" s="3">
         <v>283000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>126500</v>
+        <v>122200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1038800</v>
+        <v>-1003600</v>
       </c>
       <c r="F33" s="3">
-        <v>-9055400</v>
+        <v>-8749100</v>
       </c>
       <c r="G33" s="3">
-        <v>2753900</v>
+        <v>2660700</v>
       </c>
       <c r="H33" s="3">
-        <v>-7109900</v>
+        <v>-6869500</v>
       </c>
       <c r="I33" s="3">
-        <v>-6102800</v>
+        <v>-5896400</v>
       </c>
       <c r="J33" s="3">
-        <v>8283100</v>
+        <v>8002900</v>
       </c>
       <c r="K33" s="3">
         <v>72585600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>126500</v>
+        <v>122200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1038800</v>
+        <v>-1003600</v>
       </c>
       <c r="F35" s="3">
-        <v>-9055400</v>
+        <v>-8749100</v>
       </c>
       <c r="G35" s="3">
-        <v>2753900</v>
+        <v>2660700</v>
       </c>
       <c r="H35" s="3">
-        <v>-7109900</v>
+        <v>-6869500</v>
       </c>
       <c r="I35" s="3">
-        <v>-6102800</v>
+        <v>-5896400</v>
       </c>
       <c r="J35" s="3">
-        <v>8283100</v>
+        <v>8002900</v>
       </c>
       <c r="K35" s="3">
         <v>72585600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6572500</v>
+        <v>6350200</v>
       </c>
       <c r="E41" s="3">
-        <v>12820900</v>
+        <v>12387300</v>
       </c>
       <c r="F41" s="3">
-        <v>12918000</v>
+        <v>12481100</v>
       </c>
       <c r="G41" s="3">
-        <v>5277400</v>
+        <v>5098900</v>
       </c>
       <c r="H41" s="3">
-        <v>9975600</v>
+        <v>9638200</v>
       </c>
       <c r="I41" s="3">
-        <v>25324600</v>
+        <v>24468000</v>
       </c>
       <c r="J41" s="3">
-        <v>16148400</v>
+        <v>15602200</v>
       </c>
       <c r="K41" s="3">
         <v>18717800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10341400</v>
+        <v>9991600</v>
       </c>
       <c r="E42" s="3">
-        <v>10490500</v>
+        <v>10135600</v>
       </c>
       <c r="F42" s="3">
-        <v>17171400</v>
+        <v>16590600</v>
       </c>
       <c r="G42" s="3">
-        <v>9930400</v>
+        <v>9594600</v>
       </c>
       <c r="H42" s="3">
-        <v>6910100</v>
+        <v>6676400</v>
       </c>
       <c r="I42" s="3">
-        <v>9881900</v>
+        <v>9547600</v>
       </c>
       <c r="J42" s="3">
-        <v>8393700</v>
+        <v>8109800</v>
       </c>
       <c r="K42" s="3">
         <v>11523500</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11331600</v>
+        <v>10948400</v>
       </c>
       <c r="E43" s="3">
-        <v>11626300</v>
+        <v>11233100</v>
       </c>
       <c r="F43" s="3">
-        <v>12456200</v>
+        <v>12034900</v>
       </c>
       <c r="G43" s="3">
-        <v>9878500</v>
+        <v>9544400</v>
       </c>
       <c r="H43" s="3">
-        <v>9263100</v>
+        <v>8949800</v>
       </c>
       <c r="I43" s="3">
-        <v>18896600</v>
+        <v>18257500</v>
       </c>
       <c r="J43" s="3">
-        <v>19130300</v>
+        <v>18483300</v>
       </c>
       <c r="K43" s="3">
         <v>11390000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>763300</v>
+        <v>737500</v>
       </c>
       <c r="E44" s="3">
-        <v>675200</v>
+        <v>652400</v>
       </c>
       <c r="F44" s="3">
-        <v>806200</v>
+        <v>778900</v>
       </c>
       <c r="G44" s="3">
-        <v>656000</v>
+        <v>633800</v>
       </c>
       <c r="H44" s="3">
-        <v>650400</v>
+        <v>628400</v>
       </c>
       <c r="I44" s="3">
-        <v>1616900</v>
+        <v>1562200</v>
       </c>
       <c r="J44" s="3">
-        <v>1297300</v>
+        <v>1253500</v>
       </c>
       <c r="K44" s="3">
         <v>1080400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1491500</v>
+        <v>1441100</v>
       </c>
       <c r="E45" s="3">
-        <v>1925100</v>
+        <v>1860000</v>
       </c>
       <c r="F45" s="3">
-        <v>1605600</v>
+        <v>1551300</v>
       </c>
       <c r="G45" s="3">
-        <v>1504000</v>
+        <v>1453100</v>
       </c>
       <c r="H45" s="3">
-        <v>2040300</v>
+        <v>1971300</v>
       </c>
       <c r="I45" s="3">
-        <v>6775700</v>
+        <v>6546600</v>
       </c>
       <c r="J45" s="3">
-        <v>3439200</v>
+        <v>3322900</v>
       </c>
       <c r="K45" s="3">
         <v>526700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30500400</v>
+        <v>29468800</v>
       </c>
       <c r="E46" s="3">
-        <v>37538100</v>
+        <v>36268400</v>
       </c>
       <c r="F46" s="3">
-        <v>44957400</v>
+        <v>43436800</v>
       </c>
       <c r="G46" s="3">
-        <v>27246300</v>
+        <v>26324700</v>
       </c>
       <c r="H46" s="3">
-        <v>28839500</v>
+        <v>27864000</v>
       </c>
       <c r="I46" s="3">
-        <v>36061200</v>
+        <v>34841500</v>
       </c>
       <c r="J46" s="3">
-        <v>31001700</v>
+        <v>29953100</v>
       </c>
       <c r="K46" s="3">
         <v>30284200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11711000</v>
+        <v>11314900</v>
       </c>
       <c r="E47" s="3">
-        <v>19212800</v>
+        <v>18562900</v>
       </c>
       <c r="F47" s="3">
-        <v>11282000</v>
+        <v>10900400</v>
       </c>
       <c r="G47" s="3">
-        <v>11029000</v>
+        <v>10656000</v>
       </c>
       <c r="H47" s="3">
-        <v>12607500</v>
+        <v>12181100</v>
       </c>
       <c r="I47" s="3">
-        <v>12310600</v>
+        <v>11894200</v>
       </c>
       <c r="J47" s="3">
-        <v>14201800</v>
+        <v>13721500</v>
       </c>
       <c r="K47" s="3">
         <v>8497800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46567500</v>
+        <v>44992400</v>
       </c>
       <c r="E48" s="3">
-        <v>45291600</v>
+        <v>43759700</v>
       </c>
       <c r="F48" s="3">
-        <v>30973500</v>
+        <v>29925800</v>
       </c>
       <c r="G48" s="3">
-        <v>31981800</v>
+        <v>30900000</v>
       </c>
       <c r="H48" s="3">
-        <v>34103300</v>
+        <v>32949800</v>
       </c>
       <c r="I48" s="3">
-        <v>80200000</v>
+        <v>77487300</v>
       </c>
       <c r="J48" s="3">
-        <v>71595100</v>
+        <v>69173500</v>
       </c>
       <c r="K48" s="3">
         <v>55984500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>60462200</v>
+        <v>58417100</v>
       </c>
       <c r="E49" s="3">
-        <v>60981600</v>
+        <v>58919000</v>
       </c>
       <c r="F49" s="3">
-        <v>46298700</v>
+        <v>44732800</v>
       </c>
       <c r="G49" s="3">
-        <v>48841500</v>
+        <v>47189500</v>
       </c>
       <c r="H49" s="3">
-        <v>52187000</v>
+        <v>50421900</v>
       </c>
       <c r="I49" s="3">
-        <v>132249000</v>
+        <v>127776000</v>
       </c>
       <c r="J49" s="3">
-        <v>116301000</v>
+        <v>112367000</v>
       </c>
       <c r="K49" s="3">
         <v>114385000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25840600</v>
+        <v>24966600</v>
       </c>
       <c r="E52" s="3">
-        <v>26854500</v>
+        <v>25946200</v>
       </c>
       <c r="F52" s="3">
-        <v>27793900</v>
+        <v>26853800</v>
       </c>
       <c r="G52" s="3">
-        <v>45310800</v>
+        <v>43778200</v>
       </c>
       <c r="H52" s="3">
-        <v>46916400</v>
+        <v>45329500</v>
       </c>
       <c r="I52" s="3">
-        <v>36342300</v>
+        <v>35113100</v>
       </c>
       <c r="J52" s="3">
-        <v>37514300</v>
+        <v>36245500</v>
       </c>
       <c r="K52" s="3">
         <v>25286200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>175082000</v>
+        <v>169160000</v>
       </c>
       <c r="E54" s="3">
-        <v>189879000</v>
+        <v>183456000</v>
       </c>
       <c r="F54" s="3">
-        <v>161306000</v>
+        <v>155850000</v>
       </c>
       <c r="G54" s="3">
-        <v>164409000</v>
+        <v>158849000</v>
       </c>
       <c r="H54" s="3">
-        <v>174654000</v>
+        <v>168746000</v>
       </c>
       <c r="I54" s="3">
-        <v>190939000</v>
+        <v>184481000</v>
       </c>
       <c r="J54" s="3">
-        <v>191472000</v>
+        <v>184995000</v>
       </c>
       <c r="K54" s="3">
         <v>149253000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7649700</v>
+        <v>7390900</v>
       </c>
       <c r="E57" s="3">
-        <v>7618000</v>
+        <v>7360400</v>
       </c>
       <c r="F57" s="3">
-        <v>7414800</v>
+        <v>7164000</v>
       </c>
       <c r="G57" s="3">
-        <v>7014000</v>
+        <v>6776700</v>
       </c>
       <c r="H57" s="3">
-        <v>7029800</v>
+        <v>6792000</v>
       </c>
       <c r="I57" s="3">
-        <v>8453600</v>
+        <v>8167600</v>
       </c>
       <c r="J57" s="3">
-        <v>29046100</v>
+        <v>28063700</v>
       </c>
       <c r="K57" s="3">
         <v>5832200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9583800</v>
+        <v>9259600</v>
       </c>
       <c r="E58" s="3">
-        <v>13522100</v>
+        <v>13064700</v>
       </c>
       <c r="F58" s="3">
-        <v>4821300</v>
+        <v>4658200</v>
       </c>
       <c r="G58" s="3">
-        <v>11687300</v>
+        <v>11292000</v>
       </c>
       <c r="H58" s="3">
-        <v>13606800</v>
+        <v>13146600</v>
       </c>
       <c r="I58" s="3">
-        <v>30899000</v>
+        <v>29853800</v>
       </c>
       <c r="J58" s="3">
-        <v>29608400</v>
+        <v>28606900</v>
       </c>
       <c r="K58" s="3">
         <v>5211100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15184100</v>
+        <v>14670600</v>
       </c>
       <c r="E59" s="3">
-        <v>16554900</v>
+        <v>15994900</v>
       </c>
       <c r="F59" s="3">
-        <v>16582000</v>
+        <v>16021100</v>
       </c>
       <c r="G59" s="3">
-        <v>25360700</v>
+        <v>24502900</v>
       </c>
       <c r="H59" s="3">
-        <v>27224900</v>
+        <v>26304000</v>
       </c>
       <c r="I59" s="3">
-        <v>21245100</v>
+        <v>20526600</v>
       </c>
       <c r="J59" s="3">
-        <v>17571100</v>
+        <v>16976700</v>
       </c>
       <c r="K59" s="3">
         <v>24224200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32417600</v>
+        <v>31321100</v>
       </c>
       <c r="E60" s="3">
-        <v>37695000</v>
+        <v>36420000</v>
       </c>
       <c r="F60" s="3">
-        <v>28818000</v>
+        <v>27843300</v>
       </c>
       <c r="G60" s="3">
-        <v>44062000</v>
+        <v>42571700</v>
       </c>
       <c r="H60" s="3">
-        <v>47861400</v>
+        <v>46242600</v>
       </c>
       <c r="I60" s="3">
-        <v>47687500</v>
+        <v>46074600</v>
       </c>
       <c r="J60" s="3">
-        <v>45140300</v>
+        <v>43613500</v>
       </c>
       <c r="K60" s="3">
         <v>30672500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66924000</v>
+        <v>64660400</v>
       </c>
       <c r="E61" s="3">
-        <v>71075700</v>
+        <v>68671700</v>
       </c>
       <c r="F61" s="3">
-        <v>54970200</v>
+        <v>53111000</v>
       </c>
       <c r="G61" s="3">
-        <v>36842500</v>
+        <v>35596400</v>
       </c>
       <c r="H61" s="3">
-        <v>38635500</v>
+        <v>37328800</v>
       </c>
       <c r="I61" s="3">
-        <v>41541800</v>
+        <v>40136800</v>
       </c>
       <c r="J61" s="3">
-        <v>35046100</v>
+        <v>33860800</v>
       </c>
       <c r="K61" s="3">
         <v>26146200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10460000</v>
+        <v>10106200</v>
       </c>
       <c r="E62" s="3">
-        <v>10397900</v>
+        <v>10046200</v>
       </c>
       <c r="F62" s="3">
-        <v>5881500</v>
+        <v>5682600</v>
       </c>
       <c r="G62" s="3">
-        <v>6040700</v>
+        <v>5836400</v>
       </c>
       <c r="H62" s="3">
-        <v>4920600</v>
+        <v>4754200</v>
       </c>
       <c r="I62" s="3">
-        <v>7726400</v>
+        <v>7465100</v>
       </c>
       <c r="J62" s="3">
-        <v>7056900</v>
+        <v>6818200</v>
       </c>
       <c r="K62" s="3">
         <v>6150700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>112073000</v>
+        <v>108283000</v>
       </c>
       <c r="E66" s="3">
-        <v>120541000</v>
+        <v>116463000</v>
       </c>
       <c r="F66" s="3">
-        <v>91055100</v>
+        <v>87975300</v>
       </c>
       <c r="G66" s="3">
-        <v>88037100</v>
+        <v>85059300</v>
       </c>
       <c r="H66" s="3">
-        <v>93132700</v>
+        <v>89982600</v>
       </c>
       <c r="I66" s="3">
-        <v>96856500</v>
+        <v>93580400</v>
       </c>
       <c r="J66" s="3">
-        <v>88147700</v>
+        <v>85166300</v>
       </c>
       <c r="K66" s="3">
         <v>62521000</v>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>-96969400</v>
+        <v>-93689500</v>
       </c>
       <c r="K72" s="3">
         <v>-62998800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63008300</v>
+        <v>60877100</v>
       </c>
       <c r="E76" s="3">
-        <v>69338000</v>
+        <v>66992800</v>
       </c>
       <c r="F76" s="3">
-        <v>70250300</v>
+        <v>67874200</v>
       </c>
       <c r="G76" s="3">
-        <v>76372300</v>
+        <v>73789200</v>
       </c>
       <c r="H76" s="3">
-        <v>81521000</v>
+        <v>78763700</v>
       </c>
       <c r="I76" s="3">
-        <v>94082300</v>
+        <v>90900100</v>
       </c>
       <c r="J76" s="3">
-        <v>103324000</v>
+        <v>99829200</v>
       </c>
       <c r="K76" s="3">
         <v>86731700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>126500</v>
+        <v>122200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1038800</v>
+        <v>-1003600</v>
       </c>
       <c r="F81" s="3">
-        <v>-9055400</v>
+        <v>-8749100</v>
       </c>
       <c r="G81" s="3">
-        <v>2753900</v>
+        <v>2660700</v>
       </c>
       <c r="H81" s="3">
-        <v>-7109900</v>
+        <v>-6869500</v>
       </c>
       <c r="I81" s="3">
-        <v>-6102800</v>
+        <v>-5896400</v>
       </c>
       <c r="J81" s="3">
-        <v>8283100</v>
+        <v>8002900</v>
       </c>
       <c r="K81" s="3">
         <v>72585600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15921400</v>
+        <v>15382900</v>
       </c>
       <c r="E83" s="3">
-        <v>16003900</v>
+        <v>15462600</v>
       </c>
       <c r="F83" s="3">
-        <v>11059500</v>
+        <v>10685500</v>
       </c>
       <c r="G83" s="3">
-        <v>11752800</v>
+        <v>11355300</v>
       </c>
       <c r="H83" s="3">
-        <v>12517200</v>
+        <v>12093800</v>
       </c>
       <c r="I83" s="3">
-        <v>13207100</v>
+        <v>12760400</v>
       </c>
       <c r="J83" s="3">
-        <v>12542000</v>
+        <v>12117800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19437500</v>
+        <v>18780000</v>
       </c>
       <c r="E89" s="3">
-        <v>19622600</v>
+        <v>18958900</v>
       </c>
       <c r="F89" s="3">
-        <v>14655700</v>
+        <v>14160000</v>
       </c>
       <c r="G89" s="3">
-        <v>15355800</v>
+        <v>14836400</v>
       </c>
       <c r="H89" s="3">
-        <v>16059200</v>
+        <v>15516000</v>
       </c>
       <c r="I89" s="3">
-        <v>16186800</v>
+        <v>15639300</v>
       </c>
       <c r="J89" s="3">
-        <v>14303400</v>
+        <v>13819600</v>
       </c>
       <c r="K89" s="3">
         <v>7628000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6111800</v>
+        <v>-5905100</v>
       </c>
       <c r="E91" s="3">
-        <v>-5851000</v>
+        <v>-5653100</v>
       </c>
       <c r="F91" s="3">
-        <v>-5705300</v>
+        <v>-5512400</v>
       </c>
       <c r="G91" s="3">
-        <v>-5551800</v>
+        <v>-5364000</v>
       </c>
       <c r="H91" s="3">
-        <v>-7096400</v>
+        <v>-6856400</v>
       </c>
       <c r="I91" s="3">
-        <v>-9332000</v>
+        <v>-9016400</v>
       </c>
       <c r="J91" s="3">
-        <v>-8269500</v>
+        <v>-7989800</v>
       </c>
       <c r="K91" s="3">
         <v>-5385100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10457700</v>
+        <v>-10104000</v>
       </c>
       <c r="E94" s="3">
-        <v>-9132200</v>
+        <v>-8823300</v>
       </c>
       <c r="F94" s="3">
-        <v>-10406900</v>
+        <v>-10054900</v>
       </c>
       <c r="G94" s="3">
-        <v>-11111500</v>
+        <v>-10735600</v>
       </c>
       <c r="H94" s="3">
-        <v>-9510400</v>
+        <v>-9188700</v>
       </c>
       <c r="I94" s="3">
-        <v>-15661700</v>
+        <v>-15132000</v>
       </c>
       <c r="J94" s="3">
-        <v>-14942500</v>
+        <v>-14437100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2740300</v>
+        <v>-2647600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2592400</v>
+        <v>-2504700</v>
       </c>
       <c r="F96" s="3">
-        <v>-4588700</v>
+        <v>-4433500</v>
       </c>
       <c r="G96" s="3">
-        <v>-4426100</v>
+        <v>-4276400</v>
       </c>
       <c r="H96" s="3">
-        <v>-4193500</v>
+        <v>-4051600</v>
       </c>
       <c r="I96" s="3">
-        <v>-4728700</v>
+        <v>-4568700</v>
       </c>
       <c r="J96" s="3">
-        <v>-4243200</v>
+        <v>-4099600</v>
       </c>
       <c r="K96" s="3">
         <v>-6218000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17157800</v>
+        <v>-16577500</v>
       </c>
       <c r="E100" s="3">
-        <v>-10559300</v>
+        <v>-10202200</v>
       </c>
       <c r="F100" s="3">
-        <v>5009800</v>
+        <v>4840400</v>
       </c>
       <c r="G100" s="3">
-        <v>-8167900</v>
+        <v>-7891600</v>
       </c>
       <c r="H100" s="3">
-        <v>-10270300</v>
+        <v>-9922900</v>
       </c>
       <c r="I100" s="3">
-        <v>4609000</v>
+        <v>4453100</v>
       </c>
       <c r="J100" s="3">
-        <v>-3570200</v>
+        <v>-3449500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-287900</v>
+        <v>-278200</v>
       </c>
       <c r="E101" s="3">
-        <v>-289000</v>
+        <v>-279300</v>
       </c>
       <c r="F101" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="G101" s="3">
-        <v>-488900</v>
+        <v>-472400</v>
       </c>
       <c r="H101" s="3">
-        <v>-353400</v>
+        <v>-341500</v>
       </c>
       <c r="I101" s="3">
-        <v>-1273600</v>
+        <v>-1230500</v>
       </c>
       <c r="J101" s="3">
-        <v>1100900</v>
+        <v>1063600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8466000</v>
+        <v>-8179600</v>
       </c>
       <c r="E102" s="3">
-        <v>-357900</v>
+        <v>-345800</v>
       </c>
       <c r="F102" s="3">
-        <v>9271000</v>
+        <v>8957500</v>
       </c>
       <c r="G102" s="3">
-        <v>-4412500</v>
+        <v>-4263300</v>
       </c>
       <c r="H102" s="3">
-        <v>-4074900</v>
+        <v>-3937100</v>
       </c>
       <c r="I102" s="3">
-        <v>3860400</v>
+        <v>3729800</v>
       </c>
       <c r="J102" s="3">
-        <v>-3108400</v>
+        <v>-3003300</v>
       </c>
       <c r="K102" s="3">
         <v>3192300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47791700</v>
+        <v>45469400</v>
       </c>
       <c r="E8" s="3">
-        <v>49062600</v>
+        <v>46678500</v>
       </c>
       <c r="F8" s="3">
-        <v>47635700</v>
+        <v>45320900</v>
       </c>
       <c r="G8" s="3">
-        <v>50804800</v>
+        <v>48336000</v>
       </c>
       <c r="H8" s="3">
-        <v>51961100</v>
+        <v>49436200</v>
       </c>
       <c r="I8" s="3">
-        <v>54338200</v>
+        <v>51697800</v>
       </c>
       <c r="J8" s="3">
-        <v>52783700</v>
+        <v>50218800</v>
       </c>
       <c r="K8" s="3">
         <v>46973500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32821100</v>
+        <v>31226300</v>
       </c>
       <c r="E9" s="3">
-        <v>33471300</v>
+        <v>31844800</v>
       </c>
       <c r="F9" s="3">
-        <v>32901800</v>
+        <v>31303100</v>
       </c>
       <c r="G9" s="3">
-        <v>35750200</v>
+        <v>34013000</v>
       </c>
       <c r="H9" s="3">
-        <v>37719300</v>
+        <v>35886400</v>
       </c>
       <c r="I9" s="3">
-        <v>40050600</v>
+        <v>38104400</v>
       </c>
       <c r="J9" s="3">
-        <v>38261500</v>
+        <v>36402300</v>
       </c>
       <c r="K9" s="3">
         <v>34228700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14970600</v>
+        <v>14243100</v>
       </c>
       <c r="E10" s="3">
-        <v>15591300</v>
+        <v>14833700</v>
       </c>
       <c r="F10" s="3">
-        <v>14733800</v>
+        <v>14017900</v>
       </c>
       <c r="G10" s="3">
-        <v>15054600</v>
+        <v>14323000</v>
       </c>
       <c r="H10" s="3">
-        <v>14241800</v>
+        <v>13549800</v>
       </c>
       <c r="I10" s="3">
-        <v>14287600</v>
+        <v>13593400</v>
       </c>
       <c r="J10" s="3">
-        <v>14522200</v>
+        <v>13816500</v>
       </c>
       <c r="K10" s="3">
         <v>12744800</v>
@@ -919,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1838200</v>
+        <v>1748900</v>
       </c>
       <c r="F14" s="3">
-        <v>3845500</v>
+        <v>3658600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-1390900</v>
+        <v>-1323300</v>
       </c>
       <c r="I14" s="3">
-        <v>620700</v>
+        <v>590600</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42231300</v>
+        <v>40179200</v>
       </c>
       <c r="E17" s="3">
-        <v>44590900</v>
+        <v>42424200</v>
       </c>
       <c r="F17" s="3">
-        <v>48673100</v>
+        <v>46308000</v>
       </c>
       <c r="G17" s="3">
-        <v>46114900</v>
+        <v>43874100</v>
       </c>
       <c r="H17" s="3">
-        <v>47897500</v>
+        <v>45570000</v>
       </c>
       <c r="I17" s="3">
-        <v>52898200</v>
+        <v>50327800</v>
       </c>
       <c r="J17" s="3">
-        <v>50522200</v>
+        <v>48067200</v>
       </c>
       <c r="K17" s="3">
         <v>51766900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5560400</v>
+        <v>5290200</v>
       </c>
       <c r="E18" s="3">
-        <v>4471600</v>
+        <v>4254400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1037500</v>
+        <v>-987000</v>
       </c>
       <c r="G18" s="3">
-        <v>4689800</v>
+        <v>4461900</v>
       </c>
       <c r="H18" s="3">
-        <v>4063600</v>
+        <v>3866200</v>
       </c>
       <c r="I18" s="3">
-        <v>1440000</v>
+        <v>1370000</v>
       </c>
       <c r="J18" s="3">
-        <v>2261500</v>
+        <v>2151600</v>
       </c>
       <c r="K18" s="3">
         <v>-4793400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>152700</v>
+        <v>1932600</v>
       </c>
       <c r="E20" s="3">
-        <v>-586900</v>
+        <v>-558400</v>
       </c>
       <c r="F20" s="3">
-        <v>-51300</v>
+        <v>-48800</v>
       </c>
       <c r="G20" s="3">
-        <v>735300</v>
+        <v>699500</v>
       </c>
       <c r="H20" s="3">
-        <v>281500</v>
+        <v>267800</v>
       </c>
       <c r="I20" s="3">
-        <v>-604400</v>
+        <v>-575000</v>
       </c>
       <c r="J20" s="3">
-        <v>1278500</v>
+        <v>1216400</v>
       </c>
       <c r="K20" s="3">
         <v>-283000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21330100</v>
+        <v>22044300</v>
       </c>
       <c r="E21" s="3">
-        <v>19582600</v>
+        <v>18594300</v>
       </c>
       <c r="F21" s="3">
-        <v>9759300</v>
+        <v>9259700</v>
       </c>
       <c r="G21" s="3">
-        <v>16953200</v>
+        <v>16102400</v>
       </c>
       <c r="H21" s="3">
-        <v>16623000</v>
+        <v>15786500</v>
       </c>
       <c r="I21" s="3">
-        <v>13790200</v>
+        <v>13089700</v>
       </c>
       <c r="J21" s="3">
-        <v>15842200</v>
+        <v>15043600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>913100</v>
+        <v>2656000</v>
       </c>
       <c r="E22" s="3">
-        <v>3017500</v>
+        <v>2870800</v>
       </c>
       <c r="F22" s="3">
-        <v>1761800</v>
+        <v>1676200</v>
       </c>
       <c r="G22" s="3">
-        <v>1194500</v>
+        <v>1136500</v>
       </c>
       <c r="H22" s="3">
-        <v>1299300</v>
+        <v>1236100</v>
       </c>
       <c r="I22" s="3">
-        <v>1042900</v>
+        <v>992200</v>
       </c>
       <c r="J22" s="3">
-        <v>1648400</v>
+        <v>1568300</v>
       </c>
       <c r="K22" s="3">
         <v>1379300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4800000</v>
+        <v>4566800</v>
       </c>
       <c r="E23" s="3">
-        <v>867300</v>
+        <v>825100</v>
       </c>
       <c r="F23" s="3">
-        <v>-2850500</v>
+        <v>-2712000</v>
       </c>
       <c r="G23" s="3">
-        <v>4230500</v>
+        <v>4025000</v>
       </c>
       <c r="H23" s="3">
-        <v>3045800</v>
+        <v>2897800</v>
       </c>
       <c r="I23" s="3">
-        <v>-207300</v>
+        <v>-197200</v>
       </c>
       <c r="J23" s="3">
-        <v>1891600</v>
+        <v>1799700</v>
       </c>
       <c r="K23" s="3">
         <v>-6455700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4215300</v>
+        <v>4010400</v>
       </c>
       <c r="E24" s="3">
-        <v>1363600</v>
+        <v>1297400</v>
       </c>
       <c r="F24" s="3">
-        <v>1632000</v>
+        <v>1552700</v>
       </c>
       <c r="G24" s="3">
-        <v>-958900</v>
+        <v>-912300</v>
       </c>
       <c r="H24" s="3">
-        <v>5197100</v>
+        <v>4944600</v>
       </c>
       <c r="I24" s="3">
-        <v>5385800</v>
+        <v>5124100</v>
       </c>
       <c r="J24" s="3">
-        <v>-6622900</v>
+        <v>-6301100</v>
       </c>
       <c r="K24" s="3">
         <v>-20312800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>584700</v>
+        <v>556300</v>
       </c>
       <c r="E26" s="3">
-        <v>-496400</v>
+        <v>-472200</v>
       </c>
       <c r="F26" s="3">
-        <v>-4482500</v>
+        <v>-4264700</v>
       </c>
       <c r="G26" s="3">
-        <v>5189500</v>
+        <v>4937300</v>
       </c>
       <c r="H26" s="3">
-        <v>-2151300</v>
+        <v>-2046700</v>
       </c>
       <c r="I26" s="3">
-        <v>-5593100</v>
+        <v>-5321300</v>
       </c>
       <c r="J26" s="3">
-        <v>8514600</v>
+        <v>8100800</v>
       </c>
       <c r="K26" s="3">
         <v>13857100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>122200</v>
+        <v>116200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1003600</v>
+        <v>-954900</v>
       </c>
       <c r="F27" s="3">
-        <v>-4892700</v>
+        <v>-4655000</v>
       </c>
       <c r="G27" s="3">
-        <v>4808700</v>
+        <v>4575100</v>
       </c>
       <c r="H27" s="3">
-        <v>-2389100</v>
+        <v>-2273000</v>
       </c>
       <c r="I27" s="3">
-        <v>-5901800</v>
+        <v>-5615000</v>
       </c>
       <c r="J27" s="3">
-        <v>8298600</v>
+        <v>7895300</v>
       </c>
       <c r="K27" s="3">
         <v>13653700</v>
@@ -1419,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-3856400</v>
+        <v>-3669000</v>
       </c>
       <c r="G29" s="3">
-        <v>-2148000</v>
+        <v>-2043600</v>
       </c>
       <c r="H29" s="3">
-        <v>-4480400</v>
+        <v>-4262700</v>
       </c>
       <c r="I29" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J29" s="3">
-        <v>-295600</v>
+        <v>-281300</v>
       </c>
       <c r="K29" s="3">
         <v>58931800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-152700</v>
+        <v>-1932600</v>
       </c>
       <c r="E32" s="3">
-        <v>586900</v>
+        <v>558400</v>
       </c>
       <c r="F32" s="3">
-        <v>51300</v>
+        <v>48800</v>
       </c>
       <c r="G32" s="3">
-        <v>-735300</v>
+        <v>-699500</v>
       </c>
       <c r="H32" s="3">
-        <v>-281500</v>
+        <v>-267800</v>
       </c>
       <c r="I32" s="3">
-        <v>604400</v>
+        <v>575000</v>
       </c>
       <c r="J32" s="3">
-        <v>-1278500</v>
+        <v>-1216400</v>
       </c>
       <c r="K32" s="3">
         <v>283000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>122200</v>
+        <v>116200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1003600</v>
+        <v>-954900</v>
       </c>
       <c r="F33" s="3">
-        <v>-8749100</v>
+        <v>-8324000</v>
       </c>
       <c r="G33" s="3">
-        <v>2660700</v>
+        <v>2531400</v>
       </c>
       <c r="H33" s="3">
-        <v>-6869500</v>
+        <v>-6535700</v>
       </c>
       <c r="I33" s="3">
-        <v>-5896400</v>
+        <v>-5609800</v>
       </c>
       <c r="J33" s="3">
-        <v>8002900</v>
+        <v>7614000</v>
       </c>
       <c r="K33" s="3">
         <v>72585600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>122200</v>
+        <v>116200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1003600</v>
+        <v>-954900</v>
       </c>
       <c r="F35" s="3">
-        <v>-8749100</v>
+        <v>-8324000</v>
       </c>
       <c r="G35" s="3">
-        <v>2660700</v>
+        <v>2531400</v>
       </c>
       <c r="H35" s="3">
-        <v>-6869500</v>
+        <v>-6535700</v>
       </c>
       <c r="I35" s="3">
-        <v>-5896400</v>
+        <v>-5609800</v>
       </c>
       <c r="J35" s="3">
-        <v>8002900</v>
+        <v>7614000</v>
       </c>
       <c r="K35" s="3">
         <v>72585600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6350200</v>
+        <v>6041600</v>
       </c>
       <c r="E41" s="3">
-        <v>12387300</v>
+        <v>11785400</v>
       </c>
       <c r="F41" s="3">
-        <v>12481100</v>
+        <v>11874600</v>
       </c>
       <c r="G41" s="3">
-        <v>5098900</v>
+        <v>4851100</v>
       </c>
       <c r="H41" s="3">
-        <v>9638200</v>
+        <v>9169800</v>
       </c>
       <c r="I41" s="3">
-        <v>24468000</v>
+        <v>23279100</v>
       </c>
       <c r="J41" s="3">
-        <v>15602200</v>
+        <v>14844000</v>
       </c>
       <c r="K41" s="3">
         <v>18717800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9991600</v>
+        <v>9506100</v>
       </c>
       <c r="E42" s="3">
-        <v>10135600</v>
+        <v>9643100</v>
       </c>
       <c r="F42" s="3">
-        <v>16590600</v>
+        <v>15784400</v>
       </c>
       <c r="G42" s="3">
-        <v>9594600</v>
+        <v>9128300</v>
       </c>
       <c r="H42" s="3">
-        <v>6676400</v>
+        <v>6351900</v>
       </c>
       <c r="I42" s="3">
-        <v>9547600</v>
+        <v>9083700</v>
       </c>
       <c r="J42" s="3">
-        <v>8109800</v>
+        <v>7715700</v>
       </c>
       <c r="K42" s="3">
         <v>11523500</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10948400</v>
+        <v>10416400</v>
       </c>
       <c r="E43" s="3">
-        <v>11233100</v>
+        <v>10687300</v>
       </c>
       <c r="F43" s="3">
-        <v>12034900</v>
+        <v>11450100</v>
       </c>
       <c r="G43" s="3">
-        <v>9544400</v>
+        <v>9080600</v>
       </c>
       <c r="H43" s="3">
-        <v>8949800</v>
+        <v>8514900</v>
       </c>
       <c r="I43" s="3">
-        <v>18257500</v>
+        <v>17370300</v>
       </c>
       <c r="J43" s="3">
-        <v>18483300</v>
+        <v>17585100</v>
       </c>
       <c r="K43" s="3">
         <v>11390000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>737500</v>
+        <v>701600</v>
       </c>
       <c r="E44" s="3">
-        <v>652400</v>
+        <v>620700</v>
       </c>
       <c r="F44" s="3">
-        <v>778900</v>
+        <v>741100</v>
       </c>
       <c r="G44" s="3">
-        <v>633800</v>
+        <v>603000</v>
       </c>
       <c r="H44" s="3">
-        <v>628400</v>
+        <v>597800</v>
       </c>
       <c r="I44" s="3">
-        <v>1562200</v>
+        <v>1486300</v>
       </c>
       <c r="J44" s="3">
-        <v>1253500</v>
+        <v>1192500</v>
       </c>
       <c r="K44" s="3">
         <v>1080400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1441100</v>
+        <v>1371100</v>
       </c>
       <c r="E45" s="3">
-        <v>1860000</v>
+        <v>1769600</v>
       </c>
       <c r="F45" s="3">
-        <v>1551300</v>
+        <v>1475900</v>
       </c>
       <c r="G45" s="3">
-        <v>1453100</v>
+        <v>1382500</v>
       </c>
       <c r="H45" s="3">
-        <v>1971300</v>
+        <v>1875500</v>
       </c>
       <c r="I45" s="3">
-        <v>6546600</v>
+        <v>6228400</v>
       </c>
       <c r="J45" s="3">
-        <v>3322900</v>
+        <v>3161400</v>
       </c>
       <c r="K45" s="3">
         <v>526700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29468800</v>
+        <v>28036800</v>
       </c>
       <c r="E46" s="3">
-        <v>36268400</v>
+        <v>34506000</v>
       </c>
       <c r="F46" s="3">
-        <v>43436800</v>
+        <v>41326100</v>
       </c>
       <c r="G46" s="3">
-        <v>26324700</v>
+        <v>25045600</v>
       </c>
       <c r="H46" s="3">
-        <v>27864000</v>
+        <v>26510000</v>
       </c>
       <c r="I46" s="3">
-        <v>34841500</v>
+        <v>33148500</v>
       </c>
       <c r="J46" s="3">
-        <v>29953100</v>
+        <v>28497600</v>
       </c>
       <c r="K46" s="3">
         <v>30284200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11314900</v>
+        <v>10765100</v>
       </c>
       <c r="E47" s="3">
-        <v>18562900</v>
+        <v>17660900</v>
       </c>
       <c r="F47" s="3">
-        <v>10900400</v>
+        <v>10370700</v>
       </c>
       <c r="G47" s="3">
-        <v>10656000</v>
+        <v>10138200</v>
       </c>
       <c r="H47" s="3">
-        <v>12181100</v>
+        <v>11589200</v>
       </c>
       <c r="I47" s="3">
-        <v>11894200</v>
+        <v>11316200</v>
       </c>
       <c r="J47" s="3">
-        <v>13721500</v>
+        <v>13054700</v>
       </c>
       <c r="K47" s="3">
         <v>8497800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44992400</v>
+        <v>42806100</v>
       </c>
       <c r="E48" s="3">
-        <v>43759700</v>
+        <v>41633300</v>
       </c>
       <c r="F48" s="3">
-        <v>29925800</v>
+        <v>28471700</v>
       </c>
       <c r="G48" s="3">
-        <v>30900000</v>
+        <v>29398500</v>
       </c>
       <c r="H48" s="3">
-        <v>32949800</v>
+        <v>31348700</v>
       </c>
       <c r="I48" s="3">
-        <v>77487300</v>
+        <v>73722000</v>
       </c>
       <c r="J48" s="3">
-        <v>69173500</v>
+        <v>65812200</v>
       </c>
       <c r="K48" s="3">
         <v>55984500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>58417100</v>
+        <v>55578500</v>
       </c>
       <c r="E49" s="3">
-        <v>58919000</v>
+        <v>56055900</v>
       </c>
       <c r="F49" s="3">
-        <v>44732800</v>
+        <v>42559100</v>
       </c>
       <c r="G49" s="3">
-        <v>47189500</v>
+        <v>44896400</v>
       </c>
       <c r="H49" s="3">
-        <v>50421900</v>
+        <v>47971700</v>
       </c>
       <c r="I49" s="3">
-        <v>127776000</v>
+        <v>121567000</v>
       </c>
       <c r="J49" s="3">
-        <v>112367000</v>
+        <v>106907000</v>
       </c>
       <c r="K49" s="3">
         <v>114385000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24966600</v>
+        <v>23753400</v>
       </c>
       <c r="E52" s="3">
-        <v>25946200</v>
+        <v>24685400</v>
       </c>
       <c r="F52" s="3">
-        <v>26853800</v>
+        <v>25548900</v>
       </c>
       <c r="G52" s="3">
-        <v>43778200</v>
+        <v>41650900</v>
       </c>
       <c r="H52" s="3">
-        <v>45329500</v>
+        <v>43126800</v>
       </c>
       <c r="I52" s="3">
-        <v>35113100</v>
+        <v>33406900</v>
       </c>
       <c r="J52" s="3">
-        <v>36245500</v>
+        <v>34484200</v>
       </c>
       <c r="K52" s="3">
         <v>25286200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>169160000</v>
+        <v>160940000</v>
       </c>
       <c r="E54" s="3">
-        <v>183456000</v>
+        <v>174542000</v>
       </c>
       <c r="F54" s="3">
-        <v>155850000</v>
+        <v>148277000</v>
       </c>
       <c r="G54" s="3">
-        <v>158849000</v>
+        <v>151130000</v>
       </c>
       <c r="H54" s="3">
-        <v>168746000</v>
+        <v>160547000</v>
       </c>
       <c r="I54" s="3">
-        <v>184481000</v>
+        <v>175516000</v>
       </c>
       <c r="J54" s="3">
-        <v>184995000</v>
+        <v>176006000</v>
       </c>
       <c r="K54" s="3">
         <v>149253000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7390900</v>
+        <v>7031800</v>
       </c>
       <c r="E57" s="3">
-        <v>7360400</v>
+        <v>7002700</v>
       </c>
       <c r="F57" s="3">
-        <v>7164000</v>
+        <v>6815900</v>
       </c>
       <c r="G57" s="3">
-        <v>6776700</v>
+        <v>6447400</v>
       </c>
       <c r="H57" s="3">
-        <v>6792000</v>
+        <v>6462000</v>
       </c>
       <c r="I57" s="3">
-        <v>8167600</v>
+        <v>7770800</v>
       </c>
       <c r="J57" s="3">
-        <v>28063700</v>
+        <v>26700000</v>
       </c>
       <c r="K57" s="3">
         <v>5832200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9259600</v>
+        <v>8809700</v>
       </c>
       <c r="E58" s="3">
-        <v>13064700</v>
+        <v>12429900</v>
       </c>
       <c r="F58" s="3">
-        <v>4658200</v>
+        <v>4431800</v>
       </c>
       <c r="G58" s="3">
-        <v>11292000</v>
+        <v>10743300</v>
       </c>
       <c r="H58" s="3">
-        <v>13146600</v>
+        <v>12507700</v>
       </c>
       <c r="I58" s="3">
-        <v>29853800</v>
+        <v>28403200</v>
       </c>
       <c r="J58" s="3">
-        <v>28606900</v>
+        <v>27216900</v>
       </c>
       <c r="K58" s="3">
         <v>5211100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14670600</v>
+        <v>13957700</v>
       </c>
       <c r="E59" s="3">
-        <v>15994900</v>
+        <v>15217700</v>
       </c>
       <c r="F59" s="3">
-        <v>16021100</v>
+        <v>15242600</v>
       </c>
       <c r="G59" s="3">
-        <v>24502900</v>
+        <v>23312300</v>
       </c>
       <c r="H59" s="3">
-        <v>26304000</v>
+        <v>25025800</v>
       </c>
       <c r="I59" s="3">
-        <v>20526600</v>
+        <v>19529100</v>
       </c>
       <c r="J59" s="3">
-        <v>16976700</v>
+        <v>16151800</v>
       </c>
       <c r="K59" s="3">
         <v>24224200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31321100</v>
+        <v>29799100</v>
       </c>
       <c r="E60" s="3">
-        <v>36420000</v>
+        <v>34650300</v>
       </c>
       <c r="F60" s="3">
-        <v>27843300</v>
+        <v>26490300</v>
       </c>
       <c r="G60" s="3">
-        <v>42571700</v>
+        <v>40503000</v>
       </c>
       <c r="H60" s="3">
-        <v>46242600</v>
+        <v>43995500</v>
       </c>
       <c r="I60" s="3">
-        <v>46074600</v>
+        <v>43835700</v>
       </c>
       <c r="J60" s="3">
-        <v>43613500</v>
+        <v>41494200</v>
       </c>
       <c r="K60" s="3">
         <v>30672500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64660400</v>
+        <v>61518400</v>
       </c>
       <c r="E61" s="3">
-        <v>68671700</v>
+        <v>65334800</v>
       </c>
       <c r="F61" s="3">
-        <v>53111000</v>
+        <v>50530200</v>
       </c>
       <c r="G61" s="3">
-        <v>35596400</v>
+        <v>33866700</v>
       </c>
       <c r="H61" s="3">
-        <v>37328800</v>
+        <v>35514900</v>
       </c>
       <c r="I61" s="3">
-        <v>40136800</v>
+        <v>38186400</v>
       </c>
       <c r="J61" s="3">
-        <v>33860800</v>
+        <v>32215400</v>
       </c>
       <c r="K61" s="3">
         <v>26146200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10106200</v>
+        <v>9615100</v>
       </c>
       <c r="E62" s="3">
-        <v>10046200</v>
+        <v>9558000</v>
       </c>
       <c r="F62" s="3">
-        <v>5682600</v>
+        <v>5406400</v>
       </c>
       <c r="G62" s="3">
-        <v>5836400</v>
+        <v>5552800</v>
       </c>
       <c r="H62" s="3">
-        <v>4754200</v>
+        <v>4523200</v>
       </c>
       <c r="I62" s="3">
-        <v>7465100</v>
+        <v>7102300</v>
       </c>
       <c r="J62" s="3">
-        <v>6818200</v>
+        <v>6486900</v>
       </c>
       <c r="K62" s="3">
         <v>6150700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>108283000</v>
+        <v>103021000</v>
       </c>
       <c r="E66" s="3">
-        <v>116463000</v>
+        <v>110804000</v>
       </c>
       <c r="F66" s="3">
-        <v>87975300</v>
+        <v>83700400</v>
       </c>
       <c r="G66" s="3">
-        <v>85059300</v>
+        <v>80926100</v>
       </c>
       <c r="H66" s="3">
-        <v>89982600</v>
+        <v>85610100</v>
       </c>
       <c r="I66" s="3">
-        <v>93580400</v>
+        <v>89033100</v>
       </c>
       <c r="J66" s="3">
-        <v>85166300</v>
+        <v>81027800</v>
       </c>
       <c r="K66" s="3">
         <v>62521000</v>
@@ -2808,11 +2808,11 @@
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+      <c r="I72" s="3">
+        <v>-99309400</v>
       </c>
       <c r="J72" s="3">
-        <v>-93689500</v>
+        <v>-89136900</v>
       </c>
       <c r="K72" s="3">
         <v>-62998800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60877100</v>
+        <v>57919000</v>
       </c>
       <c r="E76" s="3">
-        <v>66992800</v>
+        <v>63737400</v>
       </c>
       <c r="F76" s="3">
-        <v>67874200</v>
+        <v>64576100</v>
       </c>
       <c r="G76" s="3">
-        <v>73789200</v>
+        <v>70203600</v>
       </c>
       <c r="H76" s="3">
-        <v>78763700</v>
+        <v>74936400</v>
       </c>
       <c r="I76" s="3">
-        <v>90900100</v>
+        <v>86483000</v>
       </c>
       <c r="J76" s="3">
-        <v>99829200</v>
+        <v>94978200</v>
       </c>
       <c r="K76" s="3">
         <v>86731700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>122200</v>
+        <v>116200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1003600</v>
+        <v>-954900</v>
       </c>
       <c r="F81" s="3">
-        <v>-8749100</v>
+        <v>-8324000</v>
       </c>
       <c r="G81" s="3">
-        <v>2660700</v>
+        <v>2531400</v>
       </c>
       <c r="H81" s="3">
-        <v>-6869500</v>
+        <v>-6535700</v>
       </c>
       <c r="I81" s="3">
-        <v>-5896400</v>
+        <v>-5609800</v>
       </c>
       <c r="J81" s="3">
-        <v>8002900</v>
+        <v>7614000</v>
       </c>
       <c r="K81" s="3">
         <v>72585600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15382900</v>
+        <v>14635400</v>
       </c>
       <c r="E83" s="3">
-        <v>15462600</v>
+        <v>14711200</v>
       </c>
       <c r="F83" s="3">
-        <v>10685500</v>
+        <v>10166200</v>
       </c>
       <c r="G83" s="3">
-        <v>11355300</v>
+        <v>10803500</v>
       </c>
       <c r="H83" s="3">
-        <v>12093800</v>
+        <v>11506200</v>
       </c>
       <c r="I83" s="3">
-        <v>12760400</v>
+        <v>12140300</v>
       </c>
       <c r="J83" s="3">
-        <v>12117800</v>
+        <v>11529000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18780000</v>
+        <v>17867400</v>
       </c>
       <c r="E89" s="3">
-        <v>18958900</v>
+        <v>18037700</v>
       </c>
       <c r="F89" s="3">
-        <v>14160000</v>
+        <v>13471900</v>
       </c>
       <c r="G89" s="3">
-        <v>14836400</v>
+        <v>14115400</v>
       </c>
       <c r="H89" s="3">
-        <v>15516000</v>
+        <v>14762100</v>
       </c>
       <c r="I89" s="3">
-        <v>15639300</v>
+        <v>14879300</v>
       </c>
       <c r="J89" s="3">
-        <v>13819600</v>
+        <v>13148100</v>
       </c>
       <c r="K89" s="3">
         <v>7628000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5905100</v>
+        <v>-5618200</v>
       </c>
       <c r="E91" s="3">
-        <v>-5653100</v>
+        <v>-5378400</v>
       </c>
       <c r="F91" s="3">
-        <v>-5512400</v>
+        <v>-5244500</v>
       </c>
       <c r="G91" s="3">
-        <v>-5364000</v>
+        <v>-5103400</v>
       </c>
       <c r="H91" s="3">
-        <v>-6856400</v>
+        <v>-6523200</v>
       </c>
       <c r="I91" s="3">
-        <v>-9016400</v>
+        <v>-8578200</v>
       </c>
       <c r="J91" s="3">
-        <v>-7989800</v>
+        <v>-7601600</v>
       </c>
       <c r="K91" s="3">
         <v>-5385100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10104000</v>
+        <v>-9613000</v>
       </c>
       <c r="E94" s="3">
-        <v>-8823300</v>
+        <v>-8394500</v>
       </c>
       <c r="F94" s="3">
-        <v>-10054900</v>
+        <v>-9566300</v>
       </c>
       <c r="G94" s="3">
-        <v>-10735600</v>
+        <v>-10214000</v>
       </c>
       <c r="H94" s="3">
-        <v>-9188700</v>
+        <v>-8742200</v>
       </c>
       <c r="I94" s="3">
-        <v>-15132000</v>
+        <v>-14396700</v>
       </c>
       <c r="J94" s="3">
-        <v>-14437100</v>
+        <v>-13735600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2647600</v>
+        <v>-2519000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2504700</v>
+        <v>-2383000</v>
       </c>
       <c r="F96" s="3">
-        <v>-4433500</v>
+        <v>-4218000</v>
       </c>
       <c r="G96" s="3">
-        <v>-4276400</v>
+        <v>-4068600</v>
       </c>
       <c r="H96" s="3">
-        <v>-4051600</v>
+        <v>-3854800</v>
       </c>
       <c r="I96" s="3">
-        <v>-4568700</v>
+        <v>-4346700</v>
       </c>
       <c r="J96" s="3">
-        <v>-4099600</v>
+        <v>-3900400</v>
       </c>
       <c r="K96" s="3">
         <v>-6218000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16577500</v>
+        <v>-15771900</v>
       </c>
       <c r="E100" s="3">
-        <v>-10202200</v>
+        <v>-9706400</v>
       </c>
       <c r="F100" s="3">
-        <v>4840400</v>
+        <v>4605200</v>
       </c>
       <c r="G100" s="3">
-        <v>-7891600</v>
+        <v>-7508200</v>
       </c>
       <c r="H100" s="3">
-        <v>-9922900</v>
+        <v>-9440700</v>
       </c>
       <c r="I100" s="3">
-        <v>4453100</v>
+        <v>4236700</v>
       </c>
       <c r="J100" s="3">
-        <v>-3449500</v>
+        <v>-3281800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-278200</v>
+        <v>-264700</v>
       </c>
       <c r="E101" s="3">
-        <v>-279300</v>
+        <v>-265700</v>
       </c>
       <c r="F101" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="G101" s="3">
-        <v>-472400</v>
+        <v>-449400</v>
       </c>
       <c r="H101" s="3">
-        <v>-341500</v>
+        <v>-324900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1230500</v>
+        <v>-1170800</v>
       </c>
       <c r="J101" s="3">
-        <v>1063600</v>
+        <v>1012000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8179600</v>
+        <v>-7782200</v>
       </c>
       <c r="E102" s="3">
-        <v>-345800</v>
+        <v>-329000</v>
       </c>
       <c r="F102" s="3">
-        <v>8957500</v>
+        <v>8522200</v>
       </c>
       <c r="G102" s="3">
-        <v>-4263300</v>
+        <v>-4056100</v>
       </c>
       <c r="H102" s="3">
-        <v>-3937100</v>
+        <v>-3745800</v>
       </c>
       <c r="I102" s="3">
-        <v>3729800</v>
+        <v>3548600</v>
       </c>
       <c r="J102" s="3">
-        <v>-3003300</v>
+        <v>-2857300</v>
       </c>
       <c r="K102" s="3">
         <v>3192300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>45469400</v>
+        <v>45461500</v>
       </c>
       <c r="E8" s="3">
-        <v>46678500</v>
+        <v>43695100</v>
       </c>
       <c r="F8" s="3">
-        <v>45320900</v>
+        <v>44857100</v>
       </c>
       <c r="G8" s="3">
-        <v>48336000</v>
+        <v>43552500</v>
       </c>
       <c r="H8" s="3">
-        <v>49436200</v>
+        <v>46449900</v>
       </c>
       <c r="I8" s="3">
-        <v>51697800</v>
+        <v>47507200</v>
       </c>
       <c r="J8" s="3">
+        <v>49680500</v>
+      </c>
+      <c r="K8" s="3">
         <v>50218800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46973500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42134200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43556800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>31226300</v>
+        <v>30494500</v>
       </c>
       <c r="E9" s="3">
-        <v>31844800</v>
+        <v>30007800</v>
       </c>
       <c r="F9" s="3">
-        <v>31303100</v>
+        <v>30602200</v>
       </c>
       <c r="G9" s="3">
-        <v>34013000</v>
+        <v>30081600</v>
       </c>
       <c r="H9" s="3">
-        <v>35886400</v>
+        <v>32685800</v>
       </c>
       <c r="I9" s="3">
-        <v>38104400</v>
+        <v>34486100</v>
       </c>
       <c r="J9" s="3">
+        <v>36617500</v>
+      </c>
+      <c r="K9" s="3">
         <v>36402300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34228700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29425600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30519200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14243100</v>
+        <v>14967000</v>
       </c>
       <c r="E10" s="3">
-        <v>14833700</v>
+        <v>13687300</v>
       </c>
       <c r="F10" s="3">
-        <v>14017900</v>
+        <v>14254800</v>
       </c>
       <c r="G10" s="3">
-        <v>14323000</v>
+        <v>13470900</v>
       </c>
       <c r="H10" s="3">
-        <v>13549800</v>
+        <v>13764100</v>
       </c>
       <c r="I10" s="3">
-        <v>13593400</v>
+        <v>13021100</v>
       </c>
       <c r="J10" s="3">
+        <v>13062900</v>
+      </c>
+      <c r="K10" s="3">
         <v>13816500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12744800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12708600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13037500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,35 +938,38 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1748900</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>3658600</v>
+        <v>1680600</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>3515800</v>
       </c>
       <c r="H14" s="3">
-        <v>-1323300</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>590600</v>
+        <v>-1271700</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>567500</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>8084900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8528500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4544100</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40179200</v>
+        <v>39812200</v>
       </c>
       <c r="E17" s="3">
-        <v>42424200</v>
+        <v>38611300</v>
       </c>
       <c r="F17" s="3">
-        <v>46308000</v>
+        <v>40768700</v>
       </c>
       <c r="G17" s="3">
-        <v>43874100</v>
+        <v>44501000</v>
       </c>
       <c r="H17" s="3">
-        <v>45570000</v>
+        <v>42162100</v>
       </c>
       <c r="I17" s="3">
-        <v>50327800</v>
+        <v>43791800</v>
       </c>
       <c r="J17" s="3">
+        <v>48363900</v>
+      </c>
+      <c r="K17" s="3">
         <v>48067200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51766900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44573100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37253400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5290200</v>
+        <v>5649300</v>
       </c>
       <c r="E18" s="3">
-        <v>4254400</v>
+        <v>5083700</v>
       </c>
       <c r="F18" s="3">
-        <v>-987000</v>
+        <v>4088300</v>
       </c>
       <c r="G18" s="3">
-        <v>4461900</v>
+        <v>-948500</v>
       </c>
       <c r="H18" s="3">
-        <v>3866200</v>
+        <v>4287800</v>
       </c>
       <c r="I18" s="3">
-        <v>1370000</v>
+        <v>3715300</v>
       </c>
       <c r="J18" s="3">
+        <v>1316600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2151600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4793400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2438900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6303300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1932600</v>
+        <v>701200</v>
       </c>
       <c r="E20" s="3">
-        <v>-558400</v>
+        <v>1857200</v>
       </c>
       <c r="F20" s="3">
-        <v>-48800</v>
+        <v>-536600</v>
       </c>
       <c r="G20" s="3">
-        <v>699500</v>
+        <v>-46900</v>
       </c>
       <c r="H20" s="3">
-        <v>267800</v>
+        <v>672200</v>
       </c>
       <c r="I20" s="3">
-        <v>-575000</v>
+        <v>257300</v>
       </c>
       <c r="J20" s="3">
+        <v>-552600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1216400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-283000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2137700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2065600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>22044300</v>
+        <v>20147000</v>
       </c>
       <c r="E21" s="3">
-        <v>18594300</v>
+        <v>20992600</v>
       </c>
       <c r="F21" s="3">
-        <v>9259700</v>
+        <v>17676100</v>
       </c>
       <c r="G21" s="3">
-        <v>16102400</v>
+        <v>8765300</v>
       </c>
       <c r="H21" s="3">
-        <v>15786500</v>
+        <v>15332600</v>
       </c>
       <c r="I21" s="3">
-        <v>13089700</v>
+        <v>15019800</v>
       </c>
       <c r="J21" s="3">
+        <v>12420100</v>
+      </c>
+      <c r="K21" s="3">
         <v>15043600</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>15928000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2656000</v>
+        <v>2406700</v>
       </c>
       <c r="E22" s="3">
-        <v>2870800</v>
+        <v>2552300</v>
       </c>
       <c r="F22" s="3">
-        <v>1676200</v>
+        <v>2758800</v>
       </c>
       <c r="G22" s="3">
-        <v>1136500</v>
+        <v>1610800</v>
       </c>
       <c r="H22" s="3">
-        <v>1236100</v>
+        <v>1092200</v>
       </c>
       <c r="I22" s="3">
-        <v>992200</v>
+        <v>1187900</v>
       </c>
       <c r="J22" s="3">
+        <v>953500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1568300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1379300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3556500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3719400</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4566800</v>
+        <v>3943700</v>
       </c>
       <c r="E23" s="3">
-        <v>825100</v>
+        <v>4388600</v>
       </c>
       <c r="F23" s="3">
-        <v>-2712000</v>
+        <v>792900</v>
       </c>
       <c r="G23" s="3">
-        <v>4025000</v>
+        <v>-2606200</v>
       </c>
       <c r="H23" s="3">
-        <v>2897800</v>
+        <v>3867900</v>
       </c>
       <c r="I23" s="3">
-        <v>-197200</v>
+        <v>2784700</v>
       </c>
       <c r="J23" s="3">
+        <v>-189500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1799700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6455700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3857800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4649500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4010400</v>
+        <v>1326500</v>
       </c>
       <c r="E24" s="3">
-        <v>1297400</v>
+        <v>3854000</v>
       </c>
       <c r="F24" s="3">
-        <v>1552700</v>
+        <v>1246800</v>
       </c>
       <c r="G24" s="3">
-        <v>-912300</v>
+        <v>1492100</v>
       </c>
       <c r="H24" s="3">
-        <v>4944600</v>
+        <v>-876700</v>
       </c>
       <c r="I24" s="3">
-        <v>5124100</v>
+        <v>4751600</v>
       </c>
       <c r="J24" s="3">
+        <v>4924200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-6301100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-20312800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>527200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>791000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>556300</v>
+        <v>2617200</v>
       </c>
       <c r="E26" s="3">
-        <v>-472200</v>
+        <v>534600</v>
       </c>
       <c r="F26" s="3">
-        <v>-4264700</v>
+        <v>-453800</v>
       </c>
       <c r="G26" s="3">
-        <v>4937300</v>
+        <v>-4098300</v>
       </c>
       <c r="H26" s="3">
-        <v>-2046700</v>
+        <v>4744600</v>
       </c>
       <c r="I26" s="3">
-        <v>-5321300</v>
+        <v>-1966900</v>
       </c>
       <c r="J26" s="3">
+        <v>-5113700</v>
+      </c>
+      <c r="K26" s="3">
         <v>8100800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13857100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3858500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>116200</v>
+        <v>2082600</v>
       </c>
       <c r="E27" s="3">
-        <v>-954900</v>
+        <v>111700</v>
       </c>
       <c r="F27" s="3">
-        <v>-4655000</v>
+        <v>-917600</v>
       </c>
       <c r="G27" s="3">
-        <v>4575100</v>
+        <v>-4473300</v>
       </c>
       <c r="H27" s="3">
-        <v>-2273000</v>
+        <v>4396500</v>
       </c>
       <c r="I27" s="3">
-        <v>-5615000</v>
+        <v>-2184300</v>
       </c>
       <c r="J27" s="3">
+        <v>-5395900</v>
+      </c>
+      <c r="K27" s="3">
         <v>7895300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13653700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4655200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3806900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-3669000</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-2043600</v>
+        <v>-3525800</v>
       </c>
       <c r="H29" s="3">
-        <v>-4262700</v>
+        <v>-1963900</v>
       </c>
       <c r="I29" s="3">
-        <v>5200</v>
+        <v>-4096300</v>
       </c>
       <c r="J29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-281300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>58931800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5112700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>3988700</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1932600</v>
+        <v>-701200</v>
       </c>
       <c r="E32" s="3">
-        <v>558400</v>
+        <v>-1857200</v>
       </c>
       <c r="F32" s="3">
-        <v>48800</v>
+        <v>536600</v>
       </c>
       <c r="G32" s="3">
-        <v>-699500</v>
+        <v>46900</v>
       </c>
       <c r="H32" s="3">
-        <v>-267800</v>
+        <v>-672200</v>
       </c>
       <c r="I32" s="3">
-        <v>575000</v>
+        <v>-257300</v>
       </c>
       <c r="J32" s="3">
+        <v>552600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1216400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>283000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2137700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2065600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>116200</v>
+        <v>2082600</v>
       </c>
       <c r="E33" s="3">
-        <v>-954900</v>
+        <v>111700</v>
       </c>
       <c r="F33" s="3">
-        <v>-8324000</v>
+        <v>-917600</v>
       </c>
       <c r="G33" s="3">
-        <v>2531400</v>
+        <v>-7999100</v>
       </c>
       <c r="H33" s="3">
-        <v>-6535700</v>
+        <v>2432700</v>
       </c>
       <c r="I33" s="3">
-        <v>-5609800</v>
+        <v>-6280600</v>
       </c>
       <c r="J33" s="3">
+        <v>-5390900</v>
+      </c>
+      <c r="K33" s="3">
         <v>7614000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72585600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>457400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7795600</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>116200</v>
+        <v>2082600</v>
       </c>
       <c r="E35" s="3">
-        <v>-954900</v>
+        <v>111700</v>
       </c>
       <c r="F35" s="3">
-        <v>-8324000</v>
+        <v>-917600</v>
       </c>
       <c r="G35" s="3">
-        <v>2531400</v>
+        <v>-7999100</v>
       </c>
       <c r="H35" s="3">
-        <v>-6535700</v>
+        <v>2432700</v>
       </c>
       <c r="I35" s="3">
-        <v>-5609800</v>
+        <v>-6280600</v>
       </c>
       <c r="J35" s="3">
+        <v>-5390900</v>
+      </c>
+      <c r="K35" s="3">
         <v>7614000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72585600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>457400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7795600</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6041600</v>
+        <v>7476500</v>
       </c>
       <c r="E41" s="3">
-        <v>11785400</v>
+        <v>5805900</v>
       </c>
       <c r="F41" s="3">
-        <v>11874600</v>
+        <v>11325500</v>
       </c>
       <c r="G41" s="3">
-        <v>4851100</v>
+        <v>11411300</v>
       </c>
       <c r="H41" s="3">
-        <v>9169800</v>
+        <v>4661800</v>
       </c>
       <c r="I41" s="3">
-        <v>23279100</v>
+        <v>8812000</v>
       </c>
       <c r="J41" s="3">
+        <v>22370700</v>
+      </c>
+      <c r="K41" s="3">
         <v>14844000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18717800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8357900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8008800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9506100</v>
+        <v>7910400</v>
       </c>
       <c r="E42" s="3">
-        <v>9643100</v>
+        <v>9135200</v>
       </c>
       <c r="F42" s="3">
-        <v>15784400</v>
+        <v>9266800</v>
       </c>
       <c r="G42" s="3">
-        <v>9128300</v>
+        <v>15168500</v>
       </c>
       <c r="H42" s="3">
-        <v>6351900</v>
+        <v>8772100</v>
       </c>
       <c r="I42" s="3">
-        <v>9083700</v>
+        <v>6104100</v>
       </c>
       <c r="J42" s="3">
+        <v>8729200</v>
+      </c>
+      <c r="K42" s="3">
         <v>7715700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11523500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8970500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1484400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10416400</v>
+        <v>10006900</v>
       </c>
       <c r="E43" s="3">
-        <v>10687300</v>
+        <v>10009900</v>
       </c>
       <c r="F43" s="3">
-        <v>11450100</v>
+        <v>10270200</v>
       </c>
       <c r="G43" s="3">
-        <v>9080600</v>
+        <v>11003300</v>
       </c>
       <c r="H43" s="3">
-        <v>8514900</v>
+        <v>8726300</v>
       </c>
       <c r="I43" s="3">
-        <v>17370300</v>
+        <v>8182700</v>
       </c>
       <c r="J43" s="3">
+        <v>16692500</v>
+      </c>
+      <c r="K43" s="3">
         <v>17585100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11390000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5397000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8098500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>701600</v>
+        <v>833800</v>
       </c>
       <c r="E44" s="3">
-        <v>620700</v>
+        <v>674200</v>
       </c>
       <c r="F44" s="3">
-        <v>741100</v>
+        <v>596400</v>
       </c>
       <c r="G44" s="3">
-        <v>603000</v>
+        <v>712100</v>
       </c>
       <c r="H44" s="3">
-        <v>597800</v>
+        <v>579500</v>
       </c>
       <c r="I44" s="3">
-        <v>1486300</v>
+        <v>574500</v>
       </c>
       <c r="J44" s="3">
+        <v>1428300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1192500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1080400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>891200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>545300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1371100</v>
+        <v>1278700</v>
       </c>
       <c r="E45" s="3">
-        <v>1769600</v>
+        <v>1317600</v>
       </c>
       <c r="F45" s="3">
-        <v>1475900</v>
+        <v>1700600</v>
       </c>
       <c r="G45" s="3">
-        <v>1382500</v>
+        <v>1418300</v>
       </c>
       <c r="H45" s="3">
-        <v>1875500</v>
+        <v>1328500</v>
       </c>
       <c r="I45" s="3">
-        <v>6228400</v>
+        <v>1802300</v>
       </c>
       <c r="J45" s="3">
+        <v>5985400</v>
+      </c>
+      <c r="K45" s="3">
         <v>3161400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>526700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3942000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4330900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28036800</v>
+        <v>27506300</v>
       </c>
       <c r="E46" s="3">
-        <v>34506000</v>
+        <v>26942800</v>
       </c>
       <c r="F46" s="3">
-        <v>41326100</v>
+        <v>33159600</v>
       </c>
       <c r="G46" s="3">
-        <v>25045600</v>
+        <v>39713500</v>
       </c>
       <c r="H46" s="3">
-        <v>26510000</v>
+        <v>24068300</v>
       </c>
       <c r="I46" s="3">
-        <v>33148500</v>
+        <v>25475600</v>
       </c>
       <c r="J46" s="3">
+        <v>31855000</v>
+      </c>
+      <c r="K46" s="3">
         <v>28497600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30284200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24026100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22467800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10765100</v>
+        <v>11693500</v>
       </c>
       <c r="E47" s="3">
-        <v>17660900</v>
+        <v>10345000</v>
       </c>
       <c r="F47" s="3">
-        <v>10370700</v>
+        <v>16971800</v>
       </c>
       <c r="G47" s="3">
-        <v>10138200</v>
+        <v>9966000</v>
       </c>
       <c r="H47" s="3">
-        <v>11589200</v>
+        <v>9742600</v>
       </c>
       <c r="I47" s="3">
-        <v>11316200</v>
+        <v>11137000</v>
       </c>
       <c r="J47" s="3">
+        <v>10874700</v>
+      </c>
+      <c r="K47" s="3">
         <v>13054700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8497800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>62541700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>44185100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42806100</v>
+        <v>40697900</v>
       </c>
       <c r="E48" s="3">
-        <v>41633300</v>
+        <v>41135800</v>
       </c>
       <c r="F48" s="3">
-        <v>28471700</v>
+        <v>40008700</v>
       </c>
       <c r="G48" s="3">
-        <v>29398500</v>
+        <v>27360700</v>
       </c>
       <c r="H48" s="3">
-        <v>31348700</v>
+        <v>28251400</v>
       </c>
       <c r="I48" s="3">
-        <v>73722000</v>
+        <v>30125500</v>
       </c>
       <c r="J48" s="3">
+        <v>70845300</v>
+      </c>
+      <c r="K48" s="3">
         <v>65812200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55984500</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20930700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55578500</v>
+        <v>53105600</v>
       </c>
       <c r="E49" s="3">
-        <v>56055900</v>
+        <v>53409800</v>
       </c>
       <c r="F49" s="3">
-        <v>42559100</v>
+        <v>53868600</v>
       </c>
       <c r="G49" s="3">
-        <v>44896400</v>
+        <v>40898400</v>
       </c>
       <c r="H49" s="3">
-        <v>47971700</v>
+        <v>43144500</v>
       </c>
       <c r="I49" s="3">
-        <v>121567000</v>
+        <v>46099800</v>
       </c>
       <c r="J49" s="3">
+        <v>116824000</v>
+      </c>
+      <c r="K49" s="3">
         <v>106907000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>114385000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>107136000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66774100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23753400</v>
+        <v>20549400</v>
       </c>
       <c r="E52" s="3">
-        <v>24685400</v>
+        <v>22826500</v>
       </c>
       <c r="F52" s="3">
-        <v>25548900</v>
+        <v>23722200</v>
       </c>
       <c r="G52" s="3">
-        <v>41650900</v>
+        <v>24552000</v>
       </c>
       <c r="H52" s="3">
-        <v>43126800</v>
+        <v>40025700</v>
       </c>
       <c r="I52" s="3">
-        <v>33406900</v>
+        <v>41444000</v>
       </c>
       <c r="J52" s="3">
+        <v>32103300</v>
+      </c>
+      <c r="K52" s="3">
         <v>34484200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25286200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3218400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2245100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>160940000</v>
+        <v>153553000</v>
       </c>
       <c r="E54" s="3">
-        <v>174542000</v>
+        <v>154660000</v>
       </c>
       <c r="F54" s="3">
-        <v>148277000</v>
+        <v>167731000</v>
       </c>
       <c r="G54" s="3">
-        <v>151130000</v>
+        <v>142491000</v>
       </c>
       <c r="H54" s="3">
-        <v>160547000</v>
+        <v>145232000</v>
       </c>
       <c r="I54" s="3">
-        <v>175516000</v>
+        <v>154282000</v>
       </c>
       <c r="J54" s="3">
+        <v>168667000</v>
+      </c>
+      <c r="K54" s="3">
         <v>176006000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149253000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>153512000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>156603000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7031800</v>
+        <v>7347800</v>
       </c>
       <c r="E57" s="3">
-        <v>7002700</v>
+        <v>6757400</v>
       </c>
       <c r="F57" s="3">
-        <v>6815900</v>
+        <v>6729500</v>
       </c>
       <c r="G57" s="3">
-        <v>6447400</v>
+        <v>6549900</v>
       </c>
       <c r="H57" s="3">
-        <v>6462000</v>
+        <v>6195800</v>
       </c>
       <c r="I57" s="3">
-        <v>7770800</v>
+        <v>6209800</v>
       </c>
       <c r="J57" s="3">
+        <v>7467500</v>
+      </c>
+      <c r="K57" s="3">
         <v>26700000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5832200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9059300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5098300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8809700</v>
+        <v>11929900</v>
       </c>
       <c r="E58" s="3">
-        <v>12429900</v>
+        <v>8465900</v>
       </c>
       <c r="F58" s="3">
-        <v>4431800</v>
+        <v>11944900</v>
       </c>
       <c r="G58" s="3">
-        <v>10743300</v>
+        <v>4258900</v>
       </c>
       <c r="H58" s="3">
-        <v>12507700</v>
+        <v>10324100</v>
       </c>
       <c r="I58" s="3">
-        <v>28403200</v>
+        <v>12019700</v>
       </c>
       <c r="J58" s="3">
+        <v>27294800</v>
+      </c>
+      <c r="K58" s="3">
         <v>27216900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5211100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14101100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5886000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13957700</v>
+        <v>14281800</v>
       </c>
       <c r="E59" s="3">
-        <v>15217700</v>
+        <v>13413000</v>
       </c>
       <c r="F59" s="3">
-        <v>15242600</v>
+        <v>14623900</v>
       </c>
       <c r="G59" s="3">
-        <v>23312300</v>
+        <v>14647800</v>
       </c>
       <c r="H59" s="3">
-        <v>25025800</v>
+        <v>22402600</v>
       </c>
       <c r="I59" s="3">
-        <v>19529100</v>
+        <v>24049300</v>
       </c>
       <c r="J59" s="3">
+        <v>18767100</v>
+      </c>
+      <c r="K59" s="3">
         <v>16151800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24224200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17625800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15971500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29799100</v>
+        <v>33559500</v>
       </c>
       <c r="E60" s="3">
-        <v>34650300</v>
+        <v>28636400</v>
       </c>
       <c r="F60" s="3">
-        <v>26490300</v>
+        <v>33298200</v>
       </c>
       <c r="G60" s="3">
-        <v>40503000</v>
+        <v>25456600</v>
       </c>
       <c r="H60" s="3">
-        <v>43995500</v>
+        <v>38922500</v>
       </c>
       <c r="I60" s="3">
-        <v>43835700</v>
+        <v>42278800</v>
       </c>
       <c r="J60" s="3">
+        <v>42125200</v>
+      </c>
+      <c r="K60" s="3">
         <v>41494200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30672500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31483900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26955800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61518400</v>
+        <v>57979900</v>
       </c>
       <c r="E61" s="3">
-        <v>65334800</v>
+        <v>59117900</v>
       </c>
       <c r="F61" s="3">
-        <v>50530200</v>
+        <v>62785300</v>
       </c>
       <c r="G61" s="3">
-        <v>33866700</v>
+        <v>48558400</v>
       </c>
       <c r="H61" s="3">
-        <v>35514900</v>
+        <v>32545200</v>
       </c>
       <c r="I61" s="3">
-        <v>38186400</v>
+        <v>34129000</v>
       </c>
       <c r="J61" s="3">
+        <v>36696300</v>
+      </c>
+      <c r="K61" s="3">
         <v>32215400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26146200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30132200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31821900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9615100</v>
+        <v>5184500</v>
       </c>
       <c r="E62" s="3">
-        <v>9558000</v>
+        <v>9239900</v>
       </c>
       <c r="F62" s="3">
-        <v>5406400</v>
+        <v>9185100</v>
       </c>
       <c r="G62" s="3">
-        <v>5552800</v>
+        <v>5195500</v>
       </c>
       <c r="H62" s="3">
-        <v>4523200</v>
+        <v>5336100</v>
       </c>
       <c r="I62" s="3">
-        <v>7102300</v>
+        <v>4346700</v>
       </c>
       <c r="J62" s="3">
+        <v>6825200</v>
+      </c>
+      <c r="K62" s="3">
         <v>6486900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6150700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13106700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10083300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103021000</v>
+        <v>99007900</v>
       </c>
       <c r="E66" s="3">
-        <v>110804000</v>
+        <v>99000900</v>
       </c>
       <c r="F66" s="3">
-        <v>83700400</v>
+        <v>106480000</v>
       </c>
       <c r="G66" s="3">
-        <v>80926100</v>
+        <v>80434300</v>
       </c>
       <c r="H66" s="3">
-        <v>85610100</v>
+        <v>77768300</v>
       </c>
       <c r="I66" s="3">
-        <v>89033100</v>
+        <v>82269500</v>
       </c>
       <c r="J66" s="3">
+        <v>85559000</v>
+      </c>
+      <c r="K66" s="3">
         <v>81027800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62521000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74186800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70282600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,9 +2957,12 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2808,24 +2981,27 @@
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
-        <v>-99309400</v>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J72" s="3">
+        <v>-95434200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-89136900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62998800</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-94206800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57919000</v>
+        <v>54544800</v>
       </c>
       <c r="E76" s="3">
-        <v>63737400</v>
+        <v>55658900</v>
       </c>
       <c r="F76" s="3">
-        <v>64576100</v>
+        <v>61250300</v>
       </c>
       <c r="G76" s="3">
-        <v>70203600</v>
+        <v>62056200</v>
       </c>
       <c r="H76" s="3">
-        <v>74936400</v>
+        <v>67464100</v>
       </c>
       <c r="I76" s="3">
-        <v>86483000</v>
+        <v>72012300</v>
       </c>
       <c r="J76" s="3">
+        <v>83108400</v>
+      </c>
+      <c r="K76" s="3">
         <v>94978200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>86731700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79325200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>86320300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>116200</v>
+        <v>2082600</v>
       </c>
       <c r="E81" s="3">
-        <v>-954900</v>
+        <v>111700</v>
       </c>
       <c r="F81" s="3">
-        <v>-8324000</v>
+        <v>-917600</v>
       </c>
       <c r="G81" s="3">
-        <v>2531400</v>
+        <v>-7999100</v>
       </c>
       <c r="H81" s="3">
-        <v>-6535700</v>
+        <v>2432700</v>
       </c>
       <c r="I81" s="3">
-        <v>-5609800</v>
+        <v>-6280600</v>
       </c>
       <c r="J81" s="3">
+        <v>-5390900</v>
+      </c>
+      <c r="K81" s="3">
         <v>7614000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72585600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>457400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7795600</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14635400</v>
+        <v>13809000</v>
       </c>
       <c r="E83" s="3">
-        <v>14711200</v>
+        <v>14064300</v>
       </c>
       <c r="F83" s="3">
-        <v>10166200</v>
+        <v>14137100</v>
       </c>
       <c r="G83" s="3">
-        <v>10803500</v>
+        <v>9769500</v>
       </c>
       <c r="H83" s="3">
-        <v>11506200</v>
+        <v>10381900</v>
       </c>
       <c r="I83" s="3">
-        <v>12140300</v>
+        <v>11057200</v>
       </c>
       <c r="J83" s="3">
+        <v>11666600</v>
+      </c>
+      <c r="K83" s="3">
         <v>11529000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>7540900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17867400</v>
+        <v>18034000</v>
       </c>
       <c r="E89" s="3">
-        <v>18037700</v>
+        <v>17170200</v>
       </c>
       <c r="F89" s="3">
-        <v>13471900</v>
+        <v>17333800</v>
       </c>
       <c r="G89" s="3">
-        <v>14115400</v>
+        <v>12946300</v>
       </c>
       <c r="H89" s="3">
-        <v>14762100</v>
+        <v>13564600</v>
       </c>
       <c r="I89" s="3">
-        <v>14879300</v>
+        <v>14186000</v>
       </c>
       <c r="J89" s="3">
+        <v>14298700</v>
+      </c>
+      <c r="K89" s="3">
         <v>13148100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7628000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9773500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11553100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5618200</v>
+        <v>-5782900</v>
       </c>
       <c r="E91" s="3">
-        <v>-5378400</v>
+        <v>-5398900</v>
       </c>
       <c r="F91" s="3">
-        <v>-5244500</v>
+        <v>-5168500</v>
       </c>
       <c r="G91" s="3">
-        <v>-5103400</v>
+        <v>-5039900</v>
       </c>
       <c r="H91" s="3">
-        <v>-6523200</v>
+        <v>-4904200</v>
       </c>
       <c r="I91" s="3">
-        <v>-8578200</v>
+        <v>-6268700</v>
       </c>
       <c r="J91" s="3">
+        <v>-8243500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7601600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5385100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4383900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4567600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9613000</v>
+        <v>-6850100</v>
       </c>
       <c r="E94" s="3">
-        <v>-8394500</v>
+        <v>-9237900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9566300</v>
+        <v>-8067000</v>
       </c>
       <c r="G94" s="3">
-        <v>-10214000</v>
+        <v>-9193000</v>
       </c>
       <c r="H94" s="3">
-        <v>-8742200</v>
+        <v>-9815400</v>
       </c>
       <c r="I94" s="3">
-        <v>-14396700</v>
+        <v>-8401100</v>
       </c>
       <c r="J94" s="3">
+        <v>-13834900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13735600</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>7383800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2519000</v>
+        <v>-2467600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2383000</v>
+        <v>-2420700</v>
       </c>
       <c r="F96" s="3">
-        <v>-4218000</v>
+        <v>-2290000</v>
       </c>
       <c r="G96" s="3">
-        <v>-4068600</v>
+        <v>-4053400</v>
       </c>
       <c r="H96" s="3">
-        <v>-3854800</v>
+        <v>-3909800</v>
       </c>
       <c r="I96" s="3">
-        <v>-4346700</v>
+        <v>-3704300</v>
       </c>
       <c r="J96" s="3">
+        <v>-4177100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3900400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6218000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5323100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7453400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15771900</v>
+        <v>-9680800</v>
       </c>
       <c r="E100" s="3">
-        <v>-9706400</v>
+        <v>-15156500</v>
       </c>
       <c r="F100" s="3">
-        <v>4605200</v>
+        <v>-9327700</v>
       </c>
       <c r="G100" s="3">
-        <v>-7508200</v>
+        <v>4425500</v>
       </c>
       <c r="H100" s="3">
-        <v>-9440700</v>
+        <v>-7215200</v>
       </c>
       <c r="I100" s="3">
-        <v>4236700</v>
+        <v>-9072400</v>
       </c>
       <c r="J100" s="3">
+        <v>4071400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3281800</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-17580500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-264700</v>
+        <v>73800</v>
       </c>
       <c r="E101" s="3">
-        <v>-265700</v>
+        <v>-254300</v>
       </c>
       <c r="F101" s="3">
-        <v>11400</v>
+        <v>-255300</v>
       </c>
       <c r="G101" s="3">
-        <v>-449400</v>
+        <v>11000</v>
       </c>
       <c r="H101" s="3">
-        <v>-324900</v>
+        <v>-431900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1170800</v>
+        <v>-312200</v>
       </c>
       <c r="J101" s="3">
+        <v>-1125100</v>
+      </c>
+      <c r="K101" s="3">
         <v>1012000</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-388200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7782200</v>
+        <v>1576900</v>
       </c>
       <c r="E102" s="3">
-        <v>-329000</v>
+        <v>-7478500</v>
       </c>
       <c r="F102" s="3">
-        <v>8522200</v>
+        <v>-316200</v>
       </c>
       <c r="G102" s="3">
-        <v>-4056100</v>
+        <v>8189700</v>
       </c>
       <c r="H102" s="3">
-        <v>-3745800</v>
+        <v>-3897800</v>
       </c>
       <c r="I102" s="3">
-        <v>3548600</v>
+        <v>-3599600</v>
       </c>
       <c r="J102" s="3">
+        <v>3410100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2857300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3192300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>559300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>968300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>45461500</v>
+        <v>46528100</v>
       </c>
       <c r="E8" s="3">
-        <v>43695100</v>
+        <v>44720200</v>
       </c>
       <c r="F8" s="3">
-        <v>44857100</v>
+        <v>45909500</v>
       </c>
       <c r="G8" s="3">
-        <v>43552500</v>
+        <v>44574300</v>
       </c>
       <c r="H8" s="3">
-        <v>46449900</v>
+        <v>47539700</v>
       </c>
       <c r="I8" s="3">
-        <v>47507200</v>
+        <v>48621700</v>
       </c>
       <c r="J8" s="3">
-        <v>49680500</v>
+        <v>50846000</v>
       </c>
       <c r="K8" s="3">
         <v>50218800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30494500</v>
+        <v>31209900</v>
       </c>
       <c r="E9" s="3">
-        <v>30007800</v>
+        <v>30711800</v>
       </c>
       <c r="F9" s="3">
-        <v>30602200</v>
+        <v>31320200</v>
       </c>
       <c r="G9" s="3">
-        <v>30081600</v>
+        <v>30787300</v>
       </c>
       <c r="H9" s="3">
-        <v>32685800</v>
+        <v>33452600</v>
       </c>
       <c r="I9" s="3">
-        <v>34486100</v>
+        <v>35295200</v>
       </c>
       <c r="J9" s="3">
-        <v>36617500</v>
+        <v>37476600</v>
       </c>
       <c r="K9" s="3">
         <v>36402300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14967000</v>
+        <v>15318100</v>
       </c>
       <c r="E10" s="3">
-        <v>13687300</v>
+        <v>14008400</v>
       </c>
       <c r="F10" s="3">
-        <v>14254800</v>
+        <v>14589300</v>
       </c>
       <c r="G10" s="3">
-        <v>13470900</v>
+        <v>13786900</v>
       </c>
       <c r="H10" s="3">
-        <v>13764100</v>
+        <v>14087000</v>
       </c>
       <c r="I10" s="3">
-        <v>13021100</v>
+        <v>13326500</v>
       </c>
       <c r="J10" s="3">
-        <v>13062900</v>
+        <v>13369400</v>
       </c>
       <c r="K10" s="3">
         <v>13816500</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1680600</v>
+        <v>1720000</v>
       </c>
       <c r="G14" s="3">
-        <v>3515800</v>
+        <v>3598300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-1271700</v>
+        <v>-1301500</v>
       </c>
       <c r="J14" s="3">
-        <v>567500</v>
+        <v>580800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>39812200</v>
+        <v>40746300</v>
       </c>
       <c r="E17" s="3">
-        <v>38611300</v>
+        <v>39517200</v>
       </c>
       <c r="F17" s="3">
-        <v>40768700</v>
+        <v>41725200</v>
       </c>
       <c r="G17" s="3">
-        <v>44501000</v>
+        <v>45545000</v>
       </c>
       <c r="H17" s="3">
-        <v>42162100</v>
+        <v>43151300</v>
       </c>
       <c r="I17" s="3">
-        <v>43791800</v>
+        <v>44819200</v>
       </c>
       <c r="J17" s="3">
-        <v>48363900</v>
+        <v>49498600</v>
       </c>
       <c r="K17" s="3">
         <v>48067200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5649300</v>
+        <v>5781800</v>
       </c>
       <c r="E18" s="3">
-        <v>5083700</v>
+        <v>5203000</v>
       </c>
       <c r="F18" s="3">
-        <v>4088300</v>
+        <v>4184300</v>
       </c>
       <c r="G18" s="3">
-        <v>-948500</v>
+        <v>-970800</v>
       </c>
       <c r="H18" s="3">
-        <v>4287800</v>
+        <v>4388400</v>
       </c>
       <c r="I18" s="3">
-        <v>3715300</v>
+        <v>3802500</v>
       </c>
       <c r="J18" s="3">
-        <v>1316600</v>
+        <v>1347500</v>
       </c>
       <c r="K18" s="3">
         <v>2151600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>701200</v>
+        <v>717600</v>
       </c>
       <c r="E20" s="3">
-        <v>1857200</v>
+        <v>1900700</v>
       </c>
       <c r="F20" s="3">
-        <v>-536600</v>
+        <v>-549200</v>
       </c>
       <c r="G20" s="3">
-        <v>-46900</v>
+        <v>-48000</v>
       </c>
       <c r="H20" s="3">
-        <v>672200</v>
+        <v>688000</v>
       </c>
       <c r="I20" s="3">
-        <v>257300</v>
+        <v>263400</v>
       </c>
       <c r="J20" s="3">
-        <v>-552600</v>
+        <v>-565500</v>
       </c>
       <c r="K20" s="3">
         <v>1216400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>20147000</v>
+        <v>20359700</v>
       </c>
       <c r="E21" s="3">
-        <v>20992600</v>
+        <v>21220300</v>
       </c>
       <c r="F21" s="3">
-        <v>17676100</v>
+        <v>17824700</v>
       </c>
       <c r="G21" s="3">
-        <v>8765300</v>
+        <v>8787000</v>
       </c>
       <c r="H21" s="3">
-        <v>15332600</v>
+        <v>15496900</v>
       </c>
       <c r="I21" s="3">
-        <v>15019800</v>
+        <v>15164000</v>
       </c>
       <c r="J21" s="3">
-        <v>12420100</v>
+        <v>12491800</v>
       </c>
       <c r="K21" s="3">
         <v>15043600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2406700</v>
+        <v>2463200</v>
       </c>
       <c r="E22" s="3">
-        <v>2552300</v>
+        <v>2612200</v>
       </c>
       <c r="F22" s="3">
-        <v>2758800</v>
+        <v>2823500</v>
       </c>
       <c r="G22" s="3">
-        <v>1610800</v>
+        <v>1648600</v>
       </c>
       <c r="H22" s="3">
-        <v>1092200</v>
+        <v>1117800</v>
       </c>
       <c r="I22" s="3">
-        <v>1187900</v>
+        <v>1215800</v>
       </c>
       <c r="J22" s="3">
-        <v>953500</v>
+        <v>975900</v>
       </c>
       <c r="K22" s="3">
         <v>1568300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3943700</v>
+        <v>4036200</v>
       </c>
       <c r="E23" s="3">
-        <v>4388600</v>
+        <v>4491500</v>
       </c>
       <c r="F23" s="3">
-        <v>792900</v>
+        <v>811500</v>
       </c>
       <c r="G23" s="3">
-        <v>-2606200</v>
+        <v>-2667400</v>
       </c>
       <c r="H23" s="3">
-        <v>3867900</v>
+        <v>3958700</v>
       </c>
       <c r="I23" s="3">
-        <v>2784700</v>
+        <v>2850100</v>
       </c>
       <c r="J23" s="3">
-        <v>-189500</v>
+        <v>-194000</v>
       </c>
       <c r="K23" s="3">
         <v>1799700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1326500</v>
+        <v>1357700</v>
       </c>
       <c r="E24" s="3">
-        <v>3854000</v>
+        <v>3944400</v>
       </c>
       <c r="F24" s="3">
-        <v>1246800</v>
+        <v>1276000</v>
       </c>
       <c r="G24" s="3">
-        <v>1492100</v>
+        <v>1527100</v>
       </c>
       <c r="H24" s="3">
-        <v>-876700</v>
+        <v>-897300</v>
       </c>
       <c r="I24" s="3">
-        <v>4751600</v>
+        <v>4863100</v>
       </c>
       <c r="J24" s="3">
-        <v>4924200</v>
+        <v>5039700</v>
       </c>
       <c r="K24" s="3">
         <v>-6301100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2617200</v>
+        <v>2678600</v>
       </c>
       <c r="E26" s="3">
-        <v>534600</v>
+        <v>547100</v>
       </c>
       <c r="F26" s="3">
-        <v>-453800</v>
+        <v>-464500</v>
       </c>
       <c r="G26" s="3">
-        <v>-4098300</v>
+        <v>-4194500</v>
       </c>
       <c r="H26" s="3">
-        <v>4744600</v>
+        <v>4855900</v>
       </c>
       <c r="I26" s="3">
-        <v>-1966900</v>
+        <v>-2013000</v>
       </c>
       <c r="J26" s="3">
-        <v>-5113700</v>
+        <v>-5233600</v>
       </c>
       <c r="K26" s="3">
         <v>8100800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2082600</v>
+        <v>2131400</v>
       </c>
       <c r="E27" s="3">
-        <v>111700</v>
+        <v>114300</v>
       </c>
       <c r="F27" s="3">
-        <v>-917600</v>
+        <v>-939100</v>
       </c>
       <c r="G27" s="3">
-        <v>-4473300</v>
+        <v>-4578300</v>
       </c>
       <c r="H27" s="3">
-        <v>4396500</v>
+        <v>4499700</v>
       </c>
       <c r="I27" s="3">
-        <v>-2184300</v>
+        <v>-2235600</v>
       </c>
       <c r="J27" s="3">
-        <v>-5395900</v>
+        <v>-5522500</v>
       </c>
       <c r="K27" s="3">
         <v>7895300</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-3525800</v>
+        <v>-3608500</v>
       </c>
       <c r="H29" s="3">
-        <v>-1963900</v>
+        <v>-2010000</v>
       </c>
       <c r="I29" s="3">
-        <v>-4096300</v>
+        <v>-4192400</v>
       </c>
       <c r="J29" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K29" s="3">
         <v>-281300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-701200</v>
+        <v>-717600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1857200</v>
+        <v>-1900700</v>
       </c>
       <c r="F32" s="3">
-        <v>536600</v>
+        <v>549200</v>
       </c>
       <c r="G32" s="3">
-        <v>46900</v>
+        <v>48000</v>
       </c>
       <c r="H32" s="3">
-        <v>-672200</v>
+        <v>-688000</v>
       </c>
       <c r="I32" s="3">
-        <v>-257300</v>
+        <v>-263400</v>
       </c>
       <c r="J32" s="3">
-        <v>552600</v>
+        <v>565500</v>
       </c>
       <c r="K32" s="3">
         <v>-1216400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2082600</v>
+        <v>2131400</v>
       </c>
       <c r="E33" s="3">
-        <v>111700</v>
+        <v>114300</v>
       </c>
       <c r="F33" s="3">
-        <v>-917600</v>
+        <v>-939100</v>
       </c>
       <c r="G33" s="3">
-        <v>-7999100</v>
+        <v>-8186800</v>
       </c>
       <c r="H33" s="3">
-        <v>2432700</v>
+        <v>2489700</v>
       </c>
       <c r="I33" s="3">
-        <v>-6280600</v>
+        <v>-6428000</v>
       </c>
       <c r="J33" s="3">
-        <v>-5390900</v>
+        <v>-5517400</v>
       </c>
       <c r="K33" s="3">
         <v>7614000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2082600</v>
+        <v>2131400</v>
       </c>
       <c r="E35" s="3">
-        <v>111700</v>
+        <v>114300</v>
       </c>
       <c r="F35" s="3">
-        <v>-917600</v>
+        <v>-939100</v>
       </c>
       <c r="G35" s="3">
-        <v>-7999100</v>
+        <v>-8186800</v>
       </c>
       <c r="H35" s="3">
-        <v>2432700</v>
+        <v>2489700</v>
       </c>
       <c r="I35" s="3">
-        <v>-6280600</v>
+        <v>-6428000</v>
       </c>
       <c r="J35" s="3">
-        <v>-5390900</v>
+        <v>-5517400</v>
       </c>
       <c r="K35" s="3">
         <v>7614000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7476500</v>
+        <v>7651900</v>
       </c>
       <c r="E41" s="3">
-        <v>5805900</v>
+        <v>5942100</v>
       </c>
       <c r="F41" s="3">
-        <v>11325500</v>
+        <v>11591200</v>
       </c>
       <c r="G41" s="3">
-        <v>11411300</v>
+        <v>11679000</v>
       </c>
       <c r="H41" s="3">
-        <v>4661800</v>
+        <v>4771200</v>
       </c>
       <c r="I41" s="3">
-        <v>8812000</v>
+        <v>9018800</v>
       </c>
       <c r="J41" s="3">
-        <v>22370700</v>
+        <v>22895500</v>
       </c>
       <c r="K41" s="3">
         <v>14844000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7910400</v>
+        <v>8096000</v>
       </c>
       <c r="E42" s="3">
-        <v>9135200</v>
+        <v>9349500</v>
       </c>
       <c r="F42" s="3">
-        <v>9266800</v>
+        <v>9484300</v>
       </c>
       <c r="G42" s="3">
-        <v>15168500</v>
+        <v>15524300</v>
       </c>
       <c r="H42" s="3">
-        <v>8772100</v>
+        <v>8977900</v>
       </c>
       <c r="I42" s="3">
-        <v>6104100</v>
+        <v>6247300</v>
       </c>
       <c r="J42" s="3">
-        <v>8729200</v>
+        <v>8934000</v>
       </c>
       <c r="K42" s="3">
         <v>7715700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10006900</v>
+        <v>10241700</v>
       </c>
       <c r="E43" s="3">
-        <v>10009900</v>
+        <v>10244700</v>
       </c>
       <c r="F43" s="3">
-        <v>10270200</v>
+        <v>10511200</v>
       </c>
       <c r="G43" s="3">
-        <v>11003300</v>
+        <v>11261500</v>
       </c>
       <c r="H43" s="3">
-        <v>8726300</v>
+        <v>8931000</v>
       </c>
       <c r="I43" s="3">
-        <v>8182700</v>
+        <v>8374600</v>
       </c>
       <c r="J43" s="3">
-        <v>16692500</v>
+        <v>17084100</v>
       </c>
       <c r="K43" s="3">
         <v>17585100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>833800</v>
+        <v>853400</v>
       </c>
       <c r="E44" s="3">
-        <v>674200</v>
+        <v>690100</v>
       </c>
       <c r="F44" s="3">
-        <v>596400</v>
+        <v>610400</v>
       </c>
       <c r="G44" s="3">
-        <v>712100</v>
+        <v>728900</v>
       </c>
       <c r="H44" s="3">
-        <v>579500</v>
+        <v>593100</v>
       </c>
       <c r="I44" s="3">
-        <v>574500</v>
+        <v>588000</v>
       </c>
       <c r="J44" s="3">
-        <v>1428300</v>
+        <v>1461800</v>
       </c>
       <c r="K44" s="3">
         <v>1192500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1278700</v>
+        <v>1308700</v>
       </c>
       <c r="E45" s="3">
-        <v>1317600</v>
+        <v>1348500</v>
       </c>
       <c r="F45" s="3">
-        <v>1700600</v>
+        <v>1740500</v>
       </c>
       <c r="G45" s="3">
-        <v>1418300</v>
+        <v>1451600</v>
       </c>
       <c r="H45" s="3">
-        <v>1328500</v>
+        <v>1359700</v>
       </c>
       <c r="I45" s="3">
-        <v>1802300</v>
+        <v>1844600</v>
       </c>
       <c r="J45" s="3">
-        <v>5985400</v>
+        <v>6125800</v>
       </c>
       <c r="K45" s="3">
         <v>3161400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27506300</v>
+        <v>28151600</v>
       </c>
       <c r="E46" s="3">
-        <v>26942800</v>
+        <v>27574900</v>
       </c>
       <c r="F46" s="3">
-        <v>33159600</v>
+        <v>33937500</v>
       </c>
       <c r="G46" s="3">
-        <v>39713500</v>
+        <v>40645200</v>
       </c>
       <c r="H46" s="3">
-        <v>24068300</v>
+        <v>24632900</v>
       </c>
       <c r="I46" s="3">
-        <v>25475600</v>
+        <v>26073300</v>
       </c>
       <c r="J46" s="3">
-        <v>31855000</v>
+        <v>32602300</v>
       </c>
       <c r="K46" s="3">
         <v>28497600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11693500</v>
+        <v>11967900</v>
       </c>
       <c r="E47" s="3">
-        <v>10345000</v>
+        <v>10587700</v>
       </c>
       <c r="F47" s="3">
-        <v>16971800</v>
+        <v>17369900</v>
       </c>
       <c r="G47" s="3">
-        <v>9966000</v>
+        <v>10199800</v>
       </c>
       <c r="H47" s="3">
-        <v>9742600</v>
+        <v>9971200</v>
       </c>
       <c r="I47" s="3">
-        <v>11137000</v>
+        <v>11398300</v>
       </c>
       <c r="J47" s="3">
-        <v>10874700</v>
+        <v>11129800</v>
       </c>
       <c r="K47" s="3">
         <v>13054700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40697900</v>
+        <v>41652700</v>
       </c>
       <c r="E48" s="3">
-        <v>41135800</v>
+        <v>42100900</v>
       </c>
       <c r="F48" s="3">
-        <v>40008700</v>
+        <v>40947400</v>
       </c>
       <c r="G48" s="3">
-        <v>27360700</v>
+        <v>28002600</v>
       </c>
       <c r="H48" s="3">
-        <v>28251400</v>
+        <v>28914200</v>
       </c>
       <c r="I48" s="3">
-        <v>30125500</v>
+        <v>30832200</v>
       </c>
       <c r="J48" s="3">
-        <v>70845300</v>
+        <v>72507400</v>
       </c>
       <c r="K48" s="3">
         <v>65812200</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>53105600</v>
+        <v>54351500</v>
       </c>
       <c r="E49" s="3">
-        <v>53409800</v>
+        <v>54662800</v>
       </c>
       <c r="F49" s="3">
-        <v>53868600</v>
+        <v>55132400</v>
       </c>
       <c r="G49" s="3">
-        <v>40898400</v>
+        <v>41857900</v>
       </c>
       <c r="H49" s="3">
-        <v>43144500</v>
+        <v>44156700</v>
       </c>
       <c r="I49" s="3">
-        <v>46099800</v>
+        <v>47181400</v>
       </c>
       <c r="J49" s="3">
-        <v>116824000</v>
+        <v>119564000</v>
       </c>
       <c r="K49" s="3">
         <v>106907000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20549400</v>
+        <v>21031500</v>
       </c>
       <c r="E52" s="3">
-        <v>22826500</v>
+        <v>23362000</v>
       </c>
       <c r="F52" s="3">
-        <v>23722200</v>
+        <v>24278700</v>
       </c>
       <c r="G52" s="3">
-        <v>24552000</v>
+        <v>25128000</v>
       </c>
       <c r="H52" s="3">
-        <v>40025700</v>
+        <v>40964700</v>
       </c>
       <c r="I52" s="3">
-        <v>41444000</v>
+        <v>42416300</v>
       </c>
       <c r="J52" s="3">
-        <v>32103300</v>
+        <v>32856500</v>
       </c>
       <c r="K52" s="3">
         <v>34484200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>153553000</v>
+        <v>157155000</v>
       </c>
       <c r="E54" s="3">
-        <v>154660000</v>
+        <v>158288000</v>
       </c>
       <c r="F54" s="3">
-        <v>167731000</v>
+        <v>171666000</v>
       </c>
       <c r="G54" s="3">
-        <v>142491000</v>
+        <v>145834000</v>
       </c>
       <c r="H54" s="3">
-        <v>145232000</v>
+        <v>148640000</v>
       </c>
       <c r="I54" s="3">
-        <v>154282000</v>
+        <v>157901000</v>
       </c>
       <c r="J54" s="3">
-        <v>168667000</v>
+        <v>172624000</v>
       </c>
       <c r="K54" s="3">
         <v>176006000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7347800</v>
+        <v>7520200</v>
       </c>
       <c r="E57" s="3">
-        <v>6757400</v>
+        <v>6915900</v>
       </c>
       <c r="F57" s="3">
-        <v>6729500</v>
+        <v>6887300</v>
       </c>
       <c r="G57" s="3">
-        <v>6549900</v>
+        <v>6703600</v>
       </c>
       <c r="H57" s="3">
-        <v>6195800</v>
+        <v>6341200</v>
       </c>
       <c r="I57" s="3">
-        <v>6209800</v>
+        <v>6355500</v>
       </c>
       <c r="J57" s="3">
-        <v>7467500</v>
+        <v>7642700</v>
       </c>
       <c r="K57" s="3">
         <v>26700000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11929900</v>
+        <v>12209800</v>
       </c>
       <c r="E58" s="3">
-        <v>8465900</v>
+        <v>8664600</v>
       </c>
       <c r="F58" s="3">
-        <v>11944900</v>
+        <v>12225100</v>
       </c>
       <c r="G58" s="3">
-        <v>4258900</v>
+        <v>4358800</v>
       </c>
       <c r="H58" s="3">
-        <v>10324100</v>
+        <v>10566300</v>
       </c>
       <c r="I58" s="3">
-        <v>12019700</v>
+        <v>12301700</v>
       </c>
       <c r="J58" s="3">
-        <v>27294800</v>
+        <v>27935200</v>
       </c>
       <c r="K58" s="3">
         <v>27216900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14281800</v>
+        <v>14616800</v>
       </c>
       <c r="E59" s="3">
-        <v>13413000</v>
+        <v>13727700</v>
       </c>
       <c r="F59" s="3">
-        <v>14623900</v>
+        <v>14967000</v>
       </c>
       <c r="G59" s="3">
-        <v>14647800</v>
+        <v>14991500</v>
       </c>
       <c r="H59" s="3">
-        <v>22402600</v>
+        <v>22928200</v>
       </c>
       <c r="I59" s="3">
-        <v>24049300</v>
+        <v>24613500</v>
       </c>
       <c r="J59" s="3">
-        <v>18767100</v>
+        <v>19207400</v>
       </c>
       <c r="K59" s="3">
         <v>16151800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33559500</v>
+        <v>34346900</v>
       </c>
       <c r="E60" s="3">
-        <v>28636400</v>
+        <v>29308200</v>
       </c>
       <c r="F60" s="3">
-        <v>33298200</v>
+        <v>34079400</v>
       </c>
       <c r="G60" s="3">
-        <v>25456600</v>
+        <v>26053900</v>
       </c>
       <c r="H60" s="3">
-        <v>38922500</v>
+        <v>39835700</v>
       </c>
       <c r="I60" s="3">
-        <v>42278800</v>
+        <v>43270700</v>
       </c>
       <c r="J60" s="3">
-        <v>42125200</v>
+        <v>43113500</v>
       </c>
       <c r="K60" s="3">
         <v>41494200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57979900</v>
+        <v>59340100</v>
       </c>
       <c r="E61" s="3">
-        <v>59117900</v>
+        <v>60504900</v>
       </c>
       <c r="F61" s="3">
-        <v>62785300</v>
+        <v>64258300</v>
       </c>
       <c r="G61" s="3">
-        <v>48558400</v>
+        <v>49697600</v>
       </c>
       <c r="H61" s="3">
-        <v>32545200</v>
+        <v>33308700</v>
       </c>
       <c r="I61" s="3">
-        <v>34129000</v>
+        <v>34929700</v>
       </c>
       <c r="J61" s="3">
-        <v>36696300</v>
+        <v>37557300</v>
       </c>
       <c r="K61" s="3">
         <v>32215400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5184500</v>
+        <v>5306100</v>
       </c>
       <c r="E62" s="3">
-        <v>9239900</v>
+        <v>9456700</v>
       </c>
       <c r="F62" s="3">
-        <v>9185100</v>
+        <v>9400500</v>
       </c>
       <c r="G62" s="3">
-        <v>5195500</v>
+        <v>5317300</v>
       </c>
       <c r="H62" s="3">
-        <v>5336100</v>
+        <v>5461300</v>
       </c>
       <c r="I62" s="3">
-        <v>4346700</v>
+        <v>4448600</v>
       </c>
       <c r="J62" s="3">
-        <v>6825200</v>
+        <v>6985300</v>
       </c>
       <c r="K62" s="3">
         <v>6486900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99007900</v>
+        <v>101331000</v>
       </c>
       <c r="E66" s="3">
-        <v>99000900</v>
+        <v>101324000</v>
       </c>
       <c r="F66" s="3">
-        <v>106480000</v>
+        <v>108979000</v>
       </c>
       <c r="G66" s="3">
-        <v>80434300</v>
+        <v>82321400</v>
       </c>
       <c r="H66" s="3">
-        <v>77768300</v>
+        <v>79592800</v>
       </c>
       <c r="I66" s="3">
-        <v>82269500</v>
+        <v>84199700</v>
       </c>
       <c r="J66" s="3">
-        <v>85559000</v>
+        <v>87566300</v>
       </c>
       <c r="K66" s="3">
         <v>81027800</v>
@@ -2985,7 +2985,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>-95434200</v>
+        <v>-97673200</v>
       </c>
       <c r="K72" s="3">
         <v>-89136900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54544800</v>
+        <v>55824500</v>
       </c>
       <c r="E76" s="3">
-        <v>55658900</v>
+        <v>56964700</v>
       </c>
       <c r="F76" s="3">
-        <v>61250300</v>
+        <v>62687300</v>
       </c>
       <c r="G76" s="3">
-        <v>62056200</v>
+        <v>63512100</v>
       </c>
       <c r="H76" s="3">
-        <v>67464100</v>
+        <v>69046900</v>
       </c>
       <c r="I76" s="3">
-        <v>72012300</v>
+        <v>73701800</v>
       </c>
       <c r="J76" s="3">
-        <v>83108400</v>
+        <v>85058200</v>
       </c>
       <c r="K76" s="3">
         <v>94978200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2082600</v>
+        <v>2131400</v>
       </c>
       <c r="E81" s="3">
-        <v>111700</v>
+        <v>114300</v>
       </c>
       <c r="F81" s="3">
-        <v>-917600</v>
+        <v>-939100</v>
       </c>
       <c r="G81" s="3">
-        <v>-7999100</v>
+        <v>-8186800</v>
       </c>
       <c r="H81" s="3">
-        <v>2432700</v>
+        <v>2489700</v>
       </c>
       <c r="I81" s="3">
-        <v>-6280600</v>
+        <v>-6428000</v>
       </c>
       <c r="J81" s="3">
-        <v>-5390900</v>
+        <v>-5517400</v>
       </c>
       <c r="K81" s="3">
         <v>7614000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13809000</v>
+        <v>14133000</v>
       </c>
       <c r="E83" s="3">
-        <v>14064300</v>
+        <v>14394300</v>
       </c>
       <c r="F83" s="3">
-        <v>14137100</v>
+        <v>14468800</v>
       </c>
       <c r="G83" s="3">
-        <v>9769500</v>
+        <v>9998700</v>
       </c>
       <c r="H83" s="3">
-        <v>10381900</v>
+        <v>10625500</v>
       </c>
       <c r="I83" s="3">
-        <v>11057200</v>
+        <v>11316600</v>
       </c>
       <c r="J83" s="3">
-        <v>11666600</v>
+        <v>11940300</v>
       </c>
       <c r="K83" s="3">
         <v>11529000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18034000</v>
+        <v>18457100</v>
       </c>
       <c r="E89" s="3">
-        <v>17170200</v>
+        <v>17573100</v>
       </c>
       <c r="F89" s="3">
-        <v>17333800</v>
+        <v>17740500</v>
       </c>
       <c r="G89" s="3">
-        <v>12946300</v>
+        <v>13250000</v>
       </c>
       <c r="H89" s="3">
-        <v>13564600</v>
+        <v>13882900</v>
       </c>
       <c r="I89" s="3">
-        <v>14186000</v>
+        <v>14518800</v>
       </c>
       <c r="J89" s="3">
-        <v>14298700</v>
+        <v>14634200</v>
       </c>
       <c r="K89" s="3">
         <v>13148100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5782900</v>
+        <v>-5918600</v>
       </c>
       <c r="E91" s="3">
-        <v>-5398900</v>
+        <v>-5525600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5168500</v>
+        <v>-5289800</v>
       </c>
       <c r="G91" s="3">
-        <v>-5039900</v>
+        <v>-5158100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4904200</v>
+        <v>-5019300</v>
       </c>
       <c r="I91" s="3">
-        <v>-6268700</v>
+        <v>-6415700</v>
       </c>
       <c r="J91" s="3">
-        <v>-8243500</v>
+        <v>-8436900</v>
       </c>
       <c r="K91" s="3">
         <v>-7601600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6850100</v>
+        <v>-7010900</v>
       </c>
       <c r="E94" s="3">
-        <v>-9237900</v>
+        <v>-9454600</v>
       </c>
       <c r="F94" s="3">
-        <v>-8067000</v>
+        <v>-8256200</v>
       </c>
       <c r="G94" s="3">
-        <v>-9193000</v>
+        <v>-9408700</v>
       </c>
       <c r="H94" s="3">
-        <v>-9815400</v>
+        <v>-10045700</v>
       </c>
       <c r="I94" s="3">
-        <v>-8401100</v>
+        <v>-8598200</v>
       </c>
       <c r="J94" s="3">
-        <v>-13834900</v>
+        <v>-14159500</v>
       </c>
       <c r="K94" s="3">
         <v>-13735600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2467600</v>
+        <v>-2525500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2420700</v>
+        <v>-2477500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2290000</v>
+        <v>-2343800</v>
       </c>
       <c r="G96" s="3">
-        <v>-4053400</v>
+        <v>-4148500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3909800</v>
+        <v>-4001500</v>
       </c>
       <c r="I96" s="3">
-        <v>-3704300</v>
+        <v>-3791300</v>
       </c>
       <c r="J96" s="3">
-        <v>-4177100</v>
+        <v>-4275100</v>
       </c>
       <c r="K96" s="3">
         <v>-3900400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9680800</v>
+        <v>-9907900</v>
       </c>
       <c r="E100" s="3">
-        <v>-15156500</v>
+        <v>-15512100</v>
       </c>
       <c r="F100" s="3">
-        <v>-9327700</v>
+        <v>-9546500</v>
       </c>
       <c r="G100" s="3">
-        <v>4425500</v>
+        <v>4529300</v>
       </c>
       <c r="H100" s="3">
-        <v>-7215200</v>
+        <v>-7384500</v>
       </c>
       <c r="I100" s="3">
-        <v>-9072400</v>
+        <v>-9285200</v>
       </c>
       <c r="J100" s="3">
-        <v>4071400</v>
+        <v>4166900</v>
       </c>
       <c r="K100" s="3">
         <v>-3281800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>73800</v>
+        <v>75500</v>
       </c>
       <c r="E101" s="3">
-        <v>-254300</v>
+        <v>-260300</v>
       </c>
       <c r="F101" s="3">
-        <v>-255300</v>
+        <v>-261300</v>
       </c>
       <c r="G101" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="H101" s="3">
-        <v>-431900</v>
+        <v>-442000</v>
       </c>
       <c r="I101" s="3">
-        <v>-312200</v>
+        <v>-319500</v>
       </c>
       <c r="J101" s="3">
-        <v>-1125100</v>
+        <v>-1151500</v>
       </c>
       <c r="K101" s="3">
         <v>1012000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1576900</v>
+        <v>1613900</v>
       </c>
       <c r="E102" s="3">
-        <v>-7478500</v>
+        <v>-7654000</v>
       </c>
       <c r="F102" s="3">
-        <v>-316200</v>
+        <v>-323600</v>
       </c>
       <c r="G102" s="3">
-        <v>8189700</v>
+        <v>8381800</v>
       </c>
       <c r="H102" s="3">
-        <v>-3897800</v>
+        <v>-3989300</v>
       </c>
       <c r="I102" s="3">
-        <v>-3599600</v>
+        <v>-3684100</v>
       </c>
       <c r="J102" s="3">
-        <v>3410100</v>
+        <v>3490100</v>
       </c>
       <c r="K102" s="3">
         <v>-2857300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>46528100</v>
+        <v>48223600</v>
       </c>
       <c r="E8" s="3">
-        <v>44720200</v>
+        <v>46349900</v>
       </c>
       <c r="F8" s="3">
-        <v>45909500</v>
+        <v>47582500</v>
       </c>
       <c r="G8" s="3">
-        <v>44574300</v>
+        <v>46198600</v>
       </c>
       <c r="H8" s="3">
-        <v>47539700</v>
+        <v>49272100</v>
       </c>
       <c r="I8" s="3">
-        <v>48621700</v>
+        <v>50393600</v>
       </c>
       <c r="J8" s="3">
-        <v>50846000</v>
+        <v>52699000</v>
       </c>
       <c r="K8" s="3">
         <v>50218800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>31209900</v>
+        <v>32347300</v>
       </c>
       <c r="E9" s="3">
-        <v>30711800</v>
+        <v>31831000</v>
       </c>
       <c r="F9" s="3">
-        <v>31320200</v>
+        <v>32461600</v>
       </c>
       <c r="G9" s="3">
-        <v>30787300</v>
+        <v>31909300</v>
       </c>
       <c r="H9" s="3">
-        <v>33452600</v>
+        <v>34671700</v>
       </c>
       <c r="I9" s="3">
-        <v>35295200</v>
+        <v>36581400</v>
       </c>
       <c r="J9" s="3">
-        <v>37476600</v>
+        <v>38842400</v>
       </c>
       <c r="K9" s="3">
         <v>36402300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15318100</v>
+        <v>15876300</v>
       </c>
       <c r="E10" s="3">
-        <v>14008400</v>
+        <v>14518900</v>
       </c>
       <c r="F10" s="3">
-        <v>14589300</v>
+        <v>15120900</v>
       </c>
       <c r="G10" s="3">
-        <v>13786900</v>
+        <v>14289300</v>
       </c>
       <c r="H10" s="3">
-        <v>14087000</v>
+        <v>14600400</v>
       </c>
       <c r="I10" s="3">
-        <v>13326500</v>
+        <v>13812200</v>
       </c>
       <c r="J10" s="3">
-        <v>13369400</v>
+        <v>13856600</v>
       </c>
       <c r="K10" s="3">
         <v>13816500</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1720000</v>
+        <v>1782700</v>
       </c>
       <c r="G14" s="3">
-        <v>3598300</v>
+        <v>3729500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-1301500</v>
+        <v>-1349000</v>
       </c>
       <c r="J14" s="3">
-        <v>580800</v>
+        <v>602000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40746300</v>
+        <v>42231100</v>
       </c>
       <c r="E17" s="3">
-        <v>39517200</v>
+        <v>40957300</v>
       </c>
       <c r="F17" s="3">
-        <v>41725200</v>
+        <v>43245800</v>
       </c>
       <c r="G17" s="3">
-        <v>45545000</v>
+        <v>47204800</v>
       </c>
       <c r="H17" s="3">
-        <v>43151300</v>
+        <v>44723800</v>
       </c>
       <c r="I17" s="3">
-        <v>44819200</v>
+        <v>46452500</v>
       </c>
       <c r="J17" s="3">
-        <v>49498600</v>
+        <v>51302400</v>
       </c>
       <c r="K17" s="3">
         <v>48067200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5781800</v>
+        <v>5992500</v>
       </c>
       <c r="E18" s="3">
-        <v>5203000</v>
+        <v>5392600</v>
       </c>
       <c r="F18" s="3">
-        <v>4184300</v>
+        <v>4336700</v>
       </c>
       <c r="G18" s="3">
-        <v>-970800</v>
+        <v>-1006200</v>
       </c>
       <c r="H18" s="3">
-        <v>4388400</v>
+        <v>4548300</v>
       </c>
       <c r="I18" s="3">
-        <v>3802500</v>
+        <v>3941100</v>
       </c>
       <c r="J18" s="3">
-        <v>1347500</v>
+        <v>1396600</v>
       </c>
       <c r="K18" s="3">
         <v>2151600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>717600</v>
+        <v>743800</v>
       </c>
       <c r="E20" s="3">
-        <v>1900700</v>
+        <v>1970000</v>
       </c>
       <c r="F20" s="3">
-        <v>-549200</v>
+        <v>-569200</v>
       </c>
       <c r="G20" s="3">
-        <v>-48000</v>
+        <v>-49700</v>
       </c>
       <c r="H20" s="3">
-        <v>688000</v>
+        <v>713100</v>
       </c>
       <c r="I20" s="3">
-        <v>263400</v>
+        <v>273000</v>
       </c>
       <c r="J20" s="3">
-        <v>-565500</v>
+        <v>-586100</v>
       </c>
       <c r="K20" s="3">
         <v>1216400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>20359700</v>
+        <v>21334500</v>
       </c>
       <c r="E21" s="3">
-        <v>21220300</v>
+        <v>22230700</v>
       </c>
       <c r="F21" s="3">
-        <v>17824700</v>
+        <v>18712600</v>
       </c>
       <c r="G21" s="3">
-        <v>8787000</v>
+        <v>9272000</v>
       </c>
       <c r="H21" s="3">
-        <v>15496900</v>
+        <v>16236700</v>
       </c>
       <c r="I21" s="3">
-        <v>15164000</v>
+        <v>15903100</v>
       </c>
       <c r="J21" s="3">
-        <v>12491800</v>
+        <v>13143700</v>
       </c>
       <c r="K21" s="3">
         <v>15043600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2463200</v>
+        <v>2553000</v>
       </c>
       <c r="E22" s="3">
-        <v>2612200</v>
+        <v>2707400</v>
       </c>
       <c r="F22" s="3">
-        <v>2823500</v>
+        <v>2926400</v>
       </c>
       <c r="G22" s="3">
-        <v>1648600</v>
+        <v>1708700</v>
       </c>
       <c r="H22" s="3">
-        <v>1117800</v>
+        <v>1158500</v>
       </c>
       <c r="I22" s="3">
-        <v>1215800</v>
+        <v>1260100</v>
       </c>
       <c r="J22" s="3">
-        <v>975900</v>
+        <v>1011400</v>
       </c>
       <c r="K22" s="3">
         <v>1568300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4036200</v>
+        <v>4183300</v>
       </c>
       <c r="E23" s="3">
-        <v>4491500</v>
+        <v>4655200</v>
       </c>
       <c r="F23" s="3">
-        <v>811500</v>
+        <v>841100</v>
       </c>
       <c r="G23" s="3">
-        <v>-2667400</v>
+        <v>-2764600</v>
       </c>
       <c r="H23" s="3">
-        <v>3958700</v>
+        <v>4102900</v>
       </c>
       <c r="I23" s="3">
-        <v>2850100</v>
+        <v>2953900</v>
       </c>
       <c r="J23" s="3">
-        <v>-194000</v>
+        <v>-201000</v>
       </c>
       <c r="K23" s="3">
         <v>1799700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1357700</v>
+        <v>1407100</v>
       </c>
       <c r="E24" s="3">
-        <v>3944400</v>
+        <v>4088100</v>
       </c>
       <c r="F24" s="3">
-        <v>1276000</v>
+        <v>1322500</v>
       </c>
       <c r="G24" s="3">
-        <v>1527100</v>
+        <v>1582800</v>
       </c>
       <c r="H24" s="3">
-        <v>-897300</v>
+        <v>-930000</v>
       </c>
       <c r="I24" s="3">
-        <v>4863100</v>
+        <v>5040300</v>
       </c>
       <c r="J24" s="3">
-        <v>5039700</v>
+        <v>5223300</v>
       </c>
       <c r="K24" s="3">
         <v>-6301100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2678600</v>
+        <v>2776200</v>
       </c>
       <c r="E26" s="3">
-        <v>547100</v>
+        <v>567100</v>
       </c>
       <c r="F26" s="3">
-        <v>-464500</v>
+        <v>-481400</v>
       </c>
       <c r="G26" s="3">
-        <v>-4194500</v>
+        <v>-4347300</v>
       </c>
       <c r="H26" s="3">
-        <v>4855900</v>
+        <v>5032900</v>
       </c>
       <c r="I26" s="3">
-        <v>-2013000</v>
+        <v>-2086400</v>
       </c>
       <c r="J26" s="3">
-        <v>-5233600</v>
+        <v>-5424400</v>
       </c>
       <c r="K26" s="3">
         <v>8100800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2131400</v>
+        <v>2209100</v>
       </c>
       <c r="E27" s="3">
-        <v>114300</v>
+        <v>118500</v>
       </c>
       <c r="F27" s="3">
-        <v>-939100</v>
+        <v>-973400</v>
       </c>
       <c r="G27" s="3">
-        <v>-4578300</v>
+        <v>-4745100</v>
       </c>
       <c r="H27" s="3">
-        <v>4499700</v>
+        <v>4663700</v>
       </c>
       <c r="I27" s="3">
-        <v>-2235600</v>
+        <v>-2317000</v>
       </c>
       <c r="J27" s="3">
-        <v>-5522500</v>
+        <v>-5723800</v>
       </c>
       <c r="K27" s="3">
         <v>7895300</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-3608500</v>
+        <v>-3740000</v>
       </c>
       <c r="H29" s="3">
-        <v>-2010000</v>
+        <v>-2083200</v>
       </c>
       <c r="I29" s="3">
-        <v>-4192400</v>
+        <v>-4345200</v>
       </c>
       <c r="J29" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="K29" s="3">
         <v>-281300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-717600</v>
+        <v>-743800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1900700</v>
+        <v>-1970000</v>
       </c>
       <c r="F32" s="3">
-        <v>549200</v>
+        <v>569200</v>
       </c>
       <c r="G32" s="3">
-        <v>48000</v>
+        <v>49700</v>
       </c>
       <c r="H32" s="3">
-        <v>-688000</v>
+        <v>-713100</v>
       </c>
       <c r="I32" s="3">
-        <v>-263400</v>
+        <v>-273000</v>
       </c>
       <c r="J32" s="3">
-        <v>565500</v>
+        <v>586100</v>
       </c>
       <c r="K32" s="3">
         <v>-1216400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2131400</v>
+        <v>2209100</v>
       </c>
       <c r="E33" s="3">
-        <v>114300</v>
+        <v>118500</v>
       </c>
       <c r="F33" s="3">
-        <v>-939100</v>
+        <v>-973400</v>
       </c>
       <c r="G33" s="3">
-        <v>-8186800</v>
+        <v>-8485200</v>
       </c>
       <c r="H33" s="3">
-        <v>2489700</v>
+        <v>2580500</v>
       </c>
       <c r="I33" s="3">
-        <v>-6428000</v>
+        <v>-6662200</v>
       </c>
       <c r="J33" s="3">
-        <v>-5517400</v>
+        <v>-5718500</v>
       </c>
       <c r="K33" s="3">
         <v>7614000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2131400</v>
+        <v>2209100</v>
       </c>
       <c r="E35" s="3">
-        <v>114300</v>
+        <v>118500</v>
       </c>
       <c r="F35" s="3">
-        <v>-939100</v>
+        <v>-973400</v>
       </c>
       <c r="G35" s="3">
-        <v>-8186800</v>
+        <v>-8485200</v>
       </c>
       <c r="H35" s="3">
-        <v>2489700</v>
+        <v>2580500</v>
       </c>
       <c r="I35" s="3">
-        <v>-6428000</v>
+        <v>-6662200</v>
       </c>
       <c r="J35" s="3">
-        <v>-5517400</v>
+        <v>-5718500</v>
       </c>
       <c r="K35" s="3">
         <v>7614000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7651900</v>
+        <v>7930800</v>
       </c>
       <c r="E41" s="3">
-        <v>5942100</v>
+        <v>6158600</v>
       </c>
       <c r="F41" s="3">
-        <v>11591200</v>
+        <v>12013600</v>
       </c>
       <c r="G41" s="3">
-        <v>11679000</v>
+        <v>12104600</v>
       </c>
       <c r="H41" s="3">
-        <v>4771200</v>
+        <v>4945100</v>
       </c>
       <c r="I41" s="3">
-        <v>9018800</v>
+        <v>9347400</v>
       </c>
       <c r="J41" s="3">
-        <v>22895500</v>
+        <v>23729900</v>
       </c>
       <c r="K41" s="3">
         <v>14844000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8096000</v>
+        <v>8391000</v>
       </c>
       <c r="E42" s="3">
-        <v>9349500</v>
+        <v>9690200</v>
       </c>
       <c r="F42" s="3">
-        <v>9484300</v>
+        <v>9829900</v>
       </c>
       <c r="G42" s="3">
-        <v>15524300</v>
+        <v>16090100</v>
       </c>
       <c r="H42" s="3">
-        <v>8977900</v>
+        <v>9305100</v>
       </c>
       <c r="I42" s="3">
-        <v>6247300</v>
+        <v>6475000</v>
       </c>
       <c r="J42" s="3">
-        <v>8934000</v>
+        <v>9259600</v>
       </c>
       <c r="K42" s="3">
         <v>7715700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10241700</v>
+        <v>10614900</v>
       </c>
       <c r="E43" s="3">
-        <v>10244700</v>
+        <v>10618100</v>
       </c>
       <c r="F43" s="3">
-        <v>10511200</v>
+        <v>10894200</v>
       </c>
       <c r="G43" s="3">
-        <v>11261500</v>
+        <v>11671900</v>
       </c>
       <c r="H43" s="3">
-        <v>8931000</v>
+        <v>9256400</v>
       </c>
       <c r="I43" s="3">
-        <v>8374600</v>
+        <v>8679800</v>
       </c>
       <c r="J43" s="3">
-        <v>17084100</v>
+        <v>17706700</v>
       </c>
       <c r="K43" s="3">
         <v>17585100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>853400</v>
+        <v>884500</v>
       </c>
       <c r="E44" s="3">
-        <v>690100</v>
+        <v>715200</v>
       </c>
       <c r="F44" s="3">
-        <v>610400</v>
+        <v>632700</v>
       </c>
       <c r="G44" s="3">
-        <v>728900</v>
+        <v>755400</v>
       </c>
       <c r="H44" s="3">
-        <v>593100</v>
+        <v>614700</v>
       </c>
       <c r="I44" s="3">
-        <v>588000</v>
+        <v>609400</v>
       </c>
       <c r="J44" s="3">
-        <v>1461800</v>
+        <v>1515100</v>
       </c>
       <c r="K44" s="3">
         <v>1192500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1308700</v>
+        <v>1356400</v>
       </c>
       <c r="E45" s="3">
-        <v>1348500</v>
+        <v>1397600</v>
       </c>
       <c r="F45" s="3">
-        <v>1740500</v>
+        <v>1803900</v>
       </c>
       <c r="G45" s="3">
-        <v>1451600</v>
+        <v>1504500</v>
       </c>
       <c r="H45" s="3">
-        <v>1359700</v>
+        <v>1409300</v>
       </c>
       <c r="I45" s="3">
-        <v>1844600</v>
+        <v>1911800</v>
       </c>
       <c r="J45" s="3">
-        <v>6125800</v>
+        <v>6349100</v>
       </c>
       <c r="K45" s="3">
         <v>3161400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28151600</v>
+        <v>29177500</v>
       </c>
       <c r="E46" s="3">
-        <v>27574900</v>
+        <v>28579800</v>
       </c>
       <c r="F46" s="3">
-        <v>33937500</v>
+        <v>35174300</v>
       </c>
       <c r="G46" s="3">
-        <v>40645200</v>
+        <v>42126400</v>
       </c>
       <c r="H46" s="3">
-        <v>24632900</v>
+        <v>25530600</v>
       </c>
       <c r="I46" s="3">
-        <v>26073300</v>
+        <v>27023400</v>
       </c>
       <c r="J46" s="3">
-        <v>32602300</v>
+        <v>33790400</v>
       </c>
       <c r="K46" s="3">
         <v>28497600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11967900</v>
+        <v>12404000</v>
       </c>
       <c r="E47" s="3">
-        <v>10587700</v>
+        <v>10973600</v>
       </c>
       <c r="F47" s="3">
-        <v>17369900</v>
+        <v>18002900</v>
       </c>
       <c r="G47" s="3">
-        <v>10199800</v>
+        <v>10571500</v>
       </c>
       <c r="H47" s="3">
-        <v>9971200</v>
+        <v>10334500</v>
       </c>
       <c r="I47" s="3">
-        <v>11398300</v>
+        <v>11813600</v>
       </c>
       <c r="J47" s="3">
-        <v>11129800</v>
+        <v>11535400</v>
       </c>
       <c r="K47" s="3">
         <v>13054700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41652700</v>
+        <v>43170600</v>
       </c>
       <c r="E48" s="3">
-        <v>42100900</v>
+        <v>43635100</v>
       </c>
       <c r="F48" s="3">
-        <v>40947400</v>
+        <v>42439600</v>
       </c>
       <c r="G48" s="3">
-        <v>28002600</v>
+        <v>29023100</v>
       </c>
       <c r="H48" s="3">
-        <v>28914200</v>
+        <v>29967900</v>
       </c>
       <c r="I48" s="3">
-        <v>30832200</v>
+        <v>31955800</v>
       </c>
       <c r="J48" s="3">
-        <v>72507400</v>
+        <v>75149700</v>
       </c>
       <c r="K48" s="3">
         <v>65812200</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54351500</v>
+        <v>56332200</v>
       </c>
       <c r="E49" s="3">
-        <v>54662800</v>
+        <v>56654800</v>
       </c>
       <c r="F49" s="3">
-        <v>55132400</v>
+        <v>57141500</v>
       </c>
       <c r="G49" s="3">
-        <v>41857900</v>
+        <v>43383300</v>
       </c>
       <c r="H49" s="3">
-        <v>44156700</v>
+        <v>45765900</v>
       </c>
       <c r="I49" s="3">
-        <v>47181400</v>
+        <v>48900800</v>
       </c>
       <c r="J49" s="3">
-        <v>119564000</v>
+        <v>123921000</v>
       </c>
       <c r="K49" s="3">
         <v>106907000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21031500</v>
+        <v>21798000</v>
       </c>
       <c r="E52" s="3">
-        <v>23362000</v>
+        <v>24213400</v>
       </c>
       <c r="F52" s="3">
-        <v>24278700</v>
+        <v>25163500</v>
       </c>
       <c r="G52" s="3">
-        <v>25128000</v>
+        <v>26043700</v>
       </c>
       <c r="H52" s="3">
-        <v>40964700</v>
+        <v>42457500</v>
       </c>
       <c r="I52" s="3">
-        <v>42416300</v>
+        <v>43962000</v>
       </c>
       <c r="J52" s="3">
-        <v>32856500</v>
+        <v>34053800</v>
       </c>
       <c r="K52" s="3">
         <v>34484200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>157155000</v>
+        <v>162882000</v>
       </c>
       <c r="E54" s="3">
-        <v>158288000</v>
+        <v>164057000</v>
       </c>
       <c r="F54" s="3">
-        <v>171666000</v>
+        <v>177922000</v>
       </c>
       <c r="G54" s="3">
-        <v>145834000</v>
+        <v>151148000</v>
       </c>
       <c r="H54" s="3">
-        <v>148640000</v>
+        <v>154056000</v>
       </c>
       <c r="I54" s="3">
-        <v>157901000</v>
+        <v>163656000</v>
       </c>
       <c r="J54" s="3">
-        <v>172624000</v>
+        <v>178915000</v>
       </c>
       <c r="K54" s="3">
         <v>176006000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7520200</v>
+        <v>7794300</v>
       </c>
       <c r="E57" s="3">
-        <v>6915900</v>
+        <v>7168000</v>
       </c>
       <c r="F57" s="3">
-        <v>6887300</v>
+        <v>7138300</v>
       </c>
       <c r="G57" s="3">
-        <v>6703600</v>
+        <v>6947900</v>
       </c>
       <c r="H57" s="3">
-        <v>6341200</v>
+        <v>6572300</v>
       </c>
       <c r="I57" s="3">
-        <v>6355500</v>
+        <v>6587100</v>
       </c>
       <c r="J57" s="3">
-        <v>7642700</v>
+        <v>7921200</v>
       </c>
       <c r="K57" s="3">
         <v>26700000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12209800</v>
+        <v>12654700</v>
       </c>
       <c r="E58" s="3">
-        <v>8664600</v>
+        <v>8980300</v>
       </c>
       <c r="F58" s="3">
-        <v>12225100</v>
+        <v>12670600</v>
       </c>
       <c r="G58" s="3">
-        <v>4358800</v>
+        <v>4517700</v>
       </c>
       <c r="H58" s="3">
-        <v>10566300</v>
+        <v>10951400</v>
       </c>
       <c r="I58" s="3">
-        <v>12301700</v>
+        <v>12750000</v>
       </c>
       <c r="J58" s="3">
-        <v>27935200</v>
+        <v>28953200</v>
       </c>
       <c r="K58" s="3">
         <v>27216900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14616800</v>
+        <v>15149500</v>
       </c>
       <c r="E59" s="3">
-        <v>13727700</v>
+        <v>14228000</v>
       </c>
       <c r="F59" s="3">
-        <v>14967000</v>
+        <v>15512400</v>
       </c>
       <c r="G59" s="3">
-        <v>14991500</v>
+        <v>15537800</v>
       </c>
       <c r="H59" s="3">
-        <v>22928200</v>
+        <v>23763700</v>
       </c>
       <c r="I59" s="3">
-        <v>24613500</v>
+        <v>25510500</v>
       </c>
       <c r="J59" s="3">
-        <v>19207400</v>
+        <v>19907300</v>
       </c>
       <c r="K59" s="3">
         <v>16151800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34346900</v>
+        <v>35598500</v>
       </c>
       <c r="E60" s="3">
-        <v>29308200</v>
+        <v>30376200</v>
       </c>
       <c r="F60" s="3">
-        <v>34079400</v>
+        <v>35321300</v>
       </c>
       <c r="G60" s="3">
-        <v>26053900</v>
+        <v>27003300</v>
       </c>
       <c r="H60" s="3">
-        <v>39835700</v>
+        <v>41287400</v>
       </c>
       <c r="I60" s="3">
-        <v>43270700</v>
+        <v>44847600</v>
       </c>
       <c r="J60" s="3">
-        <v>43113500</v>
+        <v>44684600</v>
       </c>
       <c r="K60" s="3">
         <v>41494200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59340100</v>
+        <v>61502600</v>
       </c>
       <c r="E61" s="3">
-        <v>60504900</v>
+        <v>62709800</v>
       </c>
       <c r="F61" s="3">
-        <v>64258300</v>
+        <v>66600000</v>
       </c>
       <c r="G61" s="3">
-        <v>49697600</v>
+        <v>51508700</v>
       </c>
       <c r="H61" s="3">
-        <v>33308700</v>
+        <v>34522500</v>
       </c>
       <c r="I61" s="3">
-        <v>34929700</v>
+        <v>36202600</v>
       </c>
       <c r="J61" s="3">
-        <v>37557300</v>
+        <v>38925900</v>
       </c>
       <c r="K61" s="3">
         <v>32215400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5306100</v>
+        <v>5499500</v>
       </c>
       <c r="E62" s="3">
-        <v>9456700</v>
+        <v>9801300</v>
       </c>
       <c r="F62" s="3">
-        <v>9400500</v>
+        <v>9743100</v>
       </c>
       <c r="G62" s="3">
-        <v>5317300</v>
+        <v>5511100</v>
       </c>
       <c r="H62" s="3">
-        <v>5461300</v>
+        <v>5660300</v>
       </c>
       <c r="I62" s="3">
-        <v>4448600</v>
+        <v>4610800</v>
       </c>
       <c r="J62" s="3">
-        <v>6985300</v>
+        <v>7239900</v>
       </c>
       <c r="K62" s="3">
         <v>6486900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101331000</v>
+        <v>105023000</v>
       </c>
       <c r="E66" s="3">
-        <v>101324000</v>
+        <v>105016000</v>
       </c>
       <c r="F66" s="3">
-        <v>108979000</v>
+        <v>112950000</v>
       </c>
       <c r="G66" s="3">
-        <v>82321400</v>
+        <v>85321400</v>
       </c>
       <c r="H66" s="3">
-        <v>79592800</v>
+        <v>82493300</v>
       </c>
       <c r="I66" s="3">
-        <v>84199700</v>
+        <v>87268100</v>
       </c>
       <c r="J66" s="3">
-        <v>87566300</v>
+        <v>90757400</v>
       </c>
       <c r="K66" s="3">
         <v>81027800</v>
@@ -2984,8 +2984,8 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
-        <v>-97673200</v>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>-89136900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55824500</v>
+        <v>57858800</v>
       </c>
       <c r="E76" s="3">
-        <v>56964700</v>
+        <v>59040600</v>
       </c>
       <c r="F76" s="3">
-        <v>62687300</v>
+        <v>64971800</v>
       </c>
       <c r="G76" s="3">
-        <v>63512100</v>
+        <v>65826600</v>
       </c>
       <c r="H76" s="3">
-        <v>69046900</v>
+        <v>71563100</v>
       </c>
       <c r="I76" s="3">
-        <v>73701800</v>
+        <v>76387600</v>
       </c>
       <c r="J76" s="3">
-        <v>85058200</v>
+        <v>88157900</v>
       </c>
       <c r="K76" s="3">
         <v>94978200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2131400</v>
+        <v>2209100</v>
       </c>
       <c r="E81" s="3">
-        <v>114300</v>
+        <v>118500</v>
       </c>
       <c r="F81" s="3">
-        <v>-939100</v>
+        <v>-973400</v>
       </c>
       <c r="G81" s="3">
-        <v>-8186800</v>
+        <v>-8485200</v>
       </c>
       <c r="H81" s="3">
-        <v>2489700</v>
+        <v>2580500</v>
       </c>
       <c r="I81" s="3">
-        <v>-6428000</v>
+        <v>-6662200</v>
       </c>
       <c r="J81" s="3">
-        <v>-5517400</v>
+        <v>-5718500</v>
       </c>
       <c r="K81" s="3">
         <v>7614000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14133000</v>
+        <v>14648000</v>
       </c>
       <c r="E83" s="3">
-        <v>14394300</v>
+        <v>14918900</v>
       </c>
       <c r="F83" s="3">
-        <v>14468800</v>
+        <v>14996100</v>
       </c>
       <c r="G83" s="3">
-        <v>9998700</v>
+        <v>10363100</v>
       </c>
       <c r="H83" s="3">
-        <v>10625500</v>
+        <v>11012700</v>
       </c>
       <c r="I83" s="3">
-        <v>11316600</v>
+        <v>11729000</v>
       </c>
       <c r="J83" s="3">
-        <v>11940300</v>
+        <v>12375400</v>
       </c>
       <c r="K83" s="3">
         <v>11529000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18457100</v>
+        <v>19129700</v>
       </c>
       <c r="E89" s="3">
-        <v>17573100</v>
+        <v>18213500</v>
       </c>
       <c r="F89" s="3">
-        <v>17740500</v>
+        <v>18387000</v>
       </c>
       <c r="G89" s="3">
-        <v>13250000</v>
+        <v>13732800</v>
       </c>
       <c r="H89" s="3">
-        <v>13882900</v>
+        <v>14388800</v>
       </c>
       <c r="I89" s="3">
-        <v>14518800</v>
+        <v>15047900</v>
       </c>
       <c r="J89" s="3">
-        <v>14634200</v>
+        <v>15167500</v>
       </c>
       <c r="K89" s="3">
         <v>13148100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5918600</v>
+        <v>-6134300</v>
       </c>
       <c r="E91" s="3">
-        <v>-5525600</v>
+        <v>-5727000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5289800</v>
+        <v>-5482600</v>
       </c>
       <c r="G91" s="3">
-        <v>-5158100</v>
+        <v>-5346100</v>
       </c>
       <c r="H91" s="3">
-        <v>-5019300</v>
+        <v>-5202200</v>
       </c>
       <c r="I91" s="3">
-        <v>-6415700</v>
+        <v>-6649500</v>
       </c>
       <c r="J91" s="3">
-        <v>-8436900</v>
+        <v>-8744400</v>
       </c>
       <c r="K91" s="3">
         <v>-7601600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7010900</v>
+        <v>-7266300</v>
       </c>
       <c r="E94" s="3">
-        <v>-9454600</v>
+        <v>-9799200</v>
       </c>
       <c r="F94" s="3">
-        <v>-8256200</v>
+        <v>-8557100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9408700</v>
+        <v>-9751600</v>
       </c>
       <c r="H94" s="3">
-        <v>-10045700</v>
+        <v>-10411800</v>
       </c>
       <c r="I94" s="3">
-        <v>-8598200</v>
+        <v>-8911500</v>
       </c>
       <c r="J94" s="3">
-        <v>-14159500</v>
+        <v>-14675500</v>
       </c>
       <c r="K94" s="3">
         <v>-13735600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2525500</v>
+        <v>-2617500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2477500</v>
+        <v>-2567800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2343800</v>
+        <v>-2429200</v>
       </c>
       <c r="G96" s="3">
-        <v>-4148500</v>
+        <v>-4299700</v>
       </c>
       <c r="H96" s="3">
-        <v>-4001500</v>
+        <v>-4147400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3791300</v>
+        <v>-3929400</v>
       </c>
       <c r="J96" s="3">
-        <v>-4275100</v>
+        <v>-4430900</v>
       </c>
       <c r="K96" s="3">
         <v>-3900400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9907900</v>
+        <v>-10268900</v>
       </c>
       <c r="E100" s="3">
-        <v>-15512100</v>
+        <v>-16077400</v>
       </c>
       <c r="F100" s="3">
-        <v>-9546500</v>
+        <v>-9894400</v>
       </c>
       <c r="G100" s="3">
-        <v>4529300</v>
+        <v>4694300</v>
       </c>
       <c r="H100" s="3">
-        <v>-7384500</v>
+        <v>-7653600</v>
       </c>
       <c r="I100" s="3">
-        <v>-9285200</v>
+        <v>-9623600</v>
       </c>
       <c r="J100" s="3">
-        <v>4166900</v>
+        <v>4318800</v>
       </c>
       <c r="K100" s="3">
         <v>-3281800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>75500</v>
+        <v>78300</v>
       </c>
       <c r="E101" s="3">
-        <v>-260300</v>
+        <v>-269800</v>
       </c>
       <c r="F101" s="3">
-        <v>-261300</v>
+        <v>-270800</v>
       </c>
       <c r="G101" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="H101" s="3">
-        <v>-442000</v>
+        <v>-458100</v>
       </c>
       <c r="I101" s="3">
-        <v>-319500</v>
+        <v>-331200</v>
       </c>
       <c r="J101" s="3">
-        <v>-1151500</v>
+        <v>-1193400</v>
       </c>
       <c r="K101" s="3">
         <v>1012000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1613900</v>
+        <v>1672700</v>
       </c>
       <c r="E102" s="3">
-        <v>-7654000</v>
+        <v>-7932900</v>
       </c>
       <c r="F102" s="3">
-        <v>-323600</v>
+        <v>-335400</v>
       </c>
       <c r="G102" s="3">
-        <v>8381800</v>
+        <v>8687200</v>
       </c>
       <c r="H102" s="3">
-        <v>-3989300</v>
+        <v>-4134700</v>
       </c>
       <c r="I102" s="3">
-        <v>-3684100</v>
+        <v>-3818300</v>
       </c>
       <c r="J102" s="3">
-        <v>3490100</v>
+        <v>3617300</v>
       </c>
       <c r="K102" s="3">
         <v>-2857300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48223600</v>
+        <v>49085100</v>
       </c>
       <c r="E8" s="3">
-        <v>46349900</v>
+        <v>47177900</v>
       </c>
       <c r="F8" s="3">
-        <v>47582500</v>
+        <v>48432500</v>
       </c>
       <c r="G8" s="3">
-        <v>46198600</v>
+        <v>47023900</v>
       </c>
       <c r="H8" s="3">
-        <v>49272100</v>
+        <v>50152300</v>
       </c>
       <c r="I8" s="3">
-        <v>50393600</v>
+        <v>51293800</v>
       </c>
       <c r="J8" s="3">
-        <v>52699000</v>
+        <v>53640400</v>
       </c>
       <c r="K8" s="3">
         <v>50218800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32347300</v>
+        <v>32925100</v>
       </c>
       <c r="E9" s="3">
-        <v>31831000</v>
+        <v>32399600</v>
       </c>
       <c r="F9" s="3">
-        <v>32461600</v>
+        <v>33041400</v>
       </c>
       <c r="G9" s="3">
-        <v>31909300</v>
+        <v>32479300</v>
       </c>
       <c r="H9" s="3">
-        <v>34671700</v>
+        <v>35291100</v>
       </c>
       <c r="I9" s="3">
-        <v>36581400</v>
+        <v>37234900</v>
       </c>
       <c r="J9" s="3">
-        <v>38842400</v>
+        <v>39536200</v>
       </c>
       <c r="K9" s="3">
         <v>36402300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15876300</v>
+        <v>16160000</v>
       </c>
       <c r="E10" s="3">
-        <v>14518900</v>
+        <v>14778300</v>
       </c>
       <c r="F10" s="3">
-        <v>15120900</v>
+        <v>15391100</v>
       </c>
       <c r="G10" s="3">
-        <v>14289300</v>
+        <v>14544600</v>
       </c>
       <c r="H10" s="3">
-        <v>14600400</v>
+        <v>14861200</v>
       </c>
       <c r="I10" s="3">
-        <v>13812200</v>
+        <v>14058900</v>
       </c>
       <c r="J10" s="3">
-        <v>13856600</v>
+        <v>14104200</v>
       </c>
       <c r="K10" s="3">
         <v>13816500</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1782700</v>
+        <v>1814600</v>
       </c>
       <c r="G14" s="3">
-        <v>3729500</v>
+        <v>3796100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-1349000</v>
+        <v>-1373000</v>
       </c>
       <c r="J14" s="3">
-        <v>602000</v>
+        <v>612800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42231100</v>
+        <v>42825100</v>
       </c>
       <c r="E17" s="3">
-        <v>40957300</v>
+        <v>41689000</v>
       </c>
       <c r="F17" s="3">
-        <v>43245800</v>
+        <v>44018300</v>
       </c>
       <c r="G17" s="3">
-        <v>47204800</v>
+        <v>48048000</v>
       </c>
       <c r="H17" s="3">
-        <v>44723800</v>
+        <v>45522700</v>
       </c>
       <c r="I17" s="3">
-        <v>46452500</v>
+        <v>47282400</v>
       </c>
       <c r="J17" s="3">
-        <v>51302400</v>
+        <v>52218900</v>
       </c>
       <c r="K17" s="3">
         <v>48067200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5992500</v>
+        <v>6260000</v>
       </c>
       <c r="E18" s="3">
-        <v>5392600</v>
+        <v>5489000</v>
       </c>
       <c r="F18" s="3">
-        <v>4336700</v>
+        <v>4414200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1006200</v>
+        <v>-1024100</v>
       </c>
       <c r="H18" s="3">
-        <v>4548300</v>
+        <v>4629600</v>
       </c>
       <c r="I18" s="3">
-        <v>3941100</v>
+        <v>4011500</v>
       </c>
       <c r="J18" s="3">
-        <v>1396600</v>
+        <v>1421500</v>
       </c>
       <c r="K18" s="3">
         <v>2151600</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>743800</v>
+        <v>757100</v>
       </c>
       <c r="E20" s="3">
-        <v>1970000</v>
+        <v>2005200</v>
       </c>
       <c r="F20" s="3">
-        <v>-569200</v>
+        <v>-579400</v>
       </c>
       <c r="G20" s="3">
-        <v>-49700</v>
+        <v>-50600</v>
       </c>
       <c r="H20" s="3">
-        <v>713100</v>
+        <v>725800</v>
       </c>
       <c r="I20" s="3">
-        <v>273000</v>
+        <v>277800</v>
       </c>
       <c r="J20" s="3">
-        <v>-586100</v>
+        <v>-596600</v>
       </c>
       <c r="K20" s="3">
         <v>1216400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21334500</v>
+        <v>22301300</v>
       </c>
       <c r="E21" s="3">
-        <v>22230700</v>
+        <v>22857500</v>
       </c>
       <c r="F21" s="3">
-        <v>18712600</v>
+        <v>14451700</v>
       </c>
       <c r="G21" s="3">
-        <v>9272000</v>
+        <v>10207700</v>
       </c>
       <c r="H21" s="3">
-        <v>16236700</v>
+        <v>17371600</v>
       </c>
       <c r="I21" s="3">
-        <v>15903100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>13143700</v>
+        <v>16967800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>15043600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2553000</v>
+        <v>2598600</v>
       </c>
       <c r="E22" s="3">
-        <v>2707400</v>
+        <v>2755800</v>
       </c>
       <c r="F22" s="3">
-        <v>2926400</v>
+        <v>2978700</v>
       </c>
       <c r="G22" s="3">
-        <v>1708700</v>
+        <v>1739200</v>
       </c>
       <c r="H22" s="3">
-        <v>1158500</v>
+        <v>1179200</v>
       </c>
       <c r="I22" s="3">
-        <v>1260100</v>
+        <v>1282600</v>
       </c>
       <c r="J22" s="3">
-        <v>1011400</v>
+        <v>1029500</v>
       </c>
       <c r="K22" s="3">
         <v>1568300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4183300</v>
+        <v>4418500</v>
       </c>
       <c r="E23" s="3">
-        <v>4655200</v>
+        <v>4738400</v>
       </c>
       <c r="F23" s="3">
-        <v>841100</v>
+        <v>856100</v>
       </c>
       <c r="G23" s="3">
-        <v>-2764600</v>
+        <v>-2813900</v>
       </c>
       <c r="H23" s="3">
-        <v>4102900</v>
+        <v>4176200</v>
       </c>
       <c r="I23" s="3">
-        <v>2953900</v>
+        <v>3006700</v>
       </c>
       <c r="J23" s="3">
-        <v>-201000</v>
+        <v>-204600</v>
       </c>
       <c r="K23" s="3">
         <v>1799700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1407100</v>
+        <v>1432300</v>
       </c>
       <c r="E24" s="3">
-        <v>4088100</v>
+        <v>4161100</v>
       </c>
       <c r="F24" s="3">
-        <v>1322500</v>
+        <v>1346100</v>
       </c>
       <c r="G24" s="3">
-        <v>1582800</v>
+        <v>1611000</v>
       </c>
       <c r="H24" s="3">
-        <v>-930000</v>
+        <v>-946600</v>
       </c>
       <c r="I24" s="3">
-        <v>5040300</v>
+        <v>5130400</v>
       </c>
       <c r="J24" s="3">
-        <v>5223300</v>
+        <v>5316700</v>
       </c>
       <c r="K24" s="3">
         <v>-6301100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2776200</v>
+        <v>2986200</v>
       </c>
       <c r="E26" s="3">
-        <v>567100</v>
+        <v>577200</v>
       </c>
       <c r="F26" s="3">
-        <v>-481400</v>
+        <v>-490000</v>
       </c>
       <c r="G26" s="3">
-        <v>-4347300</v>
+        <v>-4425000</v>
       </c>
       <c r="H26" s="3">
-        <v>5032900</v>
+        <v>5122800</v>
       </c>
       <c r="I26" s="3">
-        <v>-2086400</v>
+        <v>-2123600</v>
       </c>
       <c r="J26" s="3">
-        <v>-5424400</v>
+        <v>-5521300</v>
       </c>
       <c r="K26" s="3">
         <v>8100800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2209100</v>
+        <v>2409000</v>
       </c>
       <c r="E27" s="3">
-        <v>118500</v>
+        <v>120600</v>
       </c>
       <c r="F27" s="3">
-        <v>-973400</v>
+        <v>-990700</v>
       </c>
       <c r="G27" s="3">
-        <v>-4745100</v>
+        <v>-4829900</v>
       </c>
       <c r="H27" s="3">
-        <v>4663700</v>
+        <v>4747000</v>
       </c>
       <c r="I27" s="3">
-        <v>-2317000</v>
+        <v>-2358400</v>
       </c>
       <c r="J27" s="3">
-        <v>-5723800</v>
+        <v>-5826000</v>
       </c>
       <c r="K27" s="3">
         <v>7895300</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-3740000</v>
+        <v>-3806800</v>
       </c>
       <c r="H29" s="3">
-        <v>-2083200</v>
+        <v>-2120400</v>
       </c>
       <c r="I29" s="3">
-        <v>-4345200</v>
+        <v>-4422800</v>
       </c>
       <c r="J29" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K29" s="3">
         <v>-281300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-743800</v>
+        <v>-757100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1970000</v>
+        <v>-2005200</v>
       </c>
       <c r="F32" s="3">
-        <v>569200</v>
+        <v>579400</v>
       </c>
       <c r="G32" s="3">
-        <v>49700</v>
+        <v>50600</v>
       </c>
       <c r="H32" s="3">
-        <v>-713100</v>
+        <v>-725800</v>
       </c>
       <c r="I32" s="3">
-        <v>-273000</v>
+        <v>-277800</v>
       </c>
       <c r="J32" s="3">
-        <v>586100</v>
+        <v>596600</v>
       </c>
       <c r="K32" s="3">
         <v>-1216400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2209100</v>
+        <v>2409000</v>
       </c>
       <c r="E33" s="3">
-        <v>118500</v>
+        <v>120600</v>
       </c>
       <c r="F33" s="3">
-        <v>-973400</v>
+        <v>-990700</v>
       </c>
       <c r="G33" s="3">
-        <v>-8485200</v>
+        <v>-8636700</v>
       </c>
       <c r="H33" s="3">
-        <v>2580500</v>
+        <v>2626600</v>
       </c>
       <c r="I33" s="3">
-        <v>-6662200</v>
+        <v>-6781200</v>
       </c>
       <c r="J33" s="3">
-        <v>-5718500</v>
+        <v>-5820600</v>
       </c>
       <c r="K33" s="3">
         <v>7614000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2209100</v>
+        <v>2409000</v>
       </c>
       <c r="E35" s="3">
-        <v>118500</v>
+        <v>120600</v>
       </c>
       <c r="F35" s="3">
-        <v>-973400</v>
+        <v>-990700</v>
       </c>
       <c r="G35" s="3">
-        <v>-8485200</v>
+        <v>-8636700</v>
       </c>
       <c r="H35" s="3">
-        <v>2580500</v>
+        <v>2626600</v>
       </c>
       <c r="I35" s="3">
-        <v>-6662200</v>
+        <v>-6781200</v>
       </c>
       <c r="J35" s="3">
-        <v>-5718500</v>
+        <v>-5820600</v>
       </c>
       <c r="K35" s="3">
         <v>7614000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7930800</v>
+        <v>16144900</v>
       </c>
       <c r="E41" s="3">
-        <v>6158600</v>
+        <v>6268600</v>
       </c>
       <c r="F41" s="3">
-        <v>12013600</v>
+        <v>12228200</v>
       </c>
       <c r="G41" s="3">
-        <v>12104600</v>
+        <v>12320800</v>
       </c>
       <c r="H41" s="3">
-        <v>4945100</v>
+        <v>5033400</v>
       </c>
       <c r="I41" s="3">
-        <v>9347400</v>
+        <v>9514400</v>
       </c>
       <c r="J41" s="3">
-        <v>23729900</v>
+        <v>24153800</v>
       </c>
       <c r="K41" s="3">
         <v>14844000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8391000</v>
+        <v>8540900</v>
       </c>
       <c r="E42" s="3">
-        <v>9690200</v>
+        <v>9863300</v>
       </c>
       <c r="F42" s="3">
-        <v>9829900</v>
+        <v>10005500</v>
       </c>
       <c r="G42" s="3">
-        <v>16090100</v>
+        <v>16377500</v>
       </c>
       <c r="H42" s="3">
-        <v>9305100</v>
+        <v>9471300</v>
       </c>
       <c r="I42" s="3">
-        <v>6475000</v>
+        <v>6590600</v>
       </c>
       <c r="J42" s="3">
-        <v>9259600</v>
+        <v>9425000</v>
       </c>
       <c r="K42" s="3">
         <v>7715700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10614900</v>
+        <v>22670900</v>
       </c>
       <c r="E43" s="3">
-        <v>10618100</v>
+        <v>10807800</v>
       </c>
       <c r="F43" s="3">
-        <v>10894200</v>
+        <v>11088800</v>
       </c>
       <c r="G43" s="3">
-        <v>11671900</v>
+        <v>11880400</v>
       </c>
       <c r="H43" s="3">
-        <v>9256400</v>
+        <v>9421800</v>
       </c>
       <c r="I43" s="3">
-        <v>8679800</v>
+        <v>8834900</v>
       </c>
       <c r="J43" s="3">
-        <v>17706700</v>
+        <v>18023000</v>
       </c>
       <c r="K43" s="3">
         <v>17585100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>884500</v>
+        <v>900300</v>
       </c>
       <c r="E44" s="3">
-        <v>715200</v>
+        <v>728000</v>
       </c>
       <c r="F44" s="3">
-        <v>632700</v>
+        <v>644000</v>
       </c>
       <c r="G44" s="3">
-        <v>755400</v>
+        <v>768900</v>
       </c>
       <c r="H44" s="3">
-        <v>614700</v>
+        <v>625700</v>
       </c>
       <c r="I44" s="3">
-        <v>609400</v>
+        <v>620300</v>
       </c>
       <c r="J44" s="3">
-        <v>1515100</v>
+        <v>1542100</v>
       </c>
       <c r="K44" s="3">
         <v>1192500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1356400</v>
+        <v>1380600</v>
       </c>
       <c r="E45" s="3">
-        <v>1397600</v>
+        <v>1422600</v>
       </c>
       <c r="F45" s="3">
-        <v>1803900</v>
+        <v>1836100</v>
       </c>
       <c r="G45" s="3">
-        <v>1504500</v>
+        <v>1531400</v>
       </c>
       <c r="H45" s="3">
-        <v>1409300</v>
+        <v>1434400</v>
       </c>
       <c r="I45" s="3">
-        <v>1911800</v>
+        <v>1946000</v>
       </c>
       <c r="J45" s="3">
-        <v>6349100</v>
+        <v>6462500</v>
       </c>
       <c r="K45" s="3">
         <v>3161400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29177500</v>
+        <v>29698700</v>
       </c>
       <c r="E46" s="3">
-        <v>28579800</v>
+        <v>29090300</v>
       </c>
       <c r="F46" s="3">
-        <v>35174300</v>
+        <v>35802600</v>
       </c>
       <c r="G46" s="3">
-        <v>42126400</v>
+        <v>42878900</v>
       </c>
       <c r="H46" s="3">
-        <v>25530600</v>
+        <v>25986700</v>
       </c>
       <c r="I46" s="3">
-        <v>27023400</v>
+        <v>27506200</v>
       </c>
       <c r="J46" s="3">
-        <v>33790400</v>
+        <v>34394000</v>
       </c>
       <c r="K46" s="3">
         <v>28497600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12404000</v>
+        <v>13761700</v>
       </c>
       <c r="E47" s="3">
-        <v>10973600</v>
+        <v>11169600</v>
       </c>
       <c r="F47" s="3">
-        <v>18002900</v>
+        <v>18324500</v>
       </c>
       <c r="G47" s="3">
-        <v>10571500</v>
+        <v>10760400</v>
       </c>
       <c r="H47" s="3">
-        <v>10334500</v>
+        <v>10519200</v>
       </c>
       <c r="I47" s="3">
-        <v>11813600</v>
+        <v>12024700</v>
       </c>
       <c r="J47" s="3">
-        <v>11535400</v>
+        <v>11741400</v>
       </c>
       <c r="K47" s="3">
         <v>13054700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43170600</v>
+        <v>87883700</v>
       </c>
       <c r="E48" s="3">
-        <v>43635100</v>
+        <v>44414600</v>
       </c>
       <c r="F48" s="3">
-        <v>42439600</v>
+        <v>43197700</v>
       </c>
       <c r="G48" s="3">
-        <v>29023100</v>
+        <v>29541500</v>
       </c>
       <c r="H48" s="3">
-        <v>29967900</v>
+        <v>30503200</v>
       </c>
       <c r="I48" s="3">
-        <v>31955800</v>
+        <v>32526700</v>
       </c>
       <c r="J48" s="3">
-        <v>75149700</v>
+        <v>76492200</v>
       </c>
       <c r="K48" s="3">
         <v>65812200</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56332200</v>
+        <v>114677000</v>
       </c>
       <c r="E49" s="3">
-        <v>56654800</v>
+        <v>57666900</v>
       </c>
       <c r="F49" s="3">
-        <v>57141500</v>
+        <v>58162300</v>
       </c>
       <c r="G49" s="3">
-        <v>43383300</v>
+        <v>44158300</v>
       </c>
       <c r="H49" s="3">
-        <v>45765900</v>
+        <v>46583500</v>
       </c>
       <c r="I49" s="3">
-        <v>48900800</v>
+        <v>49774300</v>
       </c>
       <c r="J49" s="3">
-        <v>123921000</v>
+        <v>126135000</v>
       </c>
       <c r="K49" s="3">
         <v>106907000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21798000</v>
+        <v>22187400</v>
       </c>
       <c r="E52" s="3">
-        <v>24213400</v>
+        <v>24645900</v>
       </c>
       <c r="F52" s="3">
-        <v>25163500</v>
+        <v>25613000</v>
       </c>
       <c r="G52" s="3">
-        <v>26043700</v>
+        <v>26509000</v>
       </c>
       <c r="H52" s="3">
-        <v>42457500</v>
+        <v>43216000</v>
       </c>
       <c r="I52" s="3">
-        <v>43962000</v>
+        <v>44747300</v>
       </c>
       <c r="J52" s="3">
-        <v>34053800</v>
+        <v>34662200</v>
       </c>
       <c r="K52" s="3">
         <v>34484200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>162882000</v>
+        <v>165895000</v>
       </c>
       <c r="E54" s="3">
-        <v>164057000</v>
+        <v>166987000</v>
       </c>
       <c r="F54" s="3">
-        <v>177922000</v>
+        <v>181100000</v>
       </c>
       <c r="G54" s="3">
-        <v>151148000</v>
+        <v>153848000</v>
       </c>
       <c r="H54" s="3">
-        <v>154056000</v>
+        <v>156809000</v>
       </c>
       <c r="I54" s="3">
-        <v>163656000</v>
+        <v>166579000</v>
       </c>
       <c r="J54" s="3">
-        <v>178915000</v>
+        <v>182111000</v>
       </c>
       <c r="K54" s="3">
         <v>176006000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7794300</v>
+        <v>29106500</v>
       </c>
       <c r="E57" s="3">
-        <v>7168000</v>
+        <v>7296000</v>
       </c>
       <c r="F57" s="3">
-        <v>7138300</v>
+        <v>7265800</v>
       </c>
       <c r="G57" s="3">
-        <v>6947900</v>
+        <v>7072000</v>
       </c>
       <c r="H57" s="3">
-        <v>6572300</v>
+        <v>6689700</v>
       </c>
       <c r="I57" s="3">
-        <v>6587100</v>
+        <v>6704800</v>
       </c>
       <c r="J57" s="3">
-        <v>7921200</v>
+        <v>8062800</v>
       </c>
       <c r="K57" s="3">
         <v>26700000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12654700</v>
+        <v>25761600</v>
       </c>
       <c r="E58" s="3">
-        <v>8980300</v>
+        <v>9140700</v>
       </c>
       <c r="F58" s="3">
-        <v>12670600</v>
+        <v>12897000</v>
       </c>
       <c r="G58" s="3">
-        <v>4517700</v>
+        <v>4598400</v>
       </c>
       <c r="H58" s="3">
-        <v>10951400</v>
+        <v>11147000</v>
       </c>
       <c r="I58" s="3">
-        <v>12750000</v>
+        <v>12977700</v>
       </c>
       <c r="J58" s="3">
-        <v>28953200</v>
+        <v>29470400</v>
       </c>
       <c r="K58" s="3">
         <v>27216900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15149500</v>
+        <v>15420100</v>
       </c>
       <c r="E59" s="3">
-        <v>14228000</v>
+        <v>14482200</v>
       </c>
       <c r="F59" s="3">
-        <v>15512400</v>
+        <v>15789500</v>
       </c>
       <c r="G59" s="3">
-        <v>15537800</v>
+        <v>15815400</v>
       </c>
       <c r="H59" s="3">
-        <v>23763700</v>
+        <v>24188300</v>
       </c>
       <c r="I59" s="3">
-        <v>25510500</v>
+        <v>25966200</v>
       </c>
       <c r="J59" s="3">
-        <v>19907300</v>
+        <v>20263000</v>
       </c>
       <c r="K59" s="3">
         <v>16151800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35598500</v>
+        <v>36234500</v>
       </c>
       <c r="E60" s="3">
-        <v>30376200</v>
+        <v>30918900</v>
       </c>
       <c r="F60" s="3">
-        <v>35321300</v>
+        <v>35952300</v>
       </c>
       <c r="G60" s="3">
-        <v>27003300</v>
+        <v>27485700</v>
       </c>
       <c r="H60" s="3">
-        <v>41287400</v>
+        <v>42024900</v>
       </c>
       <c r="I60" s="3">
-        <v>44847600</v>
+        <v>45648700</v>
       </c>
       <c r="J60" s="3">
-        <v>44684600</v>
+        <v>45482900</v>
       </c>
       <c r="K60" s="3">
         <v>41494200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61502600</v>
+        <v>62601300</v>
       </c>
       <c r="E61" s="3">
-        <v>62709800</v>
+        <v>63830000</v>
       </c>
       <c r="F61" s="3">
-        <v>66600000</v>
+        <v>67789800</v>
       </c>
       <c r="G61" s="3">
-        <v>51508700</v>
+        <v>52428900</v>
       </c>
       <c r="H61" s="3">
-        <v>34522500</v>
+        <v>35139200</v>
       </c>
       <c r="I61" s="3">
-        <v>36202600</v>
+        <v>36849400</v>
       </c>
       <c r="J61" s="3">
-        <v>38925900</v>
+        <v>39621300</v>
       </c>
       <c r="K61" s="3">
         <v>32215400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5499500</v>
+        <v>8307200</v>
       </c>
       <c r="E62" s="3">
-        <v>9801300</v>
+        <v>9976400</v>
       </c>
       <c r="F62" s="3">
-        <v>9743100</v>
+        <v>9917200</v>
       </c>
       <c r="G62" s="3">
-        <v>5511100</v>
+        <v>5609600</v>
       </c>
       <c r="H62" s="3">
-        <v>5660300</v>
+        <v>5761400</v>
       </c>
       <c r="I62" s="3">
-        <v>4610800</v>
+        <v>4693100</v>
       </c>
       <c r="J62" s="3">
-        <v>7239900</v>
+        <v>7369200</v>
       </c>
       <c r="K62" s="3">
         <v>6486900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105023000</v>
+        <v>106900000</v>
       </c>
       <c r="E66" s="3">
-        <v>105016000</v>
+        <v>106892000</v>
       </c>
       <c r="F66" s="3">
-        <v>112950000</v>
+        <v>114968000</v>
       </c>
       <c r="G66" s="3">
-        <v>85321400</v>
+        <v>86845500</v>
       </c>
       <c r="H66" s="3">
-        <v>82493300</v>
+        <v>83967000</v>
       </c>
       <c r="I66" s="3">
-        <v>87268100</v>
+        <v>88827000</v>
       </c>
       <c r="J66" s="3">
-        <v>90757400</v>
+        <v>92378600</v>
       </c>
       <c r="K66" s="3">
         <v>81027800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57858800</v>
+        <v>58995800</v>
       </c>
       <c r="E76" s="3">
-        <v>59040600</v>
+        <v>60095300</v>
       </c>
       <c r="F76" s="3">
-        <v>64971800</v>
+        <v>66132400</v>
       </c>
       <c r="G76" s="3">
-        <v>65826600</v>
+        <v>67002600</v>
       </c>
       <c r="H76" s="3">
-        <v>71563100</v>
+        <v>72841500</v>
       </c>
       <c r="I76" s="3">
-        <v>76387600</v>
+        <v>77752200</v>
       </c>
       <c r="J76" s="3">
-        <v>88157900</v>
+        <v>89732700</v>
       </c>
       <c r="K76" s="3">
         <v>94978200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2209100</v>
+        <v>2409000</v>
       </c>
       <c r="E81" s="3">
-        <v>118500</v>
+        <v>120600</v>
       </c>
       <c r="F81" s="3">
-        <v>-973400</v>
+        <v>-990700</v>
       </c>
       <c r="G81" s="3">
-        <v>-8485200</v>
+        <v>-8636700</v>
       </c>
       <c r="H81" s="3">
-        <v>2580500</v>
+        <v>2626600</v>
       </c>
       <c r="I81" s="3">
-        <v>-6662200</v>
+        <v>-6781200</v>
       </c>
       <c r="J81" s="3">
-        <v>-5718500</v>
+        <v>-5820600</v>
       </c>
       <c r="K81" s="3">
         <v>7614000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14648000</v>
+        <v>15185400</v>
       </c>
       <c r="E83" s="3">
-        <v>14918900</v>
+        <v>15264000</v>
       </c>
       <c r="F83" s="3">
-        <v>14996100</v>
+        <v>10548200</v>
       </c>
       <c r="G83" s="3">
-        <v>10363100</v>
+        <v>11209500</v>
       </c>
       <c r="H83" s="3">
-        <v>11012700</v>
+        <v>11938500</v>
       </c>
       <c r="I83" s="3">
-        <v>11729000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>12375400</v>
+        <v>12596500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>11529000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19129700</v>
+        <v>18538800</v>
       </c>
       <c r="E89" s="3">
-        <v>18213500</v>
+        <v>18715400</v>
       </c>
       <c r="F89" s="3">
-        <v>18387000</v>
+        <v>13978200</v>
       </c>
       <c r="G89" s="3">
-        <v>13732800</v>
+        <v>14645800</v>
       </c>
       <c r="H89" s="3">
-        <v>14388800</v>
+        <v>15316700</v>
       </c>
       <c r="I89" s="3">
-        <v>15047900</v>
+        <v>15438400</v>
       </c>
       <c r="J89" s="3">
-        <v>15167500</v>
+        <v>13642200</v>
       </c>
       <c r="K89" s="3">
         <v>13148100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6134300</v>
+        <v>-5829300</v>
       </c>
       <c r="E91" s="3">
-        <v>-5727000</v>
+        <v>-5580500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5482600</v>
+        <v>-5441600</v>
       </c>
       <c r="G91" s="3">
-        <v>-5346100</v>
+        <v>-5295100</v>
       </c>
       <c r="H91" s="3">
-        <v>-5202200</v>
+        <v>-6768300</v>
       </c>
       <c r="I91" s="3">
-        <v>-6649500</v>
+        <v>-8900600</v>
       </c>
       <c r="J91" s="3">
-        <v>-8744400</v>
+        <v>-7887200</v>
       </c>
       <c r="K91" s="3">
         <v>-7601600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7266300</v>
+        <v>-9974200</v>
       </c>
       <c r="E94" s="3">
-        <v>-9799200</v>
+        <v>-8710000</v>
       </c>
       <c r="F94" s="3">
-        <v>-8557100</v>
+        <v>-9925800</v>
       </c>
       <c r="G94" s="3">
-        <v>-9751600</v>
+        <v>-10597800</v>
       </c>
       <c r="H94" s="3">
-        <v>-10411800</v>
+        <v>-9070700</v>
       </c>
       <c r="I94" s="3">
-        <v>-8911500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-14675500</v>
+        <v>-14937700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-13735600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2617500</v>
+        <v>-2613600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2567800</v>
+        <v>-2472600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2429200</v>
+        <v>-4376500</v>
       </c>
       <c r="G96" s="3">
-        <v>-4299700</v>
+        <v>-4221400</v>
       </c>
       <c r="H96" s="3">
-        <v>-4147400</v>
+        <v>-3999600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3929400</v>
+        <v>-4510100</v>
       </c>
       <c r="J96" s="3">
-        <v>-4430900</v>
+        <v>-4047000</v>
       </c>
       <c r="K96" s="3">
         <v>-3900400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10268900</v>
+        <v>-16364600</v>
       </c>
       <c r="E100" s="3">
-        <v>-16077400</v>
+        <v>-10071200</v>
       </c>
       <c r="F100" s="3">
-        <v>-9894400</v>
+        <v>4778200</v>
       </c>
       <c r="G100" s="3">
-        <v>4694300</v>
+        <v>-7790300</v>
       </c>
       <c r="H100" s="3">
-        <v>-7653600</v>
+        <v>-9795500</v>
       </c>
       <c r="I100" s="3">
-        <v>-9623600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>4318800</v>
+        <v>4395900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-3281800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>78300</v>
+        <v>-274600</v>
       </c>
       <c r="E101" s="3">
-        <v>-269800</v>
+        <v>-275700</v>
       </c>
       <c r="F101" s="3">
-        <v>-270800</v>
+        <v>11800</v>
       </c>
       <c r="G101" s="3">
-        <v>11600</v>
+        <v>-466300</v>
       </c>
       <c r="H101" s="3">
-        <v>-458100</v>
+        <v>-337100</v>
       </c>
       <c r="I101" s="3">
-        <v>-331200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-1193400</v>
+        <v>-1214700</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>1012000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1672700</v>
+        <v>-8074600</v>
       </c>
       <c r="E102" s="3">
-        <v>-7932900</v>
+        <v>-341400</v>
       </c>
       <c r="F102" s="3">
-        <v>-335400</v>
+        <v>8842400</v>
       </c>
       <c r="G102" s="3">
-        <v>8687200</v>
+        <v>-4208500</v>
       </c>
       <c r="H102" s="3">
-        <v>-4134700</v>
+        <v>-3886500</v>
       </c>
       <c r="I102" s="3">
-        <v>-3818300</v>
+        <v>3681900</v>
       </c>
       <c r="J102" s="3">
-        <v>3617300</v>
+        <v>-2964700</v>
       </c>
       <c r="K102" s="3">
         <v>-2857300</v>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49085100</v>
+        <v>49549900</v>
       </c>
       <c r="E8" s="3">
-        <v>47177900</v>
+        <v>49413300</v>
       </c>
       <c r="F8" s="3">
-        <v>48432500</v>
+        <v>47493300</v>
       </c>
       <c r="G8" s="3">
-        <v>47023900</v>
+        <v>48756300</v>
       </c>
       <c r="H8" s="3">
-        <v>50152300</v>
+        <v>47338300</v>
       </c>
       <c r="I8" s="3">
-        <v>51293800</v>
+        <v>50487600</v>
       </c>
       <c r="J8" s="3">
+        <v>51636800</v>
+      </c>
+      <c r="K8" s="3">
         <v>53640400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50218800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46973500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42134200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>43556800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32925100</v>
+        <v>33444500</v>
       </c>
       <c r="E9" s="3">
-        <v>32399600</v>
+        <v>33145300</v>
       </c>
       <c r="F9" s="3">
-        <v>33041400</v>
+        <v>32616200</v>
       </c>
       <c r="G9" s="3">
-        <v>32479300</v>
+        <v>33262400</v>
       </c>
       <c r="H9" s="3">
-        <v>35291100</v>
+        <v>32696500</v>
       </c>
       <c r="I9" s="3">
-        <v>37234900</v>
+        <v>35527000</v>
       </c>
       <c r="J9" s="3">
+        <v>37483800</v>
+      </c>
+      <c r="K9" s="3">
         <v>39536200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36402300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34228700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29425600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30519200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16160000</v>
+        <v>16105400</v>
       </c>
       <c r="E10" s="3">
-        <v>14778300</v>
+        <v>16268000</v>
       </c>
       <c r="F10" s="3">
-        <v>15391100</v>
+        <v>14877100</v>
       </c>
       <c r="G10" s="3">
-        <v>14544600</v>
+        <v>15494000</v>
       </c>
       <c r="H10" s="3">
-        <v>14861200</v>
+        <v>14641900</v>
       </c>
       <c r="I10" s="3">
-        <v>14058900</v>
+        <v>14960600</v>
       </c>
       <c r="J10" s="3">
+        <v>14152900</v>
+      </c>
+      <c r="K10" s="3">
         <v>14104200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13816500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12744800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12708600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13037500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-9933600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1814600</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>3796100</v>
+        <v>1826700</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>3821500</v>
       </c>
       <c r="I14" s="3">
-        <v>-1373000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>-1382200</v>
+      </c>
+      <c r="K14" s="3">
         <v>612800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>8084900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8528500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4544100</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42825100</v>
+        <v>34051600</v>
       </c>
       <c r="E17" s="3">
-        <v>41689000</v>
+        <v>43111400</v>
       </c>
       <c r="F17" s="3">
-        <v>44018300</v>
+        <v>41933000</v>
       </c>
       <c r="G17" s="3">
-        <v>48048000</v>
+        <v>44312600</v>
       </c>
       <c r="H17" s="3">
-        <v>45522700</v>
+        <v>48369300</v>
       </c>
       <c r="I17" s="3">
-        <v>47282400</v>
+        <v>45827100</v>
       </c>
       <c r="J17" s="3">
+        <v>47598500</v>
+      </c>
+      <c r="K17" s="3">
         <v>52218900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48067200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51766900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44573100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37253400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6260000</v>
+        <v>15498300</v>
       </c>
       <c r="E18" s="3">
-        <v>5489000</v>
+        <v>6301900</v>
       </c>
       <c r="F18" s="3">
-        <v>4414200</v>
+        <v>5560300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1024100</v>
+        <v>4443700</v>
       </c>
       <c r="H18" s="3">
-        <v>4629600</v>
+        <v>-1031000</v>
       </c>
       <c r="I18" s="3">
-        <v>4011500</v>
+        <v>4660500</v>
       </c>
       <c r="J18" s="3">
+        <v>4038300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1421500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2151600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4793400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2438900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6303300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>757100</v>
+        <v>1189300</v>
       </c>
       <c r="E20" s="3">
-        <v>2005200</v>
+        <v>762100</v>
       </c>
       <c r="F20" s="3">
-        <v>-579400</v>
+        <v>1926400</v>
       </c>
       <c r="G20" s="3">
-        <v>-50600</v>
+        <v>-583200</v>
       </c>
       <c r="H20" s="3">
-        <v>725800</v>
+        <v>-51000</v>
       </c>
       <c r="I20" s="3">
-        <v>277800</v>
+        <v>730700</v>
       </c>
       <c r="J20" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-596600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1216400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-283000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2137700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2065600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>22301300</v>
+        <v>31450800</v>
       </c>
       <c r="E21" s="3">
-        <v>22857500</v>
+        <v>22073400</v>
       </c>
       <c r="F21" s="3">
-        <v>14451700</v>
+        <v>22773700</v>
       </c>
       <c r="G21" s="3">
-        <v>10207700</v>
+        <v>19226500</v>
       </c>
       <c r="H21" s="3">
-        <v>17371600</v>
+        <v>9536800</v>
       </c>
       <c r="I21" s="3">
-        <v>16967800</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>16675600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>16336300</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15043600</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>15928000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2598600</v>
+        <v>2793700</v>
       </c>
       <c r="E22" s="3">
-        <v>2755800</v>
+        <v>2615900</v>
       </c>
       <c r="F22" s="3">
-        <v>2978700</v>
+        <v>2774200</v>
       </c>
       <c r="G22" s="3">
-        <v>1739200</v>
+        <v>2998600</v>
       </c>
       <c r="H22" s="3">
-        <v>1179200</v>
+        <v>1750800</v>
       </c>
       <c r="I22" s="3">
-        <v>1282600</v>
+        <v>1187100</v>
       </c>
       <c r="J22" s="3">
+        <v>1291200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1029500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1568300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1379300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3556500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3719400</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4418500</v>
+        <v>13893800</v>
       </c>
       <c r="E23" s="3">
-        <v>4738400</v>
+        <v>4448100</v>
       </c>
       <c r="F23" s="3">
-        <v>856100</v>
+        <v>4712600</v>
       </c>
       <c r="G23" s="3">
-        <v>-2813900</v>
+        <v>861900</v>
       </c>
       <c r="H23" s="3">
-        <v>4176200</v>
+        <v>-2832800</v>
       </c>
       <c r="I23" s="3">
-        <v>3006700</v>
+        <v>4204100</v>
       </c>
       <c r="J23" s="3">
+        <v>3026800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-204600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1799700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6455700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3857800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4649500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1432300</v>
+        <v>521500</v>
       </c>
       <c r="E24" s="3">
-        <v>4161100</v>
+        <v>1441900</v>
       </c>
       <c r="F24" s="3">
-        <v>1346100</v>
+        <v>4189000</v>
       </c>
       <c r="G24" s="3">
-        <v>1611000</v>
+        <v>1355100</v>
       </c>
       <c r="H24" s="3">
-        <v>-946600</v>
+        <v>1621800</v>
       </c>
       <c r="I24" s="3">
-        <v>5130400</v>
+        <v>-952900</v>
       </c>
       <c r="J24" s="3">
+        <v>5164700</v>
+      </c>
+      <c r="K24" s="3">
         <v>5316700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6301100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-20312800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>527200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>791000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2986200</v>
+        <v>13372400</v>
       </c>
       <c r="E26" s="3">
-        <v>577200</v>
+        <v>3006200</v>
       </c>
       <c r="F26" s="3">
-        <v>-490000</v>
+        <v>523600</v>
       </c>
       <c r="G26" s="3">
-        <v>-4425000</v>
+        <v>-493300</v>
       </c>
       <c r="H26" s="3">
-        <v>5122800</v>
+        <v>-4454600</v>
       </c>
       <c r="I26" s="3">
-        <v>-2123600</v>
+        <v>5157100</v>
       </c>
       <c r="J26" s="3">
+        <v>-2137800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-5521300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8100800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13857100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4385000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3858500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2409000</v>
+        <v>12833600</v>
       </c>
       <c r="E27" s="3">
-        <v>120600</v>
+        <v>2425100</v>
       </c>
       <c r="F27" s="3">
-        <v>-990700</v>
+        <v>64000</v>
       </c>
       <c r="G27" s="3">
-        <v>-4829900</v>
+        <v>-997400</v>
       </c>
       <c r="H27" s="3">
-        <v>4747000</v>
+        <v>-4862200</v>
       </c>
       <c r="I27" s="3">
-        <v>-2358400</v>
+        <v>4778700</v>
       </c>
       <c r="J27" s="3">
+        <v>-2374200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-5826000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7895300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13653700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4655200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3806900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-3806800</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-2120400</v>
+        <v>-3832300</v>
       </c>
       <c r="I29" s="3">
-        <v>-4422800</v>
+        <v>-2134600</v>
       </c>
       <c r="J29" s="3">
+        <v>-4452400</v>
+      </c>
+      <c r="K29" s="3">
         <v>5400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-281300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>58931800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5112700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>3988700</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-757100</v>
+        <v>-1189300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2005200</v>
+        <v>-762100</v>
       </c>
       <c r="F32" s="3">
-        <v>579400</v>
+        <v>-1926400</v>
       </c>
       <c r="G32" s="3">
-        <v>50600</v>
+        <v>583200</v>
       </c>
       <c r="H32" s="3">
-        <v>-725800</v>
+        <v>51000</v>
       </c>
       <c r="I32" s="3">
-        <v>-277800</v>
+        <v>-730700</v>
       </c>
       <c r="J32" s="3">
+        <v>-279700</v>
+      </c>
+      <c r="K32" s="3">
         <v>596600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1216400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>283000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2137700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2065600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2409000</v>
+        <v>12833600</v>
       </c>
       <c r="E33" s="3">
-        <v>120600</v>
+        <v>2425100</v>
       </c>
       <c r="F33" s="3">
-        <v>-990700</v>
+        <v>64000</v>
       </c>
       <c r="G33" s="3">
-        <v>-8636700</v>
+        <v>-997400</v>
       </c>
       <c r="H33" s="3">
-        <v>2626600</v>
+        <v>-8694500</v>
       </c>
       <c r="I33" s="3">
-        <v>-6781200</v>
+        <v>2644100</v>
       </c>
       <c r="J33" s="3">
+        <v>-6826600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-5820600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7614000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72585600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>457400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7795600</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2409000</v>
+        <v>12833600</v>
       </c>
       <c r="E35" s="3">
-        <v>120600</v>
+        <v>2425100</v>
       </c>
       <c r="F35" s="3">
-        <v>-990700</v>
+        <v>64000</v>
       </c>
       <c r="G35" s="3">
-        <v>-8636700</v>
+        <v>-997400</v>
       </c>
       <c r="H35" s="3">
-        <v>2626600</v>
+        <v>-8694500</v>
       </c>
       <c r="I35" s="3">
-        <v>-6781200</v>
+        <v>2644100</v>
       </c>
       <c r="J35" s="3">
+        <v>-6826600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-5820600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7614000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72585600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>457400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7795600</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16144900</v>
+        <v>12689400</v>
       </c>
       <c r="E41" s="3">
-        <v>6268600</v>
+        <v>8126400</v>
       </c>
       <c r="F41" s="3">
-        <v>12228200</v>
+        <v>6310500</v>
       </c>
       <c r="G41" s="3">
-        <v>12320800</v>
+        <v>12310000</v>
       </c>
       <c r="H41" s="3">
-        <v>5033400</v>
+        <v>12403200</v>
       </c>
       <c r="I41" s="3">
-        <v>9514400</v>
+        <v>5067100</v>
       </c>
       <c r="J41" s="3">
+        <v>9578000</v>
+      </c>
+      <c r="K41" s="3">
         <v>24153800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14844000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18717800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8357900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8008800</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8540900</v>
+        <v>7607100</v>
       </c>
       <c r="E42" s="3">
-        <v>9863300</v>
+        <v>8598000</v>
       </c>
       <c r="F42" s="3">
-        <v>10005500</v>
+        <v>9929300</v>
       </c>
       <c r="G42" s="3">
-        <v>16377500</v>
+        <v>10072400</v>
       </c>
       <c r="H42" s="3">
-        <v>9471300</v>
+        <v>16487000</v>
       </c>
       <c r="I42" s="3">
-        <v>6590600</v>
+        <v>9534700</v>
       </c>
       <c r="J42" s="3">
+        <v>6634700</v>
+      </c>
+      <c r="K42" s="3">
         <v>9425000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7715700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11523500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8970500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1484400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22670900</v>
+        <v>10480000</v>
       </c>
       <c r="E43" s="3">
-        <v>10807800</v>
+        <v>10876800</v>
       </c>
       <c r="F43" s="3">
-        <v>11088800</v>
+        <v>10880000</v>
       </c>
       <c r="G43" s="3">
-        <v>11880400</v>
+        <v>11163000</v>
       </c>
       <c r="H43" s="3">
-        <v>9421800</v>
+        <v>11959800</v>
       </c>
       <c r="I43" s="3">
-        <v>8834900</v>
+        <v>9484800</v>
       </c>
       <c r="J43" s="3">
+        <v>8894000</v>
+      </c>
+      <c r="K43" s="3">
         <v>18023000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17585100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11390000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5397000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8098500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>900300</v>
+        <v>1036400</v>
       </c>
       <c r="E44" s="3">
-        <v>728000</v>
+        <v>906300</v>
       </c>
       <c r="F44" s="3">
-        <v>644000</v>
+        <v>732900</v>
       </c>
       <c r="G44" s="3">
-        <v>768900</v>
+        <v>648300</v>
       </c>
       <c r="H44" s="3">
-        <v>625700</v>
+        <v>774000</v>
       </c>
       <c r="I44" s="3">
-        <v>620300</v>
+        <v>629900</v>
       </c>
       <c r="J44" s="3">
+        <v>624400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1542100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1192500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1080400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>891200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>545300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1380600</v>
+        <v>1427800</v>
       </c>
       <c r="E45" s="3">
-        <v>1422600</v>
+        <v>1389800</v>
       </c>
       <c r="F45" s="3">
-        <v>1836100</v>
+        <v>1432100</v>
       </c>
       <c r="G45" s="3">
-        <v>1531400</v>
+        <v>1848400</v>
       </c>
       <c r="H45" s="3">
-        <v>1434400</v>
+        <v>1541600</v>
       </c>
       <c r="I45" s="3">
-        <v>1946000</v>
+        <v>1444000</v>
       </c>
       <c r="J45" s="3">
+        <v>1959000</v>
+      </c>
+      <c r="K45" s="3">
         <v>6462500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3161400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>526700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3942000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4330900</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29698700</v>
+        <v>33240700</v>
       </c>
       <c r="E46" s="3">
-        <v>29090300</v>
+        <v>29897300</v>
       </c>
       <c r="F46" s="3">
-        <v>35802600</v>
+        <v>29284800</v>
       </c>
       <c r="G46" s="3">
-        <v>42878900</v>
+        <v>36042000</v>
       </c>
       <c r="H46" s="3">
-        <v>25986700</v>
+        <v>43165600</v>
       </c>
       <c r="I46" s="3">
-        <v>27506200</v>
+        <v>26160400</v>
       </c>
       <c r="J46" s="3">
+        <v>27690100</v>
+      </c>
+      <c r="K46" s="3">
         <v>34394000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28497600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30284200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24026100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22467800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13761700</v>
+        <v>21698300</v>
       </c>
       <c r="E47" s="3">
-        <v>11169600</v>
+        <v>13853700</v>
       </c>
       <c r="F47" s="3">
-        <v>18324500</v>
+        <v>11244300</v>
       </c>
       <c r="G47" s="3">
-        <v>10760400</v>
+        <v>18447000</v>
       </c>
       <c r="H47" s="3">
-        <v>10519200</v>
+        <v>10832300</v>
       </c>
       <c r="I47" s="3">
-        <v>12024700</v>
+        <v>10589500</v>
       </c>
       <c r="J47" s="3">
+        <v>12105100</v>
+      </c>
+      <c r="K47" s="3">
         <v>11741400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13054700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8497800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>62541700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>44185100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>87883700</v>
+        <v>41187100</v>
       </c>
       <c r="E48" s="3">
-        <v>44414600</v>
+        <v>44235600</v>
       </c>
       <c r="F48" s="3">
-        <v>43197700</v>
+        <v>44711500</v>
       </c>
       <c r="G48" s="3">
-        <v>29541500</v>
+        <v>43486500</v>
       </c>
       <c r="H48" s="3">
-        <v>30503200</v>
+        <v>29739000</v>
       </c>
       <c r="I48" s="3">
-        <v>32526700</v>
+        <v>30707100</v>
       </c>
       <c r="J48" s="3">
+        <v>32744200</v>
+      </c>
+      <c r="K48" s="3">
         <v>76492200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65812200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>55984500</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20930700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>114677000</v>
+        <v>51177100</v>
       </c>
       <c r="E49" s="3">
-        <v>57666900</v>
+        <v>57721800</v>
       </c>
       <c r="F49" s="3">
-        <v>58162300</v>
+        <v>58052500</v>
       </c>
       <c r="G49" s="3">
-        <v>44158300</v>
+        <v>58551200</v>
       </c>
       <c r="H49" s="3">
-        <v>46583500</v>
+        <v>44453500</v>
       </c>
       <c r="I49" s="3">
-        <v>49774300</v>
+        <v>46894900</v>
       </c>
       <c r="J49" s="3">
+        <v>50107100</v>
+      </c>
+      <c r="K49" s="3">
         <v>126135000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>106907000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>114385000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>107136000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>66774100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22187400</v>
+        <v>21297100</v>
       </c>
       <c r="E52" s="3">
-        <v>24645900</v>
+        <v>22335700</v>
       </c>
       <c r="F52" s="3">
-        <v>25613000</v>
+        <v>24810700</v>
       </c>
       <c r="G52" s="3">
-        <v>26509000</v>
+        <v>25784200</v>
       </c>
       <c r="H52" s="3">
-        <v>43216000</v>
+        <v>26686200</v>
       </c>
       <c r="I52" s="3">
-        <v>44747300</v>
+        <v>43504900</v>
       </c>
       <c r="J52" s="3">
+        <v>45046500</v>
+      </c>
+      <c r="K52" s="3">
         <v>34662200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>34484200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25286200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3218400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2245100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>165895000</v>
+        <v>168600000</v>
       </c>
       <c r="E54" s="3">
-        <v>166987000</v>
+        <v>167005000</v>
       </c>
       <c r="F54" s="3">
-        <v>181100000</v>
+        <v>168104000</v>
       </c>
       <c r="G54" s="3">
-        <v>153848000</v>
+        <v>182311000</v>
       </c>
       <c r="H54" s="3">
-        <v>156809000</v>
+        <v>154877000</v>
       </c>
       <c r="I54" s="3">
-        <v>166579000</v>
+        <v>157857000</v>
       </c>
       <c r="J54" s="3">
+        <v>167693000</v>
+      </c>
+      <c r="K54" s="3">
         <v>182111000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>176006000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149253000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>153512000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>156603000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29106500</v>
+        <v>8663000</v>
       </c>
       <c r="E57" s="3">
-        <v>7296000</v>
+        <v>7986600</v>
       </c>
       <c r="F57" s="3">
-        <v>7265800</v>
+        <v>7344800</v>
       </c>
       <c r="G57" s="3">
-        <v>7072000</v>
+        <v>7314400</v>
       </c>
       <c r="H57" s="3">
-        <v>6689700</v>
+        <v>7119300</v>
       </c>
       <c r="I57" s="3">
-        <v>6704800</v>
+        <v>6734400</v>
       </c>
       <c r="J57" s="3">
+        <v>6749600</v>
+      </c>
+      <c r="K57" s="3">
         <v>8062800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26700000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5832200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9059300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5098300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25761600</v>
+        <v>15959000</v>
       </c>
       <c r="E58" s="3">
-        <v>9140700</v>
+        <v>12966900</v>
       </c>
       <c r="F58" s="3">
-        <v>12897000</v>
+        <v>9201800</v>
       </c>
       <c r="G58" s="3">
-        <v>4598400</v>
+        <v>12983200</v>
       </c>
       <c r="H58" s="3">
-        <v>11147000</v>
+        <v>4629100</v>
       </c>
       <c r="I58" s="3">
-        <v>12977700</v>
+        <v>11221500</v>
       </c>
       <c r="J58" s="3">
+        <v>13064500</v>
+      </c>
+      <c r="K58" s="3">
         <v>29470400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27216900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5211100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14101100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5886000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15420100</v>
+        <v>12870400</v>
       </c>
       <c r="E59" s="3">
-        <v>14482200</v>
+        <v>15523200</v>
       </c>
       <c r="F59" s="3">
-        <v>15789500</v>
+        <v>14579000</v>
       </c>
       <c r="G59" s="3">
-        <v>15815400</v>
+        <v>15895100</v>
       </c>
       <c r="H59" s="3">
-        <v>24188300</v>
+        <v>15921100</v>
       </c>
       <c r="I59" s="3">
-        <v>25966200</v>
+        <v>24350000</v>
       </c>
       <c r="J59" s="3">
+        <v>26139800</v>
+      </c>
+      <c r="K59" s="3">
         <v>20263000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16151800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24224200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17625800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15971500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36234500</v>
+        <v>37492500</v>
       </c>
       <c r="E60" s="3">
-        <v>30918900</v>
+        <v>36476700</v>
       </c>
       <c r="F60" s="3">
-        <v>35952300</v>
+        <v>31125600</v>
       </c>
       <c r="G60" s="3">
-        <v>27485700</v>
+        <v>36192700</v>
       </c>
       <c r="H60" s="3">
-        <v>42024900</v>
+        <v>27669500</v>
       </c>
       <c r="I60" s="3">
-        <v>45648700</v>
+        <v>42305900</v>
       </c>
       <c r="J60" s="3">
+        <v>45953900</v>
+      </c>
+      <c r="K60" s="3">
         <v>45482900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41494200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30672500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31483900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26955800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62601300</v>
+        <v>56014400</v>
       </c>
       <c r="E61" s="3">
-        <v>63830000</v>
+        <v>63019800</v>
       </c>
       <c r="F61" s="3">
-        <v>67789800</v>
+        <v>64256800</v>
       </c>
       <c r="G61" s="3">
-        <v>52428900</v>
+        <v>68243000</v>
       </c>
       <c r="H61" s="3">
-        <v>35139200</v>
+        <v>52779400</v>
       </c>
       <c r="I61" s="3">
-        <v>36849400</v>
+        <v>35374200</v>
       </c>
       <c r="J61" s="3">
+        <v>37095700</v>
+      </c>
+      <c r="K61" s="3">
         <v>39621300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32215400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26146200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30132200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31821900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8307200</v>
+        <v>5187400</v>
       </c>
       <c r="E62" s="3">
-        <v>9976400</v>
+        <v>5635200</v>
       </c>
       <c r="F62" s="3">
-        <v>9917200</v>
+        <v>10043100</v>
       </c>
       <c r="G62" s="3">
-        <v>5609600</v>
+        <v>9983500</v>
       </c>
       <c r="H62" s="3">
-        <v>5761400</v>
+        <v>5647100</v>
       </c>
       <c r="I62" s="3">
-        <v>4693100</v>
+        <v>5799900</v>
       </c>
       <c r="J62" s="3">
+        <v>4724500</v>
+      </c>
+      <c r="K62" s="3">
         <v>7369200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6486900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6150700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13106700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10083300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106900000</v>
+        <v>99869500</v>
       </c>
       <c r="E66" s="3">
-        <v>106892000</v>
+        <v>107614000</v>
       </c>
       <c r="F66" s="3">
-        <v>114968000</v>
+        <v>107607000</v>
       </c>
       <c r="G66" s="3">
-        <v>86845500</v>
+        <v>115736000</v>
       </c>
       <c r="H66" s="3">
-        <v>83967000</v>
+        <v>87426200</v>
       </c>
       <c r="I66" s="3">
-        <v>88827000</v>
+        <v>84528400</v>
       </c>
       <c r="J66" s="3">
+        <v>89420900</v>
+      </c>
+      <c r="K66" s="3">
         <v>92378600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81027800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62521000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74186800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70282600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,9 +3130,12 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2987,21 +3160,24 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-89136900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62998800</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-94206800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58995800</v>
+        <v>68730900</v>
       </c>
       <c r="E76" s="3">
-        <v>60095300</v>
+        <v>59390300</v>
       </c>
       <c r="F76" s="3">
-        <v>66132400</v>
+        <v>60497100</v>
       </c>
       <c r="G76" s="3">
-        <v>67002600</v>
+        <v>66574600</v>
       </c>
       <c r="H76" s="3">
-        <v>72841500</v>
+        <v>67450500</v>
       </c>
       <c r="I76" s="3">
-        <v>77752200</v>
+        <v>73328500</v>
       </c>
       <c r="J76" s="3">
+        <v>78272000</v>
+      </c>
+      <c r="K76" s="3">
         <v>89732700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94978200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>86731700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79325200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>86320300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2409000</v>
+        <v>12833600</v>
       </c>
       <c r="E81" s="3">
-        <v>120600</v>
+        <v>2425100</v>
       </c>
       <c r="F81" s="3">
-        <v>-990700</v>
+        <v>64000</v>
       </c>
       <c r="G81" s="3">
-        <v>-8636700</v>
+        <v>-997400</v>
       </c>
       <c r="H81" s="3">
-        <v>2626600</v>
+        <v>-8694500</v>
       </c>
       <c r="I81" s="3">
-        <v>-6781200</v>
+        <v>2644100</v>
       </c>
       <c r="J81" s="3">
+        <v>-6826600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-5820600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7614000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72585600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>457400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7795600</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15185400</v>
+        <v>14763300</v>
       </c>
       <c r="E83" s="3">
-        <v>15264000</v>
+        <v>15009400</v>
       </c>
       <c r="F83" s="3">
-        <v>10548200</v>
+        <v>15286900</v>
       </c>
       <c r="G83" s="3">
-        <v>11209500</v>
+        <v>15366000</v>
       </c>
       <c r="H83" s="3">
-        <v>11938500</v>
+        <v>10618800</v>
       </c>
       <c r="I83" s="3">
-        <v>12596500</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>11284400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12018300</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11529000</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>7540900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18538800</v>
+        <v>19572300</v>
       </c>
       <c r="E89" s="3">
-        <v>18715400</v>
+        <v>19601600</v>
       </c>
       <c r="F89" s="3">
-        <v>13978200</v>
+        <v>18662800</v>
       </c>
       <c r="G89" s="3">
-        <v>14645800</v>
+        <v>18840600</v>
       </c>
       <c r="H89" s="3">
-        <v>15316700</v>
+        <v>14071600</v>
       </c>
       <c r="I89" s="3">
-        <v>15438400</v>
+        <v>14743800</v>
       </c>
       <c r="J89" s="3">
+        <v>15419200</v>
+      </c>
+      <c r="K89" s="3">
         <v>13642200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13148100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7628000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9773500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11553100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5829300</v>
+        <v>-6775600</v>
       </c>
       <c r="E91" s="3">
-        <v>-5580500</v>
+        <v>-6285600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5441600</v>
+        <v>-5868200</v>
       </c>
       <c r="G91" s="3">
-        <v>-5295100</v>
+        <v>-5617800</v>
       </c>
       <c r="H91" s="3">
-        <v>-6768300</v>
+        <v>-5478000</v>
       </c>
       <c r="I91" s="3">
-        <v>-8900600</v>
+        <v>-5330500</v>
       </c>
       <c r="J91" s="3">
+        <v>-6813600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7887200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7601600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5385100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4383900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4567600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9974200</v>
+        <v>-410900</v>
       </c>
       <c r="E94" s="3">
-        <v>-8710000</v>
+        <v>-7445600</v>
       </c>
       <c r="F94" s="3">
-        <v>-9925800</v>
+        <v>-10040900</v>
       </c>
       <c r="G94" s="3">
-        <v>-10597800</v>
+        <v>-8768200</v>
       </c>
       <c r="H94" s="3">
-        <v>-9070700</v>
+        <v>-9992100</v>
       </c>
       <c r="I94" s="3">
-        <v>-14937700</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-10668600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9131400</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13735600</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>7383800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2613600</v>
+        <v>-2692900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2472600</v>
+        <v>-2682100</v>
       </c>
       <c r="F96" s="3">
-        <v>-4376500</v>
+        <v>-2631100</v>
       </c>
       <c r="G96" s="3">
-        <v>-4221400</v>
+        <v>-2489100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3999600</v>
+        <v>-4405800</v>
       </c>
       <c r="I96" s="3">
-        <v>-4510100</v>
+        <v>-4249700</v>
       </c>
       <c r="J96" s="3">
+        <v>-4026300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4047000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3900400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6218000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5323100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7453400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16364600</v>
+        <v>-14559500</v>
       </c>
       <c r="E100" s="3">
-        <v>-10071200</v>
+        <v>-10522300</v>
       </c>
       <c r="F100" s="3">
-        <v>4778200</v>
+        <v>-16474000</v>
       </c>
       <c r="G100" s="3">
-        <v>-7790300</v>
+        <v>-10138500</v>
       </c>
       <c r="H100" s="3">
-        <v>-9795500</v>
+        <v>4810200</v>
       </c>
       <c r="I100" s="3">
-        <v>4395900</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-7842400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-9861000</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3281800</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-17580500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-274600</v>
+        <v>13000</v>
       </c>
       <c r="E101" s="3">
-        <v>-275700</v>
+        <v>80200</v>
       </c>
       <c r="F101" s="3">
-        <v>11800</v>
+        <v>-276400</v>
       </c>
       <c r="G101" s="3">
-        <v>-466300</v>
+        <v>-277500</v>
       </c>
       <c r="H101" s="3">
-        <v>-337100</v>
+        <v>11900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1214700</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-469400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-339300</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1012000</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>-388200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8074600</v>
+        <v>4615000</v>
       </c>
       <c r="E102" s="3">
-        <v>-341400</v>
+        <v>1714000</v>
       </c>
       <c r="F102" s="3">
-        <v>8842400</v>
+        <v>-8128600</v>
       </c>
       <c r="G102" s="3">
-        <v>-4208500</v>
+        <v>-343700</v>
       </c>
       <c r="H102" s="3">
-        <v>-3886500</v>
+        <v>8901500</v>
       </c>
       <c r="I102" s="3">
-        <v>3681900</v>
+        <v>-4236700</v>
       </c>
       <c r="J102" s="3">
+        <v>-3912500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2964700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2857300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3192300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>559300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>968300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/VOD_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49549900</v>
+        <v>49591000</v>
       </c>
       <c r="E8" s="3">
-        <v>49413300</v>
+        <v>49454300</v>
       </c>
       <c r="F8" s="3">
-        <v>47493300</v>
+        <v>47532800</v>
       </c>
       <c r="G8" s="3">
-        <v>48756300</v>
+        <v>48796800</v>
       </c>
       <c r="H8" s="3">
-        <v>47338300</v>
+        <v>47377600</v>
       </c>
       <c r="I8" s="3">
-        <v>50487600</v>
+        <v>50529500</v>
       </c>
       <c r="J8" s="3">
-        <v>51636800</v>
+        <v>51679600</v>
       </c>
       <c r="K8" s="3">
         <v>53640400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33444500</v>
+        <v>33472300</v>
       </c>
       <c r="E9" s="3">
-        <v>33145300</v>
+        <v>33172800</v>
       </c>
       <c r="F9" s="3">
-        <v>32616200</v>
+        <v>32643300</v>
       </c>
       <c r="G9" s="3">
-        <v>33262400</v>
+        <v>33290000</v>
       </c>
       <c r="H9" s="3">
-        <v>32696500</v>
+        <v>32723600</v>
       </c>
       <c r="I9" s="3">
-        <v>35527000</v>
+        <v>35556500</v>
       </c>
       <c r="J9" s="3">
-        <v>37483800</v>
+        <v>37515000</v>
       </c>
       <c r="K9" s="3">
         <v>39536200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16105400</v>
+        <v>16118800</v>
       </c>
       <c r="E10" s="3">
-        <v>16268000</v>
+        <v>16281500</v>
       </c>
       <c r="F10" s="3">
-        <v>14877100</v>
+        <v>14889500</v>
       </c>
       <c r="G10" s="3">
-        <v>15494000</v>
+        <v>15506800</v>
       </c>
       <c r="H10" s="3">
-        <v>14641900</v>
+        <v>14654000</v>
       </c>
       <c r="I10" s="3">
-        <v>14960600</v>
+        <v>14973000</v>
       </c>
       <c r="J10" s="3">
-        <v>14152900</v>
+        <v>14164700</v>
       </c>
       <c r="K10" s="3">
         <v>14104200</v>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-9933600</v>
+        <v>-9941900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -963,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1826700</v>
+        <v>1828200</v>
       </c>
       <c r="H14" s="3">
-        <v>3821500</v>
+        <v>3824600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-1382200</v>
+        <v>-1383400</v>
       </c>
       <c r="K14" s="3">
         <v>612800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34051600</v>
+        <v>34079900</v>
       </c>
       <c r="E17" s="3">
-        <v>43111400</v>
+        <v>43147200</v>
       </c>
       <c r="F17" s="3">
-        <v>41933000</v>
+        <v>41967800</v>
       </c>
       <c r="G17" s="3">
-        <v>44312600</v>
+        <v>44349400</v>
       </c>
       <c r="H17" s="3">
-        <v>48369300</v>
+        <v>48409400</v>
       </c>
       <c r="I17" s="3">
-        <v>45827100</v>
+        <v>45865100</v>
       </c>
       <c r="J17" s="3">
-        <v>47598500</v>
+        <v>47638000</v>
       </c>
       <c r="K17" s="3">
         <v>52218900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15498300</v>
+        <v>15511200</v>
       </c>
       <c r="E18" s="3">
-        <v>6301900</v>
+        <v>6307100</v>
       </c>
       <c r="F18" s="3">
-        <v>5560300</v>
+        <v>5565000</v>
       </c>
       <c r="G18" s="3">
-        <v>4443700</v>
+        <v>4447400</v>
       </c>
       <c r="H18" s="3">
-        <v>-1031000</v>
+        <v>-1031800</v>
       </c>
       <c r="I18" s="3">
-        <v>4660500</v>
+        <v>4664400</v>
       </c>
       <c r="J18" s="3">
-        <v>4038300</v>
+        <v>4041600</v>
       </c>
       <c r="K18" s="3">
         <v>1421500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1189300</v>
+        <v>1190200</v>
       </c>
       <c r="E20" s="3">
-        <v>762100</v>
+        <v>762800</v>
       </c>
       <c r="F20" s="3">
-        <v>1926400</v>
+        <v>1928000</v>
       </c>
       <c r="G20" s="3">
-        <v>-583200</v>
+        <v>-583700</v>
       </c>
       <c r="H20" s="3">
         <v>-51000</v>
       </c>
       <c r="I20" s="3">
-        <v>730700</v>
+        <v>731300</v>
       </c>
       <c r="J20" s="3">
-        <v>279700</v>
+        <v>279900</v>
       </c>
       <c r="K20" s="3">
         <v>-596600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31450800</v>
+        <v>31471500</v>
       </c>
       <c r="E21" s="3">
-        <v>22073400</v>
+        <v>22086100</v>
       </c>
       <c r="F21" s="3">
-        <v>22773700</v>
+        <v>22787000</v>
       </c>
       <c r="G21" s="3">
-        <v>19226500</v>
+        <v>19236800</v>
       </c>
       <c r="H21" s="3">
-        <v>9536800</v>
+        <v>9540800</v>
       </c>
       <c r="I21" s="3">
-        <v>16675600</v>
+        <v>16685300</v>
       </c>
       <c r="J21" s="3">
-        <v>16336300</v>
+        <v>16345400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2793700</v>
+        <v>2796000</v>
       </c>
       <c r="E22" s="3">
-        <v>2615900</v>
+        <v>2618100</v>
       </c>
       <c r="F22" s="3">
-        <v>2774200</v>
+        <v>2776500</v>
       </c>
       <c r="G22" s="3">
-        <v>2998600</v>
+        <v>3001100</v>
       </c>
       <c r="H22" s="3">
-        <v>1750800</v>
+        <v>1752300</v>
       </c>
       <c r="I22" s="3">
-        <v>1187100</v>
+        <v>1188100</v>
       </c>
       <c r="J22" s="3">
-        <v>1291200</v>
+        <v>1292200</v>
       </c>
       <c r="K22" s="3">
         <v>1029500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13893800</v>
+        <v>13905400</v>
       </c>
       <c r="E23" s="3">
-        <v>4448100</v>
+        <v>4451800</v>
       </c>
       <c r="F23" s="3">
-        <v>4712600</v>
+        <v>4716500</v>
       </c>
       <c r="G23" s="3">
-        <v>861900</v>
+        <v>862600</v>
       </c>
       <c r="H23" s="3">
-        <v>-2832800</v>
+        <v>-2835100</v>
       </c>
       <c r="I23" s="3">
-        <v>4204100</v>
+        <v>4207600</v>
       </c>
       <c r="J23" s="3">
-        <v>3026800</v>
+        <v>3029300</v>
       </c>
       <c r="K23" s="3">
         <v>-204600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>521500</v>
+        <v>521900</v>
       </c>
       <c r="E24" s="3">
-        <v>1441900</v>
+        <v>1443100</v>
       </c>
       <c r="F24" s="3">
-        <v>4189000</v>
+        <v>4192400</v>
       </c>
       <c r="G24" s="3">
-        <v>1355100</v>
+        <v>1356300</v>
       </c>
       <c r="H24" s="3">
-        <v>1621800</v>
+        <v>1623200</v>
       </c>
       <c r="I24" s="3">
-        <v>-952900</v>
+        <v>-953700</v>
       </c>
       <c r="J24" s="3">
-        <v>5164700</v>
+        <v>5168900</v>
       </c>
       <c r="K24" s="3">
         <v>5316700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13372400</v>
+        <v>13383500</v>
       </c>
       <c r="E26" s="3">
-        <v>3006200</v>
+        <v>3008700</v>
       </c>
       <c r="F26" s="3">
-        <v>523600</v>
+        <v>524100</v>
       </c>
       <c r="G26" s="3">
-        <v>-493300</v>
+        <v>-493700</v>
       </c>
       <c r="H26" s="3">
-        <v>-4454600</v>
+        <v>-4458300</v>
       </c>
       <c r="I26" s="3">
-        <v>5157100</v>
+        <v>5161300</v>
       </c>
       <c r="J26" s="3">
-        <v>-2137800</v>
+        <v>-2139600</v>
       </c>
       <c r="K26" s="3">
         <v>-5521300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12833600</v>
+        <v>12844200</v>
       </c>
       <c r="E27" s="3">
-        <v>2425100</v>
+        <v>2427100</v>
       </c>
       <c r="F27" s="3">
         <v>64000</v>
       </c>
       <c r="G27" s="3">
-        <v>-997400</v>
+        <v>-998200</v>
       </c>
       <c r="H27" s="3">
-        <v>-4862200</v>
+        <v>-4866200</v>
       </c>
       <c r="I27" s="3">
-        <v>4778700</v>
+        <v>4782700</v>
       </c>
       <c r="J27" s="3">
-        <v>-2374200</v>
+        <v>-2376200</v>
       </c>
       <c r="K27" s="3">
         <v>-5826000</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-3832300</v>
+        <v>-3835500</v>
       </c>
       <c r="I29" s="3">
-        <v>-2134600</v>
+        <v>-2136400</v>
       </c>
       <c r="J29" s="3">
-        <v>-4452400</v>
+        <v>-4456100</v>
       </c>
       <c r="K29" s="3">
         <v>5400</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1189300</v>
+        <v>-1190200</v>
       </c>
       <c r="E32" s="3">
-        <v>-762100</v>
+        <v>-762800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1926400</v>
+        <v>-1928000</v>
       </c>
       <c r="G32" s="3">
-        <v>583200</v>
+        <v>583700</v>
       </c>
       <c r="H32" s="3">
         <v>51000</v>
       </c>
       <c r="I32" s="3">
-        <v>-730700</v>
+        <v>-731300</v>
       </c>
       <c r="J32" s="3">
-        <v>-279700</v>
+        <v>-279900</v>
       </c>
       <c r="K32" s="3">
         <v>596600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12833600</v>
+        <v>12844200</v>
       </c>
       <c r="E33" s="3">
-        <v>2425100</v>
+        <v>2427100</v>
       </c>
       <c r="F33" s="3">
         <v>64000</v>
       </c>
       <c r="G33" s="3">
-        <v>-997400</v>
+        <v>-998200</v>
       </c>
       <c r="H33" s="3">
-        <v>-8694500</v>
+        <v>-8701700</v>
       </c>
       <c r="I33" s="3">
-        <v>2644100</v>
+        <v>2646300</v>
       </c>
       <c r="J33" s="3">
-        <v>-6826600</v>
+        <v>-6832200</v>
       </c>
       <c r="K33" s="3">
         <v>-5820600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12833600</v>
+        <v>12844200</v>
       </c>
       <c r="E35" s="3">
-        <v>2425100</v>
+        <v>2427100</v>
       </c>
       <c r="F35" s="3">
         <v>64000</v>
       </c>
       <c r="G35" s="3">
-        <v>-997400</v>
+        <v>-998200</v>
       </c>
       <c r="H35" s="3">
-        <v>-8694500</v>
+        <v>-8701700</v>
       </c>
       <c r="I35" s="3">
-        <v>2644100</v>
+        <v>2646300</v>
       </c>
       <c r="J35" s="3">
-        <v>-6826600</v>
+        <v>-6832200</v>
       </c>
       <c r="K35" s="3">
         <v>-5820600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12689400</v>
+        <v>10801200</v>
       </c>
       <c r="E41" s="3">
-        <v>8126400</v>
+        <v>10541900</v>
       </c>
       <c r="F41" s="3">
-        <v>6310500</v>
+        <v>6315800</v>
       </c>
       <c r="G41" s="3">
-        <v>12310000</v>
+        <v>12320200</v>
       </c>
       <c r="H41" s="3">
-        <v>12403200</v>
+        <v>12413500</v>
       </c>
       <c r="I41" s="3">
-        <v>5067100</v>
+        <v>5071300</v>
       </c>
       <c r="J41" s="3">
-        <v>9578000</v>
+        <v>9586000</v>
       </c>
       <c r="K41" s="3">
         <v>24153800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7607100</v>
+        <v>9512200</v>
       </c>
       <c r="E42" s="3">
-        <v>8598000</v>
+        <v>8605100</v>
       </c>
       <c r="F42" s="3">
-        <v>9929300</v>
+        <v>9937500</v>
       </c>
       <c r="G42" s="3">
-        <v>10072400</v>
+        <v>10080700</v>
       </c>
       <c r="H42" s="3">
-        <v>16487000</v>
+        <v>16500700</v>
       </c>
       <c r="I42" s="3">
-        <v>9534700</v>
+        <v>9542600</v>
       </c>
       <c r="J42" s="3">
-        <v>6634700</v>
+        <v>6640200</v>
       </c>
       <c r="K42" s="3">
         <v>9425000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10480000</v>
+        <v>10488700</v>
       </c>
       <c r="E43" s="3">
-        <v>10876800</v>
+        <v>10885800</v>
       </c>
       <c r="F43" s="3">
-        <v>10880000</v>
+        <v>10889100</v>
       </c>
       <c r="G43" s="3">
-        <v>11163000</v>
+        <v>11172200</v>
       </c>
       <c r="H43" s="3">
-        <v>11959800</v>
+        <v>11969700</v>
       </c>
       <c r="I43" s="3">
-        <v>9484800</v>
+        <v>9492700</v>
       </c>
       <c r="J43" s="3">
-        <v>8894000</v>
+        <v>8901300</v>
       </c>
       <c r="K43" s="3">
         <v>18023000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1036400</v>
+        <v>1037300</v>
       </c>
       <c r="E44" s="3">
-        <v>906300</v>
+        <v>907100</v>
       </c>
       <c r="F44" s="3">
-        <v>732900</v>
+        <v>733500</v>
       </c>
       <c r="G44" s="3">
-        <v>648300</v>
+        <v>648800</v>
       </c>
       <c r="H44" s="3">
-        <v>774000</v>
+        <v>774700</v>
       </c>
       <c r="I44" s="3">
-        <v>629900</v>
+        <v>630400</v>
       </c>
       <c r="J44" s="3">
-        <v>624400</v>
+        <v>625000</v>
       </c>
       <c r="K44" s="3">
         <v>1542100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1427800</v>
+        <v>1428900</v>
       </c>
       <c r="E45" s="3">
-        <v>1389800</v>
+        <v>1391000</v>
       </c>
       <c r="F45" s="3">
-        <v>1432100</v>
+        <v>1433300</v>
       </c>
       <c r="G45" s="3">
-        <v>1848400</v>
+        <v>1849900</v>
       </c>
       <c r="H45" s="3">
-        <v>1541600</v>
+        <v>1542900</v>
       </c>
       <c r="I45" s="3">
-        <v>1444000</v>
+        <v>1445200</v>
       </c>
       <c r="J45" s="3">
-        <v>1959000</v>
+        <v>1960600</v>
       </c>
       <c r="K45" s="3">
         <v>6462500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33240700</v>
+        <v>33268300</v>
       </c>
       <c r="E46" s="3">
-        <v>29897300</v>
+        <v>29922100</v>
       </c>
       <c r="F46" s="3">
-        <v>29284800</v>
+        <v>29309100</v>
       </c>
       <c r="G46" s="3">
-        <v>36042000</v>
+        <v>36071900</v>
       </c>
       <c r="H46" s="3">
-        <v>43165600</v>
+        <v>43201400</v>
       </c>
       <c r="I46" s="3">
-        <v>26160400</v>
+        <v>26182100</v>
       </c>
       <c r="J46" s="3">
-        <v>27690100</v>
+        <v>27713100</v>
       </c>
       <c r="K46" s="3">
         <v>34394000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21698300</v>
+        <v>21716300</v>
       </c>
       <c r="E47" s="3">
-        <v>13853700</v>
+        <v>13865200</v>
       </c>
       <c r="F47" s="3">
-        <v>11244300</v>
+        <v>11253600</v>
       </c>
       <c r="G47" s="3">
-        <v>18447000</v>
+        <v>18462400</v>
       </c>
       <c r="H47" s="3">
-        <v>10832300</v>
+        <v>10841300</v>
       </c>
       <c r="I47" s="3">
-        <v>10589500</v>
+        <v>10598300</v>
       </c>
       <c r="J47" s="3">
-        <v>12105100</v>
+        <v>12115100</v>
       </c>
       <c r="K47" s="3">
         <v>11741400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41187100</v>
+        <v>41221300</v>
       </c>
       <c r="E48" s="3">
-        <v>44235600</v>
+        <v>44272300</v>
       </c>
       <c r="F48" s="3">
-        <v>44711500</v>
+        <v>44748700</v>
       </c>
       <c r="G48" s="3">
-        <v>43486500</v>
+        <v>43522600</v>
       </c>
       <c r="H48" s="3">
-        <v>29739000</v>
+        <v>29763700</v>
       </c>
       <c r="I48" s="3">
-        <v>30707100</v>
+        <v>30732600</v>
       </c>
       <c r="J48" s="3">
-        <v>32744200</v>
+        <v>32771300</v>
       </c>
       <c r="K48" s="3">
         <v>76492200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>51177100</v>
+        <v>51219600</v>
       </c>
       <c r="E49" s="3">
-        <v>57721800</v>
+        <v>57769700</v>
       </c>
       <c r="F49" s="3">
-        <v>58052500</v>
+        <v>58100700</v>
       </c>
       <c r="G49" s="3">
-        <v>58551200</v>
+        <v>58599800</v>
       </c>
       <c r="H49" s="3">
-        <v>44453500</v>
+        <v>44490400</v>
       </c>
       <c r="I49" s="3">
-        <v>46894900</v>
+        <v>46933800</v>
       </c>
       <c r="J49" s="3">
-        <v>50107100</v>
+        <v>50148700</v>
       </c>
       <c r="K49" s="3">
         <v>126135000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21297100</v>
+        <v>21314800</v>
       </c>
       <c r="E52" s="3">
-        <v>22335700</v>
+        <v>22354300</v>
       </c>
       <c r="F52" s="3">
-        <v>24810700</v>
+        <v>24831300</v>
       </c>
       <c r="G52" s="3">
-        <v>25784200</v>
+        <v>25805600</v>
       </c>
       <c r="H52" s="3">
-        <v>26686200</v>
+        <v>26708400</v>
       </c>
       <c r="I52" s="3">
-        <v>43504900</v>
+        <v>43541000</v>
       </c>
       <c r="J52" s="3">
-        <v>45046500</v>
+        <v>45083900</v>
       </c>
       <c r="K52" s="3">
         <v>34662200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>168600000</v>
+        <v>168740000</v>
       </c>
       <c r="E54" s="3">
-        <v>167005000</v>
+        <v>167143000</v>
       </c>
       <c r="F54" s="3">
-        <v>168104000</v>
+        <v>168243000</v>
       </c>
       <c r="G54" s="3">
-        <v>182311000</v>
+        <v>182462000</v>
       </c>
       <c r="H54" s="3">
-        <v>154877000</v>
+        <v>155005000</v>
       </c>
       <c r="I54" s="3">
-        <v>157857000</v>
+        <v>157988000</v>
       </c>
       <c r="J54" s="3">
-        <v>167693000</v>
+        <v>167832000</v>
       </c>
       <c r="K54" s="3">
         <v>182111000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8663000</v>
+        <v>8670200</v>
       </c>
       <c r="E57" s="3">
-        <v>7986600</v>
+        <v>7993200</v>
       </c>
       <c r="F57" s="3">
-        <v>7344800</v>
+        <v>7350900</v>
       </c>
       <c r="G57" s="3">
-        <v>7314400</v>
+        <v>7320500</v>
       </c>
       <c r="H57" s="3">
-        <v>7119300</v>
+        <v>7125200</v>
       </c>
       <c r="I57" s="3">
-        <v>6734400</v>
+        <v>6740000</v>
       </c>
       <c r="J57" s="3">
-        <v>6749600</v>
+        <v>6755200</v>
       </c>
       <c r="K57" s="3">
         <v>8062800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15959000</v>
+        <v>15972300</v>
       </c>
       <c r="E58" s="3">
-        <v>12966900</v>
+        <v>12977700</v>
       </c>
       <c r="F58" s="3">
-        <v>9201800</v>
+        <v>9209500</v>
       </c>
       <c r="G58" s="3">
-        <v>12983200</v>
+        <v>12994000</v>
       </c>
       <c r="H58" s="3">
-        <v>4629100</v>
+        <v>4632900</v>
       </c>
       <c r="I58" s="3">
-        <v>11221500</v>
+        <v>11230800</v>
       </c>
       <c r="J58" s="3">
-        <v>13064500</v>
+        <v>13075300</v>
       </c>
       <c r="K58" s="3">
         <v>29470400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12870400</v>
+        <v>12881100</v>
       </c>
       <c r="E59" s="3">
-        <v>15523200</v>
+        <v>15536100</v>
       </c>
       <c r="F59" s="3">
-        <v>14579000</v>
+        <v>14591100</v>
       </c>
       <c r="G59" s="3">
-        <v>15895100</v>
+        <v>15908300</v>
       </c>
       <c r="H59" s="3">
-        <v>15921100</v>
+        <v>15934300</v>
       </c>
       <c r="I59" s="3">
-        <v>24350000</v>
+        <v>24370200</v>
       </c>
       <c r="J59" s="3">
-        <v>26139800</v>
+        <v>26161500</v>
       </c>
       <c r="K59" s="3">
         <v>20263000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37492500</v>
+        <v>37523600</v>
       </c>
       <c r="E60" s="3">
-        <v>36476700</v>
+        <v>36507000</v>
       </c>
       <c r="F60" s="3">
-        <v>31125600</v>
+        <v>31151400</v>
       </c>
       <c r="G60" s="3">
-        <v>36192700</v>
+        <v>36222700</v>
       </c>
       <c r="H60" s="3">
-        <v>27669500</v>
+        <v>27692500</v>
       </c>
       <c r="I60" s="3">
-        <v>42305900</v>
+        <v>42341000</v>
       </c>
       <c r="J60" s="3">
-        <v>45953900</v>
+        <v>45992100</v>
       </c>
       <c r="K60" s="3">
         <v>45482900</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56014400</v>
+        <v>56060900</v>
       </c>
       <c r="E61" s="3">
-        <v>63019800</v>
+        <v>63072100</v>
       </c>
       <c r="F61" s="3">
-        <v>64256800</v>
+        <v>64310100</v>
       </c>
       <c r="G61" s="3">
-        <v>68243000</v>
+        <v>68299700</v>
       </c>
       <c r="H61" s="3">
-        <v>52779400</v>
+        <v>52823200</v>
       </c>
       <c r="I61" s="3">
-        <v>35374200</v>
+        <v>35403500</v>
       </c>
       <c r="J61" s="3">
-        <v>37095700</v>
+        <v>37126500</v>
       </c>
       <c r="K61" s="3">
         <v>39621300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5187400</v>
+        <v>5191700</v>
       </c>
       <c r="E62" s="3">
-        <v>5635200</v>
+        <v>5639800</v>
       </c>
       <c r="F62" s="3">
-        <v>10043100</v>
+        <v>10051400</v>
       </c>
       <c r="G62" s="3">
-        <v>9983500</v>
+        <v>9991800</v>
       </c>
       <c r="H62" s="3">
-        <v>5647100</v>
+        <v>5651800</v>
       </c>
       <c r="I62" s="3">
-        <v>5799900</v>
+        <v>5804800</v>
       </c>
       <c r="J62" s="3">
-        <v>4724500</v>
+        <v>4728400</v>
       </c>
       <c r="K62" s="3">
         <v>7369200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99869500</v>
+        <v>99952400</v>
       </c>
       <c r="E66" s="3">
-        <v>107614000</v>
+        <v>107704000</v>
       </c>
       <c r="F66" s="3">
-        <v>107607000</v>
+        <v>107696000</v>
       </c>
       <c r="G66" s="3">
-        <v>115736000</v>
+        <v>115832000</v>
       </c>
       <c r="H66" s="3">
-        <v>87426200</v>
+        <v>87498700</v>
       </c>
       <c r="I66" s="3">
-        <v>84528400</v>
+        <v>84598500</v>
       </c>
       <c r="J66" s="3">
-        <v>89420900</v>
+        <v>89495100</v>
       </c>
       <c r="K66" s="3">
         <v>92378600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68730900</v>
+        <v>68787900</v>
       </c>
       <c r="E76" s="3">
-        <v>59390300</v>
+        <v>59439600</v>
       </c>
       <c r="F76" s="3">
-        <v>60497100</v>
+        <v>60547300</v>
       </c>
       <c r="G76" s="3">
-        <v>66574600</v>
+        <v>66629800</v>
       </c>
       <c r="H76" s="3">
-        <v>67450500</v>
+        <v>67506500</v>
       </c>
       <c r="I76" s="3">
-        <v>73328500</v>
+        <v>73389400</v>
       </c>
       <c r="J76" s="3">
-        <v>78272000</v>
+        <v>78337000</v>
       </c>
       <c r="K76" s="3">
         <v>89732700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12833600</v>
+        <v>12844200</v>
       </c>
       <c r="E81" s="3">
-        <v>2425100</v>
+        <v>2427100</v>
       </c>
       <c r="F81" s="3">
         <v>64000</v>
       </c>
       <c r="G81" s="3">
-        <v>-997400</v>
+        <v>-998200</v>
       </c>
       <c r="H81" s="3">
-        <v>-8694500</v>
+        <v>-8701700</v>
       </c>
       <c r="I81" s="3">
-        <v>2644100</v>
+        <v>2646300</v>
       </c>
       <c r="J81" s="3">
-        <v>-6826600</v>
+        <v>-6832200</v>
       </c>
       <c r="K81" s="3">
         <v>-5820600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14763300</v>
+        <v>14775500</v>
       </c>
       <c r="E83" s="3">
-        <v>15009400</v>
+        <v>15021800</v>
       </c>
       <c r="F83" s="3">
-        <v>15286900</v>
+        <v>15299600</v>
       </c>
       <c r="G83" s="3">
-        <v>15366000</v>
+        <v>15378800</v>
       </c>
       <c r="H83" s="3">
-        <v>10618800</v>
+        <v>10627600</v>
       </c>
       <c r="I83" s="3">
-        <v>11284400</v>
+        <v>11293800</v>
       </c>
       <c r="J83" s="3">
-        <v>12018300</v>
+        <v>12028300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19572300</v>
+        <v>19588600</v>
       </c>
       <c r="E89" s="3">
-        <v>19601600</v>
+        <v>19617900</v>
       </c>
       <c r="F89" s="3">
-        <v>18662800</v>
+        <v>18678300</v>
       </c>
       <c r="G89" s="3">
-        <v>18840600</v>
+        <v>18856200</v>
       </c>
       <c r="H89" s="3">
-        <v>14071600</v>
+        <v>14083300</v>
       </c>
       <c r="I89" s="3">
-        <v>14743800</v>
+        <v>14756000</v>
       </c>
       <c r="J89" s="3">
-        <v>15419200</v>
+        <v>15432000</v>
       </c>
       <c r="K89" s="3">
         <v>13642200</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6775600</v>
+        <v>-6781300</v>
       </c>
       <c r="E91" s="3">
-        <v>-6285600</v>
+        <v>-6290800</v>
       </c>
       <c r="F91" s="3">
-        <v>-5868200</v>
+        <v>-5873100</v>
       </c>
       <c r="G91" s="3">
-        <v>-5617800</v>
+        <v>-5622500</v>
       </c>
       <c r="H91" s="3">
-        <v>-5478000</v>
+        <v>-5482500</v>
       </c>
       <c r="I91" s="3">
-        <v>-5330500</v>
+        <v>-5334900</v>
       </c>
       <c r="J91" s="3">
-        <v>-6813600</v>
+        <v>-6819200</v>
       </c>
       <c r="K91" s="3">
         <v>-7887200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-410900</v>
+        <v>-411200</v>
       </c>
       <c r="E94" s="3">
-        <v>-7445600</v>
+        <v>-7451800</v>
       </c>
       <c r="F94" s="3">
-        <v>-10040900</v>
+        <v>-10049300</v>
       </c>
       <c r="G94" s="3">
-        <v>-8768200</v>
+        <v>-8775500</v>
       </c>
       <c r="H94" s="3">
-        <v>-9992100</v>
+        <v>-10000400</v>
       </c>
       <c r="I94" s="3">
-        <v>-10668600</v>
+        <v>-10677500</v>
       </c>
       <c r="J94" s="3">
-        <v>-9131400</v>
+        <v>-9139000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2692900</v>
+        <v>-2695100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2682100</v>
+        <v>-2684300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2631100</v>
+        <v>-2633300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2489100</v>
+        <v>-2491200</v>
       </c>
       <c r="H96" s="3">
-        <v>-4405800</v>
+        <v>-4409400</v>
       </c>
       <c r="I96" s="3">
-        <v>-4249700</v>
+        <v>-4253200</v>
       </c>
       <c r="J96" s="3">
-        <v>-4026300</v>
+        <v>-4029700</v>
       </c>
       <c r="K96" s="3">
         <v>-4047000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14559500</v>
+        <v>-14571600</v>
       </c>
       <c r="E100" s="3">
-        <v>-10522300</v>
+        <v>-10531000</v>
       </c>
       <c r="F100" s="3">
-        <v>-16474000</v>
+        <v>-16487700</v>
       </c>
       <c r="G100" s="3">
-        <v>-10138500</v>
+        <v>-10146900</v>
       </c>
       <c r="H100" s="3">
-        <v>4810200</v>
+        <v>4814100</v>
       </c>
       <c r="I100" s="3">
-        <v>-7842400</v>
+        <v>-7848900</v>
       </c>
       <c r="J100" s="3">
-        <v>-9861000</v>
+        <v>-9869200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4210,22 +4210,22 @@
         <v>13000</v>
       </c>
       <c r="E101" s="3">
-        <v>80200</v>
+        <v>80300</v>
       </c>
       <c r="F101" s="3">
-        <v>-276400</v>
+        <v>-276700</v>
       </c>
       <c r="G101" s="3">
-        <v>-277500</v>
+        <v>-277800</v>
       </c>
       <c r="H101" s="3">
         <v>11900</v>
       </c>
       <c r="I101" s="3">
-        <v>-469400</v>
+        <v>-469800</v>
       </c>
       <c r="J101" s="3">
-        <v>-339300</v>
+        <v>-339600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4615000</v>
+        <v>4618800</v>
       </c>
       <c r="E102" s="3">
-        <v>1714000</v>
+        <v>1715400</v>
       </c>
       <c r="F102" s="3">
-        <v>-8128600</v>
+        <v>-8135300</v>
       </c>
       <c r="G102" s="3">
-        <v>-343700</v>
+        <v>-343900</v>
       </c>
       <c r="H102" s="3">
-        <v>8901500</v>
+        <v>8908900</v>
       </c>
       <c r="I102" s="3">
-        <v>-4236700</v>
+        <v>-4240200</v>
       </c>
       <c r="J102" s="3">
-        <v>-3912500</v>
+        <v>-3915800</v>
       </c>
       <c r="K102" s="3">
         <v>-2964700</v>
